--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="900" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="7" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="TV" sheetId="12" r:id="rId16"/>
     <sheet name="Sheet1" sheetId="22" r:id="rId17"/>
     <sheet name="Sheet2" sheetId="23" r:id="rId18"/>
+    <sheet name="Sheet3" sheetId="24" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="189">
   <si>
     <t>Full Name</t>
   </si>
@@ -689,9 +690,6 @@
     <t>Ad Package  Advance $15.00</t>
   </si>
   <si>
-    <t>Ad Product Limit    3</t>
-  </si>
-  <si>
     <t>Monthly Subscription</t>
   </si>
   <si>
@@ -739,6 +737,27 @@
   <si>
     <t>Note : All extra subscription and ad packages are based on 28 days subscription</t>
   </si>
+  <si>
+    <t>Edit Product</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Sellers current page</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
 </sst>
 </file>
 
@@ -748,7 +767,7 @@
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="77">
+  <fonts count="80">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,6 +1348,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1410,7 +1451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1941,6 +1982,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1950,7 +2002,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2721,6 +2773,33 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -12977,6 +13056,115 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>645974</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>460575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:lum bright="-30000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="41988" t="-18899" r="49224" b="5505"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18564224" y="14897100"/>
+          <a:ext cx="388800" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27441525" y="14944725"/>
+          <a:ext cx="1733550" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>LOGOUT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14240,82 +14428,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="1019175"/>
-          <a:ext cx="4676775" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Search Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -14371,16 +14483,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:rowOff>211930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>148800</xdr:colOff>
+      <xdr:colOff>113081</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>571650</xdr:rowOff>
+      <xdr:rowOff>619123</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14389,8 +14501,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11382375" y="1028700"/>
-          <a:ext cx="1568025" cy="324000"/>
+          <a:off x="10858500" y="997743"/>
+          <a:ext cx="2006175" cy="407193"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14426,155 +14538,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
+            <a:rPr lang="en-GB" sz="1400" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Join as Seller</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>256650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9753600" y="1019175"/>
-          <a:ext cx="1475850" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Login</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>552599</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3248024" y="1009649"/>
-          <a:ext cx="1533526" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Categories  </a:t>
+            <a:t>LOGOUT</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14626,658 +14595,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4333874" y="1028699"/>
-          <a:ext cx="342901" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638174" y="485774"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Choose Platform</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1828799" y="476249"/>
-          <a:ext cx="295276" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2457449" y="485774"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Brand Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>276224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3581399" y="466724"/>
-          <a:ext cx="238126" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>537749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9201149" y="476249"/>
-          <a:ext cx="1962151" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="464B51"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Download App</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>566324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305299" y="504824"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Of The Day</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>585374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800724" y="523874"/>
-          <a:ext cx="1514476" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Deal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>323849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>575849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458074" y="514349"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Ending Soon</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>550069</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>240505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6673</xdr:colOff>
+      <xdr:colOff>423392</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>528225</xdr:rowOff>
+      <xdr:rowOff>492505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15301,61 +14630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="1057275"/>
-          <a:ext cx="2921323" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>364200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>554700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9220200" y="1047750"/>
-          <a:ext cx="288000" cy="288000"/>
+          <a:off x="550069" y="1026318"/>
+          <a:ext cx="2909417" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -40475,10 +39751,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AE48"/>
+  <dimension ref="B1:AH56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="X37" workbookViewId="0">
-      <selection activeCell="X42" sqref="X42:AF45"/>
+    <sheetView showGridLines="0" topLeftCell="U44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55:W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -40494,10 +39770,11 @@
     <col min="16" max="16" width="3.140625" style="176" customWidth="1"/>
     <col min="17" max="23" width="9.140625" style="176"/>
     <col min="24" max="24" width="3.28515625" style="176" customWidth="1"/>
-    <col min="25" max="31" width="24" style="176" customWidth="1"/>
-    <col min="32" max="32" width="2.85546875" style="176" customWidth="1"/>
-    <col min="33" max="34" width="24" style="176" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="176"/>
+    <col min="25" max="25" width="13.140625" style="176" customWidth="1"/>
+    <col min="26" max="34" width="17.5703125" style="176" customWidth="1"/>
+    <col min="35" max="35" width="2.85546875" style="176" customWidth="1"/>
+    <col min="36" max="37" width="24" style="176" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="176"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -40936,7 +40213,7 @@
       <c r="G32" s="175"/>
       <c r="H32" s="175"/>
     </row>
-    <row r="33" spans="2:31">
+    <row r="33" spans="2:34">
       <c r="B33" s="175"/>
       <c r="C33" s="175"/>
       <c r="D33" s="175"/>
@@ -40945,7 +40222,7 @@
       <c r="G33" s="175"/>
       <c r="H33" s="175"/>
     </row>
-    <row r="34" spans="2:31">
+    <row r="34" spans="2:34">
       <c r="B34" s="175"/>
       <c r="C34" s="175"/>
       <c r="D34" s="175"/>
@@ -40954,7 +40231,7 @@
       <c r="G34" s="175"/>
       <c r="H34" s="175"/>
     </row>
-    <row r="36" spans="2:31">
+    <row r="36" spans="2:34">
       <c r="X36" s="199"/>
       <c r="Y36" s="199"/>
       <c r="Z36" s="199"/>
@@ -40962,8 +40239,12 @@
       <c r="AB36" s="199"/>
       <c r="AC36" s="199"/>
       <c r="AD36" s="199"/>
-    </row>
-    <row r="37" spans="2:31">
+      <c r="AE36" s="199"/>
+      <c r="AF36" s="199"/>
+      <c r="AG36" s="199"/>
+      <c r="AH36" s="199"/>
+    </row>
+    <row r="37" spans="2:34">
       <c r="X37" s="199"/>
       <c r="Y37" s="199"/>
       <c r="Z37" s="199"/>
@@ -40971,8 +40252,12 @@
       <c r="AB37" s="199"/>
       <c r="AC37" s="199"/>
       <c r="AD37" s="199"/>
-    </row>
-    <row r="38" spans="2:31">
+      <c r="AE37" s="199"/>
+      <c r="AF37" s="199"/>
+      <c r="AG37" s="199"/>
+      <c r="AH37" s="199"/>
+    </row>
+    <row r="38" spans="2:34">
       <c r="X38" s="199"/>
       <c r="Y38" s="199"/>
       <c r="Z38" s="199"/>
@@ -40980,8 +40265,12 @@
       <c r="AB38" s="199"/>
       <c r="AC38" s="199"/>
       <c r="AD38" s="199"/>
-    </row>
-    <row r="39" spans="2:31">
+      <c r="AE38" s="199"/>
+      <c r="AF38" s="199"/>
+      <c r="AG38" s="199"/>
+      <c r="AH38" s="199"/>
+    </row>
+    <row r="39" spans="2:34">
       <c r="X39" s="199"/>
       <c r="Y39" s="199"/>
       <c r="Z39" s="199"/>
@@ -40989,8 +40278,12 @@
       <c r="AB39" s="199"/>
       <c r="AC39" s="199"/>
       <c r="AD39" s="199"/>
-    </row>
-    <row r="40" spans="2:31">
+      <c r="AE39" s="199"/>
+      <c r="AF39" s="199"/>
+      <c r="AG39" s="199"/>
+      <c r="AH39" s="199"/>
+    </row>
+    <row r="40" spans="2:34">
       <c r="X40" s="199"/>
       <c r="Y40" s="199"/>
       <c r="Z40" s="199"/>
@@ -40998,8 +40291,12 @@
       <c r="AB40" s="199"/>
       <c r="AC40" s="199"/>
       <c r="AD40" s="199"/>
-    </row>
-    <row r="41" spans="2:31">
+      <c r="AE40" s="199"/>
+      <c r="AF40" s="199"/>
+      <c r="AG40" s="199"/>
+      <c r="AH40" s="199"/>
+    </row>
+    <row r="41" spans="2:34">
       <c r="X41" s="199"/>
       <c r="Y41" s="199"/>
       <c r="Z41" s="199"/>
@@ -41007,8 +40304,12 @@
       <c r="AB41" s="199"/>
       <c r="AC41" s="199"/>
       <c r="AD41" s="199"/>
-    </row>
-    <row r="42" spans="2:31" ht="21.75" thickBot="1">
+      <c r="AE41" s="199"/>
+      <c r="AF41" s="199"/>
+      <c r="AG41" s="199"/>
+      <c r="AH41" s="199"/>
+    </row>
+    <row r="42" spans="2:34" ht="21.75" thickBot="1">
       <c r="X42" s="199"/>
       <c r="Y42" s="199"/>
       <c r="Z42" s="199"/>
@@ -41016,8 +40317,12 @@
       <c r="AB42" s="199"/>
       <c r="AC42" s="199"/>
       <c r="AD42" s="199"/>
-    </row>
-    <row r="43" spans="2:31" ht="21.75" customHeight="1" thickBot="1">
+      <c r="AE42" s="199"/>
+      <c r="AF42" s="199"/>
+      <c r="AG42" s="199"/>
+      <c r="AH42" s="199"/>
+    </row>
+    <row r="43" spans="2:34" ht="21.75" customHeight="1" thickBot="1">
       <c r="Y43" s="282" t="s">
         <v>163</v>
       </c>
@@ -41029,40 +40334,106 @@
       <c r="AC43" s="284" t="s">
         <v>165</v>
       </c>
-      <c r="AD43" s="200"/>
-      <c r="AE43" s="284" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" ht="21.75" thickBot="1">
+      <c r="AD43" s="288"/>
+      <c r="AE43" s="288"/>
+      <c r="AF43" s="288"/>
+      <c r="AG43" s="288"/>
+      <c r="AH43" s="288"/>
+    </row>
+    <row r="44" spans="2:34" ht="21.75" thickBot="1">
       <c r="Y44" s="283"/>
       <c r="AA44" s="283"/>
       <c r="AC44" s="285"/>
-      <c r="AE44" s="285"/>
-    </row>
-    <row r="45" spans="2:31">
+      <c r="AD44" s="289"/>
+      <c r="AE44" s="289"/>
+      <c r="AF44" s="289"/>
+      <c r="AG44" s="289"/>
+      <c r="AH44" s="289"/>
+    </row>
+    <row r="45" spans="2:34">
       <c r="Y45" s="199"/>
     </row>
-    <row r="46" spans="2:31">
+    <row r="46" spans="2:34">
       <c r="Y46" s="199"/>
     </row>
-    <row r="47" spans="2:31">
+    <row r="47" spans="2:34">
       <c r="Y47" s="199"/>
     </row>
-    <row r="48" spans="2:31" ht="33.75" customHeight="1">
+    <row r="48" spans="2:34" ht="33.75" customHeight="1">
       <c r="Y48" s="199"/>
+    </row>
+    <row r="51" spans="21:34">
+      <c r="AD51" s="290" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="21:34" s="286" customFormat="1" ht="39.75" customHeight="1">
+      <c r="U55" s="293" t="s">
+        <v>187</v>
+      </c>
+      <c r="V55" s="294" t="s">
+        <v>188</v>
+      </c>
+      <c r="W55" s="294"/>
+      <c r="Y55" s="287"/>
+      <c r="Z55" s="290" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA55" s="290" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB55" s="290" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC55" s="290" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD55" s="290" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE55" s="290" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF55" s="290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG55" s="287"/>
+      <c r="AH55" s="287"/>
+    </row>
+    <row r="56" spans="21:34" s="291" customFormat="1" ht="15.75">
+      <c r="AA56" s="291" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB56" s="292" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC56" s="292" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="V55:W55"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="Y43:Y44"/>
     <mergeCell ref="AA43:AA44"/>
     <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AE43:AE44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -41073,8 +40444,8 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41175,8 +40546,8 @@
   </sheetPr>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41458,7 +40829,7 @@
   </sheetPr>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -41607,7 +40978,7 @@
         <v>115</v>
       </c>
       <c r="L9" s="234" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M9" s="234"/>
       <c r="S9" s="167" t="s">
@@ -41640,21 +41011,21 @@
     </row>
     <row r="11" spans="1:23" ht="23.25" customHeight="1">
       <c r="C11" s="167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="235" t="s">
         <v>113</v>
       </c>
       <c r="E11" s="235"/>
       <c r="K11" s="167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L11" s="222">
         <v>10</v>
       </c>
       <c r="M11" s="222"/>
       <c r="S11" s="167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T11" s="223">
         <v>3</v>
@@ -41693,7 +41064,7 @@
     </row>
     <row r="14" spans="1:23" s="165" customFormat="1" ht="21.75" customHeight="1">
       <c r="D14" s="201" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" s="224" t="s">
         <v>116</v>
@@ -41702,23 +41073,23 @@
       <c r="G14" s="224"/>
       <c r="H14" s="224"/>
       <c r="I14" s="229" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J14" s="229"/>
       <c r="K14" s="229" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L14" s="229"/>
       <c r="M14" s="229" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N14" s="229"/>
       <c r="O14" s="229" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P14" s="229"/>
       <c r="Q14" s="229" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R14" s="229"/>
       <c r="W14" s="166"/>
@@ -41730,7 +41101,7 @@
       <c r="G15" s="203"/>
       <c r="H15" s="203"/>
       <c r="I15" s="228" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J15" s="228"/>
       <c r="K15" s="228" t="s">
@@ -41738,15 +41109,15 @@
       </c>
       <c r="L15" s="228"/>
       <c r="M15" s="228" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N15" s="228"/>
       <c r="O15" s="228" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P15" s="228"/>
       <c r="Q15" s="228" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R15" s="228"/>
       <c r="W15" s="171"/>
@@ -41760,19 +41131,19 @@
       <c r="I16" s="230"/>
       <c r="J16" s="230"/>
       <c r="K16" s="230" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L16" s="230"/>
       <c r="M16" s="230" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N16" s="230"/>
       <c r="O16" s="230" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P16" s="230"/>
       <c r="Q16" s="230" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R16" s="230"/>
       <c r="W16" s="214"/>
@@ -42105,7 +41476,7 @@
     </row>
     <row r="28" spans="2:19" ht="21.75" customHeight="1">
       <c r="B28" s="211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E28" s="169"/>
       <c r="F28" s="169"/>
@@ -42269,7 +41640,7 @@
   </sheetPr>
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="900" firstSheet="4" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="7" r:id="rId1"/>
@@ -767,7 +767,7 @@
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="80">
+  <fonts count="81">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,6 +1366,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2002,7 +2010,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2581,6 +2589,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="74" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2590,53 +2661,8 @@
     <xf numFmtId="0" fontId="50" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="8" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="74" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2644,41 +2670,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2731,6 +2727,39 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2773,31 +2802,13 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2969,7 +2980,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -2978,7 +2989,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3235,7 +3246,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3920,7 +3931,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3964,7 +3975,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -3973,7 +3984,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11093,7 +11104,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13081,7 +13092,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13160,6 +13171,1500 @@
             <a:rPr lang="en-GB" sz="1100"/>
             <a:t>LOGOUT</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>789214</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18356036" y="15865929"/>
+          <a:ext cx="5170714" cy="3565071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="600">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Introduction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18750644" y="16464642"/>
+          <a:ext cx="4395107" cy="2653393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TEXT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>111580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1129392</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23747186" y="15827830"/>
+          <a:ext cx="5970813" cy="1956706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="600">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Statistics</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>179616</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>53402</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24087366" y="16317682"/>
+          <a:ext cx="1044000" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Statistics 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>481687</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>46260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>355472</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25559651" y="16306796"/>
+          <a:ext cx="1044000" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Statistics 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>1015091</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>21768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>888877</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>249340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28433484" y="16282304"/>
+          <a:ext cx="1044000" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Statistics 4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>745667</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>24489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>619453</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>252061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26993846" y="16285025"/>
+          <a:ext cx="1044000" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Statistics 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1080407</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>29935</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>272142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23817943" y="18184586"/>
+          <a:ext cx="5970813" cy="3246663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="600">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>New Added products</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>59868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>911679</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24057429" y="18769689"/>
+          <a:ext cx="5442857" cy="416382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   Product 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>138794</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>130623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>900794</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>2719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24046544" y="19384730"/>
+          <a:ext cx="5442857" cy="416382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   Product 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155122</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>201380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>917122</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>73476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24062872" y="19999773"/>
+          <a:ext cx="5442857" cy="416382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   Product 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>144236</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>906236</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24051986" y="20628425"/>
+          <a:ext cx="5442857" cy="416382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   Product 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2721</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>791935</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>258536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18358757" y="19621500"/>
+          <a:ext cx="5170714" cy="1796143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="600">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Subscription and Payments</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1034143</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>23465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18655392" y="20138572"/>
+          <a:ext cx="1605644" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:noFill/>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="700">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Current</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$9.95</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>111576</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>544284</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20508683" y="20154900"/>
+          <a:ext cx="2773137" cy="473529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:noFill/>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Next </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>125184</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>111580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>250970</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>258536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20522291" y="20726401"/>
+          <a:ext cx="1296000" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:noFill/>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$9.95</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>100695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>525834</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>247651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21967370" y="20715516"/>
+          <a:ext cx="1296000" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:noFill/>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>17 May</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 2018</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13311,7 +14816,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -13320,7 +14825,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13577,7 +15082,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14262,7 +15767,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14306,7 +15811,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -14315,7 +15820,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14452,7 +15957,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -14461,7 +15966,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14575,7 +16080,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14620,7 +16125,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17303,7 +18808,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -17312,7 +18817,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17357,7 +18862,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18444,7 +19949,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -18453,7 +19958,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18498,7 +20003,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20082,7 +21587,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -20091,7 +21596,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20348,7 +21853,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20819,7 +22324,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20863,7 +22368,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -20872,7 +22377,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21145,7 +22650,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -21154,7 +22659,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21411,7 +22916,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22096,7 +23601,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22140,7 +23645,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -22149,7 +23654,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22315,7 +23820,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -22324,7 +23829,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22581,7 +24086,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23266,7 +24771,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23310,7 +24815,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -23319,7 +24824,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25332,7 +26837,7 @@
       <c r="O8" s="57"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="245" t="s">
+      <c r="R8" s="274" t="s">
         <v>43</v>
       </c>
       <c r="W8" s="33" t="s">
@@ -25372,7 +26877,7 @@
       <c r="O9" s="57"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="245"/>
+      <c r="R9" s="274"/>
       <c r="W9" s="31"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="3"/>
@@ -25468,10 +26973,10 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="20"/>
       <c r="X12" s="2"/>
-      <c r="AL12" s="255" t="s">
+      <c r="AL12" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="AM12" s="255"/>
+      <c r="AM12" s="251"/>
     </row>
     <row r="13" spans="1:41" ht="31.5" customHeight="1">
       <c r="B13" s="55"/>
@@ -25521,10 +27026,10 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="8"/>
-      <c r="AH14" s="256" t="s">
+      <c r="AH14" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" s="257"/>
+      <c r="AI14" s="253"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
@@ -25549,8 +27054,8 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="20"/>
       <c r="X15" s="9"/>
-      <c r="AH15" s="256"/>
-      <c r="AI15" s="257"/>
+      <c r="AH15" s="252"/>
+      <c r="AI15" s="253"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
@@ -25612,16 +27117,16 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="20"/>
       <c r="X17" s="9"/>
-      <c r="AH17" s="256" t="s">
+      <c r="AH17" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="AI17" s="257"/>
-      <c r="AJ17" s="258" t="s">
+      <c r="AI17" s="253"/>
+      <c r="AJ17" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="AK17" s="259"/>
-      <c r="AL17" s="259"/>
-      <c r="AM17" s="260"/>
+      <c r="AK17" s="255"/>
+      <c r="AL17" s="255"/>
+      <c r="AM17" s="256"/>
     </row>
     <row r="18" spans="2:41" ht="31.5" customHeight="1">
       <c r="B18" s="55"/>
@@ -25651,12 +27156,12 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="12"/>
-      <c r="AH18" s="256"/>
-      <c r="AI18" s="257"/>
-      <c r="AJ18" s="261"/>
-      <c r="AK18" s="262"/>
-      <c r="AL18" s="262"/>
-      <c r="AM18" s="263"/>
+      <c r="AH18" s="252"/>
+      <c r="AI18" s="253"/>
+      <c r="AJ18" s="257"/>
+      <c r="AK18" s="258"/>
+      <c r="AL18" s="258"/>
+      <c r="AM18" s="259"/>
     </row>
     <row r="19" spans="2:41" ht="31.5" customHeight="1">
       <c r="B19" s="55"/>
@@ -25717,17 +27222,17 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="14"/>
-      <c r="AG20" s="264" t="s">
+      <c r="AG20" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="264"/>
-      <c r="AI20" s="265"/>
-      <c r="AJ20" s="266" t="s">
+      <c r="AH20" s="260"/>
+      <c r="AI20" s="261"/>
+      <c r="AJ20" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="AK20" s="267"/>
-      <c r="AL20" s="267"/>
-      <c r="AM20" s="268"/>
+      <c r="AK20" s="263"/>
+      <c r="AL20" s="263"/>
+      <c r="AM20" s="264"/>
     </row>
     <row r="21" spans="2:41" ht="31.5" customHeight="1">
       <c r="B21" s="55"/>
@@ -25755,13 +27260,13 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="17"/>
-      <c r="AG21" s="264"/>
-      <c r="AH21" s="264"/>
-      <c r="AI21" s="265"/>
-      <c r="AJ21" s="269"/>
-      <c r="AK21" s="270"/>
-      <c r="AL21" s="270"/>
-      <c r="AM21" s="271"/>
+      <c r="AG21" s="260"/>
+      <c r="AH21" s="260"/>
+      <c r="AI21" s="261"/>
+      <c r="AJ21" s="265"/>
+      <c r="AK21" s="266"/>
+      <c r="AL21" s="266"/>
+      <c r="AM21" s="267"/>
     </row>
     <row r="22" spans="2:41" ht="31.5" customHeight="1">
       <c r="B22" s="55"/>
@@ -25839,12 +27344,12 @@
       <c r="AI24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AJ24" s="251">
+      <c r="AJ24" s="268">
         <v>43202</v>
       </c>
-      <c r="AK24" s="252"/>
-      <c r="AL24" s="252"/>
-      <c r="AM24" s="253"/>
+      <c r="AK24" s="269"/>
+      <c r="AL24" s="269"/>
+      <c r="AM24" s="270"/>
     </row>
     <row r="25" spans="2:41" ht="31.5" customHeight="1">
       <c r="B25" s="55"/>
@@ -25913,11 +27418,11 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="24"/>
-      <c r="AK26" s="254" t="s">
+      <c r="AK26" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="AL26" s="254"/>
-      <c r="AM26" s="254"/>
+      <c r="AL26" s="271"/>
+      <c r="AM26" s="271"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
@@ -26342,10 +27847,10 @@
       <c r="J38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="246" t="s">
+      <c r="K38" s="275" t="s">
         <v>68</v>
       </c>
-      <c r="L38" s="247"/>
+      <c r="L38" s="276"/>
       <c r="M38" s="103" t="s">
         <v>67</v>
       </c>
@@ -27109,35 +28614,35 @@
       <c r="B57" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="249" t="s">
+      <c r="I57" s="277" t="s">
         <v>75</v>
       </c>
-      <c r="J57" s="249"/>
-      <c r="K57" s="249"/>
-      <c r="L57" s="249"/>
-      <c r="M57" s="249"/>
-      <c r="N57" s="249"/>
-      <c r="O57" s="249"/>
+      <c r="J57" s="277"/>
+      <c r="K57" s="277"/>
+      <c r="L57" s="277"/>
+      <c r="M57" s="277"/>
+      <c r="N57" s="277"/>
+      <c r="O57" s="277"/>
     </row>
     <row r="58" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1"/>
     <row r="59" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B59" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="248" t="s">
+      <c r="E59" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="248"/>
+      <c r="F59" s="272"/>
       <c r="G59" s="61"/>
       <c r="H59" s="61" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="61"/>
-      <c r="J59" s="248" t="s">
+      <c r="J59" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="248"/>
-      <c r="L59" s="248"/>
+      <c r="K59" s="272"/>
+      <c r="L59" s="272"/>
       <c r="M59" s="62" t="s">
         <v>18</v>
       </c>
@@ -27146,10 +28651,10 @@
         <v>20</v>
       </c>
       <c r="P59" s="62"/>
-      <c r="Q59" s="250" t="s">
+      <c r="Q59" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="R59" s="250"/>
+      <c r="R59" s="278"/>
       <c r="S59" s="110" t="s">
         <v>25</v>
       </c>
@@ -27160,18 +28665,18 @@
         <v>19</v>
       </c>
       <c r="D60" s="111"/>
-      <c r="E60" s="244" t="s">
+      <c r="E60" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="244"/>
+      <c r="F60" s="273"/>
       <c r="G60" s="111"/>
       <c r="H60" s="111"/>
       <c r="I60" s="111"/>
-      <c r="J60" s="244" t="s">
+      <c r="J60" s="273" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="244"/>
-      <c r="L60" s="244"/>
+      <c r="K60" s="273"/>
+      <c r="L60" s="273"/>
       <c r="M60" s="63" t="s">
         <v>12</v>
       </c>
@@ -27180,10 +28685,10 @@
         <v>43185</v>
       </c>
       <c r="P60" s="63"/>
-      <c r="Q60" s="244"/>
-      <c r="R60" s="244"/>
-      <c r="S60" s="244"/>
-      <c r="T60" s="244"/>
+      <c r="Q60" s="273"/>
+      <c r="R60" s="273"/>
+      <c r="S60" s="273"/>
+      <c r="T60" s="273"/>
       <c r="AX60" s="20"/>
     </row>
     <row r="61" spans="1:50" s="3" customFormat="1" ht="54" customHeight="1">
@@ -27191,18 +28696,18 @@
         <v>19</v>
       </c>
       <c r="D61" s="111"/>
-      <c r="E61" s="244" t="s">
+      <c r="E61" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="244"/>
+      <c r="F61" s="273"/>
       <c r="G61" s="111"/>
       <c r="H61" s="111"/>
       <c r="I61" s="111"/>
-      <c r="J61" s="244" t="s">
+      <c r="J61" s="273" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="244"/>
-      <c r="L61" s="244"/>
+      <c r="K61" s="273"/>
+      <c r="L61" s="273"/>
       <c r="M61" s="63" t="s">
         <v>12</v>
       </c>
@@ -27211,10 +28716,10 @@
         <v>43185</v>
       </c>
       <c r="P61" s="63"/>
-      <c r="Q61" s="244"/>
-      <c r="R61" s="244"/>
-      <c r="S61" s="244"/>
-      <c r="T61" s="244"/>
+      <c r="Q61" s="273"/>
+      <c r="R61" s="273"/>
+      <c r="S61" s="273"/>
+      <c r="T61" s="273"/>
       <c r="AX61" s="20"/>
     </row>
     <row r="62" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
@@ -38172,19 +39677,19 @@
         <v>17</v>
       </c>
       <c r="X368" s="61"/>
-      <c r="Y368" s="248" t="s">
+      <c r="Y368" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="Z368" s="248"/>
-      <c r="AA368" s="248" t="s">
+      <c r="Z368" s="272"/>
+      <c r="AA368" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="AB368" s="248"/>
-      <c r="AC368" s="248" t="s">
+      <c r="AB368" s="272"/>
+      <c r="AC368" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="AD368" s="248"/>
-      <c r="AE368" s="248"/>
+      <c r="AD368" s="272"/>
+      <c r="AE368" s="272"/>
       <c r="AF368" s="62" t="s">
         <v>18</v>
       </c>
@@ -38193,14 +39698,14 @@
         <v>20</v>
       </c>
       <c r="AI368" s="62"/>
-      <c r="AJ368" s="248" t="s">
+      <c r="AJ368" s="272" t="s">
         <v>22</v>
       </c>
-      <c r="AK368" s="248"/>
-      <c r="AL368" s="248" t="s">
+      <c r="AK368" s="272"/>
+      <c r="AL368" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="AM368" s="248"/>
+      <c r="AM368" s="272"/>
     </row>
     <row r="369" spans="2:50" s="3" customFormat="1" ht="61.5" customHeight="1">
       <c r="B369" s="55"/>
@@ -38221,17 +39726,17 @@
       <c r="W369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y369" s="244" t="s">
+      <c r="Y369" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="Z369" s="244"/>
-      <c r="AA369" s="244"/>
-      <c r="AB369" s="244"/>
-      <c r="AC369" s="244" t="s">
+      <c r="Z369" s="273"/>
+      <c r="AA369" s="273"/>
+      <c r="AB369" s="273"/>
+      <c r="AC369" s="273" t="s">
         <v>21</v>
       </c>
-      <c r="AD369" s="244"/>
-      <c r="AE369" s="244"/>
+      <c r="AD369" s="273"/>
+      <c r="AE369" s="273"/>
       <c r="AF369" s="63" t="s">
         <v>12</v>
       </c>
@@ -38240,10 +39745,10 @@
         <v>43185</v>
       </c>
       <c r="AI369" s="63"/>
-      <c r="AJ369" s="244"/>
-      <c r="AK369" s="244"/>
-      <c r="AL369" s="244"/>
-      <c r="AM369" s="244"/>
+      <c r="AJ369" s="273"/>
+      <c r="AK369" s="273"/>
+      <c r="AL369" s="273"/>
+      <c r="AM369" s="273"/>
     </row>
     <row r="370" spans="2:50" s="3" customFormat="1" ht="54" customHeight="1">
       <c r="B370" s="55"/>
@@ -38264,17 +39769,17 @@
       <c r="W370" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y370" s="244" t="s">
+      <c r="Y370" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="Z370" s="244"/>
-      <c r="AA370" s="244"/>
-      <c r="AB370" s="244"/>
-      <c r="AC370" s="244" t="s">
+      <c r="Z370" s="273"/>
+      <c r="AA370" s="273"/>
+      <c r="AB370" s="273"/>
+      <c r="AC370" s="273" t="s">
         <v>21</v>
       </c>
-      <c r="AD370" s="244"/>
-      <c r="AE370" s="244"/>
+      <c r="AD370" s="273"/>
+      <c r="AE370" s="273"/>
       <c r="AF370" s="63" t="s">
         <v>12</v>
       </c>
@@ -38283,10 +39788,10 @@
         <v>43185</v>
       </c>
       <c r="AI370" s="63"/>
-      <c r="AJ370" s="244"/>
-      <c r="AK370" s="244"/>
-      <c r="AL370" s="244"/>
-      <c r="AM370" s="244"/>
+      <c r="AJ370" s="273"/>
+      <c r="AK370" s="273"/>
+      <c r="AL370" s="273"/>
+      <c r="AM370" s="273"/>
     </row>
     <row r="371" spans="2:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B371" s="55"/>
@@ -38448,29 +39953,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AH14:AI15"/>
-    <mergeCell ref="AH17:AI18"/>
-    <mergeCell ref="AJ17:AM18"/>
-    <mergeCell ref="AG20:AI21"/>
-    <mergeCell ref="AJ20:AM21"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="Y368:Z368"/>
-    <mergeCell ref="AA368:AB368"/>
-    <mergeCell ref="AC368:AE368"/>
-    <mergeCell ref="AJ368:AK368"/>
-    <mergeCell ref="AL368:AM368"/>
-    <mergeCell ref="Y369:Z369"/>
-    <mergeCell ref="AA369:AB369"/>
-    <mergeCell ref="AC369:AE369"/>
-    <mergeCell ref="AJ369:AK369"/>
-    <mergeCell ref="AL369:AM369"/>
-    <mergeCell ref="Y370:Z370"/>
-    <mergeCell ref="AA370:AB370"/>
-    <mergeCell ref="AC370:AE370"/>
-    <mergeCell ref="AJ370:AK370"/>
-    <mergeCell ref="AL370:AM370"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="J61:L61"/>
     <mergeCell ref="Q61:R61"/>
@@ -38485,6 +39967,29 @@
     <mergeCell ref="J60:L60"/>
     <mergeCell ref="Q60:R60"/>
     <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Y370:Z370"/>
+    <mergeCell ref="AA370:AB370"/>
+    <mergeCell ref="AC370:AE370"/>
+    <mergeCell ref="AJ370:AK370"/>
+    <mergeCell ref="AL370:AM370"/>
+    <mergeCell ref="Y369:Z369"/>
+    <mergeCell ref="AA369:AB369"/>
+    <mergeCell ref="AC369:AE369"/>
+    <mergeCell ref="AJ369:AK369"/>
+    <mergeCell ref="AL369:AM369"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="Y368:Z368"/>
+    <mergeCell ref="AA368:AB368"/>
+    <mergeCell ref="AC368:AE368"/>
+    <mergeCell ref="AJ368:AK368"/>
+    <mergeCell ref="AL368:AM368"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AH14:AI15"/>
+    <mergeCell ref="AH17:AI18"/>
+    <mergeCell ref="AJ17:AM18"/>
+    <mergeCell ref="AG20:AI21"/>
+    <mergeCell ref="AJ20:AM21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38552,26 +40057,26 @@
       <c r="X2" s="28"/>
     </row>
     <row r="7" spans="2:27" s="121" customFormat="1" ht="25.5" customHeight="1">
-      <c r="C7" s="272"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="272"/>
-      <c r="H7" s="272"/>
-      <c r="I7" s="272"/>
-      <c r="J7" s="272"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="272"/>
-      <c r="S7" s="273" t="s">
+      <c r="C7" s="279"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="279"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="279"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="279"/>
+      <c r="S7" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="273"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="273" t="s">
+      <c r="T7" s="280"/>
+      <c r="U7" s="280"/>
+      <c r="V7" s="280" t="s">
         <v>76</v>
       </c>
-      <c r="W7" s="273"/>
-      <c r="X7" s="273"/>
+      <c r="W7" s="280"/>
+      <c r="X7" s="280"/>
       <c r="AA7" s="122" t="s">
         <v>77</v>
       </c>
@@ -38634,10 +40139,10 @@
       </c>
     </row>
     <row r="15" spans="3:4" ht="33" customHeight="1">
-      <c r="C15" s="274" t="s">
+      <c r="C15" s="281" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="275"/>
+      <c r="D15" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -38700,8 +40205,8 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="276"/>
-      <c r="F5" s="276"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
       <c r="G5" s="47" t="s">
         <v>39</v>
       </c>
@@ -38845,20 +40350,20 @@
     </row>
     <row r="8" spans="3:20" ht="22.5" customHeight="1">
       <c r="G8" s="142"/>
-      <c r="H8" s="279" t="s">
+      <c r="H8" s="286" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="279"/>
-      <c r="J8" s="279"/>
-      <c r="K8" s="279"/>
-      <c r="L8" s="279"/>
-      <c r="M8" s="279"/>
-      <c r="N8" s="279"/>
-      <c r="O8" s="279"/>
-      <c r="P8" s="279"/>
-      <c r="Q8" s="279"/>
-      <c r="R8" s="279"/>
-      <c r="S8" s="279"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
+      <c r="M8" s="286"/>
+      <c r="N8" s="286"/>
+      <c r="O8" s="286"/>
+      <c r="P8" s="286"/>
+      <c r="Q8" s="286"/>
+      <c r="R8" s="286"/>
+      <c r="S8" s="286"/>
       <c r="T8" s="143"/>
     </row>
     <row r="9" spans="3:20">
@@ -38913,20 +40418,20 @@
     </row>
     <row r="12" spans="3:20" ht="21.75" customHeight="1">
       <c r="G12" s="142"/>
-      <c r="H12" s="279" t="s">
+      <c r="H12" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="279"/>
-      <c r="J12" s="279"/>
-      <c r="K12" s="279"/>
-      <c r="L12" s="279"/>
-      <c r="M12" s="279"/>
-      <c r="N12" s="279"/>
-      <c r="O12" s="279"/>
-      <c r="P12" s="279"/>
-      <c r="Q12" s="279"/>
-      <c r="R12" s="279"/>
-      <c r="S12" s="279"/>
+      <c r="I12" s="286"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="286"/>
+      <c r="L12" s="286"/>
+      <c r="M12" s="286"/>
+      <c r="N12" s="286"/>
+      <c r="O12" s="286"/>
+      <c r="P12" s="286"/>
+      <c r="Q12" s="286"/>
+      <c r="R12" s="286"/>
+      <c r="S12" s="286"/>
       <c r="T12" s="143"/>
     </row>
     <row r="13" spans="3:20">
@@ -38981,20 +40486,20 @@
     </row>
     <row r="16" spans="3:20">
       <c r="G16" s="142"/>
-      <c r="H16" s="279" t="s">
+      <c r="H16" s="286" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="279"/>
-      <c r="J16" s="279"/>
-      <c r="K16" s="279"/>
-      <c r="L16" s="279"/>
-      <c r="M16" s="279"/>
-      <c r="N16" s="279"/>
-      <c r="O16" s="279"/>
-      <c r="P16" s="279"/>
-      <c r="Q16" s="279"/>
-      <c r="R16" s="279"/>
-      <c r="S16" s="279"/>
+      <c r="I16" s="286"/>
+      <c r="J16" s="286"/>
+      <c r="K16" s="286"/>
+      <c r="L16" s="286"/>
+      <c r="M16" s="286"/>
+      <c r="N16" s="286"/>
+      <c r="O16" s="286"/>
+      <c r="P16" s="286"/>
+      <c r="Q16" s="286"/>
+      <c r="R16" s="286"/>
+      <c r="S16" s="286"/>
       <c r="T16" s="143"/>
     </row>
     <row r="17" spans="7:20">
@@ -39015,164 +40520,164 @@
     </row>
     <row r="18" spans="7:20">
       <c r="G18" s="142"/>
-      <c r="H18" s="280" t="s">
+      <c r="H18" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="280"/>
-      <c r="J18" s="280"/>
-      <c r="K18" s="280"/>
-      <c r="L18" s="280"/>
-      <c r="M18" s="280"/>
-      <c r="N18" s="280"/>
-      <c r="O18" s="280"/>
-      <c r="P18" s="280"/>
-      <c r="Q18" s="280"/>
-      <c r="R18" s="280"/>
-      <c r="S18" s="280"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="287"/>
+      <c r="K18" s="287"/>
+      <c r="L18" s="287"/>
+      <c r="M18" s="287"/>
+      <c r="N18" s="287"/>
+      <c r="O18" s="287"/>
+      <c r="P18" s="287"/>
+      <c r="Q18" s="287"/>
+      <c r="R18" s="287"/>
+      <c r="S18" s="287"/>
       <c r="T18" s="143"/>
     </row>
     <row r="19" spans="7:20">
       <c r="G19" s="142"/>
-      <c r="H19" s="280"/>
-      <c r="I19" s="280"/>
-      <c r="J19" s="280"/>
-      <c r="K19" s="280"/>
-      <c r="L19" s="280"/>
-      <c r="M19" s="280"/>
-      <c r="N19" s="280"/>
-      <c r="O19" s="280"/>
-      <c r="P19" s="280"/>
-      <c r="Q19" s="280"/>
-      <c r="R19" s="280"/>
-      <c r="S19" s="280"/>
+      <c r="H19" s="287"/>
+      <c r="I19" s="287"/>
+      <c r="J19" s="287"/>
+      <c r="K19" s="287"/>
+      <c r="L19" s="287"/>
+      <c r="M19" s="287"/>
+      <c r="N19" s="287"/>
+      <c r="O19" s="287"/>
+      <c r="P19" s="287"/>
+      <c r="Q19" s="287"/>
+      <c r="R19" s="287"/>
+      <c r="S19" s="287"/>
       <c r="T19" s="143"/>
     </row>
     <row r="20" spans="7:20">
       <c r="G20" s="142"/>
-      <c r="H20" s="280"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="280"/>
-      <c r="K20" s="280"/>
-      <c r="L20" s="280"/>
-      <c r="M20" s="280"/>
-      <c r="N20" s="280"/>
-      <c r="O20" s="280"/>
-      <c r="P20" s="280"/>
-      <c r="Q20" s="280"/>
-      <c r="R20" s="280"/>
-      <c r="S20" s="280"/>
+      <c r="H20" s="287"/>
+      <c r="I20" s="287"/>
+      <c r="J20" s="287"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="287"/>
+      <c r="M20" s="287"/>
+      <c r="N20" s="287"/>
+      <c r="O20" s="287"/>
+      <c r="P20" s="287"/>
+      <c r="Q20" s="287"/>
+      <c r="R20" s="287"/>
+      <c r="S20" s="287"/>
       <c r="T20" s="143"/>
     </row>
     <row r="21" spans="7:20">
       <c r="G21" s="142"/>
-      <c r="H21" s="280"/>
-      <c r="I21" s="280"/>
-      <c r="J21" s="280"/>
-      <c r="K21" s="280"/>
-      <c r="L21" s="280"/>
-      <c r="M21" s="280"/>
-      <c r="N21" s="280"/>
-      <c r="O21" s="280"/>
-      <c r="P21" s="280"/>
-      <c r="Q21" s="280"/>
-      <c r="R21" s="280"/>
-      <c r="S21" s="280"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="287"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="287"/>
+      <c r="M21" s="287"/>
+      <c r="N21" s="287"/>
+      <c r="O21" s="287"/>
+      <c r="P21" s="287"/>
+      <c r="Q21" s="287"/>
+      <c r="R21" s="287"/>
+      <c r="S21" s="287"/>
       <c r="T21" s="143"/>
     </row>
     <row r="22" spans="7:20">
       <c r="G22" s="142"/>
-      <c r="H22" s="280"/>
-      <c r="I22" s="280"/>
-      <c r="J22" s="280"/>
-      <c r="K22" s="280"/>
-      <c r="L22" s="280"/>
-      <c r="M22" s="280"/>
-      <c r="N22" s="280"/>
-      <c r="O22" s="280"/>
-      <c r="P22" s="280"/>
-      <c r="Q22" s="280"/>
-      <c r="R22" s="280"/>
-      <c r="S22" s="280"/>
+      <c r="H22" s="287"/>
+      <c r="I22" s="287"/>
+      <c r="J22" s="287"/>
+      <c r="K22" s="287"/>
+      <c r="L22" s="287"/>
+      <c r="M22" s="287"/>
+      <c r="N22" s="287"/>
+      <c r="O22" s="287"/>
+      <c r="P22" s="287"/>
+      <c r="Q22" s="287"/>
+      <c r="R22" s="287"/>
+      <c r="S22" s="287"/>
       <c r="T22" s="143"/>
     </row>
     <row r="23" spans="7:20">
       <c r="G23" s="142"/>
-      <c r="H23" s="280"/>
-      <c r="I23" s="280"/>
-      <c r="J23" s="280"/>
-      <c r="K23" s="280"/>
-      <c r="L23" s="280"/>
-      <c r="M23" s="280"/>
-      <c r="N23" s="280"/>
-      <c r="O23" s="280"/>
-      <c r="P23" s="280"/>
-      <c r="Q23" s="280"/>
-      <c r="R23" s="280"/>
-      <c r="S23" s="280"/>
+      <c r="H23" s="287"/>
+      <c r="I23" s="287"/>
+      <c r="J23" s="287"/>
+      <c r="K23" s="287"/>
+      <c r="L23" s="287"/>
+      <c r="M23" s="287"/>
+      <c r="N23" s="287"/>
+      <c r="O23" s="287"/>
+      <c r="P23" s="287"/>
+      <c r="Q23" s="287"/>
+      <c r="R23" s="287"/>
+      <c r="S23" s="287"/>
       <c r="T23" s="143"/>
     </row>
     <row r="24" spans="7:20">
       <c r="G24" s="142"/>
-      <c r="H24" s="280"/>
-      <c r="I24" s="280"/>
-      <c r="J24" s="280"/>
-      <c r="K24" s="280"/>
-      <c r="L24" s="280"/>
-      <c r="M24" s="280"/>
-      <c r="N24" s="280"/>
-      <c r="O24" s="280"/>
-      <c r="P24" s="280"/>
-      <c r="Q24" s="280"/>
-      <c r="R24" s="280"/>
-      <c r="S24" s="280"/>
+      <c r="H24" s="287"/>
+      <c r="I24" s="287"/>
+      <c r="J24" s="287"/>
+      <c r="K24" s="287"/>
+      <c r="L24" s="287"/>
+      <c r="M24" s="287"/>
+      <c r="N24" s="287"/>
+      <c r="O24" s="287"/>
+      <c r="P24" s="287"/>
+      <c r="Q24" s="287"/>
+      <c r="R24" s="287"/>
+      <c r="S24" s="287"/>
       <c r="T24" s="143"/>
     </row>
     <row r="25" spans="7:20">
       <c r="G25" s="142"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="280"/>
-      <c r="K25" s="280"/>
-      <c r="L25" s="280"/>
-      <c r="M25" s="280"/>
-      <c r="N25" s="280"/>
-      <c r="O25" s="280"/>
-      <c r="P25" s="280"/>
-      <c r="Q25" s="280"/>
-      <c r="R25" s="280"/>
-      <c r="S25" s="280"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="287"/>
+      <c r="J25" s="287"/>
+      <c r="K25" s="287"/>
+      <c r="L25" s="287"/>
+      <c r="M25" s="287"/>
+      <c r="N25" s="287"/>
+      <c r="O25" s="287"/>
+      <c r="P25" s="287"/>
+      <c r="Q25" s="287"/>
+      <c r="R25" s="287"/>
+      <c r="S25" s="287"/>
       <c r="T25" s="143"/>
     </row>
     <row r="26" spans="7:20">
       <c r="G26" s="142"/>
-      <c r="H26" s="280"/>
-      <c r="I26" s="280"/>
-      <c r="J26" s="280"/>
-      <c r="K26" s="280"/>
-      <c r="L26" s="280"/>
-      <c r="M26" s="280"/>
-      <c r="N26" s="280"/>
-      <c r="O26" s="280"/>
-      <c r="P26" s="280"/>
-      <c r="Q26" s="280"/>
-      <c r="R26" s="280"/>
-      <c r="S26" s="280"/>
+      <c r="H26" s="287"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="287"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="287"/>
+      <c r="N26" s="287"/>
+      <c r="O26" s="287"/>
+      <c r="P26" s="287"/>
+      <c r="Q26" s="287"/>
+      <c r="R26" s="287"/>
+      <c r="S26" s="287"/>
       <c r="T26" s="143"/>
     </row>
     <row r="27" spans="7:20">
       <c r="G27" s="142"/>
-      <c r="H27" s="280"/>
-      <c r="I27" s="280"/>
-      <c r="J27" s="280"/>
-      <c r="K27" s="280"/>
-      <c r="L27" s="280"/>
-      <c r="M27" s="280"/>
-      <c r="N27" s="280"/>
-      <c r="O27" s="280"/>
-      <c r="P27" s="280"/>
-      <c r="Q27" s="280"/>
-      <c r="R27" s="280"/>
-      <c r="S27" s="280"/>
+      <c r="H27" s="287"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="287"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="287"/>
+      <c r="M27" s="287"/>
+      <c r="N27" s="287"/>
+      <c r="O27" s="287"/>
+      <c r="P27" s="287"/>
+      <c r="Q27" s="287"/>
+      <c r="R27" s="287"/>
+      <c r="S27" s="287"/>
       <c r="T27" s="143"/>
     </row>
     <row r="28" spans="7:20">
@@ -39299,12 +40804,12 @@
     </row>
     <row r="43" spans="1:20" ht="22.5" customHeight="1">
       <c r="G43" s="150"/>
-      <c r="H43" s="277" t="s">
+      <c r="H43" s="284" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="277"/>
-      <c r="J43" s="277"/>
-      <c r="K43" s="277"/>
+      <c r="I43" s="284"/>
+      <c r="J43" s="284"/>
+      <c r="K43" s="284"/>
       <c r="L43" s="151"/>
       <c r="M43" s="70" t="s">
         <v>101</v>
@@ -39367,12 +40872,12 @@
     </row>
     <row r="47" spans="1:20" ht="21.75" customHeight="1">
       <c r="G47" s="150"/>
-      <c r="H47" s="277" t="s">
+      <c r="H47" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I47" s="277"/>
-      <c r="J47" s="277"/>
-      <c r="K47" s="277"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="284"/>
+      <c r="K47" s="284"/>
       <c r="L47" s="151"/>
       <c r="M47" s="70" t="s">
         <v>103</v>
@@ -39435,22 +40940,22 @@
     </row>
     <row r="51" spans="7:20" ht="22.5" customHeight="1">
       <c r="G51" s="150"/>
-      <c r="H51" s="277" t="s">
+      <c r="H51" s="284" t="s">
         <v>104</v>
       </c>
-      <c r="I51" s="277"/>
-      <c r="J51" s="277"/>
-      <c r="K51" s="277"/>
+      <c r="I51" s="284"/>
+      <c r="J51" s="284"/>
+      <c r="K51" s="284"/>
       <c r="L51" s="151"/>
-      <c r="M51" s="278" t="s">
+      <c r="M51" s="285" t="s">
         <v>105</v>
       </c>
-      <c r="N51" s="278"/>
-      <c r="O51" s="278"/>
-      <c r="P51" s="278"/>
-      <c r="Q51" s="278"/>
-      <c r="R51" s="278"/>
-      <c r="S51" s="278"/>
+      <c r="N51" s="285"/>
+      <c r="O51" s="285"/>
+      <c r="P51" s="285"/>
+      <c r="Q51" s="285"/>
+      <c r="R51" s="285"/>
+      <c r="S51" s="285"/>
       <c r="T51" s="153"/>
     </row>
     <row r="52" spans="7:20">
@@ -39460,13 +40965,13 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="278"/>
-      <c r="N52" s="278"/>
-      <c r="O52" s="278"/>
-      <c r="P52" s="278"/>
-      <c r="Q52" s="278"/>
-      <c r="R52" s="278"/>
-      <c r="S52" s="278"/>
+      <c r="M52" s="285"/>
+      <c r="N52" s="285"/>
+      <c r="O52" s="285"/>
+      <c r="P52" s="285"/>
+      <c r="Q52" s="285"/>
+      <c r="R52" s="285"/>
+      <c r="S52" s="285"/>
       <c r="T52" s="153"/>
     </row>
     <row r="53" spans="7:20" ht="15" customHeight="1">
@@ -39476,13 +40981,13 @@
       <c r="J53" s="154"/>
       <c r="K53" s="154"/>
       <c r="L53" s="154"/>
-      <c r="M53" s="278"/>
-      <c r="N53" s="278"/>
-      <c r="O53" s="278"/>
-      <c r="P53" s="278"/>
-      <c r="Q53" s="278"/>
-      <c r="R53" s="278"/>
-      <c r="S53" s="278"/>
+      <c r="M53" s="285"/>
+      <c r="N53" s="285"/>
+      <c r="O53" s="285"/>
+      <c r="P53" s="285"/>
+      <c r="Q53" s="285"/>
+      <c r="R53" s="285"/>
+      <c r="S53" s="285"/>
       <c r="T53" s="153"/>
     </row>
     <row r="54" spans="7:20">
@@ -39492,13 +40997,13 @@
       <c r="J54" s="154"/>
       <c r="K54" s="154"/>
       <c r="L54" s="154"/>
-      <c r="M54" s="278"/>
-      <c r="N54" s="278"/>
-      <c r="O54" s="278"/>
-      <c r="P54" s="278"/>
-      <c r="Q54" s="278"/>
-      <c r="R54" s="278"/>
-      <c r="S54" s="278"/>
+      <c r="M54" s="285"/>
+      <c r="N54" s="285"/>
+      <c r="O54" s="285"/>
+      <c r="P54" s="285"/>
+      <c r="Q54" s="285"/>
+      <c r="R54" s="285"/>
+      <c r="S54" s="285"/>
       <c r="T54" s="153"/>
     </row>
     <row r="55" spans="7:20">
@@ -39508,13 +41013,13 @@
       <c r="J55" s="154"/>
       <c r="K55" s="154"/>
       <c r="L55" s="154"/>
-      <c r="M55" s="278"/>
-      <c r="N55" s="278"/>
-      <c r="O55" s="278"/>
-      <c r="P55" s="278"/>
-      <c r="Q55" s="278"/>
-      <c r="R55" s="278"/>
-      <c r="S55" s="278"/>
+      <c r="M55" s="285"/>
+      <c r="N55" s="285"/>
+      <c r="O55" s="285"/>
+      <c r="P55" s="285"/>
+      <c r="Q55" s="285"/>
+      <c r="R55" s="285"/>
+      <c r="S55" s="285"/>
       <c r="T55" s="153"/>
     </row>
     <row r="56" spans="7:20">
@@ -39524,13 +41029,13 @@
       <c r="J56" s="154"/>
       <c r="K56" s="154"/>
       <c r="L56" s="154"/>
-      <c r="M56" s="278"/>
-      <c r="N56" s="278"/>
-      <c r="O56" s="278"/>
-      <c r="P56" s="278"/>
-      <c r="Q56" s="278"/>
-      <c r="R56" s="278"/>
-      <c r="S56" s="278"/>
+      <c r="M56" s="285"/>
+      <c r="N56" s="285"/>
+      <c r="O56" s="285"/>
+      <c r="P56" s="285"/>
+      <c r="Q56" s="285"/>
+      <c r="R56" s="285"/>
+      <c r="S56" s="285"/>
       <c r="T56" s="153"/>
     </row>
     <row r="57" spans="7:20">
@@ -39540,13 +41045,13 @@
       <c r="J57" s="154"/>
       <c r="K57" s="154"/>
       <c r="L57" s="154"/>
-      <c r="M57" s="278"/>
-      <c r="N57" s="278"/>
-      <c r="O57" s="278"/>
-      <c r="P57" s="278"/>
-      <c r="Q57" s="278"/>
-      <c r="R57" s="278"/>
-      <c r="S57" s="278"/>
+      <c r="M57" s="285"/>
+      <c r="N57" s="285"/>
+      <c r="O57" s="285"/>
+      <c r="P57" s="285"/>
+      <c r="Q57" s="285"/>
+      <c r="R57" s="285"/>
+      <c r="S57" s="285"/>
       <c r="T57" s="153"/>
     </row>
     <row r="58" spans="7:20">
@@ -39556,13 +41061,13 @@
       <c r="J58" s="154"/>
       <c r="K58" s="154"/>
       <c r="L58" s="154"/>
-      <c r="M58" s="278"/>
-      <c r="N58" s="278"/>
-      <c r="O58" s="278"/>
-      <c r="P58" s="278"/>
-      <c r="Q58" s="278"/>
-      <c r="R58" s="278"/>
-      <c r="S58" s="278"/>
+      <c r="M58" s="285"/>
+      <c r="N58" s="285"/>
+      <c r="O58" s="285"/>
+      <c r="P58" s="285"/>
+      <c r="Q58" s="285"/>
+      <c r="R58" s="285"/>
+      <c r="S58" s="285"/>
       <c r="T58" s="153"/>
     </row>
     <row r="59" spans="7:20">
@@ -39572,13 +41077,13 @@
       <c r="J59" s="154"/>
       <c r="K59" s="154"/>
       <c r="L59" s="154"/>
-      <c r="M59" s="278"/>
-      <c r="N59" s="278"/>
-      <c r="O59" s="278"/>
-      <c r="P59" s="278"/>
-      <c r="Q59" s="278"/>
-      <c r="R59" s="278"/>
-      <c r="S59" s="278"/>
+      <c r="M59" s="285"/>
+      <c r="N59" s="285"/>
+      <c r="O59" s="285"/>
+      <c r="P59" s="285"/>
+      <c r="Q59" s="285"/>
+      <c r="R59" s="285"/>
+      <c r="S59" s="285"/>
       <c r="T59" s="153"/>
     </row>
     <row r="60" spans="7:20">
@@ -39588,13 +41093,13 @@
       <c r="J60" s="154"/>
       <c r="K60" s="154"/>
       <c r="L60" s="154"/>
-      <c r="M60" s="278"/>
-      <c r="N60" s="278"/>
-      <c r="O60" s="278"/>
-      <c r="P60" s="278"/>
-      <c r="Q60" s="278"/>
-      <c r="R60" s="278"/>
-      <c r="S60" s="278"/>
+      <c r="M60" s="285"/>
+      <c r="N60" s="285"/>
+      <c r="O60" s="285"/>
+      <c r="P60" s="285"/>
+      <c r="Q60" s="285"/>
+      <c r="R60" s="285"/>
+      <c r="S60" s="285"/>
       <c r="T60" s="153"/>
     </row>
     <row r="61" spans="7:20">
@@ -39604,13 +41109,13 @@
       <c r="J61" s="154"/>
       <c r="K61" s="154"/>
       <c r="L61" s="154"/>
-      <c r="M61" s="278"/>
-      <c r="N61" s="278"/>
-      <c r="O61" s="278"/>
-      <c r="P61" s="278"/>
-      <c r="Q61" s="278"/>
-      <c r="R61" s="278"/>
-      <c r="S61" s="278"/>
+      <c r="M61" s="285"/>
+      <c r="N61" s="285"/>
+      <c r="O61" s="285"/>
+      <c r="P61" s="285"/>
+      <c r="Q61" s="285"/>
+      <c r="R61" s="285"/>
+      <c r="S61" s="285"/>
       <c r="T61" s="153"/>
     </row>
     <row r="62" spans="7:20">
@@ -39620,13 +41125,13 @@
       <c r="J62" s="154"/>
       <c r="K62" s="154"/>
       <c r="L62" s="154"/>
-      <c r="M62" s="278"/>
-      <c r="N62" s="278"/>
-      <c r="O62" s="278"/>
-      <c r="P62" s="278"/>
-      <c r="Q62" s="278"/>
-      <c r="R62" s="278"/>
-      <c r="S62" s="278"/>
+      <c r="M62" s="285"/>
+      <c r="N62" s="285"/>
+      <c r="O62" s="285"/>
+      <c r="P62" s="285"/>
+      <c r="Q62" s="285"/>
+      <c r="R62" s="285"/>
+      <c r="S62" s="285"/>
       <c r="T62" s="153"/>
     </row>
     <row r="63" spans="7:20">
@@ -39636,13 +41141,13 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="278"/>
-      <c r="N63" s="278"/>
-      <c r="O63" s="278"/>
-      <c r="P63" s="278"/>
-      <c r="Q63" s="278"/>
-      <c r="R63" s="278"/>
-      <c r="S63" s="278"/>
+      <c r="M63" s="285"/>
+      <c r="N63" s="285"/>
+      <c r="O63" s="285"/>
+      <c r="P63" s="285"/>
+      <c r="Q63" s="285"/>
+      <c r="R63" s="285"/>
+      <c r="S63" s="285"/>
       <c r="T63" s="153"/>
     </row>
     <row r="64" spans="7:20">
@@ -39652,13 +41157,13 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="278"/>
-      <c r="N64" s="278"/>
-      <c r="O64" s="278"/>
-      <c r="P64" s="278"/>
-      <c r="Q64" s="278"/>
-      <c r="R64" s="278"/>
-      <c r="S64" s="278"/>
+      <c r="M64" s="285"/>
+      <c r="N64" s="285"/>
+      <c r="O64" s="285"/>
+      <c r="P64" s="285"/>
+      <c r="Q64" s="285"/>
+      <c r="R64" s="285"/>
+      <c r="S64" s="285"/>
       <c r="T64" s="153"/>
     </row>
     <row r="65" spans="4:22">
@@ -39668,13 +41173,13 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="278"/>
-      <c r="N65" s="278"/>
-      <c r="O65" s="278"/>
-      <c r="P65" s="278"/>
-      <c r="Q65" s="278"/>
-      <c r="R65" s="278"/>
-      <c r="S65" s="278"/>
+      <c r="M65" s="285"/>
+      <c r="N65" s="285"/>
+      <c r="O65" s="285"/>
+      <c r="P65" s="285"/>
+      <c r="Q65" s="285"/>
+      <c r="R65" s="285"/>
+      <c r="S65" s="285"/>
       <c r="T65" s="153"/>
     </row>
     <row r="66" spans="4:22">
@@ -39753,8 +41258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AH56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="U44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55:W55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -39921,11 +41426,11 @@
       <c r="J9" s="180"/>
       <c r="K9" s="180"/>
       <c r="L9" s="190"/>
-      <c r="M9" s="281" t="s">
+      <c r="M9" s="288" t="s">
         <v>159</v>
       </c>
-      <c r="N9" s="281"/>
-      <c r="O9" s="281"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="288"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="175"/>
@@ -40323,32 +41828,32 @@
       <c r="AH42" s="199"/>
     </row>
     <row r="43" spans="2:34" ht="21.75" customHeight="1" thickBot="1">
-      <c r="Y43" s="282" t="s">
+      <c r="Y43" s="289" t="s">
         <v>163</v>
       </c>
       <c r="Z43" s="200"/>
-      <c r="AA43" s="282" t="s">
+      <c r="AA43" s="289" t="s">
         <v>164</v>
       </c>
       <c r="AB43" s="200"/>
-      <c r="AC43" s="284" t="s">
+      <c r="AC43" s="291" t="s">
         <v>165</v>
       </c>
-      <c r="AD43" s="288"/>
-      <c r="AE43" s="288"/>
-      <c r="AF43" s="288"/>
-      <c r="AG43" s="288"/>
-      <c r="AH43" s="288"/>
+      <c r="AD43" s="224"/>
+      <c r="AE43" s="224"/>
+      <c r="AF43" s="224"/>
+      <c r="AG43" s="224"/>
+      <c r="AH43" s="224"/>
     </row>
     <row r="44" spans="2:34" ht="21.75" thickBot="1">
-      <c r="Y44" s="283"/>
-      <c r="AA44" s="283"/>
-      <c r="AC44" s="285"/>
-      <c r="AD44" s="289"/>
-      <c r="AE44" s="289"/>
-      <c r="AF44" s="289"/>
-      <c r="AG44" s="289"/>
-      <c r="AH44" s="289"/>
+      <c r="Y44" s="290"/>
+      <c r="AA44" s="290"/>
+      <c r="AC44" s="292"/>
+      <c r="AD44" s="225"/>
+      <c r="AE44" s="225"/>
+      <c r="AF44" s="225"/>
+      <c r="AG44" s="225"/>
+      <c r="AH44" s="225"/>
     </row>
     <row r="45" spans="2:34">
       <c r="Y45" s="199"/>
@@ -40362,58 +41867,66 @@
     <row r="48" spans="2:34" ht="33.75" customHeight="1">
       <c r="Y48" s="199"/>
     </row>
-    <row r="51" spans="21:34">
-      <c r="AD51" s="290" t="s">
+    <row r="51" spans="25:34">
+      <c r="AD51" s="226" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="21:34" s="286" customFormat="1" ht="39.75" customHeight="1">
-      <c r="U55" s="293" t="s">
+    <row r="52" spans="25:34">
+      <c r="Y52" s="178"/>
+      <c r="Z52" s="178"/>
+      <c r="AA52" s="178"/>
+    </row>
+    <row r="53" spans="25:34">
+      <c r="Y53" s="293" t="s">
         <v>187</v>
       </c>
-      <c r="V55" s="294" t="s">
+      <c r="Z53" s="294" t="s">
         <v>188</v>
       </c>
-      <c r="W55" s="294"/>
-      <c r="Y55" s="287"/>
-      <c r="Z55" s="290" t="s">
+      <c r="AA53" s="294"/>
+    </row>
+    <row r="54" spans="25:34">
+      <c r="AA54" s="227" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB54" s="228" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC54" s="228" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="25:34" s="222" customFormat="1" ht="39.75" customHeight="1">
+      <c r="Y55" s="223"/>
+      <c r="Z55" s="226" t="s">
         <v>46</v>
       </c>
-      <c r="AA55" s="290" t="s">
+      <c r="AA55" s="295" t="s">
         <v>43</v>
       </c>
-      <c r="AB55" s="290" t="s">
+      <c r="AB55" s="226" t="s">
         <v>47</v>
       </c>
-      <c r="AC55" s="290" t="s">
+      <c r="AC55" s="226" t="s">
         <v>47</v>
       </c>
-      <c r="AD55" s="290" t="s">
+      <c r="AD55" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="AE55" s="290" t="s">
+      <c r="AE55" s="226" t="s">
         <v>182</v>
       </c>
-      <c r="AF55" s="290" t="s">
+      <c r="AF55" s="226" t="s">
         <v>183</v>
       </c>
-      <c r="AG55" s="287"/>
-      <c r="AH55" s="287"/>
-    </row>
-    <row r="56" spans="21:34" s="291" customFormat="1" ht="15.75">
-      <c r="AA56" s="291" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB56" s="292" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC56" s="292" t="s">
-        <v>186</v>
-      </c>
-    </row>
+      <c r="AG55" s="223"/>
+      <c r="AH55" s="223"/>
+    </row>
+    <row r="56" spans="25:34" s="227" customFormat="1" ht="15.75"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="Z53:AA53"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="Y43:Y44"/>
     <mergeCell ref="AA43:AA44"/>
@@ -40444,8 +41957,8 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:U42"/>
+    <sheetView showGridLines="0" topLeftCell="E21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40970,24 +42483,24 @@
       <c r="C9" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="232">
+      <c r="D9" s="240">
         <v>43191</v>
       </c>
-      <c r="E9" s="232"/>
+      <c r="E9" s="240"/>
       <c r="K9" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="234" t="s">
+      <c r="L9" s="241" t="s">
         <v>168</v>
       </c>
-      <c r="M9" s="234"/>
+      <c r="M9" s="241"/>
       <c r="S9" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="231" t="s">
+      <c r="T9" s="239" t="s">
         <v>124</v>
       </c>
-      <c r="U9" s="231"/>
+      <c r="U9" s="239"/>
     </row>
     <row r="10" spans="1:23">
       <c r="B10" s="3"/>
@@ -41013,24 +42526,24 @@
       <c r="C11" s="167" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="235" t="s">
+      <c r="D11" s="242" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="235"/>
+      <c r="E11" s="242"/>
       <c r="K11" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="222">
+      <c r="L11" s="243">
         <v>10</v>
       </c>
-      <c r="M11" s="222"/>
+      <c r="M11" s="243"/>
       <c r="S11" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="T11" s="223">
+      <c r="T11" s="244">
         <v>3</v>
       </c>
-      <c r="U11" s="223"/>
+      <c r="U11" s="244"/>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="C12" s="217"/>
@@ -41066,32 +42579,32 @@
       <c r="D14" s="201" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="224" t="s">
+      <c r="E14" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="229" t="s">
+      <c r="F14" s="245"/>
+      <c r="G14" s="245"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="234" t="s">
         <v>169</v>
       </c>
-      <c r="J14" s="229"/>
-      <c r="K14" s="229" t="s">
+      <c r="J14" s="234"/>
+      <c r="K14" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="229"/>
-      <c r="M14" s="229" t="s">
+      <c r="L14" s="234"/>
+      <c r="M14" s="234" t="s">
         <v>171</v>
       </c>
-      <c r="N14" s="229"/>
-      <c r="O14" s="229" t="s">
+      <c r="N14" s="234"/>
+      <c r="O14" s="234" t="s">
         <v>171</v>
       </c>
-      <c r="P14" s="229"/>
-      <c r="Q14" s="229" t="s">
+      <c r="P14" s="234"/>
+      <c r="Q14" s="234" t="s">
         <v>171</v>
       </c>
-      <c r="R14" s="229"/>
+      <c r="R14" s="234"/>
       <c r="W14" s="166"/>
     </row>
     <row r="15" spans="1:23" s="170" customFormat="1" ht="15.75" customHeight="1">
@@ -41100,26 +42613,26 @@
       <c r="F15" s="203"/>
       <c r="G15" s="203"/>
       <c r="H15" s="203"/>
-      <c r="I15" s="228" t="s">
+      <c r="I15" s="235" t="s">
         <v>173</v>
       </c>
-      <c r="J15" s="228"/>
-      <c r="K15" s="228" t="s">
+      <c r="J15" s="235"/>
+      <c r="K15" s="235" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="228"/>
-      <c r="M15" s="228" t="s">
+      <c r="L15" s="235"/>
+      <c r="M15" s="235" t="s">
         <v>178</v>
       </c>
-      <c r="N15" s="228"/>
-      <c r="O15" s="228" t="s">
+      <c r="N15" s="235"/>
+      <c r="O15" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="P15" s="228"/>
-      <c r="Q15" s="228" t="s">
+      <c r="P15" s="235"/>
+      <c r="Q15" s="235" t="s">
         <v>174</v>
       </c>
-      <c r="R15" s="228"/>
+      <c r="R15" s="235"/>
       <c r="W15" s="171"/>
     </row>
     <row r="16" spans="1:23" s="212" customFormat="1" ht="15.75" customHeight="1">
@@ -41128,24 +42641,24 @@
       <c r="F16" s="213"/>
       <c r="G16" s="213"/>
       <c r="H16" s="213"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="230"/>
-      <c r="K16" s="230" t="s">
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="233" t="s">
         <v>177</v>
       </c>
-      <c r="L16" s="230"/>
-      <c r="M16" s="230" t="s">
+      <c r="L16" s="233"/>
+      <c r="M16" s="233" t="s">
         <v>179</v>
       </c>
-      <c r="N16" s="230"/>
-      <c r="O16" s="230" t="s">
+      <c r="N16" s="233"/>
+      <c r="O16" s="233" t="s">
         <v>180</v>
       </c>
-      <c r="P16" s="230"/>
-      <c r="Q16" s="230" t="s">
+      <c r="P16" s="233"/>
+      <c r="Q16" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="R16" s="230"/>
+      <c r="R16" s="233"/>
       <c r="W16" s="214"/>
     </row>
     <row r="17" spans="2:19" ht="21.75" customHeight="1">
@@ -41158,26 +42671,26 @@
       <c r="F17" s="202"/>
       <c r="G17" s="202"/>
       <c r="H17" s="202"/>
-      <c r="I17" s="226" t="s">
+      <c r="I17" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="227"/>
-      <c r="K17" s="225" t="s">
+      <c r="J17" s="231"/>
+      <c r="K17" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="225"/>
-      <c r="M17" s="225" t="s">
+      <c r="L17" s="232"/>
+      <c r="M17" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N17" s="225"/>
-      <c r="O17" s="225" t="s">
+      <c r="N17" s="232"/>
+      <c r="O17" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="225" t="s">
+      <c r="P17" s="232"/>
+      <c r="Q17" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R17" s="225"/>
+      <c r="R17" s="232"/>
     </row>
     <row r="18" spans="2:19" ht="21.75" customHeight="1">
       <c r="D18" s="210">
@@ -41189,26 +42702,26 @@
       <c r="F18" s="202"/>
       <c r="G18" s="202"/>
       <c r="H18" s="202"/>
-      <c r="I18" s="226" t="s">
+      <c r="I18" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="227"/>
-      <c r="K18" s="225" t="s">
+      <c r="J18" s="231"/>
+      <c r="K18" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="225"/>
-      <c r="M18" s="225" t="s">
+      <c r="L18" s="232"/>
+      <c r="M18" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N18" s="225"/>
-      <c r="O18" s="225" t="s">
+      <c r="N18" s="232"/>
+      <c r="O18" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="225" t="s">
+      <c r="P18" s="232"/>
+      <c r="Q18" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R18" s="225"/>
+      <c r="R18" s="232"/>
     </row>
     <row r="19" spans="2:19" ht="21.75" customHeight="1">
       <c r="D19" s="210">
@@ -41220,26 +42733,26 @@
       <c r="F19" s="202"/>
       <c r="G19" s="202"/>
       <c r="H19" s="202"/>
-      <c r="I19" s="226" t="s">
+      <c r="I19" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="227"/>
-      <c r="K19" s="225" t="s">
+      <c r="J19" s="231"/>
+      <c r="K19" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L19" s="225"/>
-      <c r="M19" s="225" t="s">
+      <c r="L19" s="232"/>
+      <c r="M19" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N19" s="225"/>
-      <c r="O19" s="225" t="s">
+      <c r="N19" s="232"/>
+      <c r="O19" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="225"/>
-      <c r="Q19" s="225" t="s">
+      <c r="P19" s="232"/>
+      <c r="Q19" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R19" s="225"/>
+      <c r="R19" s="232"/>
     </row>
     <row r="20" spans="2:19" ht="21.75" customHeight="1">
       <c r="D20" s="210">
@@ -41251,26 +42764,26 @@
       <c r="F20" s="202"/>
       <c r="G20" s="202"/>
       <c r="H20" s="202"/>
-      <c r="I20" s="226" t="s">
+      <c r="I20" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="227"/>
-      <c r="K20" s="225" t="s">
+      <c r="J20" s="231"/>
+      <c r="K20" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="225"/>
-      <c r="M20" s="225" t="s">
+      <c r="L20" s="232"/>
+      <c r="M20" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N20" s="225"/>
-      <c r="O20" s="233" t="s">
+      <c r="N20" s="232"/>
+      <c r="O20" s="237" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="233"/>
-      <c r="Q20" s="225" t="s">
+      <c r="P20" s="237"/>
+      <c r="Q20" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R20" s="225"/>
+      <c r="R20" s="232"/>
     </row>
     <row r="21" spans="2:19" ht="21.75" customHeight="1">
       <c r="D21" s="210">
@@ -41282,26 +42795,26 @@
       <c r="F21" s="202"/>
       <c r="G21" s="202"/>
       <c r="H21" s="202"/>
-      <c r="I21" s="226" t="s">
+      <c r="I21" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="227"/>
-      <c r="K21" s="225" t="s">
+      <c r="J21" s="231"/>
+      <c r="K21" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L21" s="225"/>
-      <c r="M21" s="225" t="s">
+      <c r="L21" s="232"/>
+      <c r="M21" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N21" s="225"/>
-      <c r="O21" s="225" t="s">
+      <c r="N21" s="232"/>
+      <c r="O21" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="225"/>
-      <c r="Q21" s="225" t="s">
+      <c r="P21" s="232"/>
+      <c r="Q21" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="225"/>
+      <c r="R21" s="232"/>
     </row>
     <row r="22" spans="2:19" ht="21.75" customHeight="1">
       <c r="D22" s="210">
@@ -41313,26 +42826,26 @@
       <c r="F22" s="202"/>
       <c r="G22" s="202"/>
       <c r="H22" s="202"/>
-      <c r="I22" s="226" t="s">
+      <c r="I22" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J22" s="227"/>
-      <c r="K22" s="225" t="s">
+      <c r="J22" s="231"/>
+      <c r="K22" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="225"/>
-      <c r="M22" s="225" t="s">
+      <c r="L22" s="232"/>
+      <c r="M22" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N22" s="225"/>
-      <c r="O22" s="233" t="s">
+      <c r="N22" s="232"/>
+      <c r="O22" s="237" t="s">
         <v>120</v>
       </c>
-      <c r="P22" s="237"/>
-      <c r="Q22" s="225" t="s">
+      <c r="P22" s="238"/>
+      <c r="Q22" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R22" s="225"/>
+      <c r="R22" s="232"/>
     </row>
     <row r="23" spans="2:19" ht="21.75" customHeight="1">
       <c r="D23" s="210">
@@ -41344,26 +42857,26 @@
       <c r="F23" s="202"/>
       <c r="G23" s="202"/>
       <c r="H23" s="202"/>
-      <c r="I23" s="226" t="s">
+      <c r="I23" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J23" s="227"/>
-      <c r="K23" s="225" t="s">
+      <c r="J23" s="231"/>
+      <c r="K23" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="225"/>
-      <c r="M23" s="225" t="s">
+      <c r="L23" s="232"/>
+      <c r="M23" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N23" s="225"/>
-      <c r="O23" s="233" t="s">
+      <c r="N23" s="232"/>
+      <c r="O23" s="237" t="s">
         <v>120</v>
       </c>
-      <c r="P23" s="233"/>
-      <c r="Q23" s="225" t="s">
+      <c r="P23" s="237"/>
+      <c r="Q23" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R23" s="225"/>
+      <c r="R23" s="232"/>
     </row>
     <row r="24" spans="2:19" ht="21.75" customHeight="1">
       <c r="D24" s="210">
@@ -41375,26 +42888,26 @@
       <c r="F24" s="202"/>
       <c r="G24" s="202"/>
       <c r="H24" s="202"/>
-      <c r="I24" s="226" t="s">
+      <c r="I24" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="227"/>
-      <c r="K24" s="225" t="s">
+      <c r="J24" s="231"/>
+      <c r="K24" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="225"/>
-      <c r="M24" s="225" t="s">
+      <c r="L24" s="232"/>
+      <c r="M24" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="225"/>
-      <c r="O24" s="225" t="s">
+      <c r="N24" s="232"/>
+      <c r="O24" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="225" t="s">
+      <c r="P24" s="232"/>
+      <c r="Q24" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R24" s="225"/>
+      <c r="R24" s="232"/>
     </row>
     <row r="25" spans="2:19" ht="21.75" customHeight="1">
       <c r="D25" s="210">
@@ -41406,26 +42919,26 @@
       <c r="F25" s="202"/>
       <c r="G25" s="202"/>
       <c r="H25" s="202"/>
-      <c r="I25" s="226" t="s">
+      <c r="I25" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="227"/>
-      <c r="K25" s="225" t="s">
+      <c r="J25" s="231"/>
+      <c r="K25" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L25" s="225"/>
-      <c r="M25" s="225" t="s">
+      <c r="L25" s="232"/>
+      <c r="M25" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N25" s="225"/>
-      <c r="O25" s="225" t="s">
+      <c r="N25" s="232"/>
+      <c r="O25" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="225"/>
-      <c r="Q25" s="225" t="s">
+      <c r="P25" s="232"/>
+      <c r="Q25" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R25" s="225"/>
+      <c r="R25" s="232"/>
     </row>
     <row r="26" spans="2:19" ht="21.75" customHeight="1">
       <c r="D26" s="210">
@@ -41437,26 +42950,26 @@
       <c r="F26" s="202"/>
       <c r="G26" s="202"/>
       <c r="H26" s="202"/>
-      <c r="I26" s="226" t="s">
+      <c r="I26" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="227"/>
-      <c r="K26" s="225" t="s">
+      <c r="J26" s="231"/>
+      <c r="K26" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="L26" s="225"/>
-      <c r="M26" s="225" t="s">
+      <c r="L26" s="232"/>
+      <c r="M26" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="N26" s="225"/>
-      <c r="O26" s="225" t="s">
+      <c r="N26" s="232"/>
+      <c r="O26" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="225"/>
-      <c r="Q26" s="225" t="s">
+      <c r="P26" s="232"/>
+      <c r="Q26" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="R26" s="225"/>
+      <c r="R26" s="232"/>
     </row>
     <row r="27" spans="2:19" ht="21.75" customHeight="1">
       <c r="F27" s="204"/>
@@ -41519,9 +43032,9 @@
       <c r="R30" s="20"/>
     </row>
     <row r="31" spans="2:19" ht="21.75" customHeight="1">
-      <c r="B31" s="238"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
+      <c r="B31" s="229"/>
+      <c r="C31" s="229"/>
+      <c r="D31" s="229"/>
       <c r="E31" s="216"/>
     </row>
     <row r="32" spans="2:19" ht="21.75" customHeight="1">
@@ -41552,6 +43065,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="O19:P19"/>
@@ -41568,64 +43139,6 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41700,18 +43213,18 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="242"/>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
+      <c r="A4" s="248"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -41747,112 +43260,112 @@
       <c r="S6" s="172"/>
     </row>
     <row r="8" spans="1:23" ht="43.5" customHeight="1">
-      <c r="D8" s="240" t="s">
+      <c r="D8" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240" t="s">
+      <c r="E8" s="249"/>
+      <c r="F8" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="240"/>
-      <c r="H8" s="243" t="s">
+      <c r="G8" s="249"/>
+      <c r="H8" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="243"/>
-      <c r="L8" s="243"/>
-      <c r="M8" s="243"/>
-      <c r="N8" s="243" t="s">
+      <c r="I8" s="250"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="250"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="250"/>
+      <c r="N8" s="250" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="243"/>
-      <c r="P8" s="240" t="s">
+      <c r="O8" s="250"/>
+      <c r="P8" s="249" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="240"/>
-      <c r="R8" s="240" t="s">
+      <c r="Q8" s="249"/>
+      <c r="R8" s="249" t="s">
         <v>125</v>
       </c>
-      <c r="S8" s="240"/>
+      <c r="S8" s="249"/>
     </row>
     <row r="9" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D9" s="239" t="s">
+      <c r="D9" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="239" t="s">
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
-      <c r="M9" s="239"/>
-      <c r="N9" s="239" t="s">
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="239"/>
-      <c r="P9" s="241">
+      <c r="O9" s="246"/>
+      <c r="P9" s="247">
         <v>43185</v>
       </c>
-      <c r="Q9" s="239"/>
-      <c r="R9" s="239"/>
-      <c r="S9" s="239"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
     </row>
     <row r="10" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D10" s="239" t="s">
+      <c r="D10" s="246" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="239"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="239"/>
-      <c r="H10" s="239" t="s">
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="239"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="239"/>
-      <c r="M10" s="239"/>
-      <c r="N10" s="239" t="s">
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="239"/>
-      <c r="P10" s="241">
+      <c r="O10" s="246"/>
+      <c r="P10" s="247">
         <v>43185</v>
       </c>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="239"/>
-      <c r="S10" s="239"/>
+      <c r="Q10" s="246"/>
+      <c r="R10" s="246"/>
+      <c r="S10" s="246"/>
     </row>
     <row r="11" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D11" s="239" t="s">
+      <c r="D11" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239" t="s">
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="239"/>
-      <c r="M11" s="239"/>
-      <c r="N11" s="239" t="s">
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="246"/>
+      <c r="M11" s="246"/>
+      <c r="N11" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="239"/>
-      <c r="P11" s="241">
+      <c r="O11" s="246"/>
+      <c r="P11" s="247">
         <v>43185</v>
       </c>
-      <c r="Q11" s="239"/>
-      <c r="R11" s="239"/>
-      <c r="S11" s="239"/>
+      <c r="Q11" s="246"/>
+      <c r="R11" s="246"/>
+      <c r="S11" s="246"/>
     </row>
     <row r="12" spans="1:23" ht="69.75" customHeight="1"/>
     <row r="13" spans="1:23" ht="69.75" customHeight="1"/>
@@ -41878,18 +43391,6 @@
     <row r="33" ht="69.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="P8:Q8"/>
@@ -41903,6 +43404,18 @@
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="900" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="900" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="188">
   <si>
     <t>Full Name</t>
   </si>
@@ -752,6 +752,9 @@
   <si>
     <t>Contact Us</t>
   </si>
+  <si>
+    <t>JUMPSTART YOUR SALE AND RANKING</t>
+  </si>
 </sst>
 </file>
 
@@ -761,7 +764,7 @@
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="79">
+  <fonts count="82">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,6 +1358,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1988,7 +2013,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2586,46 +2611,10 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="72" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2637,8 +2626,53 @@
     <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="72" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2646,11 +2680,41 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2703,39 +2767,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2757,6 +2788,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2772,14 +2806,32 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="79" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2791,10 +2843,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00C4A7"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFFF6600"/>
       <color rgb="FFCCFF66"/>
-      <color rgb="FF00C4A7"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF33CC33"/>
     </mruColors>
@@ -2950,7 +3002,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -2959,7 +3011,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3216,7 +3268,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3901,7 +3953,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3945,7 +3997,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -3954,7 +4006,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13291,7 +13343,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15015,7 +15067,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -15024,7 +15076,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15281,7 +15333,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15966,7 +16018,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16010,7 +16062,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -16019,7 +16071,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16156,7 +16208,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -16165,7 +16217,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16279,7 +16331,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16324,7 +16376,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18939,7 +18991,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -18948,7 +19000,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18993,7 +19045,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20080,7 +20132,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -20089,7 +20141,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20134,7 +20186,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21718,7 +21770,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -21727,7 +21779,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21984,7 +22036,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22455,7 +22507,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22499,7 +22551,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -22508,7 +22560,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22781,7 +22833,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -22790,7 +22842,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23047,7 +23099,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23732,7 +23784,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23776,7 +23828,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -23785,7 +23837,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23951,7 +24003,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -23960,7 +24012,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24217,7 +24269,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24902,7 +24954,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24946,7 +24998,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -24955,7 +25007,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25029,16 +25081,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57153</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361953</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>528169</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>471074</xdr:rowOff>
+      <xdr:rowOff>507074</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25052,7 +25104,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25062,8 +25114,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324353" y="409574"/>
-          <a:ext cx="2909416" cy="252000"/>
+          <a:off x="361953" y="409574"/>
+          <a:ext cx="3325047" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25074,13 +25126,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>72600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>514500</xdr:rowOff>
@@ -25101,7 +25153,7 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF6600"/>
+          <a:srgbClr val="FF3300"/>
         </a:solidFill>
         <a:ln w="3175">
           <a:noFill/>
@@ -25136,6 +25188,1908 @@
             </a:rPr>
             <a:t>JOIN NOW</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1819275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="4810125"/>
+          <a:ext cx="10744200" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> YOUR FREE* ACCESS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Upload Your</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Products on </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Coupon N Discount Platform at</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DISCOUNTED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Price</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>62625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="14230350"/>
+          <a:ext cx="1838325" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Statistic</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="2266950"/>
+          <a:ext cx="1838325" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Amazon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905375" y="2266950"/>
+          <a:ext cx="1838325" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>e-Bay</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rounded Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="2276475"/>
+          <a:ext cx="1838325" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>e-Commerce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Stores</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15451</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rounded Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010651" y="11811000"/>
+          <a:ext cx="2587200" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Join NOW for FREE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>435975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>102599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="8867774"/>
+          <a:ext cx="2160000" cy="2160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Personalize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dashboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104774" y="8115299"/>
+          <a:ext cx="4514851" cy="504826"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sellers will get access to</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="8858249"/>
+          <a:ext cx="2160000" cy="2160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00C4A7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Upload</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Add - Edit Products</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>283949</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>131549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819149" y="9039224"/>
+          <a:ext cx="684000" cy="684000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Icon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>255374</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rounded Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228974" y="9029699"/>
+          <a:ext cx="684000" cy="684000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Icon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rounded Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104774" y="11229973"/>
+          <a:ext cx="4533901" cy="990601"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Statistics</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rounded Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371474" y="11458574"/>
+          <a:ext cx="571501" cy="542926"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Icon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419098</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>500698</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905498" y="8753475"/>
+          <a:ext cx="2520000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>USA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$-USD </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rounded Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838824" y="8096249"/>
+          <a:ext cx="5476876" cy="504826"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Choose Your Audiences</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257173</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>338773</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8791573" y="8743950"/>
+          <a:ext cx="2520000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UK</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1050" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>£ - GBP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rounded Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="10144125"/>
+          <a:ext cx="2520000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Europe</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E - Euro</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>367350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rounded Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8820150" y="10144125"/>
+          <a:ext cx="2520000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>       Worldwide</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - USD Only</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1050" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141074</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rounded Rectangle 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162674" y="9124949"/>
+          <a:ext cx="684000" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flag</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>588749</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048749" y="9124949"/>
+          <a:ext cx="684000" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flag</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="10572750"/>
+          <a:ext cx="684000" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flag</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503024</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963024" y="10553699"/>
+          <a:ext cx="684000" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flag</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1819275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="2733675"/>
+          <a:ext cx="10725149" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Brief</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> text section here</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -25549,15 +27503,24 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="G2:Y14"/>
+  <dimension ref="A2:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="298"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="7:25" ht="54" customHeight="1">
+    <row r="2" spans="1:19" ht="54" customHeight="1">
+      <c r="A2" s="295"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
@@ -25571,37 +27534,495 @@
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-    </row>
-    <row r="14" spans="7:25" ht="111" customHeight="1">
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
+    </row>
+    <row r="3" spans="1:19" ht="70.5" customHeight="1">
+      <c r="A3" s="299" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="299"/>
+      <c r="S3" s="299"/>
+    </row>
+    <row r="4" spans="1:19" ht="33.75" customHeight="1">
+      <c r="A4" s="294"/>
+      <c r="E4" s="300"/>
+    </row>
+    <row r="5" spans="1:19" ht="26.25" customHeight="1">
+      <c r="A5" s="297"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="293"/>
+      <c r="G5" s="293"/>
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="293"/>
+      <c r="K5" s="293"/>
+      <c r="L5" s="293"/>
+      <c r="M5" s="293"/>
+      <c r="N5" s="293"/>
+      <c r="O5" s="293"/>
+      <c r="P5" s="293"/>
+      <c r="Q5" s="293"/>
+      <c r="R5" s="293"/>
+      <c r="S5" s="293"/>
+    </row>
+    <row r="6" spans="1:19" ht="162" customHeight="1">
+      <c r="A6" s="297"/>
+      <c r="B6" s="293"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="293"/>
+      <c r="G6" s="293"/>
+      <c r="H6" s="293"/>
+      <c r="I6" s="293"/>
+      <c r="J6" s="293"/>
+      <c r="K6" s="293"/>
+      <c r="L6" s="293"/>
+      <c r="M6" s="293"/>
+      <c r="N6" s="293"/>
+      <c r="O6" s="293"/>
+      <c r="P6" s="293"/>
+      <c r="Q6" s="293"/>
+      <c r="R6" s="293"/>
+      <c r="S6" s="293"/>
+    </row>
+    <row r="7" spans="1:19" ht="156.75" customHeight="1">
+      <c r="A7" s="296"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="292"/>
+      <c r="M7" s="292"/>
+      <c r="N7" s="292"/>
+      <c r="O7" s="292"/>
+      <c r="P7" s="292"/>
+      <c r="Q7" s="292"/>
+      <c r="R7" s="292"/>
+      <c r="S7" s="292"/>
+    </row>
+    <row r="10" spans="1:19" ht="43.5" customHeight="1">
+      <c r="A10" s="302"/>
+      <c r="B10" s="302"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="J10" s="301"/>
+      <c r="K10" s="301"/>
+      <c r="L10" s="301"/>
+      <c r="M10" s="301"/>
+      <c r="N10" s="301"/>
+      <c r="O10" s="301"/>
+      <c r="P10" s="301"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="301"/>
+      <c r="S10" s="301"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="295"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="J11" s="301"/>
+      <c r="K11" s="301"/>
+      <c r="L11" s="301"/>
+      <c r="M11" s="301"/>
+      <c r="N11" s="301"/>
+      <c r="O11" s="301"/>
+      <c r="P11" s="301"/>
+      <c r="Q11" s="301"/>
+      <c r="R11" s="301"/>
+      <c r="S11" s="301"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="295"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="J12" s="301"/>
+      <c r="K12" s="301"/>
+      <c r="L12" s="301"/>
+      <c r="M12" s="301"/>
+      <c r="N12" s="301"/>
+      <c r="O12" s="301"/>
+      <c r="P12" s="301"/>
+      <c r="Q12" s="301"/>
+      <c r="R12" s="301"/>
+      <c r="S12" s="301"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="295"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="301"/>
+      <c r="M13" s="301"/>
+      <c r="N13" s="301"/>
+      <c r="O13" s="301"/>
+      <c r="P13" s="301"/>
+      <c r="Q13" s="301"/>
+      <c r="R13" s="301"/>
+      <c r="S13" s="301"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="295"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="J14" s="301"/>
+      <c r="K14" s="301"/>
+      <c r="L14" s="301"/>
+      <c r="M14" s="301"/>
+      <c r="N14" s="301"/>
+      <c r="O14" s="301"/>
+      <c r="P14" s="301"/>
+      <c r="Q14" s="301"/>
+      <c r="R14" s="301"/>
+      <c r="S14" s="301"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="295"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="J15" s="301"/>
+      <c r="K15" s="301"/>
+      <c r="L15" s="301"/>
+      <c r="M15" s="301"/>
+      <c r="N15" s="301"/>
+      <c r="O15" s="301"/>
+      <c r="P15" s="301"/>
+      <c r="Q15" s="301"/>
+      <c r="R15" s="301"/>
+      <c r="S15" s="301"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="295"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="J16" s="301"/>
+      <c r="K16" s="301"/>
+      <c r="L16" s="301"/>
+      <c r="M16" s="301"/>
+      <c r="N16" s="301"/>
+      <c r="O16" s="301"/>
+      <c r="P16" s="301"/>
+      <c r="Q16" s="301"/>
+      <c r="R16" s="301"/>
+      <c r="S16" s="301"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="295"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="J17" s="301"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="301"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="301"/>
+      <c r="P17" s="301"/>
+      <c r="Q17" s="301"/>
+      <c r="R17" s="301"/>
+      <c r="S17" s="301"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="295"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="J18" s="301"/>
+      <c r="K18" s="301"/>
+      <c r="L18" s="301"/>
+      <c r="M18" s="301"/>
+      <c r="N18" s="301"/>
+      <c r="O18" s="301"/>
+      <c r="P18" s="301"/>
+      <c r="Q18" s="301"/>
+      <c r="R18" s="301"/>
+      <c r="S18" s="301"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="295"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="301"/>
+      <c r="L19" s="301"/>
+      <c r="M19" s="301"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="301"/>
+      <c r="P19" s="301"/>
+      <c r="Q19" s="301"/>
+      <c r="R19" s="301"/>
+      <c r="S19" s="301"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="295"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="J20" s="301"/>
+      <c r="K20" s="301"/>
+      <c r="L20" s="301"/>
+      <c r="M20" s="301"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="301"/>
+      <c r="P20" s="301"/>
+      <c r="Q20" s="301"/>
+      <c r="R20" s="301"/>
+      <c r="S20" s="301"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="295"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="J21" s="301"/>
+      <c r="K21" s="301"/>
+      <c r="L21" s="301"/>
+      <c r="M21" s="301"/>
+      <c r="N21" s="301"/>
+      <c r="O21" s="301"/>
+      <c r="P21" s="301"/>
+      <c r="Q21" s="301"/>
+      <c r="R21" s="301"/>
+      <c r="S21" s="301"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="295"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="J22" s="301"/>
+      <c r="K22" s="301"/>
+      <c r="L22" s="301"/>
+      <c r="M22" s="301"/>
+      <c r="N22" s="301"/>
+      <c r="O22" s="301"/>
+      <c r="P22" s="301"/>
+      <c r="Q22" s="301"/>
+      <c r="R22" s="301"/>
+      <c r="S22" s="301"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="295"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="301"/>
+      <c r="L23" s="301"/>
+      <c r="M23" s="301"/>
+      <c r="N23" s="301"/>
+      <c r="O23" s="301"/>
+      <c r="P23" s="301"/>
+      <c r="Q23" s="301"/>
+      <c r="R23" s="301"/>
+      <c r="S23" s="301"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="295"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="301"/>
+      <c r="L24" s="301"/>
+      <c r="M24" s="301"/>
+      <c r="N24" s="301"/>
+      <c r="O24" s="301"/>
+      <c r="P24" s="301"/>
+      <c r="Q24" s="301"/>
+      <c r="R24" s="301"/>
+      <c r="S24" s="301"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="295"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="J25" s="301"/>
+      <c r="K25" s="301"/>
+      <c r="L25" s="301"/>
+      <c r="M25" s="301"/>
+      <c r="N25" s="301"/>
+      <c r="O25" s="301"/>
+      <c r="P25" s="301"/>
+      <c r="Q25" s="301"/>
+      <c r="R25" s="301"/>
+      <c r="S25" s="301"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="295"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="J26" s="301"/>
+      <c r="K26" s="301"/>
+      <c r="L26" s="301"/>
+      <c r="M26" s="301"/>
+      <c r="N26" s="301"/>
+      <c r="O26" s="301"/>
+      <c r="P26" s="301"/>
+      <c r="Q26" s="301"/>
+      <c r="R26" s="301"/>
+      <c r="S26" s="301"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="295"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="295"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="295"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="295"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="295"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A10:H10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25929,7 +28350,7 @@
       <c r="O8" s="57"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="272" t="s">
+      <c r="R8" s="252" t="s">
         <v>43</v>
       </c>
       <c r="W8" s="33" t="s">
@@ -25969,7 +28390,7 @@
       <c r="O9" s="57"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="272"/>
+      <c r="R9" s="252"/>
       <c r="W9" s="31"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="3"/>
@@ -26065,10 +28486,10 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="20"/>
       <c r="X12" s="2"/>
-      <c r="AL12" s="249" t="s">
+      <c r="AL12" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="AM12" s="249"/>
+      <c r="AM12" s="262"/>
     </row>
     <row r="13" spans="1:41" ht="31.5" customHeight="1">
       <c r="B13" s="55"/>
@@ -26118,10 +28539,10 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="8"/>
-      <c r="AH14" s="250" t="s">
+      <c r="AH14" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" s="251"/>
+      <c r="AI14" s="264"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
@@ -26146,8 +28567,8 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="20"/>
       <c r="X15" s="9"/>
-      <c r="AH15" s="250"/>
-      <c r="AI15" s="251"/>
+      <c r="AH15" s="263"/>
+      <c r="AI15" s="264"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
@@ -26209,16 +28630,16 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="20"/>
       <c r="X17" s="9"/>
-      <c r="AH17" s="250" t="s">
+      <c r="AH17" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="AI17" s="251"/>
-      <c r="AJ17" s="252" t="s">
+      <c r="AI17" s="264"/>
+      <c r="AJ17" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="AK17" s="253"/>
-      <c r="AL17" s="253"/>
-      <c r="AM17" s="254"/>
+      <c r="AK17" s="266"/>
+      <c r="AL17" s="266"/>
+      <c r="AM17" s="267"/>
     </row>
     <row r="18" spans="2:41" ht="31.5" customHeight="1">
       <c r="B18" s="55"/>
@@ -26248,12 +28669,12 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="12"/>
-      <c r="AH18" s="250"/>
-      <c r="AI18" s="251"/>
-      <c r="AJ18" s="255"/>
-      <c r="AK18" s="256"/>
-      <c r="AL18" s="256"/>
-      <c r="AM18" s="257"/>
+      <c r="AH18" s="263"/>
+      <c r="AI18" s="264"/>
+      <c r="AJ18" s="268"/>
+      <c r="AK18" s="269"/>
+      <c r="AL18" s="269"/>
+      <c r="AM18" s="270"/>
     </row>
     <row r="19" spans="2:41" ht="31.5" customHeight="1">
       <c r="B19" s="55"/>
@@ -26314,17 +28735,17 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="14"/>
-      <c r="AG20" s="258" t="s">
+      <c r="AG20" s="271" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="258"/>
-      <c r="AI20" s="259"/>
-      <c r="AJ20" s="260" t="s">
+      <c r="AH20" s="271"/>
+      <c r="AI20" s="272"/>
+      <c r="AJ20" s="273" t="s">
         <v>24</v>
       </c>
-      <c r="AK20" s="261"/>
-      <c r="AL20" s="261"/>
-      <c r="AM20" s="262"/>
+      <c r="AK20" s="274"/>
+      <c r="AL20" s="274"/>
+      <c r="AM20" s="275"/>
     </row>
     <row r="21" spans="2:41" ht="31.5" customHeight="1">
       <c r="B21" s="55"/>
@@ -26352,13 +28773,13 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="17"/>
-      <c r="AG21" s="258"/>
-      <c r="AH21" s="258"/>
-      <c r="AI21" s="259"/>
-      <c r="AJ21" s="263"/>
-      <c r="AK21" s="264"/>
-      <c r="AL21" s="264"/>
-      <c r="AM21" s="265"/>
+      <c r="AG21" s="271"/>
+      <c r="AH21" s="271"/>
+      <c r="AI21" s="272"/>
+      <c r="AJ21" s="276"/>
+      <c r="AK21" s="277"/>
+      <c r="AL21" s="277"/>
+      <c r="AM21" s="278"/>
     </row>
     <row r="22" spans="2:41" ht="31.5" customHeight="1">
       <c r="B22" s="55"/>
@@ -26436,12 +28857,12 @@
       <c r="AI24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AJ24" s="266">
+      <c r="AJ24" s="258">
         <v>43202</v>
       </c>
-      <c r="AK24" s="267"/>
-      <c r="AL24" s="267"/>
-      <c r="AM24" s="268"/>
+      <c r="AK24" s="259"/>
+      <c r="AL24" s="259"/>
+      <c r="AM24" s="260"/>
     </row>
     <row r="25" spans="2:41" ht="31.5" customHeight="1">
       <c r="B25" s="55"/>
@@ -26510,11 +28931,11 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="24"/>
-      <c r="AK26" s="269" t="s">
+      <c r="AK26" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="AL26" s="269"/>
-      <c r="AM26" s="269"/>
+      <c r="AL26" s="261"/>
+      <c r="AM26" s="261"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
@@ -26939,10 +29360,10 @@
       <c r="J38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="273" t="s">
+      <c r="K38" s="253" t="s">
         <v>68</v>
       </c>
-      <c r="L38" s="274"/>
+      <c r="L38" s="254"/>
       <c r="M38" s="103" t="s">
         <v>67</v>
       </c>
@@ -27706,35 +30127,35 @@
       <c r="B57" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="275" t="s">
+      <c r="I57" s="256" t="s">
         <v>75</v>
       </c>
-      <c r="J57" s="275"/>
-      <c r="K57" s="275"/>
-      <c r="L57" s="275"/>
-      <c r="M57" s="275"/>
-      <c r="N57" s="275"/>
-      <c r="O57" s="275"/>
+      <c r="J57" s="256"/>
+      <c r="K57" s="256"/>
+      <c r="L57" s="256"/>
+      <c r="M57" s="256"/>
+      <c r="N57" s="256"/>
+      <c r="O57" s="256"/>
     </row>
     <row r="58" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1"/>
     <row r="59" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B59" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="270" t="s">
+      <c r="E59" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="270"/>
+      <c r="F59" s="255"/>
       <c r="G59" s="61"/>
       <c r="H59" s="61" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="61"/>
-      <c r="J59" s="270" t="s">
+      <c r="J59" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="270"/>
-      <c r="L59" s="270"/>
+      <c r="K59" s="255"/>
+      <c r="L59" s="255"/>
       <c r="M59" s="62" t="s">
         <v>18</v>
       </c>
@@ -27743,10 +30164,10 @@
         <v>20</v>
       </c>
       <c r="P59" s="62"/>
-      <c r="Q59" s="276" t="s">
+      <c r="Q59" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="R59" s="276"/>
+      <c r="R59" s="257"/>
       <c r="S59" s="110" t="s">
         <v>25</v>
       </c>
@@ -27757,18 +30178,18 @@
         <v>19</v>
       </c>
       <c r="D60" s="111"/>
-      <c r="E60" s="271" t="s">
+      <c r="E60" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="271"/>
+      <c r="F60" s="251"/>
       <c r="G60" s="111"/>
       <c r="H60" s="111"/>
       <c r="I60" s="111"/>
-      <c r="J60" s="271" t="s">
+      <c r="J60" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="271"/>
-      <c r="L60" s="271"/>
+      <c r="K60" s="251"/>
+      <c r="L60" s="251"/>
       <c r="M60" s="63" t="s">
         <v>12</v>
       </c>
@@ -27777,10 +30198,10 @@
         <v>43185</v>
       </c>
       <c r="P60" s="63"/>
-      <c r="Q60" s="271"/>
-      <c r="R60" s="271"/>
-      <c r="S60" s="271"/>
-      <c r="T60" s="271"/>
+      <c r="Q60" s="251"/>
+      <c r="R60" s="251"/>
+      <c r="S60" s="251"/>
+      <c r="T60" s="251"/>
       <c r="AX60" s="20"/>
     </row>
     <row r="61" spans="1:50" s="3" customFormat="1" ht="54" customHeight="1">
@@ -27788,18 +30209,18 @@
         <v>19</v>
       </c>
       <c r="D61" s="111"/>
-      <c r="E61" s="271" t="s">
+      <c r="E61" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="271"/>
+      <c r="F61" s="251"/>
       <c r="G61" s="111"/>
       <c r="H61" s="111"/>
       <c r="I61" s="111"/>
-      <c r="J61" s="271" t="s">
+      <c r="J61" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="271"/>
-      <c r="L61" s="271"/>
+      <c r="K61" s="251"/>
+      <c r="L61" s="251"/>
       <c r="M61" s="63" t="s">
         <v>12</v>
       </c>
@@ -27808,10 +30229,10 @@
         <v>43185</v>
       </c>
       <c r="P61" s="63"/>
-      <c r="Q61" s="271"/>
-      <c r="R61" s="271"/>
-      <c r="S61" s="271"/>
-      <c r="T61" s="271"/>
+      <c r="Q61" s="251"/>
+      <c r="R61" s="251"/>
+      <c r="S61" s="251"/>
+      <c r="T61" s="251"/>
       <c r="AX61" s="20"/>
     </row>
     <row r="62" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
@@ -38769,19 +41190,19 @@
         <v>17</v>
       </c>
       <c r="X368" s="61"/>
-      <c r="Y368" s="270" t="s">
+      <c r="Y368" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="Z368" s="270"/>
-      <c r="AA368" s="270" t="s">
+      <c r="Z368" s="255"/>
+      <c r="AA368" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="AB368" s="270"/>
-      <c r="AC368" s="270" t="s">
+      <c r="AB368" s="255"/>
+      <c r="AC368" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="AD368" s="270"/>
-      <c r="AE368" s="270"/>
+      <c r="AD368" s="255"/>
+      <c r="AE368" s="255"/>
       <c r="AF368" s="62" t="s">
         <v>18</v>
       </c>
@@ -38790,14 +41211,14 @@
         <v>20</v>
       </c>
       <c r="AI368" s="62"/>
-      <c r="AJ368" s="270" t="s">
+      <c r="AJ368" s="255" t="s">
         <v>22</v>
       </c>
-      <c r="AK368" s="270"/>
-      <c r="AL368" s="270" t="s">
+      <c r="AK368" s="255"/>
+      <c r="AL368" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="AM368" s="270"/>
+      <c r="AM368" s="255"/>
     </row>
     <row r="369" spans="2:50" s="3" customFormat="1" ht="61.5" customHeight="1">
       <c r="B369" s="55"/>
@@ -38818,17 +41239,17 @@
       <c r="W369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y369" s="271" t="s">
+      <c r="Y369" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="Z369" s="271"/>
-      <c r="AA369" s="271"/>
-      <c r="AB369" s="271"/>
-      <c r="AC369" s="271" t="s">
+      <c r="Z369" s="251"/>
+      <c r="AA369" s="251"/>
+      <c r="AB369" s="251"/>
+      <c r="AC369" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="AD369" s="271"/>
-      <c r="AE369" s="271"/>
+      <c r="AD369" s="251"/>
+      <c r="AE369" s="251"/>
       <c r="AF369" s="63" t="s">
         <v>12</v>
       </c>
@@ -38837,10 +41258,10 @@
         <v>43185</v>
       </c>
       <c r="AI369" s="63"/>
-      <c r="AJ369" s="271"/>
-      <c r="AK369" s="271"/>
-      <c r="AL369" s="271"/>
-      <c r="AM369" s="271"/>
+      <c r="AJ369" s="251"/>
+      <c r="AK369" s="251"/>
+      <c r="AL369" s="251"/>
+      <c r="AM369" s="251"/>
     </row>
     <row r="370" spans="2:50" s="3" customFormat="1" ht="54" customHeight="1">
       <c r="B370" s="55"/>
@@ -38861,17 +41282,17 @@
       <c r="W370" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y370" s="271" t="s">
+      <c r="Y370" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="Z370" s="271"/>
-      <c r="AA370" s="271"/>
-      <c r="AB370" s="271"/>
-      <c r="AC370" s="271" t="s">
+      <c r="Z370" s="251"/>
+      <c r="AA370" s="251"/>
+      <c r="AB370" s="251"/>
+      <c r="AC370" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="AD370" s="271"/>
-      <c r="AE370" s="271"/>
+      <c r="AD370" s="251"/>
+      <c r="AE370" s="251"/>
       <c r="AF370" s="63" t="s">
         <v>12</v>
       </c>
@@ -38880,10 +41301,10 @@
         <v>43185</v>
       </c>
       <c r="AI370" s="63"/>
-      <c r="AJ370" s="271"/>
-      <c r="AK370" s="271"/>
-      <c r="AL370" s="271"/>
-      <c r="AM370" s="271"/>
+      <c r="AJ370" s="251"/>
+      <c r="AK370" s="251"/>
+      <c r="AL370" s="251"/>
+      <c r="AM370" s="251"/>
     </row>
     <row r="371" spans="2:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B371" s="55"/>
@@ -39045,6 +41466,29 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AH14:AI15"/>
+    <mergeCell ref="AH17:AI18"/>
+    <mergeCell ref="AJ17:AM18"/>
+    <mergeCell ref="AG20:AI21"/>
+    <mergeCell ref="AJ20:AM21"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="Y368:Z368"/>
+    <mergeCell ref="AA368:AB368"/>
+    <mergeCell ref="AC368:AE368"/>
+    <mergeCell ref="AJ368:AK368"/>
+    <mergeCell ref="AL368:AM368"/>
+    <mergeCell ref="Y369:Z369"/>
+    <mergeCell ref="AA369:AB369"/>
+    <mergeCell ref="AC369:AE369"/>
+    <mergeCell ref="AJ369:AK369"/>
+    <mergeCell ref="AL369:AM369"/>
+    <mergeCell ref="Y370:Z370"/>
+    <mergeCell ref="AA370:AB370"/>
+    <mergeCell ref="AC370:AE370"/>
+    <mergeCell ref="AJ370:AK370"/>
+    <mergeCell ref="AL370:AM370"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="J61:L61"/>
     <mergeCell ref="Q61:R61"/>
@@ -39059,29 +41503,6 @@
     <mergeCell ref="J60:L60"/>
     <mergeCell ref="Q60:R60"/>
     <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Y370:Z370"/>
-    <mergeCell ref="AA370:AB370"/>
-    <mergeCell ref="AC370:AE370"/>
-    <mergeCell ref="AJ370:AK370"/>
-    <mergeCell ref="AL370:AM370"/>
-    <mergeCell ref="Y369:Z369"/>
-    <mergeCell ref="AA369:AB369"/>
-    <mergeCell ref="AC369:AE369"/>
-    <mergeCell ref="AJ369:AK369"/>
-    <mergeCell ref="AL369:AM369"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="Y368:Z368"/>
-    <mergeCell ref="AA368:AB368"/>
-    <mergeCell ref="AC368:AE368"/>
-    <mergeCell ref="AJ368:AK368"/>
-    <mergeCell ref="AL368:AM368"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AH14:AI15"/>
-    <mergeCell ref="AH17:AI18"/>
-    <mergeCell ref="AJ17:AM18"/>
-    <mergeCell ref="AG20:AI21"/>
-    <mergeCell ref="AJ20:AM21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39152,10 +41573,10 @@
       </c>
     </row>
     <row r="15" spans="3:4" ht="33" customHeight="1">
-      <c r="C15" s="277" t="s">
+      <c r="C15" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="278"/>
+      <c r="D15" s="280"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -39218,8 +41639,8 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
       <c r="G5" s="47" t="s">
         <v>39</v>
       </c>
@@ -39363,20 +41784,20 @@
     </row>
     <row r="8" spans="3:20" ht="22.5" customHeight="1">
       <c r="G8" s="140"/>
-      <c r="H8" s="282" t="s">
+      <c r="H8" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="282"/>
-      <c r="J8" s="282"/>
-      <c r="K8" s="282"/>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="282"/>
-      <c r="O8" s="282"/>
-      <c r="P8" s="282"/>
-      <c r="Q8" s="282"/>
-      <c r="R8" s="282"/>
-      <c r="S8" s="282"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="284"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="284"/>
+      <c r="N8" s="284"/>
+      <c r="O8" s="284"/>
+      <c r="P8" s="284"/>
+      <c r="Q8" s="284"/>
+      <c r="R8" s="284"/>
+      <c r="S8" s="284"/>
       <c r="T8" s="141"/>
     </row>
     <row r="9" spans="3:20">
@@ -39431,20 +41852,20 @@
     </row>
     <row r="12" spans="3:20" ht="21.75" customHeight="1">
       <c r="G12" s="140"/>
-      <c r="H12" s="282" t="s">
+      <c r="H12" s="284" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="282"/>
-      <c r="J12" s="282"/>
-      <c r="K12" s="282"/>
-      <c r="L12" s="282"/>
-      <c r="M12" s="282"/>
-      <c r="N12" s="282"/>
-      <c r="O12" s="282"/>
-      <c r="P12" s="282"/>
-      <c r="Q12" s="282"/>
-      <c r="R12" s="282"/>
-      <c r="S12" s="282"/>
+      <c r="I12" s="284"/>
+      <c r="J12" s="284"/>
+      <c r="K12" s="284"/>
+      <c r="L12" s="284"/>
+      <c r="M12" s="284"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="284"/>
+      <c r="P12" s="284"/>
+      <c r="Q12" s="284"/>
+      <c r="R12" s="284"/>
+      <c r="S12" s="284"/>
       <c r="T12" s="141"/>
     </row>
     <row r="13" spans="3:20">
@@ -39499,20 +41920,20 @@
     </row>
     <row r="16" spans="3:20">
       <c r="G16" s="140"/>
-      <c r="H16" s="282" t="s">
+      <c r="H16" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="282"/>
-      <c r="J16" s="282"/>
-      <c r="K16" s="282"/>
-      <c r="L16" s="282"/>
-      <c r="M16" s="282"/>
-      <c r="N16" s="282"/>
-      <c r="O16" s="282"/>
-      <c r="P16" s="282"/>
-      <c r="Q16" s="282"/>
-      <c r="R16" s="282"/>
-      <c r="S16" s="282"/>
+      <c r="I16" s="284"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
+      <c r="M16" s="284"/>
+      <c r="N16" s="284"/>
+      <c r="O16" s="284"/>
+      <c r="P16" s="284"/>
+      <c r="Q16" s="284"/>
+      <c r="R16" s="284"/>
+      <c r="S16" s="284"/>
       <c r="T16" s="141"/>
     </row>
     <row r="17" spans="7:20">
@@ -39533,164 +41954,164 @@
     </row>
     <row r="18" spans="7:20">
       <c r="G18" s="140"/>
-      <c r="H18" s="283" t="s">
+      <c r="H18" s="285" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="283"/>
-      <c r="J18" s="283"/>
-      <c r="K18" s="283"/>
-      <c r="L18" s="283"/>
-      <c r="M18" s="283"/>
-      <c r="N18" s="283"/>
-      <c r="O18" s="283"/>
-      <c r="P18" s="283"/>
-      <c r="Q18" s="283"/>
-      <c r="R18" s="283"/>
-      <c r="S18" s="283"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="285"/>
+      <c r="L18" s="285"/>
+      <c r="M18" s="285"/>
+      <c r="N18" s="285"/>
+      <c r="O18" s="285"/>
+      <c r="P18" s="285"/>
+      <c r="Q18" s="285"/>
+      <c r="R18" s="285"/>
+      <c r="S18" s="285"/>
       <c r="T18" s="141"/>
     </row>
     <row r="19" spans="7:20">
       <c r="G19" s="140"/>
-      <c r="H19" s="283"/>
-      <c r="I19" s="283"/>
-      <c r="J19" s="283"/>
-      <c r="K19" s="283"/>
-      <c r="L19" s="283"/>
-      <c r="M19" s="283"/>
-      <c r="N19" s="283"/>
-      <c r="O19" s="283"/>
-      <c r="P19" s="283"/>
-      <c r="Q19" s="283"/>
-      <c r="R19" s="283"/>
-      <c r="S19" s="283"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="285"/>
+      <c r="J19" s="285"/>
+      <c r="K19" s="285"/>
+      <c r="L19" s="285"/>
+      <c r="M19" s="285"/>
+      <c r="N19" s="285"/>
+      <c r="O19" s="285"/>
+      <c r="P19" s="285"/>
+      <c r="Q19" s="285"/>
+      <c r="R19" s="285"/>
+      <c r="S19" s="285"/>
       <c r="T19" s="141"/>
     </row>
     <row r="20" spans="7:20">
       <c r="G20" s="140"/>
-      <c r="H20" s="283"/>
-      <c r="I20" s="283"/>
-      <c r="J20" s="283"/>
-      <c r="K20" s="283"/>
-      <c r="L20" s="283"/>
-      <c r="M20" s="283"/>
-      <c r="N20" s="283"/>
-      <c r="O20" s="283"/>
-      <c r="P20" s="283"/>
-      <c r="Q20" s="283"/>
-      <c r="R20" s="283"/>
-      <c r="S20" s="283"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="285"/>
+      <c r="K20" s="285"/>
+      <c r="L20" s="285"/>
+      <c r="M20" s="285"/>
+      <c r="N20" s="285"/>
+      <c r="O20" s="285"/>
+      <c r="P20" s="285"/>
+      <c r="Q20" s="285"/>
+      <c r="R20" s="285"/>
+      <c r="S20" s="285"/>
       <c r="T20" s="141"/>
     </row>
     <row r="21" spans="7:20">
       <c r="G21" s="140"/>
-      <c r="H21" s="283"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="283"/>
-      <c r="K21" s="283"/>
-      <c r="L21" s="283"/>
-      <c r="M21" s="283"/>
-      <c r="N21" s="283"/>
-      <c r="O21" s="283"/>
-      <c r="P21" s="283"/>
-      <c r="Q21" s="283"/>
-      <c r="R21" s="283"/>
-      <c r="S21" s="283"/>
+      <c r="H21" s="285"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="285"/>
+      <c r="K21" s="285"/>
+      <c r="L21" s="285"/>
+      <c r="M21" s="285"/>
+      <c r="N21" s="285"/>
+      <c r="O21" s="285"/>
+      <c r="P21" s="285"/>
+      <c r="Q21" s="285"/>
+      <c r="R21" s="285"/>
+      <c r="S21" s="285"/>
       <c r="T21" s="141"/>
     </row>
     <row r="22" spans="7:20">
       <c r="G22" s="140"/>
-      <c r="H22" s="283"/>
-      <c r="I22" s="283"/>
-      <c r="J22" s="283"/>
-      <c r="K22" s="283"/>
-      <c r="L22" s="283"/>
-      <c r="M22" s="283"/>
-      <c r="N22" s="283"/>
-      <c r="O22" s="283"/>
-      <c r="P22" s="283"/>
-      <c r="Q22" s="283"/>
-      <c r="R22" s="283"/>
-      <c r="S22" s="283"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="285"/>
+      <c r="K22" s="285"/>
+      <c r="L22" s="285"/>
+      <c r="M22" s="285"/>
+      <c r="N22" s="285"/>
+      <c r="O22" s="285"/>
+      <c r="P22" s="285"/>
+      <c r="Q22" s="285"/>
+      <c r="R22" s="285"/>
+      <c r="S22" s="285"/>
       <c r="T22" s="141"/>
     </row>
     <row r="23" spans="7:20">
       <c r="G23" s="140"/>
-      <c r="H23" s="283"/>
-      <c r="I23" s="283"/>
-      <c r="J23" s="283"/>
-      <c r="K23" s="283"/>
-      <c r="L23" s="283"/>
-      <c r="M23" s="283"/>
-      <c r="N23" s="283"/>
-      <c r="O23" s="283"/>
-      <c r="P23" s="283"/>
-      <c r="Q23" s="283"/>
-      <c r="R23" s="283"/>
-      <c r="S23" s="283"/>
+      <c r="H23" s="285"/>
+      <c r="I23" s="285"/>
+      <c r="J23" s="285"/>
+      <c r="K23" s="285"/>
+      <c r="L23" s="285"/>
+      <c r="M23" s="285"/>
+      <c r="N23" s="285"/>
+      <c r="O23" s="285"/>
+      <c r="P23" s="285"/>
+      <c r="Q23" s="285"/>
+      <c r="R23" s="285"/>
+      <c r="S23" s="285"/>
       <c r="T23" s="141"/>
     </row>
     <row r="24" spans="7:20">
       <c r="G24" s="140"/>
-      <c r="H24" s="283"/>
-      <c r="I24" s="283"/>
-      <c r="J24" s="283"/>
-      <c r="K24" s="283"/>
-      <c r="L24" s="283"/>
-      <c r="M24" s="283"/>
-      <c r="N24" s="283"/>
-      <c r="O24" s="283"/>
-      <c r="P24" s="283"/>
-      <c r="Q24" s="283"/>
-      <c r="R24" s="283"/>
-      <c r="S24" s="283"/>
+      <c r="H24" s="285"/>
+      <c r="I24" s="285"/>
+      <c r="J24" s="285"/>
+      <c r="K24" s="285"/>
+      <c r="L24" s="285"/>
+      <c r="M24" s="285"/>
+      <c r="N24" s="285"/>
+      <c r="O24" s="285"/>
+      <c r="P24" s="285"/>
+      <c r="Q24" s="285"/>
+      <c r="R24" s="285"/>
+      <c r="S24" s="285"/>
       <c r="T24" s="141"/>
     </row>
     <row r="25" spans="7:20">
       <c r="G25" s="140"/>
-      <c r="H25" s="283"/>
-      <c r="I25" s="283"/>
-      <c r="J25" s="283"/>
-      <c r="K25" s="283"/>
-      <c r="L25" s="283"/>
-      <c r="M25" s="283"/>
-      <c r="N25" s="283"/>
-      <c r="O25" s="283"/>
-      <c r="P25" s="283"/>
-      <c r="Q25" s="283"/>
-      <c r="R25" s="283"/>
-      <c r="S25" s="283"/>
+      <c r="H25" s="285"/>
+      <c r="I25" s="285"/>
+      <c r="J25" s="285"/>
+      <c r="K25" s="285"/>
+      <c r="L25" s="285"/>
+      <c r="M25" s="285"/>
+      <c r="N25" s="285"/>
+      <c r="O25" s="285"/>
+      <c r="P25" s="285"/>
+      <c r="Q25" s="285"/>
+      <c r="R25" s="285"/>
+      <c r="S25" s="285"/>
       <c r="T25" s="141"/>
     </row>
     <row r="26" spans="7:20">
       <c r="G26" s="140"/>
-      <c r="H26" s="283"/>
-      <c r="I26" s="283"/>
-      <c r="J26" s="283"/>
-      <c r="K26" s="283"/>
-      <c r="L26" s="283"/>
-      <c r="M26" s="283"/>
-      <c r="N26" s="283"/>
-      <c r="O26" s="283"/>
-      <c r="P26" s="283"/>
-      <c r="Q26" s="283"/>
-      <c r="R26" s="283"/>
-      <c r="S26" s="283"/>
+      <c r="H26" s="285"/>
+      <c r="I26" s="285"/>
+      <c r="J26" s="285"/>
+      <c r="K26" s="285"/>
+      <c r="L26" s="285"/>
+      <c r="M26" s="285"/>
+      <c r="N26" s="285"/>
+      <c r="O26" s="285"/>
+      <c r="P26" s="285"/>
+      <c r="Q26" s="285"/>
+      <c r="R26" s="285"/>
+      <c r="S26" s="285"/>
       <c r="T26" s="141"/>
     </row>
     <row r="27" spans="7:20">
       <c r="G27" s="140"/>
-      <c r="H27" s="283"/>
-      <c r="I27" s="283"/>
-      <c r="J27" s="283"/>
-      <c r="K27" s="283"/>
-      <c r="L27" s="283"/>
-      <c r="M27" s="283"/>
-      <c r="N27" s="283"/>
-      <c r="O27" s="283"/>
-      <c r="P27" s="283"/>
-      <c r="Q27" s="283"/>
-      <c r="R27" s="283"/>
-      <c r="S27" s="283"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="285"/>
+      <c r="K27" s="285"/>
+      <c r="L27" s="285"/>
+      <c r="M27" s="285"/>
+      <c r="N27" s="285"/>
+      <c r="O27" s="285"/>
+      <c r="P27" s="285"/>
+      <c r="Q27" s="285"/>
+      <c r="R27" s="285"/>
+      <c r="S27" s="285"/>
       <c r="T27" s="141"/>
     </row>
     <row r="28" spans="7:20">
@@ -39817,12 +42238,12 @@
     </row>
     <row r="43" spans="1:20" ht="22.5" customHeight="1">
       <c r="G43" s="148"/>
-      <c r="H43" s="280" t="s">
+      <c r="H43" s="282" t="s">
         <v>98</v>
       </c>
-      <c r="I43" s="280"/>
-      <c r="J43" s="280"/>
-      <c r="K43" s="280"/>
+      <c r="I43" s="282"/>
+      <c r="J43" s="282"/>
+      <c r="K43" s="282"/>
       <c r="L43" s="149"/>
       <c r="M43" s="70" t="s">
         <v>99</v>
@@ -39885,12 +42306,12 @@
     </row>
     <row r="47" spans="1:20" ht="21.75" customHeight="1">
       <c r="G47" s="148"/>
-      <c r="H47" s="280" t="s">
+      <c r="H47" s="282" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="280"/>
-      <c r="J47" s="280"/>
-      <c r="K47" s="280"/>
+      <c r="I47" s="282"/>
+      <c r="J47" s="282"/>
+      <c r="K47" s="282"/>
       <c r="L47" s="149"/>
       <c r="M47" s="70" t="s">
         <v>101</v>
@@ -39953,22 +42374,22 @@
     </row>
     <row r="51" spans="7:20" ht="22.5" customHeight="1">
       <c r="G51" s="148"/>
-      <c r="H51" s="280" t="s">
+      <c r="H51" s="282" t="s">
         <v>102</v>
       </c>
-      <c r="I51" s="280"/>
-      <c r="J51" s="280"/>
-      <c r="K51" s="280"/>
+      <c r="I51" s="282"/>
+      <c r="J51" s="282"/>
+      <c r="K51" s="282"/>
       <c r="L51" s="149"/>
-      <c r="M51" s="281" t="s">
+      <c r="M51" s="283" t="s">
         <v>103</v>
       </c>
-      <c r="N51" s="281"/>
-      <c r="O51" s="281"/>
-      <c r="P51" s="281"/>
-      <c r="Q51" s="281"/>
-      <c r="R51" s="281"/>
-      <c r="S51" s="281"/>
+      <c r="N51" s="283"/>
+      <c r="O51" s="283"/>
+      <c r="P51" s="283"/>
+      <c r="Q51" s="283"/>
+      <c r="R51" s="283"/>
+      <c r="S51" s="283"/>
       <c r="T51" s="151"/>
     </row>
     <row r="52" spans="7:20">
@@ -39978,13 +42399,13 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="281"/>
-      <c r="N52" s="281"/>
-      <c r="O52" s="281"/>
-      <c r="P52" s="281"/>
-      <c r="Q52" s="281"/>
-      <c r="R52" s="281"/>
-      <c r="S52" s="281"/>
+      <c r="M52" s="283"/>
+      <c r="N52" s="283"/>
+      <c r="O52" s="283"/>
+      <c r="P52" s="283"/>
+      <c r="Q52" s="283"/>
+      <c r="R52" s="283"/>
+      <c r="S52" s="283"/>
       <c r="T52" s="151"/>
     </row>
     <row r="53" spans="7:20" ht="15" customHeight="1">
@@ -39994,13 +42415,13 @@
       <c r="J53" s="152"/>
       <c r="K53" s="152"/>
       <c r="L53" s="152"/>
-      <c r="M53" s="281"/>
-      <c r="N53" s="281"/>
-      <c r="O53" s="281"/>
-      <c r="P53" s="281"/>
-      <c r="Q53" s="281"/>
-      <c r="R53" s="281"/>
-      <c r="S53" s="281"/>
+      <c r="M53" s="283"/>
+      <c r="N53" s="283"/>
+      <c r="O53" s="283"/>
+      <c r="P53" s="283"/>
+      <c r="Q53" s="283"/>
+      <c r="R53" s="283"/>
+      <c r="S53" s="283"/>
       <c r="T53" s="151"/>
     </row>
     <row r="54" spans="7:20">
@@ -40010,13 +42431,13 @@
       <c r="J54" s="152"/>
       <c r="K54" s="152"/>
       <c r="L54" s="152"/>
-      <c r="M54" s="281"/>
-      <c r="N54" s="281"/>
-      <c r="O54" s="281"/>
-      <c r="P54" s="281"/>
-      <c r="Q54" s="281"/>
-      <c r="R54" s="281"/>
-      <c r="S54" s="281"/>
+      <c r="M54" s="283"/>
+      <c r="N54" s="283"/>
+      <c r="O54" s="283"/>
+      <c r="P54" s="283"/>
+      <c r="Q54" s="283"/>
+      <c r="R54" s="283"/>
+      <c r="S54" s="283"/>
       <c r="T54" s="151"/>
     </row>
     <row r="55" spans="7:20">
@@ -40026,13 +42447,13 @@
       <c r="J55" s="152"/>
       <c r="K55" s="152"/>
       <c r="L55" s="152"/>
-      <c r="M55" s="281"/>
-      <c r="N55" s="281"/>
-      <c r="O55" s="281"/>
-      <c r="P55" s="281"/>
-      <c r="Q55" s="281"/>
-      <c r="R55" s="281"/>
-      <c r="S55" s="281"/>
+      <c r="M55" s="283"/>
+      <c r="N55" s="283"/>
+      <c r="O55" s="283"/>
+      <c r="P55" s="283"/>
+      <c r="Q55" s="283"/>
+      <c r="R55" s="283"/>
+      <c r="S55" s="283"/>
       <c r="T55" s="151"/>
     </row>
     <row r="56" spans="7:20">
@@ -40042,13 +42463,13 @@
       <c r="J56" s="152"/>
       <c r="K56" s="152"/>
       <c r="L56" s="152"/>
-      <c r="M56" s="281"/>
-      <c r="N56" s="281"/>
-      <c r="O56" s="281"/>
-      <c r="P56" s="281"/>
-      <c r="Q56" s="281"/>
-      <c r="R56" s="281"/>
-      <c r="S56" s="281"/>
+      <c r="M56" s="283"/>
+      <c r="N56" s="283"/>
+      <c r="O56" s="283"/>
+      <c r="P56" s="283"/>
+      <c r="Q56" s="283"/>
+      <c r="R56" s="283"/>
+      <c r="S56" s="283"/>
       <c r="T56" s="151"/>
     </row>
     <row r="57" spans="7:20">
@@ -40058,13 +42479,13 @@
       <c r="J57" s="152"/>
       <c r="K57" s="152"/>
       <c r="L57" s="152"/>
-      <c r="M57" s="281"/>
-      <c r="N57" s="281"/>
-      <c r="O57" s="281"/>
-      <c r="P57" s="281"/>
-      <c r="Q57" s="281"/>
-      <c r="R57" s="281"/>
-      <c r="S57" s="281"/>
+      <c r="M57" s="283"/>
+      <c r="N57" s="283"/>
+      <c r="O57" s="283"/>
+      <c r="P57" s="283"/>
+      <c r="Q57" s="283"/>
+      <c r="R57" s="283"/>
+      <c r="S57" s="283"/>
       <c r="T57" s="151"/>
     </row>
     <row r="58" spans="7:20">
@@ -40074,13 +42495,13 @@
       <c r="J58" s="152"/>
       <c r="K58" s="152"/>
       <c r="L58" s="152"/>
-      <c r="M58" s="281"/>
-      <c r="N58" s="281"/>
-      <c r="O58" s="281"/>
-      <c r="P58" s="281"/>
-      <c r="Q58" s="281"/>
-      <c r="R58" s="281"/>
-      <c r="S58" s="281"/>
+      <c r="M58" s="283"/>
+      <c r="N58" s="283"/>
+      <c r="O58" s="283"/>
+      <c r="P58" s="283"/>
+      <c r="Q58" s="283"/>
+      <c r="R58" s="283"/>
+      <c r="S58" s="283"/>
       <c r="T58" s="151"/>
     </row>
     <row r="59" spans="7:20">
@@ -40090,13 +42511,13 @@
       <c r="J59" s="152"/>
       <c r="K59" s="152"/>
       <c r="L59" s="152"/>
-      <c r="M59" s="281"/>
-      <c r="N59" s="281"/>
-      <c r="O59" s="281"/>
-      <c r="P59" s="281"/>
-      <c r="Q59" s="281"/>
-      <c r="R59" s="281"/>
-      <c r="S59" s="281"/>
+      <c r="M59" s="283"/>
+      <c r="N59" s="283"/>
+      <c r="O59" s="283"/>
+      <c r="P59" s="283"/>
+      <c r="Q59" s="283"/>
+      <c r="R59" s="283"/>
+      <c r="S59" s="283"/>
       <c r="T59" s="151"/>
     </row>
     <row r="60" spans="7:20">
@@ -40106,13 +42527,13 @@
       <c r="J60" s="152"/>
       <c r="K60" s="152"/>
       <c r="L60" s="152"/>
-      <c r="M60" s="281"/>
-      <c r="N60" s="281"/>
-      <c r="O60" s="281"/>
-      <c r="P60" s="281"/>
-      <c r="Q60" s="281"/>
-      <c r="R60" s="281"/>
-      <c r="S60" s="281"/>
+      <c r="M60" s="283"/>
+      <c r="N60" s="283"/>
+      <c r="O60" s="283"/>
+      <c r="P60" s="283"/>
+      <c r="Q60" s="283"/>
+      <c r="R60" s="283"/>
+      <c r="S60" s="283"/>
       <c r="T60" s="151"/>
     </row>
     <row r="61" spans="7:20">
@@ -40122,13 +42543,13 @@
       <c r="J61" s="152"/>
       <c r="K61" s="152"/>
       <c r="L61" s="152"/>
-      <c r="M61" s="281"/>
-      <c r="N61" s="281"/>
-      <c r="O61" s="281"/>
-      <c r="P61" s="281"/>
-      <c r="Q61" s="281"/>
-      <c r="R61" s="281"/>
-      <c r="S61" s="281"/>
+      <c r="M61" s="283"/>
+      <c r="N61" s="283"/>
+      <c r="O61" s="283"/>
+      <c r="P61" s="283"/>
+      <c r="Q61" s="283"/>
+      <c r="R61" s="283"/>
+      <c r="S61" s="283"/>
       <c r="T61" s="151"/>
     </row>
     <row r="62" spans="7:20">
@@ -40138,13 +42559,13 @@
       <c r="J62" s="152"/>
       <c r="K62" s="152"/>
       <c r="L62" s="152"/>
-      <c r="M62" s="281"/>
-      <c r="N62" s="281"/>
-      <c r="O62" s="281"/>
-      <c r="P62" s="281"/>
-      <c r="Q62" s="281"/>
-      <c r="R62" s="281"/>
-      <c r="S62" s="281"/>
+      <c r="M62" s="283"/>
+      <c r="N62" s="283"/>
+      <c r="O62" s="283"/>
+      <c r="P62" s="283"/>
+      <c r="Q62" s="283"/>
+      <c r="R62" s="283"/>
+      <c r="S62" s="283"/>
       <c r="T62" s="151"/>
     </row>
     <row r="63" spans="7:20">
@@ -40154,13 +42575,13 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="281"/>
-      <c r="N63" s="281"/>
-      <c r="O63" s="281"/>
-      <c r="P63" s="281"/>
-      <c r="Q63" s="281"/>
-      <c r="R63" s="281"/>
-      <c r="S63" s="281"/>
+      <c r="M63" s="283"/>
+      <c r="N63" s="283"/>
+      <c r="O63" s="283"/>
+      <c r="P63" s="283"/>
+      <c r="Q63" s="283"/>
+      <c r="R63" s="283"/>
+      <c r="S63" s="283"/>
       <c r="T63" s="151"/>
     </row>
     <row r="64" spans="7:20">
@@ -40170,13 +42591,13 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="281"/>
-      <c r="N64" s="281"/>
-      <c r="O64" s="281"/>
-      <c r="P64" s="281"/>
-      <c r="Q64" s="281"/>
-      <c r="R64" s="281"/>
-      <c r="S64" s="281"/>
+      <c r="M64" s="283"/>
+      <c r="N64" s="283"/>
+      <c r="O64" s="283"/>
+      <c r="P64" s="283"/>
+      <c r="Q64" s="283"/>
+      <c r="R64" s="283"/>
+      <c r="S64" s="283"/>
       <c r="T64" s="151"/>
     </row>
     <row r="65" spans="4:22">
@@ -40186,13 +42607,13 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="281"/>
-      <c r="N65" s="281"/>
-      <c r="O65" s="281"/>
-      <c r="P65" s="281"/>
-      <c r="Q65" s="281"/>
-      <c r="R65" s="281"/>
-      <c r="S65" s="281"/>
+      <c r="M65" s="283"/>
+      <c r="N65" s="283"/>
+      <c r="O65" s="283"/>
+      <c r="P65" s="283"/>
+      <c r="Q65" s="283"/>
+      <c r="R65" s="283"/>
+      <c r="S65" s="283"/>
       <c r="T65" s="151"/>
     </row>
     <row r="66" spans="4:22">
@@ -40439,11 +42860,11 @@
       <c r="J9" s="178"/>
       <c r="K9" s="178"/>
       <c r="L9" s="188"/>
-      <c r="M9" s="284" t="s">
+      <c r="M9" s="287" t="s">
         <v>157</v>
       </c>
-      <c r="N9" s="284"/>
-      <c r="O9" s="284"/>
+      <c r="N9" s="287"/>
+      <c r="O9" s="287"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="173"/>
@@ -40841,15 +43262,15 @@
       <c r="AH42" s="197"/>
     </row>
     <row r="43" spans="2:34" ht="21.75" customHeight="1" thickBot="1">
-      <c r="Y43" s="285" t="s">
+      <c r="Y43" s="288" t="s">
         <v>161</v>
       </c>
       <c r="Z43" s="198"/>
-      <c r="AA43" s="285" t="s">
+      <c r="AA43" s="288" t="s">
         <v>162</v>
       </c>
       <c r="AB43" s="198"/>
-      <c r="AC43" s="287" t="s">
+      <c r="AC43" s="290" t="s">
         <v>163</v>
       </c>
       <c r="AD43" s="222"/>
@@ -40859,9 +43280,9 @@
       <c r="AH43" s="222"/>
     </row>
     <row r="44" spans="2:34" ht="21.75" thickBot="1">
-      <c r="Y44" s="286"/>
-      <c r="AA44" s="286"/>
-      <c r="AC44" s="288"/>
+      <c r="Y44" s="289"/>
+      <c r="AA44" s="289"/>
+      <c r="AC44" s="291"/>
       <c r="AD44" s="223"/>
       <c r="AE44" s="223"/>
       <c r="AF44" s="223"/>
@@ -40891,13 +43312,13 @@
       <c r="AA52" s="176"/>
     </row>
     <row r="53" spans="25:34">
-      <c r="Y53" s="289" t="s">
+      <c r="Y53" s="227" t="s">
         <v>185</v>
       </c>
-      <c r="Z53" s="290" t="s">
+      <c r="Z53" s="286" t="s">
         <v>186</v>
       </c>
-      <c r="AA53" s="290"/>
+      <c r="AA53" s="286"/>
     </row>
     <row r="54" spans="25:34">
       <c r="AA54" s="225" t="s">
@@ -40915,7 +43336,7 @@
       <c r="Z55" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="AA55" s="291" t="s">
+      <c r="AA55" s="228" t="s">
         <v>43</v>
       </c>
       <c r="AB55" s="224" t="s">
@@ -41072,7 +43493,7 @@
   </sheetPr>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -41496,24 +43917,24 @@
       <c r="C9" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="238">
+      <c r="D9" s="239">
         <v>43191</v>
       </c>
-      <c r="E9" s="238"/>
+      <c r="E9" s="239"/>
       <c r="K9" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="L9" s="239" t="s">
+      <c r="L9" s="241" t="s">
         <v>166</v>
       </c>
-      <c r="M9" s="239"/>
+      <c r="M9" s="241"/>
       <c r="S9" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="T9" s="237" t="s">
+      <c r="T9" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="U9" s="237"/>
+      <c r="U9" s="238"/>
     </row>
     <row r="10" spans="1:23">
       <c r="B10" s="3"/>
@@ -41539,24 +43960,24 @@
       <c r="C11" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="240" t="s">
+      <c r="D11" s="242" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="240"/>
+      <c r="E11" s="242"/>
       <c r="K11" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="L11" s="241">
+      <c r="L11" s="229">
         <v>10</v>
       </c>
-      <c r="M11" s="241"/>
+      <c r="M11" s="229"/>
       <c r="S11" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="T11" s="242">
+      <c r="T11" s="230">
         <v>3</v>
       </c>
-      <c r="U11" s="242"/>
+      <c r="U11" s="230"/>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="C12" s="215"/>
@@ -41592,32 +44013,32 @@
       <c r="D14" s="199" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="243" t="s">
+      <c r="E14" s="231" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="243"/>
-      <c r="G14" s="243"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="232" t="s">
+      <c r="F14" s="231"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="236" t="s">
         <v>167</v>
       </c>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232" t="s">
+      <c r="J14" s="236"/>
+      <c r="K14" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232" t="s">
+      <c r="L14" s="236"/>
+      <c r="M14" s="236" t="s">
         <v>169</v>
       </c>
-      <c r="N14" s="232"/>
-      <c r="O14" s="232" t="s">
+      <c r="N14" s="236"/>
+      <c r="O14" s="236" t="s">
         <v>169</v>
       </c>
-      <c r="P14" s="232"/>
-      <c r="Q14" s="232" t="s">
+      <c r="P14" s="236"/>
+      <c r="Q14" s="236" t="s">
         <v>169</v>
       </c>
-      <c r="R14" s="232"/>
+      <c r="R14" s="236"/>
       <c r="W14" s="164"/>
     </row>
     <row r="15" spans="1:23" s="168" customFormat="1" ht="15.75" customHeight="1">
@@ -41626,26 +44047,26 @@
       <c r="F15" s="201"/>
       <c r="G15" s="201"/>
       <c r="H15" s="201"/>
-      <c r="I15" s="233" t="s">
+      <c r="I15" s="235" t="s">
         <v>171</v>
       </c>
-      <c r="J15" s="233"/>
-      <c r="K15" s="233" t="s">
+      <c r="J15" s="235"/>
+      <c r="K15" s="235" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="233"/>
-      <c r="M15" s="233" t="s">
+      <c r="L15" s="235"/>
+      <c r="M15" s="235" t="s">
         <v>176</v>
       </c>
-      <c r="N15" s="233"/>
-      <c r="O15" s="233" t="s">
+      <c r="N15" s="235"/>
+      <c r="O15" s="235" t="s">
         <v>170</v>
       </c>
-      <c r="P15" s="233"/>
-      <c r="Q15" s="233" t="s">
+      <c r="P15" s="235"/>
+      <c r="Q15" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="R15" s="233"/>
+      <c r="R15" s="235"/>
       <c r="W15" s="169"/>
     </row>
     <row r="16" spans="1:23" s="210" customFormat="1" ht="15.75" customHeight="1">
@@ -41654,24 +44075,24 @@
       <c r="F16" s="211"/>
       <c r="G16" s="211"/>
       <c r="H16" s="211"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="231" t="s">
+      <c r="I16" s="237"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237" t="s">
         <v>175</v>
       </c>
-      <c r="L16" s="231"/>
-      <c r="M16" s="231" t="s">
+      <c r="L16" s="237"/>
+      <c r="M16" s="237" t="s">
         <v>177</v>
       </c>
-      <c r="N16" s="231"/>
-      <c r="O16" s="231" t="s">
+      <c r="N16" s="237"/>
+      <c r="O16" s="237" t="s">
         <v>178</v>
       </c>
-      <c r="P16" s="231"/>
-      <c r="Q16" s="231" t="s">
+      <c r="P16" s="237"/>
+      <c r="Q16" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="R16" s="231"/>
+      <c r="R16" s="237"/>
       <c r="W16" s="212"/>
     </row>
     <row r="17" spans="2:19" ht="21.75" customHeight="1">
@@ -41684,26 +44105,26 @@
       <c r="F17" s="200"/>
       <c r="G17" s="200"/>
       <c r="H17" s="200"/>
-      <c r="I17" s="228" t="s">
+      <c r="I17" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="229"/>
-      <c r="K17" s="230" t="s">
+      <c r="J17" s="234"/>
+      <c r="K17" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="230"/>
-      <c r="M17" s="230" t="s">
+      <c r="L17" s="232"/>
+      <c r="M17" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N17" s="230"/>
-      <c r="O17" s="230" t="s">
+      <c r="N17" s="232"/>
+      <c r="O17" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="230"/>
-      <c r="Q17" s="230" t="s">
+      <c r="P17" s="232"/>
+      <c r="Q17" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R17" s="230"/>
+      <c r="R17" s="232"/>
     </row>
     <row r="18" spans="2:19" ht="21.75" customHeight="1">
       <c r="D18" s="208">
@@ -41715,26 +44136,26 @@
       <c r="F18" s="200"/>
       <c r="G18" s="200"/>
       <c r="H18" s="200"/>
-      <c r="I18" s="228" t="s">
+      <c r="I18" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="229"/>
-      <c r="K18" s="230" t="s">
+      <c r="J18" s="234"/>
+      <c r="K18" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="230"/>
-      <c r="M18" s="230" t="s">
+      <c r="L18" s="232"/>
+      <c r="M18" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="230"/>
-      <c r="O18" s="230" t="s">
+      <c r="N18" s="232"/>
+      <c r="O18" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="230"/>
-      <c r="Q18" s="230" t="s">
+      <c r="P18" s="232"/>
+      <c r="Q18" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R18" s="230"/>
+      <c r="R18" s="232"/>
     </row>
     <row r="19" spans="2:19" ht="21.75" customHeight="1">
       <c r="D19" s="208">
@@ -41746,26 +44167,26 @@
       <c r="F19" s="200"/>
       <c r="G19" s="200"/>
       <c r="H19" s="200"/>
-      <c r="I19" s="228" t="s">
+      <c r="I19" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="229"/>
-      <c r="K19" s="230" t="s">
+      <c r="J19" s="234"/>
+      <c r="K19" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="230"/>
-      <c r="M19" s="230" t="s">
+      <c r="L19" s="232"/>
+      <c r="M19" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N19" s="230"/>
-      <c r="O19" s="230" t="s">
+      <c r="N19" s="232"/>
+      <c r="O19" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="230" t="s">
+      <c r="P19" s="232"/>
+      <c r="Q19" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R19" s="230"/>
+      <c r="R19" s="232"/>
     </row>
     <row r="20" spans="2:19" ht="21.75" customHeight="1">
       <c r="D20" s="208">
@@ -41777,26 +44198,26 @@
       <c r="F20" s="200"/>
       <c r="G20" s="200"/>
       <c r="H20" s="200"/>
-      <c r="I20" s="228" t="s">
+      <c r="I20" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="229"/>
-      <c r="K20" s="230" t="s">
+      <c r="J20" s="234"/>
+      <c r="K20" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="230"/>
-      <c r="M20" s="230" t="s">
+      <c r="L20" s="232"/>
+      <c r="M20" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N20" s="230"/>
-      <c r="O20" s="235" t="s">
+      <c r="N20" s="232"/>
+      <c r="O20" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="230" t="s">
+      <c r="P20" s="240"/>
+      <c r="Q20" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R20" s="230"/>
+      <c r="R20" s="232"/>
     </row>
     <row r="21" spans="2:19" ht="21.75" customHeight="1">
       <c r="D21" s="208">
@@ -41808,26 +44229,26 @@
       <c r="F21" s="200"/>
       <c r="G21" s="200"/>
       <c r="H21" s="200"/>
-      <c r="I21" s="228" t="s">
+      <c r="I21" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="229"/>
-      <c r="K21" s="230" t="s">
+      <c r="J21" s="234"/>
+      <c r="K21" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L21" s="230"/>
-      <c r="M21" s="230" t="s">
+      <c r="L21" s="232"/>
+      <c r="M21" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="230"/>
-      <c r="O21" s="230" t="s">
+      <c r="N21" s="232"/>
+      <c r="O21" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="230"/>
-      <c r="Q21" s="230" t="s">
+      <c r="P21" s="232"/>
+      <c r="Q21" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R21" s="230"/>
+      <c r="R21" s="232"/>
     </row>
     <row r="22" spans="2:19" ht="21.75" customHeight="1">
       <c r="D22" s="208">
@@ -41839,26 +44260,26 @@
       <c r="F22" s="200"/>
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
-      <c r="I22" s="228" t="s">
+      <c r="I22" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="229"/>
-      <c r="K22" s="230" t="s">
+      <c r="J22" s="234"/>
+      <c r="K22" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="230"/>
-      <c r="M22" s="230" t="s">
+      <c r="L22" s="232"/>
+      <c r="M22" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N22" s="230"/>
-      <c r="O22" s="235" t="s">
+      <c r="N22" s="232"/>
+      <c r="O22" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="P22" s="236"/>
-      <c r="Q22" s="230" t="s">
+      <c r="P22" s="244"/>
+      <c r="Q22" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R22" s="230"/>
+      <c r="R22" s="232"/>
     </row>
     <row r="23" spans="2:19" ht="21.75" customHeight="1">
       <c r="D23" s="208">
@@ -41870,26 +44291,26 @@
       <c r="F23" s="200"/>
       <c r="G23" s="200"/>
       <c r="H23" s="200"/>
-      <c r="I23" s="228" t="s">
+      <c r="I23" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="229"/>
-      <c r="K23" s="230" t="s">
+      <c r="J23" s="234"/>
+      <c r="K23" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L23" s="230"/>
-      <c r="M23" s="230" t="s">
+      <c r="L23" s="232"/>
+      <c r="M23" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="230"/>
-      <c r="O23" s="235" t="s">
+      <c r="N23" s="232"/>
+      <c r="O23" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="230" t="s">
+      <c r="P23" s="240"/>
+      <c r="Q23" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R23" s="230"/>
+      <c r="R23" s="232"/>
     </row>
     <row r="24" spans="2:19" ht="21.75" customHeight="1">
       <c r="D24" s="208">
@@ -41901,26 +44322,26 @@
       <c r="F24" s="200"/>
       <c r="G24" s="200"/>
       <c r="H24" s="200"/>
-      <c r="I24" s="228" t="s">
+      <c r="I24" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="229"/>
-      <c r="K24" s="230" t="s">
+      <c r="J24" s="234"/>
+      <c r="K24" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L24" s="230"/>
-      <c r="M24" s="230" t="s">
+      <c r="L24" s="232"/>
+      <c r="M24" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N24" s="230"/>
-      <c r="O24" s="230" t="s">
+      <c r="N24" s="232"/>
+      <c r="O24" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="P24" s="230"/>
-      <c r="Q24" s="230" t="s">
+      <c r="P24" s="232"/>
+      <c r="Q24" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R24" s="230"/>
+      <c r="R24" s="232"/>
     </row>
     <row r="25" spans="2:19" ht="21.75" customHeight="1">
       <c r="D25" s="208">
@@ -41932,26 +44353,26 @@
       <c r="F25" s="200"/>
       <c r="G25" s="200"/>
       <c r="H25" s="200"/>
-      <c r="I25" s="228" t="s">
+      <c r="I25" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="229"/>
-      <c r="K25" s="230" t="s">
+      <c r="J25" s="234"/>
+      <c r="K25" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="230"/>
-      <c r="M25" s="230" t="s">
+      <c r="L25" s="232"/>
+      <c r="M25" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N25" s="230"/>
-      <c r="O25" s="230" t="s">
+      <c r="N25" s="232"/>
+      <c r="O25" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="230"/>
-      <c r="Q25" s="230" t="s">
+      <c r="P25" s="232"/>
+      <c r="Q25" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R25" s="230"/>
+      <c r="R25" s="232"/>
     </row>
     <row r="26" spans="2:19" ht="21.75" customHeight="1">
       <c r="D26" s="208">
@@ -41963,34 +44384,34 @@
       <c r="F26" s="200"/>
       <c r="G26" s="200"/>
       <c r="H26" s="200"/>
-      <c r="I26" s="228" t="s">
+      <c r="I26" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="J26" s="229"/>
-      <c r="K26" s="230" t="s">
+      <c r="J26" s="234"/>
+      <c r="K26" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="L26" s="230"/>
-      <c r="M26" s="230" t="s">
+      <c r="L26" s="232"/>
+      <c r="M26" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="230"/>
-      <c r="O26" s="230" t="s">
+      <c r="N26" s="232"/>
+      <c r="O26" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="230"/>
-      <c r="Q26" s="230" t="s">
+      <c r="P26" s="232"/>
+      <c r="Q26" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="R26" s="230"/>
+      <c r="R26" s="232"/>
     </row>
     <row r="27" spans="2:19" ht="21.75" customHeight="1">
       <c r="F27" s="202"/>
       <c r="G27" s="202"/>
       <c r="H27" s="202"/>
       <c r="I27" s="202"/>
-      <c r="J27" s="234"/>
-      <c r="K27" s="234"/>
+      <c r="J27" s="243"/>
+      <c r="K27" s="243"/>
       <c r="L27" s="204"/>
       <c r="M27" s="203"/>
       <c r="N27" s="204"/>
@@ -42045,9 +44466,9 @@
       <c r="R30" s="20"/>
     </row>
     <row r="31" spans="2:19" ht="21.75" customHeight="1">
-      <c r="B31" s="227"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
+      <c r="B31" s="245"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="245"/>
       <c r="E31" s="214"/>
     </row>
     <row r="32" spans="2:19" ht="21.75" customHeight="1">
@@ -42078,6 +44499,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="E14:H14"/>
@@ -42094,64 +44573,6 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42226,18 +44647,18 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="246"/>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
+      <c r="A4" s="249"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -42281,18 +44702,18 @@
         <v>15</v>
       </c>
       <c r="G8" s="247"/>
-      <c r="H8" s="248" t="s">
+      <c r="H8" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="248"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="248"/>
-      <c r="L8" s="248"/>
-      <c r="M8" s="248"/>
-      <c r="N8" s="248" t="s">
+      <c r="I8" s="250"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="250"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="250"/>
+      <c r="N8" s="250" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="248"/>
+      <c r="O8" s="250"/>
       <c r="P8" s="247" t="s">
         <v>20</v>
       </c>
@@ -42303,82 +44724,82 @@
       <c r="S8" s="247"/>
     </row>
     <row r="9" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D9" s="244" t="s">
+      <c r="D9" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244" t="s">
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244" t="s">
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="244"/>
-      <c r="P9" s="245">
+      <c r="O9" s="246"/>
+      <c r="P9" s="248">
         <v>43185</v>
       </c>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
     </row>
     <row r="10" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D10" s="244" t="s">
+      <c r="D10" s="246" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244" t="s">
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="244"/>
-      <c r="M10" s="244"/>
-      <c r="N10" s="244" t="s">
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="244"/>
-      <c r="P10" s="245">
+      <c r="O10" s="246"/>
+      <c r="P10" s="248">
         <v>43185</v>
       </c>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="244"/>
+      <c r="Q10" s="246"/>
+      <c r="R10" s="246"/>
+      <c r="S10" s="246"/>
     </row>
     <row r="11" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D11" s="244" t="s">
+      <c r="D11" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244" t="s">
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="244"/>
-      <c r="M11" s="244"/>
-      <c r="N11" s="244" t="s">
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="246"/>
+      <c r="M11" s="246"/>
+      <c r="N11" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="244"/>
-      <c r="P11" s="245">
+      <c r="O11" s="246"/>
+      <c r="P11" s="248">
         <v>43185</v>
       </c>
-      <c r="Q11" s="244"/>
-      <c r="R11" s="244"/>
-      <c r="S11" s="244"/>
+      <c r="Q11" s="246"/>
+      <c r="R11" s="246"/>
+      <c r="S11" s="246"/>
     </row>
     <row r="12" spans="1:23" ht="69.75" customHeight="1"/>
     <row r="13" spans="1:23" ht="69.75" customHeight="1"/>
@@ -42404,6 +44825,18 @@
     <row r="33" ht="69.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="P8:Q8"/>
@@ -42417,18 +44850,6 @@
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="900" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="7" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="21" r:id="rId2"/>
+    <sheet name="Dashboard or Satistics" sheetId="21" r:id="rId2"/>
     <sheet name="Profile" sheetId="19" r:id="rId3"/>
     <sheet name="Change Password" sheetId="16" r:id="rId4"/>
     <sheet name="My Subscriptiopn" sheetId="18" r:id="rId5"/>
@@ -14924,6 +14924,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="13477875" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -27505,7 +27557,7 @@
   </sheetPr>
   <dimension ref="A2:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:T32"/>
     </sheetView>
   </sheetViews>
@@ -28061,7 +28113,7 @@
   </sheetPr>
   <dimension ref="A1:BA379"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="R48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
@@ -41517,7 +41569,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -41753,7 +41805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:V70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -42692,8 +42744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AH56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X66" sqref="X66"/>
+    <sheetView showGridLines="0" topLeftCell="M29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC46" sqref="AC46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -43376,11 +43428,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43391,7 +43446,7 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -43493,8 +43548,8 @@
   </sheetPr>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43776,7 +43831,7 @@
   </sheetPr>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>

--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="900" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="187">
   <si>
     <t>Full Name</t>
   </si>
@@ -397,12 +397,6 @@
     <t>$0.00</t>
   </si>
   <si>
-    <t>My Monthly Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next payment </t>
-  </si>
-  <si>
     <t>My Active Products</t>
   </si>
   <si>
@@ -421,26 +415,7 @@
     <t>O</t>
   </si>
   <si>
-    <r>
-      <t>My Current  Products and Subscriptions</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00C4A7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (This can be as TAGS  - It will only show what is subscribe) as column</t>
-    </r>
-  </si>
-  <si>
     <t>$25.00</t>
-  </si>
-  <si>
-    <t>$45.00</t>
   </si>
   <si>
     <t>Action</t>
@@ -684,13 +659,7 @@
     <t>Ad Package  Advance $15.00</t>
   </si>
   <si>
-    <t>Monthly Subscription</t>
-  </si>
-  <si>
     <t>No. of Product Eligible</t>
-  </si>
-  <si>
-    <t>$27.50</t>
   </si>
   <si>
     <t>Free Subscription</t>
@@ -723,9 +692,6 @@
     <t>$55.00</t>
   </si>
   <si>
-    <t>21-30 product</t>
-  </si>
-  <si>
     <t>Up to 3 Product</t>
   </si>
   <si>
@@ -755,6 +721,24 @@
   <si>
     <t>JUMPSTART YOUR SALE AND RANKING</t>
   </si>
+  <si>
+    <t>Next payment  Due</t>
+  </si>
+  <si>
+    <t>No. of Ads Eligible</t>
+  </si>
+  <si>
+    <t>My Current  Products and Subscriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Payment </t>
+  </si>
+  <si>
+    <t>Current Subscription</t>
+  </si>
+  <si>
+    <t>Upcoming Subscription</t>
+  </si>
 </sst>
 </file>
 
@@ -764,7 +748,7 @@
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="82">
+  <fonts count="83">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,14 +1094,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF00C4A7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
@@ -1381,8 +1357,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1458,6 +1450,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,7 +2023,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2451,90 +2461,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="66" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2548,31 +2561,28 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2590,10 +2600,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2602,55 +2612,73 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="72" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2659,20 +2687,14 @@
     <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2680,41 +2702,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2767,6 +2765,39 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2788,7 +2819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2806,32 +2837,24 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="81" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="17" fontId="73" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="79" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2843,12 +2866,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CC33"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFF3300"/>
       <color rgb="FF00C4A7"/>
-      <color rgb="FFFF3300"/>
       <color rgb="FFFF6600"/>
       <color rgb="FFCCFF66"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FF33CC33"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3002,7 +3025,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -3011,7 +3034,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3268,7 +3291,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3953,7 +3976,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3997,7 +4020,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -4006,7 +4029,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13343,7 +13366,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15119,7 +15142,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -15128,7 +15151,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15385,7 +15408,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16070,7 +16093,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16114,7 +16137,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -16123,7 +16146,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16260,7 +16283,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -16269,7 +16292,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16383,7 +16406,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16428,7 +16451,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19043,7 +19066,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -19052,7 +19075,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19097,7 +19120,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20184,7 +20207,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -20193,7 +20216,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20238,7 +20261,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20262,13 +20285,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>17957</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>110399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20300,13 +20323,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>142950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20451,13 +20474,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>181050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20694,13 +20717,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>75</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20865,13 +20888,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21022,13 +21045,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>323691</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>257139</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21060,13 +21083,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>323691</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>285714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21098,13 +21121,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>323691</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>285714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21136,13 +21159,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>275175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>518584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>93342</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>84751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21202,13 +21225,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>275175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>518584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>93342</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>84751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21268,13 +21291,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>268825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>533401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>86992</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>99568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21334,13 +21357,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>283642</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>505884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>101808</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>72051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21400,13 +21423,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>474143</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>516467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>292309</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>82634</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21822,7 +21845,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -21831,7 +21854,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22088,7 +22111,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22559,7 +22582,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22603,7 +22626,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -22612,7 +22635,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22885,7 +22908,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -22894,7 +22917,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23151,7 +23174,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23836,7 +23859,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23880,7 +23903,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -23889,7 +23912,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24055,7 +24078,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -24064,7 +24087,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24321,7 +24344,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25006,7 +25029,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25050,7 +25073,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -25059,7 +25082,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25156,7 +25179,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27436,7 +27459,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
@@ -27536,7 +27559,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -27553,7 +27576,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A2:S31"/>
   <sheetViews>
@@ -27563,11 +27586,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="298"/>
+    <col min="1" max="1" width="9.140625" style="235"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="54" customHeight="1">
-      <c r="A2" s="295"/>
+      <c r="A2" s="232"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -27588,117 +27611,117 @@
       <c r="S2" s="41"/>
     </row>
     <row r="3" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A3" s="299" t="s">
-        <v>187</v>
+      <c r="A3" s="258" t="s">
+        <v>180</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="299"/>
-      <c r="P3" s="299"/>
-      <c r="Q3" s="299"/>
-      <c r="R3" s="299"/>
-      <c r="S3" s="299"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
     </row>
     <row r="4" spans="1:19" ht="33.75" customHeight="1">
-      <c r="A4" s="294"/>
-      <c r="E4" s="300"/>
+      <c r="A4" s="231"/>
+      <c r="E4" s="236"/>
     </row>
     <row r="5" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A5" s="297"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
-      <c r="J5" s="293"/>
-      <c r="K5" s="293"/>
-      <c r="L5" s="293"/>
-      <c r="M5" s="293"/>
-      <c r="N5" s="293"/>
-      <c r="O5" s="293"/>
-      <c r="P5" s="293"/>
-      <c r="Q5" s="293"/>
-      <c r="R5" s="293"/>
-      <c r="S5" s="293"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="230"/>
+      <c r="Q5" s="230"/>
+      <c r="R5" s="230"/>
+      <c r="S5" s="230"/>
     </row>
     <row r="6" spans="1:19" ht="162" customHeight="1">
-      <c r="A6" s="297"/>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
-      <c r="J6" s="293"/>
-      <c r="K6" s="293"/>
-      <c r="L6" s="293"/>
-      <c r="M6" s="293"/>
-      <c r="N6" s="293"/>
-      <c r="O6" s="293"/>
-      <c r="P6" s="293"/>
-      <c r="Q6" s="293"/>
-      <c r="R6" s="293"/>
-      <c r="S6" s="293"/>
+      <c r="A6" s="234"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="230"/>
+      <c r="L6" s="230"/>
+      <c r="M6" s="230"/>
+      <c r="N6" s="230"/>
+      <c r="O6" s="230"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
     </row>
     <row r="7" spans="1:19" ht="156.75" customHeight="1">
-      <c r="A7" s="296"/>
-      <c r="B7" s="292"/>
-      <c r="C7" s="292"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="292"/>
-      <c r="L7" s="292"/>
-      <c r="M7" s="292"/>
-      <c r="N7" s="292"/>
-      <c r="O7" s="292"/>
-      <c r="P7" s="292"/>
-      <c r="Q7" s="292"/>
-      <c r="R7" s="292"/>
-      <c r="S7" s="292"/>
+      <c r="A7" s="233"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
     </row>
     <row r="10" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A10" s="302"/>
-      <c r="B10" s="302"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="302"/>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="302"/>
-      <c r="H10" s="302"/>
-      <c r="J10" s="301"/>
-      <c r="K10" s="301"/>
-      <c r="L10" s="301"/>
-      <c r="M10" s="301"/>
-      <c r="N10" s="301"/>
-      <c r="O10" s="301"/>
-      <c r="P10" s="301"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="301"/>
-      <c r="S10" s="301"/>
+      <c r="A10" s="259"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="237"/>
+      <c r="N10" s="237"/>
+      <c r="O10" s="237"/>
+      <c r="P10" s="237"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="237"/>
+      <c r="S10" s="237"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="295"/>
+      <c r="A11" s="232"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -27706,19 +27729,19 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
-      <c r="J11" s="301"/>
-      <c r="K11" s="301"/>
-      <c r="L11" s="301"/>
-      <c r="M11" s="301"/>
-      <c r="N11" s="301"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="301"/>
-      <c r="Q11" s="301"/>
-      <c r="R11" s="301"/>
-      <c r="S11" s="301"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="237"/>
+      <c r="S11" s="237"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="295"/>
+      <c r="A12" s="232"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -27726,19 +27749,19 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
-      <c r="J12" s="301"/>
-      <c r="K12" s="301"/>
-      <c r="L12" s="301"/>
-      <c r="M12" s="301"/>
-      <c r="N12" s="301"/>
-      <c r="O12" s="301"/>
-      <c r="P12" s="301"/>
-      <c r="Q12" s="301"/>
-      <c r="R12" s="301"/>
-      <c r="S12" s="301"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="237"/>
+      <c r="P12" s="237"/>
+      <c r="Q12" s="237"/>
+      <c r="R12" s="237"/>
+      <c r="S12" s="237"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="295"/>
+      <c r="A13" s="232"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -27746,19 +27769,19 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="301"/>
-      <c r="M13" s="301"/>
-      <c r="N13" s="301"/>
-      <c r="O13" s="301"/>
-      <c r="P13" s="301"/>
-      <c r="Q13" s="301"/>
-      <c r="R13" s="301"/>
-      <c r="S13" s="301"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="237"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="237"/>
+      <c r="S13" s="237"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="295"/>
+      <c r="A14" s="232"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -27766,19 +27789,19 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
-      <c r="J14" s="301"/>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
-      <c r="M14" s="301"/>
-      <c r="N14" s="301"/>
-      <c r="O14" s="301"/>
-      <c r="P14" s="301"/>
-      <c r="Q14" s="301"/>
-      <c r="R14" s="301"/>
-      <c r="S14" s="301"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="237"/>
+      <c r="N14" s="237"/>
+      <c r="O14" s="237"/>
+      <c r="P14" s="237"/>
+      <c r="Q14" s="237"/>
+      <c r="R14" s="237"/>
+      <c r="S14" s="237"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="295"/>
+      <c r="A15" s="232"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -27786,19 +27809,19 @@
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
-      <c r="J15" s="301"/>
-      <c r="K15" s="301"/>
-      <c r="L15" s="301"/>
-      <c r="M15" s="301"/>
-      <c r="N15" s="301"/>
-      <c r="O15" s="301"/>
-      <c r="P15" s="301"/>
-      <c r="Q15" s="301"/>
-      <c r="R15" s="301"/>
-      <c r="S15" s="301"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="237"/>
+      <c r="N15" s="237"/>
+      <c r="O15" s="237"/>
+      <c r="P15" s="237"/>
+      <c r="Q15" s="237"/>
+      <c r="R15" s="237"/>
+      <c r="S15" s="237"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="295"/>
+      <c r="A16" s="232"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -27806,19 +27829,19 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
-      <c r="J16" s="301"/>
-      <c r="K16" s="301"/>
-      <c r="L16" s="301"/>
-      <c r="M16" s="301"/>
-      <c r="N16" s="301"/>
-      <c r="O16" s="301"/>
-      <c r="P16" s="301"/>
-      <c r="Q16" s="301"/>
-      <c r="R16" s="301"/>
-      <c r="S16" s="301"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="237"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="237"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="237"/>
+      <c r="S16" s="237"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="295"/>
+      <c r="A17" s="232"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -27826,19 +27849,19 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
-      <c r="J17" s="301"/>
-      <c r="K17" s="301"/>
-      <c r="L17" s="301"/>
-      <c r="M17" s="301"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="301"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="301"/>
-      <c r="S17" s="301"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="237"/>
+      <c r="N17" s="237"/>
+      <c r="O17" s="237"/>
+      <c r="P17" s="237"/>
+      <c r="Q17" s="237"/>
+      <c r="R17" s="237"/>
+      <c r="S17" s="237"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="295"/>
+      <c r="A18" s="232"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -27846,19 +27869,19 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
-      <c r="J18" s="301"/>
-      <c r="K18" s="301"/>
-      <c r="L18" s="301"/>
-      <c r="M18" s="301"/>
-      <c r="N18" s="301"/>
-      <c r="O18" s="301"/>
-      <c r="P18" s="301"/>
-      <c r="Q18" s="301"/>
-      <c r="R18" s="301"/>
-      <c r="S18" s="301"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="237"/>
+      <c r="L18" s="237"/>
+      <c r="M18" s="237"/>
+      <c r="N18" s="237"/>
+      <c r="O18" s="237"/>
+      <c r="P18" s="237"/>
+      <c r="Q18" s="237"/>
+      <c r="R18" s="237"/>
+      <c r="S18" s="237"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="295"/>
+      <c r="A19" s="232"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -27866,19 +27889,19 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-      <c r="J19" s="301"/>
-      <c r="K19" s="301"/>
-      <c r="L19" s="301"/>
-      <c r="M19" s="301"/>
-      <c r="N19" s="301"/>
-      <c r="O19" s="301"/>
-      <c r="P19" s="301"/>
-      <c r="Q19" s="301"/>
-      <c r="R19" s="301"/>
-      <c r="S19" s="301"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="237"/>
+      <c r="N19" s="237"/>
+      <c r="O19" s="237"/>
+      <c r="P19" s="237"/>
+      <c r="Q19" s="237"/>
+      <c r="R19" s="237"/>
+      <c r="S19" s="237"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="295"/>
+      <c r="A20" s="232"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -27886,19 +27909,19 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
-      <c r="J20" s="301"/>
-      <c r="K20" s="301"/>
-      <c r="L20" s="301"/>
-      <c r="M20" s="301"/>
-      <c r="N20" s="301"/>
-      <c r="O20" s="301"/>
-      <c r="P20" s="301"/>
-      <c r="Q20" s="301"/>
-      <c r="R20" s="301"/>
-      <c r="S20" s="301"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="237"/>
+      <c r="M20" s="237"/>
+      <c r="N20" s="237"/>
+      <c r="O20" s="237"/>
+      <c r="P20" s="237"/>
+      <c r="Q20" s="237"/>
+      <c r="R20" s="237"/>
+      <c r="S20" s="237"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="295"/>
+      <c r="A21" s="232"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -27906,19 +27929,19 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
-      <c r="J21" s="301"/>
-      <c r="K21" s="301"/>
-      <c r="L21" s="301"/>
-      <c r="M21" s="301"/>
-      <c r="N21" s="301"/>
-      <c r="O21" s="301"/>
-      <c r="P21" s="301"/>
-      <c r="Q21" s="301"/>
-      <c r="R21" s="301"/>
-      <c r="S21" s="301"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="237"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="237"/>
+      <c r="O21" s="237"/>
+      <c r="P21" s="237"/>
+      <c r="Q21" s="237"/>
+      <c r="R21" s="237"/>
+      <c r="S21" s="237"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="295"/>
+      <c r="A22" s="232"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -27926,19 +27949,19 @@
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
-      <c r="J22" s="301"/>
-      <c r="K22" s="301"/>
-      <c r="L22" s="301"/>
-      <c r="M22" s="301"/>
-      <c r="N22" s="301"/>
-      <c r="O22" s="301"/>
-      <c r="P22" s="301"/>
-      <c r="Q22" s="301"/>
-      <c r="R22" s="301"/>
-      <c r="S22" s="301"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="237"/>
+      <c r="M22" s="237"/>
+      <c r="N22" s="237"/>
+      <c r="O22" s="237"/>
+      <c r="P22" s="237"/>
+      <c r="Q22" s="237"/>
+      <c r="R22" s="237"/>
+      <c r="S22" s="237"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="295"/>
+      <c r="A23" s="232"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
@@ -27946,19 +27969,19 @@
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
-      <c r="J23" s="301"/>
-      <c r="K23" s="301"/>
-      <c r="L23" s="301"/>
-      <c r="M23" s="301"/>
-      <c r="N23" s="301"/>
-      <c r="O23" s="301"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="301"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="237"/>
+      <c r="N23" s="237"/>
+      <c r="O23" s="237"/>
+      <c r="P23" s="237"/>
+      <c r="Q23" s="237"/>
+      <c r="R23" s="237"/>
+      <c r="S23" s="237"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="295"/>
+      <c r="A24" s="232"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
@@ -27966,19 +27989,19 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
-      <c r="J24" s="301"/>
-      <c r="K24" s="301"/>
-      <c r="L24" s="301"/>
-      <c r="M24" s="301"/>
-      <c r="N24" s="301"/>
-      <c r="O24" s="301"/>
-      <c r="P24" s="301"/>
-      <c r="Q24" s="301"/>
-      <c r="R24" s="301"/>
-      <c r="S24" s="301"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="237"/>
+      <c r="L24" s="237"/>
+      <c r="M24" s="237"/>
+      <c r="N24" s="237"/>
+      <c r="O24" s="237"/>
+      <c r="P24" s="237"/>
+      <c r="Q24" s="237"/>
+      <c r="R24" s="237"/>
+      <c r="S24" s="237"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="295"/>
+      <c r="A25" s="232"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -27986,19 +28009,19 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
-      <c r="J25" s="301"/>
-      <c r="K25" s="301"/>
-      <c r="L25" s="301"/>
-      <c r="M25" s="301"/>
-      <c r="N25" s="301"/>
-      <c r="O25" s="301"/>
-      <c r="P25" s="301"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="301"/>
-      <c r="S25" s="301"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="237"/>
+      <c r="N25" s="237"/>
+      <c r="O25" s="237"/>
+      <c r="P25" s="237"/>
+      <c r="Q25" s="237"/>
+      <c r="R25" s="237"/>
+      <c r="S25" s="237"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="295"/>
+      <c r="A26" s="232"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -28006,19 +28029,19 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
-      <c r="J26" s="301"/>
-      <c r="K26" s="301"/>
-      <c r="L26" s="301"/>
-      <c r="M26" s="301"/>
-      <c r="N26" s="301"/>
-      <c r="O26" s="301"/>
-      <c r="P26" s="301"/>
-      <c r="Q26" s="301"/>
-      <c r="R26" s="301"/>
-      <c r="S26" s="301"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="237"/>
+      <c r="M26" s="237"/>
+      <c r="N26" s="237"/>
+      <c r="O26" s="237"/>
+      <c r="P26" s="237"/>
+      <c r="Q26" s="237"/>
+      <c r="R26" s="237"/>
+      <c r="S26" s="237"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="295"/>
+      <c r="A27" s="232"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
@@ -28028,7 +28051,7 @@
       <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="295"/>
+      <c r="A28" s="232"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
@@ -28038,7 +28061,7 @@
       <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="295"/>
+      <c r="A29" s="232"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
@@ -28048,7 +28071,7 @@
       <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="295"/>
+      <c r="A30" s="232"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
@@ -28058,7 +28081,7 @@
       <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="295"/>
+      <c r="A31" s="232"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
@@ -28402,7 +28425,7 @@
       <c r="O8" s="57"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="252" t="s">
+      <c r="R8" s="283" t="s">
         <v>43</v>
       </c>
       <c r="W8" s="33" t="s">
@@ -28442,7 +28465,7 @@
       <c r="O9" s="57"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="252"/>
+      <c r="R9" s="283"/>
       <c r="W9" s="31"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="3"/>
@@ -28538,10 +28561,10 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="20"/>
       <c r="X12" s="2"/>
-      <c r="AL12" s="262" t="s">
+      <c r="AL12" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="AM12" s="262"/>
+      <c r="AM12" s="260"/>
     </row>
     <row r="13" spans="1:41" ht="31.5" customHeight="1">
       <c r="B13" s="55"/>
@@ -28591,10 +28614,10 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="8"/>
-      <c r="AH14" s="263" t="s">
+      <c r="AH14" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" s="264"/>
+      <c r="AI14" s="262"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
@@ -28619,8 +28642,8 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="20"/>
       <c r="X15" s="9"/>
-      <c r="AH15" s="263"/>
-      <c r="AI15" s="264"/>
+      <c r="AH15" s="261"/>
+      <c r="AI15" s="262"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
@@ -28682,16 +28705,16 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="20"/>
       <c r="X17" s="9"/>
-      <c r="AH17" s="263" t="s">
+      <c r="AH17" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="AI17" s="264"/>
-      <c r="AJ17" s="265" t="s">
+      <c r="AI17" s="262"/>
+      <c r="AJ17" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="AK17" s="266"/>
-      <c r="AL17" s="266"/>
-      <c r="AM17" s="267"/>
+      <c r="AK17" s="264"/>
+      <c r="AL17" s="264"/>
+      <c r="AM17" s="265"/>
     </row>
     <row r="18" spans="2:41" ht="31.5" customHeight="1">
       <c r="B18" s="55"/>
@@ -28721,12 +28744,12 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="12"/>
-      <c r="AH18" s="263"/>
-      <c r="AI18" s="264"/>
-      <c r="AJ18" s="268"/>
-      <c r="AK18" s="269"/>
-      <c r="AL18" s="269"/>
-      <c r="AM18" s="270"/>
+      <c r="AH18" s="261"/>
+      <c r="AI18" s="262"/>
+      <c r="AJ18" s="266"/>
+      <c r="AK18" s="267"/>
+      <c r="AL18" s="267"/>
+      <c r="AM18" s="268"/>
     </row>
     <row r="19" spans="2:41" ht="31.5" customHeight="1">
       <c r="B19" s="55"/>
@@ -28787,17 +28810,17 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="14"/>
-      <c r="AG20" s="271" t="s">
+      <c r="AG20" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="271"/>
-      <c r="AI20" s="272"/>
-      <c r="AJ20" s="273" t="s">
+      <c r="AH20" s="269"/>
+      <c r="AI20" s="270"/>
+      <c r="AJ20" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="AK20" s="274"/>
-      <c r="AL20" s="274"/>
-      <c r="AM20" s="275"/>
+      <c r="AK20" s="272"/>
+      <c r="AL20" s="272"/>
+      <c r="AM20" s="273"/>
     </row>
     <row r="21" spans="2:41" ht="31.5" customHeight="1">
       <c r="B21" s="55"/>
@@ -28825,13 +28848,13 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="17"/>
-      <c r="AG21" s="271"/>
-      <c r="AH21" s="271"/>
-      <c r="AI21" s="272"/>
-      <c r="AJ21" s="276"/>
-      <c r="AK21" s="277"/>
-      <c r="AL21" s="277"/>
-      <c r="AM21" s="278"/>
+      <c r="AG21" s="269"/>
+      <c r="AH21" s="269"/>
+      <c r="AI21" s="270"/>
+      <c r="AJ21" s="274"/>
+      <c r="AK21" s="275"/>
+      <c r="AL21" s="275"/>
+      <c r="AM21" s="276"/>
     </row>
     <row r="22" spans="2:41" ht="31.5" customHeight="1">
       <c r="B22" s="55"/>
@@ -28909,12 +28932,12 @@
       <c r="AI24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AJ24" s="258">
+      <c r="AJ24" s="277">
         <v>43202</v>
       </c>
-      <c r="AK24" s="259"/>
-      <c r="AL24" s="259"/>
-      <c r="AM24" s="260"/>
+      <c r="AK24" s="278"/>
+      <c r="AL24" s="278"/>
+      <c r="AM24" s="279"/>
     </row>
     <row r="25" spans="2:41" ht="31.5" customHeight="1">
       <c r="B25" s="55"/>
@@ -28983,11 +29006,11 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="24"/>
-      <c r="AK26" s="261" t="s">
+      <c r="AK26" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="AL26" s="261"/>
-      <c r="AM26" s="261"/>
+      <c r="AL26" s="280"/>
+      <c r="AM26" s="280"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
@@ -29412,10 +29435,10 @@
       <c r="J38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="253" t="s">
+      <c r="K38" s="284" t="s">
         <v>68</v>
       </c>
-      <c r="L38" s="254"/>
+      <c r="L38" s="285"/>
       <c r="M38" s="103" t="s">
         <v>67</v>
       </c>
@@ -30179,35 +30202,35 @@
       <c r="B57" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="256" t="s">
+      <c r="I57" s="286" t="s">
         <v>75</v>
       </c>
-      <c r="J57" s="256"/>
-      <c r="K57" s="256"/>
-      <c r="L57" s="256"/>
-      <c r="M57" s="256"/>
-      <c r="N57" s="256"/>
-      <c r="O57" s="256"/>
+      <c r="J57" s="286"/>
+      <c r="K57" s="286"/>
+      <c r="L57" s="286"/>
+      <c r="M57" s="286"/>
+      <c r="N57" s="286"/>
+      <c r="O57" s="286"/>
     </row>
     <row r="58" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1"/>
     <row r="59" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B59" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="255" t="s">
+      <c r="E59" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="255"/>
+      <c r="F59" s="281"/>
       <c r="G59" s="61"/>
       <c r="H59" s="61" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="61"/>
-      <c r="J59" s="255" t="s">
+      <c r="J59" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="255"/>
-      <c r="L59" s="255"/>
+      <c r="K59" s="281"/>
+      <c r="L59" s="281"/>
       <c r="M59" s="62" t="s">
         <v>18</v>
       </c>
@@ -30216,10 +30239,10 @@
         <v>20</v>
       </c>
       <c r="P59" s="62"/>
-      <c r="Q59" s="257" t="s">
+      <c r="Q59" s="287" t="s">
         <v>22</v>
       </c>
-      <c r="R59" s="257"/>
+      <c r="R59" s="287"/>
       <c r="S59" s="110" t="s">
         <v>25</v>
       </c>
@@ -30230,18 +30253,18 @@
         <v>19</v>
       </c>
       <c r="D60" s="111"/>
-      <c r="E60" s="251" t="s">
+      <c r="E60" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="251"/>
+      <c r="F60" s="282"/>
       <c r="G60" s="111"/>
       <c r="H60" s="111"/>
       <c r="I60" s="111"/>
-      <c r="J60" s="251" t="s">
+      <c r="J60" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="251"/>
-      <c r="L60" s="251"/>
+      <c r="K60" s="282"/>
+      <c r="L60" s="282"/>
       <c r="M60" s="63" t="s">
         <v>12</v>
       </c>
@@ -30250,10 +30273,10 @@
         <v>43185</v>
       </c>
       <c r="P60" s="63"/>
-      <c r="Q60" s="251"/>
-      <c r="R60" s="251"/>
-      <c r="S60" s="251"/>
-      <c r="T60" s="251"/>
+      <c r="Q60" s="282"/>
+      <c r="R60" s="282"/>
+      <c r="S60" s="282"/>
+      <c r="T60" s="282"/>
       <c r="AX60" s="20"/>
     </row>
     <row r="61" spans="1:50" s="3" customFormat="1" ht="54" customHeight="1">
@@ -30261,18 +30284,18 @@
         <v>19</v>
       </c>
       <c r="D61" s="111"/>
-      <c r="E61" s="251" t="s">
+      <c r="E61" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="251"/>
+      <c r="F61" s="282"/>
       <c r="G61" s="111"/>
       <c r="H61" s="111"/>
       <c r="I61" s="111"/>
-      <c r="J61" s="251" t="s">
+      <c r="J61" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="251"/>
-      <c r="L61" s="251"/>
+      <c r="K61" s="282"/>
+      <c r="L61" s="282"/>
       <c r="M61" s="63" t="s">
         <v>12</v>
       </c>
@@ -30281,10 +30304,10 @@
         <v>43185</v>
       </c>
       <c r="P61" s="63"/>
-      <c r="Q61" s="251"/>
-      <c r="R61" s="251"/>
-      <c r="S61" s="251"/>
-      <c r="T61" s="251"/>
+      <c r="Q61" s="282"/>
+      <c r="R61" s="282"/>
+      <c r="S61" s="282"/>
+      <c r="T61" s="282"/>
       <c r="AX61" s="20"/>
     </row>
     <row r="62" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
@@ -41242,19 +41265,19 @@
         <v>17</v>
       </c>
       <c r="X368" s="61"/>
-      <c r="Y368" s="255" t="s">
+      <c r="Y368" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="Z368" s="255"/>
-      <c r="AA368" s="255" t="s">
+      <c r="Z368" s="281"/>
+      <c r="AA368" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="AB368" s="255"/>
-      <c r="AC368" s="255" t="s">
+      <c r="AB368" s="281"/>
+      <c r="AC368" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="AD368" s="255"/>
-      <c r="AE368" s="255"/>
+      <c r="AD368" s="281"/>
+      <c r="AE368" s="281"/>
       <c r="AF368" s="62" t="s">
         <v>18</v>
       </c>
@@ -41263,14 +41286,14 @@
         <v>20</v>
       </c>
       <c r="AI368" s="62"/>
-      <c r="AJ368" s="255" t="s">
+      <c r="AJ368" s="281" t="s">
         <v>22</v>
       </c>
-      <c r="AK368" s="255"/>
-      <c r="AL368" s="255" t="s">
+      <c r="AK368" s="281"/>
+      <c r="AL368" s="281" t="s">
         <v>25</v>
       </c>
-      <c r="AM368" s="255"/>
+      <c r="AM368" s="281"/>
     </row>
     <row r="369" spans="2:50" s="3" customFormat="1" ht="61.5" customHeight="1">
       <c r="B369" s="55"/>
@@ -41291,17 +41314,17 @@
       <c r="W369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y369" s="251" t="s">
+      <c r="Y369" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="Z369" s="251"/>
-      <c r="AA369" s="251"/>
-      <c r="AB369" s="251"/>
-      <c r="AC369" s="251" t="s">
+      <c r="Z369" s="282"/>
+      <c r="AA369" s="282"/>
+      <c r="AB369" s="282"/>
+      <c r="AC369" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AD369" s="251"/>
-      <c r="AE369" s="251"/>
+      <c r="AD369" s="282"/>
+      <c r="AE369" s="282"/>
       <c r="AF369" s="63" t="s">
         <v>12</v>
       </c>
@@ -41310,10 +41333,10 @@
         <v>43185</v>
       </c>
       <c r="AI369" s="63"/>
-      <c r="AJ369" s="251"/>
-      <c r="AK369" s="251"/>
-      <c r="AL369" s="251"/>
-      <c r="AM369" s="251"/>
+      <c r="AJ369" s="282"/>
+      <c r="AK369" s="282"/>
+      <c r="AL369" s="282"/>
+      <c r="AM369" s="282"/>
     </row>
     <row r="370" spans="2:50" s="3" customFormat="1" ht="54" customHeight="1">
       <c r="B370" s="55"/>
@@ -41334,17 +41357,17 @@
       <c r="W370" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y370" s="251" t="s">
+      <c r="Y370" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="Z370" s="251"/>
-      <c r="AA370" s="251"/>
-      <c r="AB370" s="251"/>
-      <c r="AC370" s="251" t="s">
+      <c r="Z370" s="282"/>
+      <c r="AA370" s="282"/>
+      <c r="AB370" s="282"/>
+      <c r="AC370" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AD370" s="251"/>
-      <c r="AE370" s="251"/>
+      <c r="AD370" s="282"/>
+      <c r="AE370" s="282"/>
       <c r="AF370" s="63" t="s">
         <v>12</v>
       </c>
@@ -41353,10 +41376,10 @@
         <v>43185</v>
       </c>
       <c r="AI370" s="63"/>
-      <c r="AJ370" s="251"/>
-      <c r="AK370" s="251"/>
-      <c r="AL370" s="251"/>
-      <c r="AM370" s="251"/>
+      <c r="AJ370" s="282"/>
+      <c r="AK370" s="282"/>
+      <c r="AL370" s="282"/>
+      <c r="AM370" s="282"/>
     </row>
     <row r="371" spans="2:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B371" s="55"/>
@@ -41518,29 +41541,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AH14:AI15"/>
-    <mergeCell ref="AH17:AI18"/>
-    <mergeCell ref="AJ17:AM18"/>
-    <mergeCell ref="AG20:AI21"/>
-    <mergeCell ref="AJ20:AM21"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="Y368:Z368"/>
-    <mergeCell ref="AA368:AB368"/>
-    <mergeCell ref="AC368:AE368"/>
-    <mergeCell ref="AJ368:AK368"/>
-    <mergeCell ref="AL368:AM368"/>
-    <mergeCell ref="Y369:Z369"/>
-    <mergeCell ref="AA369:AB369"/>
-    <mergeCell ref="AC369:AE369"/>
-    <mergeCell ref="AJ369:AK369"/>
-    <mergeCell ref="AL369:AM369"/>
-    <mergeCell ref="Y370:Z370"/>
-    <mergeCell ref="AA370:AB370"/>
-    <mergeCell ref="AC370:AE370"/>
-    <mergeCell ref="AJ370:AK370"/>
-    <mergeCell ref="AL370:AM370"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="J61:L61"/>
     <mergeCell ref="Q61:R61"/>
@@ -41555,6 +41555,29 @@
     <mergeCell ref="J60:L60"/>
     <mergeCell ref="Q60:R60"/>
     <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Y370:Z370"/>
+    <mergeCell ref="AA370:AB370"/>
+    <mergeCell ref="AC370:AE370"/>
+    <mergeCell ref="AJ370:AK370"/>
+    <mergeCell ref="AL370:AM370"/>
+    <mergeCell ref="Y369:Z369"/>
+    <mergeCell ref="AA369:AB369"/>
+    <mergeCell ref="AC369:AE369"/>
+    <mergeCell ref="AJ369:AK369"/>
+    <mergeCell ref="AL369:AM369"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="Y368:Z368"/>
+    <mergeCell ref="AA368:AB368"/>
+    <mergeCell ref="AC368:AE368"/>
+    <mergeCell ref="AJ368:AK368"/>
+    <mergeCell ref="AL368:AM368"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AH14:AI15"/>
+    <mergeCell ref="AH17:AI18"/>
+    <mergeCell ref="AJ17:AM18"/>
+    <mergeCell ref="AG20:AI21"/>
+    <mergeCell ref="AJ20:AM21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41625,10 +41648,10 @@
       </c>
     </row>
     <row r="15" spans="3:4" ht="33" customHeight="1">
-      <c r="C15" s="279" t="s">
+      <c r="C15" s="288" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="280"/>
+      <c r="D15" s="289"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41691,8 +41714,8 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
       <c r="G5" s="47" t="s">
         <v>39</v>
       </c>
@@ -41836,20 +41859,20 @@
     </row>
     <row r="8" spans="3:20" ht="22.5" customHeight="1">
       <c r="G8" s="140"/>
-      <c r="H8" s="284" t="s">
+      <c r="H8" s="293" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="284"/>
-      <c r="N8" s="284"/>
-      <c r="O8" s="284"/>
-      <c r="P8" s="284"/>
-      <c r="Q8" s="284"/>
-      <c r="R8" s="284"/>
-      <c r="S8" s="284"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="293"/>
+      <c r="L8" s="293"/>
+      <c r="M8" s="293"/>
+      <c r="N8" s="293"/>
+      <c r="O8" s="293"/>
+      <c r="P8" s="293"/>
+      <c r="Q8" s="293"/>
+      <c r="R8" s="293"/>
+      <c r="S8" s="293"/>
       <c r="T8" s="141"/>
     </row>
     <row r="9" spans="3:20">
@@ -41904,20 +41927,20 @@
     </row>
     <row r="12" spans="3:20" ht="21.75" customHeight="1">
       <c r="G12" s="140"/>
-      <c r="H12" s="284" t="s">
+      <c r="H12" s="293" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="284"/>
-      <c r="J12" s="284"/>
-      <c r="K12" s="284"/>
-      <c r="L12" s="284"/>
-      <c r="M12" s="284"/>
-      <c r="N12" s="284"/>
-      <c r="O12" s="284"/>
-      <c r="P12" s="284"/>
-      <c r="Q12" s="284"/>
-      <c r="R12" s="284"/>
-      <c r="S12" s="284"/>
+      <c r="I12" s="293"/>
+      <c r="J12" s="293"/>
+      <c r="K12" s="293"/>
+      <c r="L12" s="293"/>
+      <c r="M12" s="293"/>
+      <c r="N12" s="293"/>
+      <c r="O12" s="293"/>
+      <c r="P12" s="293"/>
+      <c r="Q12" s="293"/>
+      <c r="R12" s="293"/>
+      <c r="S12" s="293"/>
       <c r="T12" s="141"/>
     </row>
     <row r="13" spans="3:20">
@@ -41972,20 +41995,20 @@
     </row>
     <row r="16" spans="3:20">
       <c r="G16" s="140"/>
-      <c r="H16" s="284" t="s">
+      <c r="H16" s="293" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="284"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="284"/>
-      <c r="L16" s="284"/>
-      <c r="M16" s="284"/>
-      <c r="N16" s="284"/>
-      <c r="O16" s="284"/>
-      <c r="P16" s="284"/>
-      <c r="Q16" s="284"/>
-      <c r="R16" s="284"/>
-      <c r="S16" s="284"/>
+      <c r="I16" s="293"/>
+      <c r="J16" s="293"/>
+      <c r="K16" s="293"/>
+      <c r="L16" s="293"/>
+      <c r="M16" s="293"/>
+      <c r="N16" s="293"/>
+      <c r="O16" s="293"/>
+      <c r="P16" s="293"/>
+      <c r="Q16" s="293"/>
+      <c r="R16" s="293"/>
+      <c r="S16" s="293"/>
       <c r="T16" s="141"/>
     </row>
     <row r="17" spans="7:20">
@@ -42006,164 +42029,164 @@
     </row>
     <row r="18" spans="7:20">
       <c r="G18" s="140"/>
-      <c r="H18" s="285" t="s">
+      <c r="H18" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="285"/>
-      <c r="J18" s="285"/>
-      <c r="K18" s="285"/>
-      <c r="L18" s="285"/>
-      <c r="M18" s="285"/>
-      <c r="N18" s="285"/>
-      <c r="O18" s="285"/>
-      <c r="P18" s="285"/>
-      <c r="Q18" s="285"/>
-      <c r="R18" s="285"/>
-      <c r="S18" s="285"/>
+      <c r="I18" s="294"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="294"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="294"/>
+      <c r="N18" s="294"/>
+      <c r="O18" s="294"/>
+      <c r="P18" s="294"/>
+      <c r="Q18" s="294"/>
+      <c r="R18" s="294"/>
+      <c r="S18" s="294"/>
       <c r="T18" s="141"/>
     </row>
     <row r="19" spans="7:20">
       <c r="G19" s="140"/>
-      <c r="H19" s="285"/>
-      <c r="I19" s="285"/>
-      <c r="J19" s="285"/>
-      <c r="K19" s="285"/>
-      <c r="L19" s="285"/>
-      <c r="M19" s="285"/>
-      <c r="N19" s="285"/>
-      <c r="O19" s="285"/>
-      <c r="P19" s="285"/>
-      <c r="Q19" s="285"/>
-      <c r="R19" s="285"/>
-      <c r="S19" s="285"/>
+      <c r="H19" s="294"/>
+      <c r="I19" s="294"/>
+      <c r="J19" s="294"/>
+      <c r="K19" s="294"/>
+      <c r="L19" s="294"/>
+      <c r="M19" s="294"/>
+      <c r="N19" s="294"/>
+      <c r="O19" s="294"/>
+      <c r="P19" s="294"/>
+      <c r="Q19" s="294"/>
+      <c r="R19" s="294"/>
+      <c r="S19" s="294"/>
       <c r="T19" s="141"/>
     </row>
     <row r="20" spans="7:20">
       <c r="G20" s="140"/>
-      <c r="H20" s="285"/>
-      <c r="I20" s="285"/>
-      <c r="J20" s="285"/>
-      <c r="K20" s="285"/>
-      <c r="L20" s="285"/>
-      <c r="M20" s="285"/>
-      <c r="N20" s="285"/>
-      <c r="O20" s="285"/>
-      <c r="P20" s="285"/>
-      <c r="Q20" s="285"/>
-      <c r="R20" s="285"/>
-      <c r="S20" s="285"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="294"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="294"/>
+      <c r="L20" s="294"/>
+      <c r="M20" s="294"/>
+      <c r="N20" s="294"/>
+      <c r="O20" s="294"/>
+      <c r="P20" s="294"/>
+      <c r="Q20" s="294"/>
+      <c r="R20" s="294"/>
+      <c r="S20" s="294"/>
       <c r="T20" s="141"/>
     </row>
     <row r="21" spans="7:20">
       <c r="G21" s="140"/>
-      <c r="H21" s="285"/>
-      <c r="I21" s="285"/>
-      <c r="J21" s="285"/>
-      <c r="K21" s="285"/>
-      <c r="L21" s="285"/>
-      <c r="M21" s="285"/>
-      <c r="N21" s="285"/>
-      <c r="O21" s="285"/>
-      <c r="P21" s="285"/>
-      <c r="Q21" s="285"/>
-      <c r="R21" s="285"/>
-      <c r="S21" s="285"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="294"/>
+      <c r="L21" s="294"/>
+      <c r="M21" s="294"/>
+      <c r="N21" s="294"/>
+      <c r="O21" s="294"/>
+      <c r="P21" s="294"/>
+      <c r="Q21" s="294"/>
+      <c r="R21" s="294"/>
+      <c r="S21" s="294"/>
       <c r="T21" s="141"/>
     </row>
     <row r="22" spans="7:20">
       <c r="G22" s="140"/>
-      <c r="H22" s="285"/>
-      <c r="I22" s="285"/>
-      <c r="J22" s="285"/>
-      <c r="K22" s="285"/>
-      <c r="L22" s="285"/>
-      <c r="M22" s="285"/>
-      <c r="N22" s="285"/>
-      <c r="O22" s="285"/>
-      <c r="P22" s="285"/>
-      <c r="Q22" s="285"/>
-      <c r="R22" s="285"/>
-      <c r="S22" s="285"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="294"/>
+      <c r="M22" s="294"/>
+      <c r="N22" s="294"/>
+      <c r="O22" s="294"/>
+      <c r="P22" s="294"/>
+      <c r="Q22" s="294"/>
+      <c r="R22" s="294"/>
+      <c r="S22" s="294"/>
       <c r="T22" s="141"/>
     </row>
     <row r="23" spans="7:20">
       <c r="G23" s="140"/>
-      <c r="H23" s="285"/>
-      <c r="I23" s="285"/>
-      <c r="J23" s="285"/>
-      <c r="K23" s="285"/>
-      <c r="L23" s="285"/>
-      <c r="M23" s="285"/>
-      <c r="N23" s="285"/>
-      <c r="O23" s="285"/>
-      <c r="P23" s="285"/>
-      <c r="Q23" s="285"/>
-      <c r="R23" s="285"/>
-      <c r="S23" s="285"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="294"/>
+      <c r="L23" s="294"/>
+      <c r="M23" s="294"/>
+      <c r="N23" s="294"/>
+      <c r="O23" s="294"/>
+      <c r="P23" s="294"/>
+      <c r="Q23" s="294"/>
+      <c r="R23" s="294"/>
+      <c r="S23" s="294"/>
       <c r="T23" s="141"/>
     </row>
     <row r="24" spans="7:20">
       <c r="G24" s="140"/>
-      <c r="H24" s="285"/>
-      <c r="I24" s="285"/>
-      <c r="J24" s="285"/>
-      <c r="K24" s="285"/>
-      <c r="L24" s="285"/>
-      <c r="M24" s="285"/>
-      <c r="N24" s="285"/>
-      <c r="O24" s="285"/>
-      <c r="P24" s="285"/>
-      <c r="Q24" s="285"/>
-      <c r="R24" s="285"/>
-      <c r="S24" s="285"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="294"/>
+      <c r="J24" s="294"/>
+      <c r="K24" s="294"/>
+      <c r="L24" s="294"/>
+      <c r="M24" s="294"/>
+      <c r="N24" s="294"/>
+      <c r="O24" s="294"/>
+      <c r="P24" s="294"/>
+      <c r="Q24" s="294"/>
+      <c r="R24" s="294"/>
+      <c r="S24" s="294"/>
       <c r="T24" s="141"/>
     </row>
     <row r="25" spans="7:20">
       <c r="G25" s="140"/>
-      <c r="H25" s="285"/>
-      <c r="I25" s="285"/>
-      <c r="J25" s="285"/>
-      <c r="K25" s="285"/>
-      <c r="L25" s="285"/>
-      <c r="M25" s="285"/>
-      <c r="N25" s="285"/>
-      <c r="O25" s="285"/>
-      <c r="P25" s="285"/>
-      <c r="Q25" s="285"/>
-      <c r="R25" s="285"/>
-      <c r="S25" s="285"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="294"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="294"/>
+      <c r="N25" s="294"/>
+      <c r="O25" s="294"/>
+      <c r="P25" s="294"/>
+      <c r="Q25" s="294"/>
+      <c r="R25" s="294"/>
+      <c r="S25" s="294"/>
       <c r="T25" s="141"/>
     </row>
     <row r="26" spans="7:20">
       <c r="G26" s="140"/>
-      <c r="H26" s="285"/>
-      <c r="I26" s="285"/>
-      <c r="J26" s="285"/>
-      <c r="K26" s="285"/>
-      <c r="L26" s="285"/>
-      <c r="M26" s="285"/>
-      <c r="N26" s="285"/>
-      <c r="O26" s="285"/>
-      <c r="P26" s="285"/>
-      <c r="Q26" s="285"/>
-      <c r="R26" s="285"/>
-      <c r="S26" s="285"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="294"/>
+      <c r="K26" s="294"/>
+      <c r="L26" s="294"/>
+      <c r="M26" s="294"/>
+      <c r="N26" s="294"/>
+      <c r="O26" s="294"/>
+      <c r="P26" s="294"/>
+      <c r="Q26" s="294"/>
+      <c r="R26" s="294"/>
+      <c r="S26" s="294"/>
       <c r="T26" s="141"/>
     </row>
     <row r="27" spans="7:20">
       <c r="G27" s="140"/>
-      <c r="H27" s="285"/>
-      <c r="I27" s="285"/>
-      <c r="J27" s="285"/>
-      <c r="K27" s="285"/>
-      <c r="L27" s="285"/>
-      <c r="M27" s="285"/>
-      <c r="N27" s="285"/>
-      <c r="O27" s="285"/>
-      <c r="P27" s="285"/>
-      <c r="Q27" s="285"/>
-      <c r="R27" s="285"/>
-      <c r="S27" s="285"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="294"/>
+      <c r="N27" s="294"/>
+      <c r="O27" s="294"/>
+      <c r="P27" s="294"/>
+      <c r="Q27" s="294"/>
+      <c r="R27" s="294"/>
+      <c r="S27" s="294"/>
       <c r="T27" s="141"/>
     </row>
     <row r="28" spans="7:20">
@@ -42290,12 +42313,12 @@
     </row>
     <row r="43" spans="1:20" ht="22.5" customHeight="1">
       <c r="G43" s="148"/>
-      <c r="H43" s="282" t="s">
+      <c r="H43" s="291" t="s">
         <v>98</v>
       </c>
-      <c r="I43" s="282"/>
-      <c r="J43" s="282"/>
-      <c r="K43" s="282"/>
+      <c r="I43" s="291"/>
+      <c r="J43" s="291"/>
+      <c r="K43" s="291"/>
       <c r="L43" s="149"/>
       <c r="M43" s="70" t="s">
         <v>99</v>
@@ -42358,12 +42381,12 @@
     </row>
     <row r="47" spans="1:20" ht="21.75" customHeight="1">
       <c r="G47" s="148"/>
-      <c r="H47" s="282" t="s">
+      <c r="H47" s="291" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="282"/>
-      <c r="J47" s="282"/>
-      <c r="K47" s="282"/>
+      <c r="I47" s="291"/>
+      <c r="J47" s="291"/>
+      <c r="K47" s="291"/>
       <c r="L47" s="149"/>
       <c r="M47" s="70" t="s">
         <v>101</v>
@@ -42426,22 +42449,22 @@
     </row>
     <row r="51" spans="7:20" ht="22.5" customHeight="1">
       <c r="G51" s="148"/>
-      <c r="H51" s="282" t="s">
+      <c r="H51" s="291" t="s">
         <v>102</v>
       </c>
-      <c r="I51" s="282"/>
-      <c r="J51" s="282"/>
-      <c r="K51" s="282"/>
+      <c r="I51" s="291"/>
+      <c r="J51" s="291"/>
+      <c r="K51" s="291"/>
       <c r="L51" s="149"/>
-      <c r="M51" s="283" t="s">
+      <c r="M51" s="292" t="s">
         <v>103</v>
       </c>
-      <c r="N51" s="283"/>
-      <c r="O51" s="283"/>
-      <c r="P51" s="283"/>
-      <c r="Q51" s="283"/>
-      <c r="R51" s="283"/>
-      <c r="S51" s="283"/>
+      <c r="N51" s="292"/>
+      <c r="O51" s="292"/>
+      <c r="P51" s="292"/>
+      <c r="Q51" s="292"/>
+      <c r="R51" s="292"/>
+      <c r="S51" s="292"/>
       <c r="T51" s="151"/>
     </row>
     <row r="52" spans="7:20">
@@ -42451,13 +42474,13 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="283"/>
-      <c r="N52" s="283"/>
-      <c r="O52" s="283"/>
-      <c r="P52" s="283"/>
-      <c r="Q52" s="283"/>
-      <c r="R52" s="283"/>
-      <c r="S52" s="283"/>
+      <c r="M52" s="292"/>
+      <c r="N52" s="292"/>
+      <c r="O52" s="292"/>
+      <c r="P52" s="292"/>
+      <c r="Q52" s="292"/>
+      <c r="R52" s="292"/>
+      <c r="S52" s="292"/>
       <c r="T52" s="151"/>
     </row>
     <row r="53" spans="7:20" ht="15" customHeight="1">
@@ -42467,13 +42490,13 @@
       <c r="J53" s="152"/>
       <c r="K53" s="152"/>
       <c r="L53" s="152"/>
-      <c r="M53" s="283"/>
-      <c r="N53" s="283"/>
-      <c r="O53" s="283"/>
-      <c r="P53" s="283"/>
-      <c r="Q53" s="283"/>
-      <c r="R53" s="283"/>
-      <c r="S53" s="283"/>
+      <c r="M53" s="292"/>
+      <c r="N53" s="292"/>
+      <c r="O53" s="292"/>
+      <c r="P53" s="292"/>
+      <c r="Q53" s="292"/>
+      <c r="R53" s="292"/>
+      <c r="S53" s="292"/>
       <c r="T53" s="151"/>
     </row>
     <row r="54" spans="7:20">
@@ -42483,13 +42506,13 @@
       <c r="J54" s="152"/>
       <c r="K54" s="152"/>
       <c r="L54" s="152"/>
-      <c r="M54" s="283"/>
-      <c r="N54" s="283"/>
-      <c r="O54" s="283"/>
-      <c r="P54" s="283"/>
-      <c r="Q54" s="283"/>
-      <c r="R54" s="283"/>
-      <c r="S54" s="283"/>
+      <c r="M54" s="292"/>
+      <c r="N54" s="292"/>
+      <c r="O54" s="292"/>
+      <c r="P54" s="292"/>
+      <c r="Q54" s="292"/>
+      <c r="R54" s="292"/>
+      <c r="S54" s="292"/>
       <c r="T54" s="151"/>
     </row>
     <row r="55" spans="7:20">
@@ -42499,13 +42522,13 @@
       <c r="J55" s="152"/>
       <c r="K55" s="152"/>
       <c r="L55" s="152"/>
-      <c r="M55" s="283"/>
-      <c r="N55" s="283"/>
-      <c r="O55" s="283"/>
-      <c r="P55" s="283"/>
-      <c r="Q55" s="283"/>
-      <c r="R55" s="283"/>
-      <c r="S55" s="283"/>
+      <c r="M55" s="292"/>
+      <c r="N55" s="292"/>
+      <c r="O55" s="292"/>
+      <c r="P55" s="292"/>
+      <c r="Q55" s="292"/>
+      <c r="R55" s="292"/>
+      <c r="S55" s="292"/>
       <c r="T55" s="151"/>
     </row>
     <row r="56" spans="7:20">
@@ -42515,13 +42538,13 @@
       <c r="J56" s="152"/>
       <c r="K56" s="152"/>
       <c r="L56" s="152"/>
-      <c r="M56" s="283"/>
-      <c r="N56" s="283"/>
-      <c r="O56" s="283"/>
-      <c r="P56" s="283"/>
-      <c r="Q56" s="283"/>
-      <c r="R56" s="283"/>
-      <c r="S56" s="283"/>
+      <c r="M56" s="292"/>
+      <c r="N56" s="292"/>
+      <c r="O56" s="292"/>
+      <c r="P56" s="292"/>
+      <c r="Q56" s="292"/>
+      <c r="R56" s="292"/>
+      <c r="S56" s="292"/>
       <c r="T56" s="151"/>
     </row>
     <row r="57" spans="7:20">
@@ -42531,13 +42554,13 @@
       <c r="J57" s="152"/>
       <c r="K57" s="152"/>
       <c r="L57" s="152"/>
-      <c r="M57" s="283"/>
-      <c r="N57" s="283"/>
-      <c r="O57" s="283"/>
-      <c r="P57" s="283"/>
-      <c r="Q57" s="283"/>
-      <c r="R57" s="283"/>
-      <c r="S57" s="283"/>
+      <c r="M57" s="292"/>
+      <c r="N57" s="292"/>
+      <c r="O57" s="292"/>
+      <c r="P57" s="292"/>
+      <c r="Q57" s="292"/>
+      <c r="R57" s="292"/>
+      <c r="S57" s="292"/>
       <c r="T57" s="151"/>
     </row>
     <row r="58" spans="7:20">
@@ -42547,13 +42570,13 @@
       <c r="J58" s="152"/>
       <c r="K58" s="152"/>
       <c r="L58" s="152"/>
-      <c r="M58" s="283"/>
-      <c r="N58" s="283"/>
-      <c r="O58" s="283"/>
-      <c r="P58" s="283"/>
-      <c r="Q58" s="283"/>
-      <c r="R58" s="283"/>
-      <c r="S58" s="283"/>
+      <c r="M58" s="292"/>
+      <c r="N58" s="292"/>
+      <c r="O58" s="292"/>
+      <c r="P58" s="292"/>
+      <c r="Q58" s="292"/>
+      <c r="R58" s="292"/>
+      <c r="S58" s="292"/>
       <c r="T58" s="151"/>
     </row>
     <row r="59" spans="7:20">
@@ -42563,13 +42586,13 @@
       <c r="J59" s="152"/>
       <c r="K59" s="152"/>
       <c r="L59" s="152"/>
-      <c r="M59" s="283"/>
-      <c r="N59" s="283"/>
-      <c r="O59" s="283"/>
-      <c r="P59" s="283"/>
-      <c r="Q59" s="283"/>
-      <c r="R59" s="283"/>
-      <c r="S59" s="283"/>
+      <c r="M59" s="292"/>
+      <c r="N59" s="292"/>
+      <c r="O59" s="292"/>
+      <c r="P59" s="292"/>
+      <c r="Q59" s="292"/>
+      <c r="R59" s="292"/>
+      <c r="S59" s="292"/>
       <c r="T59" s="151"/>
     </row>
     <row r="60" spans="7:20">
@@ -42579,13 +42602,13 @@
       <c r="J60" s="152"/>
       <c r="K60" s="152"/>
       <c r="L60" s="152"/>
-      <c r="M60" s="283"/>
-      <c r="N60" s="283"/>
-      <c r="O60" s="283"/>
-      <c r="P60" s="283"/>
-      <c r="Q60" s="283"/>
-      <c r="R60" s="283"/>
-      <c r="S60" s="283"/>
+      <c r="M60" s="292"/>
+      <c r="N60" s="292"/>
+      <c r="O60" s="292"/>
+      <c r="P60" s="292"/>
+      <c r="Q60" s="292"/>
+      <c r="R60" s="292"/>
+      <c r="S60" s="292"/>
       <c r="T60" s="151"/>
     </row>
     <row r="61" spans="7:20">
@@ -42595,13 +42618,13 @@
       <c r="J61" s="152"/>
       <c r="K61" s="152"/>
       <c r="L61" s="152"/>
-      <c r="M61" s="283"/>
-      <c r="N61" s="283"/>
-      <c r="O61" s="283"/>
-      <c r="P61" s="283"/>
-      <c r="Q61" s="283"/>
-      <c r="R61" s="283"/>
-      <c r="S61" s="283"/>
+      <c r="M61" s="292"/>
+      <c r="N61" s="292"/>
+      <c r="O61" s="292"/>
+      <c r="P61" s="292"/>
+      <c r="Q61" s="292"/>
+      <c r="R61" s="292"/>
+      <c r="S61" s="292"/>
       <c r="T61" s="151"/>
     </row>
     <row r="62" spans="7:20">
@@ -42611,13 +42634,13 @@
       <c r="J62" s="152"/>
       <c r="K62" s="152"/>
       <c r="L62" s="152"/>
-      <c r="M62" s="283"/>
-      <c r="N62" s="283"/>
-      <c r="O62" s="283"/>
-      <c r="P62" s="283"/>
-      <c r="Q62" s="283"/>
-      <c r="R62" s="283"/>
-      <c r="S62" s="283"/>
+      <c r="M62" s="292"/>
+      <c r="N62" s="292"/>
+      <c r="O62" s="292"/>
+      <c r="P62" s="292"/>
+      <c r="Q62" s="292"/>
+      <c r="R62" s="292"/>
+      <c r="S62" s="292"/>
       <c r="T62" s="151"/>
     </row>
     <row r="63" spans="7:20">
@@ -42627,13 +42650,13 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="283"/>
-      <c r="N63" s="283"/>
-      <c r="O63" s="283"/>
-      <c r="P63" s="283"/>
-      <c r="Q63" s="283"/>
-      <c r="R63" s="283"/>
-      <c r="S63" s="283"/>
+      <c r="M63" s="292"/>
+      <c r="N63" s="292"/>
+      <c r="O63" s="292"/>
+      <c r="P63" s="292"/>
+      <c r="Q63" s="292"/>
+      <c r="R63" s="292"/>
+      <c r="S63" s="292"/>
       <c r="T63" s="151"/>
     </row>
     <row r="64" spans="7:20">
@@ -42643,13 +42666,13 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="283"/>
-      <c r="N64" s="283"/>
-      <c r="O64" s="283"/>
-      <c r="P64" s="283"/>
-      <c r="Q64" s="283"/>
-      <c r="R64" s="283"/>
-      <c r="S64" s="283"/>
+      <c r="M64" s="292"/>
+      <c r="N64" s="292"/>
+      <c r="O64" s="292"/>
+      <c r="P64" s="292"/>
+      <c r="Q64" s="292"/>
+      <c r="R64" s="292"/>
+      <c r="S64" s="292"/>
       <c r="T64" s="151"/>
     </row>
     <row r="65" spans="4:22">
@@ -42659,13 +42682,13 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="283"/>
-      <c r="N65" s="283"/>
-      <c r="O65" s="283"/>
-      <c r="P65" s="283"/>
-      <c r="Q65" s="283"/>
-      <c r="R65" s="283"/>
-      <c r="S65" s="283"/>
+      <c r="M65" s="292"/>
+      <c r="N65" s="292"/>
+      <c r="O65" s="292"/>
+      <c r="P65" s="292"/>
+      <c r="Q65" s="292"/>
+      <c r="R65" s="292"/>
+      <c r="S65" s="292"/>
       <c r="T65" s="151"/>
     </row>
     <row r="66" spans="4:22">
@@ -42787,15 +42810,15 @@
     <row r="2" spans="2:15">
       <c r="I2" s="178"/>
       <c r="J2" s="190" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K2" s="178"/>
       <c r="L2" s="192" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M2" s="178"/>
       <c r="N2" s="195" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O2" s="178"/>
     </row>
@@ -42809,15 +42832,15 @@
       <c r="H3" s="173"/>
       <c r="I3" s="178"/>
       <c r="J3" s="191" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K3" s="178"/>
       <c r="L3" s="193" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M3" s="178"/>
       <c r="N3" s="196" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O3" s="178"/>
     </row>
@@ -42831,11 +42854,11 @@
       <c r="H4" s="173"/>
       <c r="I4" s="178"/>
       <c r="J4" s="172" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K4" s="178"/>
       <c r="L4" s="194" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M4" s="178"/>
       <c r="N4" s="178"/>
@@ -42853,7 +42876,7 @@
       <c r="J5" s="189"/>
       <c r="K5" s="178"/>
       <c r="L5" s="194" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M5" s="178"/>
       <c r="N5" s="189"/>
@@ -42871,7 +42894,7 @@
       <c r="J6" s="189"/>
       <c r="K6" s="178"/>
       <c r="L6" s="194" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M6" s="178"/>
       <c r="N6" s="189"/>
@@ -42889,7 +42912,7 @@
       <c r="J7" s="189"/>
       <c r="K7" s="178"/>
       <c r="L7" s="194" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M7" s="178"/>
       <c r="N7" s="189"/>
@@ -42912,11 +42935,11 @@
       <c r="J9" s="178"/>
       <c r="K9" s="178"/>
       <c r="L9" s="188"/>
-      <c r="M9" s="287" t="s">
-        <v>157</v>
+      <c r="M9" s="296" t="s">
+        <v>153</v>
       </c>
-      <c r="N9" s="287"/>
-      <c r="O9" s="287"/>
+      <c r="N9" s="296"/>
+      <c r="O9" s="296"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="173"/>
@@ -42927,7 +42950,7 @@
       <c r="G10" s="173"/>
       <c r="H10" s="173"/>
       <c r="N10" s="186" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="21.75" thickBot="1">
@@ -42939,7 +42962,7 @@
       <c r="G11" s="173"/>
       <c r="H11" s="173"/>
       <c r="N11" s="183" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="21.75" thickBot="1">
@@ -42951,7 +42974,7 @@
       <c r="G12" s="173"/>
       <c r="H12" s="173"/>
       <c r="N12" s="184" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="21.75" thickBot="1">
@@ -42963,7 +42986,7 @@
       <c r="G13" s="173"/>
       <c r="H13" s="173"/>
       <c r="N13" s="184" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="21.75" thickBot="1">
@@ -42976,10 +42999,10 @@
       <c r="H14" s="173"/>
       <c r="K14" s="175"/>
       <c r="L14" s="176" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N14" s="184" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="21.75" thickBot="1">
@@ -42991,10 +43014,10 @@
       <c r="G15" s="173"/>
       <c r="H15" s="173"/>
       <c r="L15" s="177" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N15" s="184" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="21.75" thickBot="1">
@@ -43007,7 +43030,7 @@
       <c r="H16" s="173"/>
       <c r="L16" s="177"/>
       <c r="N16" s="184" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="21.75" thickBot="1">
@@ -43020,10 +43043,10 @@
       <c r="H17" s="173"/>
       <c r="K17" s="179"/>
       <c r="L17" s="176" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N17" s="184" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="21.75" thickBot="1">
@@ -43035,10 +43058,10 @@
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="L18" s="180" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N18" s="184" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="21.75" thickBot="1">
@@ -43050,10 +43073,10 @@
       <c r="G19" s="173"/>
       <c r="H19" s="173"/>
       <c r="L19" s="181" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N19" s="184" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="21.75" thickBot="1">
@@ -43065,10 +43088,10 @@
       <c r="G20" s="173"/>
       <c r="H20" s="173"/>
       <c r="L20" s="181" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N20" s="184" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="21.75" thickBot="1">
@@ -43081,7 +43104,7 @@
       <c r="H21" s="173"/>
       <c r="L21" s="182"/>
       <c r="N21" s="184" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="21.75" thickBot="1">
@@ -43093,10 +43116,10 @@
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
       <c r="L22" s="180" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N22" s="184" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="21.75" thickBot="1">
@@ -43108,10 +43131,10 @@
       <c r="G23" s="173"/>
       <c r="H23" s="173"/>
       <c r="L23" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N23" s="184" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -43123,10 +43146,10 @@
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="L24" s="181" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N24" s="185" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:14">
@@ -43138,7 +43161,7 @@
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
       <c r="N25" s="187" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:14">
@@ -43314,16 +43337,16 @@
       <c r="AH42" s="197"/>
     </row>
     <row r="43" spans="2:34" ht="21.75" customHeight="1" thickBot="1">
-      <c r="Y43" s="288" t="s">
-        <v>161</v>
+      <c r="Y43" s="297" t="s">
+        <v>157</v>
       </c>
       <c r="Z43" s="198"/>
-      <c r="AA43" s="288" t="s">
-        <v>162</v>
+      <c r="AA43" s="297" t="s">
+        <v>158</v>
       </c>
       <c r="AB43" s="198"/>
-      <c r="AC43" s="290" t="s">
-        <v>163</v>
+      <c r="AC43" s="299" t="s">
+        <v>159</v>
       </c>
       <c r="AD43" s="222"/>
       <c r="AE43" s="222"/>
@@ -43332,9 +43355,9 @@
       <c r="AH43" s="222"/>
     </row>
     <row r="44" spans="2:34" ht="21.75" thickBot="1">
-      <c r="Y44" s="289"/>
-      <c r="AA44" s="289"/>
-      <c r="AC44" s="291"/>
+      <c r="Y44" s="298"/>
+      <c r="AA44" s="298"/>
+      <c r="AC44" s="300"/>
       <c r="AD44" s="223"/>
       <c r="AE44" s="223"/>
       <c r="AF44" s="223"/>
@@ -43355,7 +43378,7 @@
     </row>
     <row r="51" spans="25:34">
       <c r="AD51" s="224" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="25:34">
@@ -43365,22 +43388,22 @@
     </row>
     <row r="53" spans="25:34">
       <c r="Y53" s="227" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
-      <c r="Z53" s="286" t="s">
-        <v>186</v>
+      <c r="Z53" s="295" t="s">
+        <v>179</v>
       </c>
-      <c r="AA53" s="286"/>
+      <c r="AA53" s="295"/>
     </row>
     <row r="54" spans="25:34">
       <c r="AA54" s="225" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AB54" s="226" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AC54" s="226" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="25:34" s="220" customFormat="1" ht="39.75" customHeight="1">
@@ -43401,10 +43424,10 @@
         <v>14</v>
       </c>
       <c r="AE55" s="224" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF55" s="224" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AG55" s="221"/>
       <c r="AH55" s="221"/>
@@ -43442,7 +43465,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF33CC33"/>
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
@@ -43544,11 +43567,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -43665,12 +43688,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43827,12 +43850,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43898,736 +43921,731 @@
       <c r="U3" s="130"/>
       <c r="V3" s="133"/>
     </row>
-    <row r="5" spans="1:23" ht="33" customHeight="1">
-      <c r="B5" s="158" t="s">
-        <v>47</v>
+    <row r="6" spans="1:23" ht="27.75" customHeight="1">
+      <c r="B6" s="305" t="s">
+        <v>183</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
     </row>
     <row r="7" spans="1:23" ht="27.75" customHeight="1">
-      <c r="B7" s="159" t="s">
-        <v>120</v>
+      <c r="B7" s="160"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="23.25" customHeight="1">
+      <c r="C8" s="165" t="s">
+        <v>184</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" ht="27.75" customHeight="1">
-      <c r="B8" s="160"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="23.25" customHeight="1">
-      <c r="C9" s="165" t="s">
+      <c r="D8" s="249" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="249"/>
+      <c r="K8" s="165" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="248">
+        <v>43191</v>
+      </c>
+      <c r="M8" s="248"/>
+      <c r="N8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="165" t="s">
+        <v>185</v>
+      </c>
+      <c r="T8" s="247" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="247"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" ht="23.25" customHeight="1">
+      <c r="B10" s="307"/>
+      <c r="C10" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="250" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="250"/>
+      <c r="K10" s="165" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="251">
+        <v>10</v>
+      </c>
+      <c r="M10" s="251"/>
+      <c r="S10" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="T10" s="306">
+        <v>3</v>
+      </c>
+      <c r="U10" s="306"/>
+    </row>
+    <row r="11" spans="1:23" s="18" customFormat="1" ht="23.25" customHeight="1">
+      <c r="C11" s="215"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="217"/>
+      <c r="M11" s="217"/>
+      <c r="S11" s="215"/>
+      <c r="T11" s="218"/>
+      <c r="U11" s="218"/>
+      <c r="W11" s="219"/>
+    </row>
+    <row r="12" spans="1:23" ht="48" customHeight="1">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" s="163" customFormat="1" ht="21.75" customHeight="1">
+      <c r="D13" s="199" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="252" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="301" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="301"/>
+      <c r="M13" s="302" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="302"/>
+      <c r="O13" s="302" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="302"/>
+      <c r="Q13" s="302" t="s">
+        <v>163</v>
+      </c>
+      <c r="R13" s="302"/>
+      <c r="T13" s="304"/>
+      <c r="U13" s="304"/>
+      <c r="W13" s="164"/>
+    </row>
+    <row r="14" spans="1:23" s="168" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="243" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="243"/>
+      <c r="M14" s="243" t="s">
+        <v>164</v>
+      </c>
+      <c r="N14" s="243"/>
+      <c r="O14" s="243" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="243"/>
+      <c r="Q14" s="243" t="s">
+        <v>170</v>
+      </c>
+      <c r="R14" s="243"/>
+      <c r="T14" s="304"/>
+      <c r="U14" s="304"/>
+      <c r="W14" s="169"/>
+    </row>
+    <row r="15" spans="1:23" s="210" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="242" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="242"/>
+      <c r="M15" s="242" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="242"/>
+      <c r="O15" s="242" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" s="242"/>
+      <c r="Q15" s="303">
+        <v>44105</v>
+      </c>
+      <c r="R15" s="242"/>
+      <c r="T15" s="304"/>
+      <c r="U15" s="304"/>
+      <c r="W15" s="212"/>
+    </row>
+    <row r="16" spans="1:23" ht="21.75" customHeight="1">
+      <c r="D16" s="208">
+        <v>1</v>
+      </c>
+      <c r="E16" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="239">
-        <v>43191</v>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="E9" s="239"/>
-      <c r="K9" s="165" t="s">
-        <v>113</v>
+      <c r="J16" s="240"/>
+      <c r="K16" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L9" s="241" t="s">
-        <v>166</v>
+      <c r="L16" s="241"/>
+      <c r="M16" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="M9" s="241"/>
-      <c r="S9" s="165" t="s">
-        <v>112</v>
+      <c r="N16" s="241"/>
+      <c r="O16" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="T9" s="238" t="s">
-        <v>122</v>
+      <c r="P16" s="241"/>
+      <c r="Q16" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="U9" s="238"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="23.25" customHeight="1">
-      <c r="C11" s="165" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="242" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="242"/>
-      <c r="K11" s="165" t="s">
-        <v>165</v>
-      </c>
-      <c r="L11" s="229">
-        <v>10</v>
-      </c>
-      <c r="M11" s="229"/>
-      <c r="S11" s="165" t="s">
-        <v>165</v>
-      </c>
-      <c r="T11" s="230">
-        <v>3</v>
-      </c>
-      <c r="U11" s="230"/>
-    </row>
-    <row r="12" spans="1:23" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C12" s="215"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="217"/>
-      <c r="M12" s="217"/>
-      <c r="S12" s="215"/>
-      <c r="T12" s="218"/>
-      <c r="U12" s="218"/>
-      <c r="W12" s="219"/>
-    </row>
-    <row r="13" spans="1:23" ht="48" customHeight="1">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" s="163" customFormat="1" ht="21.75" customHeight="1">
-      <c r="D14" s="199" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="231" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="231"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="236" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" s="236"/>
-      <c r="K14" s="236" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="236"/>
-      <c r="M14" s="236" t="s">
-        <v>169</v>
-      </c>
-      <c r="N14" s="236"/>
-      <c r="O14" s="236" t="s">
-        <v>169</v>
-      </c>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236" t="s">
-        <v>169</v>
-      </c>
-      <c r="R14" s="236"/>
-      <c r="W14" s="164"/>
-    </row>
-    <row r="15" spans="1:23" s="168" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="235" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" s="235"/>
-      <c r="K15" s="235" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="235"/>
-      <c r="M15" s="235" t="s">
-        <v>176</v>
-      </c>
-      <c r="N15" s="235"/>
-      <c r="O15" s="235" t="s">
-        <v>170</v>
-      </c>
-      <c r="P15" s="235"/>
-      <c r="Q15" s="235" t="s">
-        <v>172</v>
-      </c>
-      <c r="R15" s="235"/>
-      <c r="W15" s="169"/>
-    </row>
-    <row r="16" spans="1:23" s="210" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D16" s="211"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237" t="s">
-        <v>175</v>
-      </c>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237" t="s">
-        <v>177</v>
-      </c>
-      <c r="N16" s="237"/>
-      <c r="O16" s="237" t="s">
-        <v>178</v>
-      </c>
-      <c r="P16" s="237"/>
-      <c r="Q16" s="237" t="s">
-        <v>173</v>
-      </c>
-      <c r="R16" s="237"/>
-      <c r="W16" s="212"/>
-    </row>
-    <row r="17" spans="2:19" ht="21.75" customHeight="1">
+      <c r="R16" s="241"/>
+      <c r="T16" s="304"/>
+      <c r="U16" s="304"/>
+    </row>
+    <row r="17" spans="2:21" ht="21.75" customHeight="1">
       <c r="D17" s="208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="200" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="200"/>
       <c r="G17" s="200"/>
       <c r="H17" s="200"/>
-      <c r="I17" s="233" t="s">
-        <v>118</v>
+      <c r="I17" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="J17" s="234"/>
-      <c r="K17" s="232" t="s">
-        <v>119</v>
+      <c r="J17" s="240"/>
+      <c r="K17" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232" t="s">
-        <v>119</v>
+      <c r="L17" s="241"/>
+      <c r="M17" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="N17" s="232"/>
-      <c r="O17" s="232" t="s">
-        <v>119</v>
+      <c r="N17" s="241"/>
+      <c r="O17" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="P17" s="232"/>
-      <c r="Q17" s="232" t="s">
-        <v>119</v>
+      <c r="P17" s="241"/>
+      <c r="Q17" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="R17" s="232"/>
-    </row>
-    <row r="18" spans="2:19" ht="21.75" customHeight="1">
+      <c r="R17" s="241"/>
+      <c r="T17" s="304"/>
+      <c r="U17" s="304"/>
+    </row>
+    <row r="18" spans="2:21" ht="21.75" customHeight="1">
       <c r="D18" s="208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="200" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="200"/>
       <c r="G18" s="200"/>
       <c r="H18" s="200"/>
-      <c r="I18" s="233" t="s">
-        <v>118</v>
+      <c r="I18" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="J18" s="234"/>
-      <c r="K18" s="232" t="s">
-        <v>119</v>
+      <c r="J18" s="240"/>
+      <c r="K18" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L18" s="232"/>
-      <c r="M18" s="232" t="s">
-        <v>119</v>
+      <c r="L18" s="241"/>
+      <c r="M18" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="N18" s="232"/>
-      <c r="O18" s="232" t="s">
-        <v>119</v>
+      <c r="N18" s="241"/>
+      <c r="O18" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="P18" s="232"/>
-      <c r="Q18" s="232" t="s">
-        <v>119</v>
+      <c r="P18" s="241"/>
+      <c r="Q18" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="R18" s="232"/>
-    </row>
-    <row r="19" spans="2:19" ht="21.75" customHeight="1">
+      <c r="R18" s="241"/>
+      <c r="T18" s="304"/>
+      <c r="U18" s="304"/>
+    </row>
+    <row r="19" spans="2:21" ht="21.75" customHeight="1">
       <c r="D19" s="208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="200" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F19" s="200"/>
       <c r="G19" s="200"/>
       <c r="H19" s="200"/>
-      <c r="I19" s="233" t="s">
-        <v>118</v>
+      <c r="I19" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="J19" s="234"/>
-      <c r="K19" s="232" t="s">
-        <v>119</v>
+      <c r="J19" s="240"/>
+      <c r="K19" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232" t="s">
-        <v>119</v>
+      <c r="L19" s="241"/>
+      <c r="M19" s="245" t="s">
+        <v>116</v>
       </c>
-      <c r="N19" s="232"/>
-      <c r="O19" s="232" t="s">
-        <v>119</v>
+      <c r="N19" s="245"/>
+      <c r="O19" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="P19" s="232"/>
-      <c r="Q19" s="232" t="s">
-        <v>119</v>
+      <c r="P19" s="241"/>
+      <c r="Q19" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="R19" s="232"/>
-    </row>
-    <row r="20" spans="2:19" ht="21.75" customHeight="1">
+      <c r="R19" s="241"/>
+      <c r="T19" s="304"/>
+      <c r="U19" s="304"/>
+    </row>
+    <row r="20" spans="2:21" ht="21.75" customHeight="1">
       <c r="D20" s="208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="200" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="200"/>
       <c r="G20" s="200"/>
       <c r="H20" s="200"/>
-      <c r="I20" s="233" t="s">
-        <v>118</v>
+      <c r="I20" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="J20" s="234"/>
-      <c r="K20" s="232" t="s">
-        <v>119</v>
+      <c r="J20" s="240"/>
+      <c r="K20" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232" t="s">
-        <v>119</v>
+      <c r="L20" s="241"/>
+      <c r="M20" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="N20" s="232"/>
-      <c r="O20" s="240" t="s">
-        <v>118</v>
+      <c r="N20" s="241"/>
+      <c r="O20" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="P20" s="240"/>
-      <c r="Q20" s="232" t="s">
-        <v>119</v>
+      <c r="P20" s="241"/>
+      <c r="Q20" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="R20" s="232"/>
-    </row>
-    <row r="21" spans="2:19" ht="21.75" customHeight="1">
+      <c r="R20" s="241"/>
+      <c r="T20" s="304"/>
+      <c r="U20" s="304"/>
+    </row>
+    <row r="21" spans="2:21" ht="21.75" customHeight="1">
       <c r="D21" s="208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="200" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="200"/>
       <c r="G21" s="200"/>
       <c r="H21" s="200"/>
-      <c r="I21" s="233" t="s">
-        <v>118</v>
+      <c r="I21" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="J21" s="234"/>
-      <c r="K21" s="232" t="s">
-        <v>119</v>
+      <c r="J21" s="240"/>
+      <c r="K21" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L21" s="232"/>
-      <c r="M21" s="232" t="s">
-        <v>119</v>
+      <c r="L21" s="241"/>
+      <c r="M21" s="245" t="s">
+        <v>116</v>
       </c>
-      <c r="N21" s="232"/>
-      <c r="O21" s="232" t="s">
-        <v>119</v>
+      <c r="N21" s="246"/>
+      <c r="O21" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="P21" s="232"/>
-      <c r="Q21" s="232" t="s">
-        <v>119</v>
+      <c r="P21" s="241"/>
+      <c r="Q21" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="R21" s="232"/>
-    </row>
-    <row r="22" spans="2:19" ht="21.75" customHeight="1">
+      <c r="R21" s="241"/>
+    </row>
+    <row r="22" spans="2:21" ht="21.75" customHeight="1">
       <c r="D22" s="208">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="200" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F22" s="200"/>
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
-      <c r="I22" s="233" t="s">
-        <v>118</v>
+      <c r="I22" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="J22" s="234"/>
-      <c r="K22" s="232" t="s">
-        <v>119</v>
+      <c r="J22" s="240"/>
+      <c r="K22" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L22" s="232"/>
-      <c r="M22" s="232" t="s">
-        <v>119</v>
+      <c r="L22" s="241"/>
+      <c r="M22" s="245" t="s">
+        <v>116</v>
       </c>
-      <c r="N22" s="232"/>
-      <c r="O22" s="240" t="s">
-        <v>118</v>
+      <c r="N22" s="245"/>
+      <c r="O22" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="232" t="s">
-        <v>119</v>
+      <c r="P22" s="241"/>
+      <c r="Q22" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="R22" s="232"/>
-    </row>
-    <row r="23" spans="2:19" ht="21.75" customHeight="1">
+      <c r="R22" s="241"/>
+    </row>
+    <row r="23" spans="2:21" ht="21.75" customHeight="1">
       <c r="D23" s="208">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="200" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" s="200"/>
       <c r="G23" s="200"/>
       <c r="H23" s="200"/>
-      <c r="I23" s="233" t="s">
-        <v>118</v>
+      <c r="I23" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="J23" s="234"/>
-      <c r="K23" s="232" t="s">
-        <v>119</v>
+      <c r="J23" s="240"/>
+      <c r="K23" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L23" s="232"/>
-      <c r="M23" s="232" t="s">
-        <v>119</v>
+      <c r="L23" s="241"/>
+      <c r="M23" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="N23" s="232"/>
-      <c r="O23" s="240" t="s">
-        <v>118</v>
+      <c r="N23" s="241"/>
+      <c r="O23" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="P23" s="240"/>
-      <c r="Q23" s="232" t="s">
-        <v>119</v>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="R23" s="232"/>
-    </row>
-    <row r="24" spans="2:19" ht="21.75" customHeight="1">
+      <c r="R23" s="241"/>
+    </row>
+    <row r="24" spans="2:21" ht="21.75" customHeight="1">
       <c r="D24" s="208">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="200" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="200"/>
       <c r="G24" s="200"/>
       <c r="H24" s="200"/>
-      <c r="I24" s="233" t="s">
-        <v>118</v>
+      <c r="I24" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="J24" s="234"/>
-      <c r="K24" s="232" t="s">
-        <v>119</v>
+      <c r="J24" s="240"/>
+      <c r="K24" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L24" s="232"/>
-      <c r="M24" s="232" t="s">
-        <v>119</v>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="N24" s="232"/>
-      <c r="O24" s="232" t="s">
-        <v>119</v>
+      <c r="N24" s="241"/>
+      <c r="O24" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="232" t="s">
-        <v>119</v>
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="R24" s="232"/>
-    </row>
-    <row r="25" spans="2:19" ht="21.75" customHeight="1">
+      <c r="R24" s="241"/>
+    </row>
+    <row r="25" spans="2:21" ht="21.75" customHeight="1">
       <c r="D25" s="208">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="200" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" s="200"/>
       <c r="G25" s="200"/>
       <c r="H25" s="200"/>
-      <c r="I25" s="233" t="s">
-        <v>118</v>
+      <c r="I25" s="239" t="s">
+        <v>116</v>
       </c>
-      <c r="J25" s="234"/>
-      <c r="K25" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" s="232"/>
-      <c r="M25" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="N25" s="232"/>
-      <c r="O25" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="P25" s="232"/>
-      <c r="Q25" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="R25" s="232"/>
-    </row>
-    <row r="26" spans="2:19" ht="21.75" customHeight="1">
-      <c r="D26" s="208">
-        <v>10</v>
-      </c>
-      <c r="E26" s="200" t="s">
+      <c r="J25" s="240"/>
+      <c r="K25" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="233" t="s">
-        <v>118</v>
+      <c r="L25" s="241"/>
+      <c r="M25" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="J26" s="234"/>
-      <c r="K26" s="232" t="s">
-        <v>119</v>
+      <c r="N25" s="241"/>
+      <c r="O25" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="L26" s="232"/>
-      <c r="M26" s="232" t="s">
-        <v>119</v>
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241" t="s">
+        <v>117</v>
       </c>
-      <c r="N26" s="232"/>
-      <c r="O26" s="232" t="s">
-        <v>119</v>
+      <c r="R25" s="241"/>
+    </row>
+    <row r="26" spans="2:21" ht="21.75" customHeight="1">
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="206"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="2:21" ht="21.75" customHeight="1">
+      <c r="B27" s="209" t="s">
+        <v>172</v>
       </c>
-      <c r="P26" s="232"/>
-      <c r="Q26" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="R26" s="232"/>
-    </row>
-    <row r="27" spans="2:19" ht="21.75" customHeight="1">
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="243"/>
-      <c r="K27" s="243"/>
-      <c r="L27" s="204"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="205"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="207"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-    </row>
-    <row r="28" spans="2:19" ht="21.75" customHeight="1">
-      <c r="B28" s="209" t="s">
-        <v>179</v>
-      </c>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="161"/>
+    </row>
+    <row r="28" spans="2:21" ht="21.75" customHeight="1">
+      <c r="D28" s="167"/>
       <c r="E28" s="167"/>
       <c r="F28" s="167"/>
       <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="161"/>
-    </row>
-    <row r="29" spans="2:19" ht="21.75" customHeight="1">
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-    </row>
-    <row r="30" spans="2:19" ht="21.75" customHeight="1">
-      <c r="B30" s="213"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="214"/>
+    </row>
+    <row r="29" spans="2:21" ht="21.75" customHeight="1">
+      <c r="B29" s="213"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+    </row>
+    <row r="30" spans="2:21" ht="21.75" customHeight="1">
+      <c r="B30" s="238"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
       <c r="E30" s="214"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-    </row>
-    <row r="31" spans="2:19" ht="21.75" customHeight="1">
-      <c r="B31" s="245"/>
-      <c r="C31" s="245"/>
-      <c r="D31" s="245"/>
-      <c r="E31" s="214"/>
-    </row>
-    <row r="32" spans="2:19" ht="21.75" customHeight="1">
+    </row>
+    <row r="31" spans="2:21" ht="21.75" customHeight="1">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="2:21" ht="21.75" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="35" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="36" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="37" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="38" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="39" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="40" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="41" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="42" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="43" spans="2:5" ht="21.75" customHeight="1"/>
-    <row r="44" spans="2:5" ht="21.75" customHeight="1">
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
+    <row r="33" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="34" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="35" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="36" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="37" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="38" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="39" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="40" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="41" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="42" spans="4:5" ht="21.75" customHeight="1"/>
+    <row r="43" spans="4:5" ht="21.75" customHeight="1">
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="B31:D31"/>
+  <mergeCells count="75">
+    <mergeCell ref="T13:U20"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q22:R22"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M26:N26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44638,7 +44656,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A2:W33"/>
   <sheetViews>
@@ -44702,18 +44720,18 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="249"/>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
+      <c r="A4" s="255"/>
+      <c r="B4" s="255"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="255"/>
+      <c r="L4" s="255"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -44749,112 +44767,112 @@
       <c r="S6" s="170"/>
     </row>
     <row r="8" spans="1:23" ht="43.5" customHeight="1">
-      <c r="D8" s="247" t="s">
+      <c r="D8" s="256" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247" t="s">
+      <c r="E8" s="256"/>
+      <c r="F8" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="247"/>
-      <c r="H8" s="250" t="s">
+      <c r="G8" s="256"/>
+      <c r="H8" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="250"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="250"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="250"/>
-      <c r="N8" s="250" t="s">
+      <c r="I8" s="257"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="257"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="257"/>
+      <c r="N8" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="250"/>
-      <c r="P8" s="247" t="s">
+      <c r="O8" s="257"/>
+      <c r="P8" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="247"/>
-      <c r="R8" s="247" t="s">
-        <v>123</v>
+      <c r="Q8" s="256"/>
+      <c r="R8" s="256" t="s">
+        <v>119</v>
       </c>
-      <c r="S8" s="247"/>
+      <c r="S8" s="256"/>
     </row>
     <row r="9" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D9" s="246" t="s">
+      <c r="D9" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246" t="s">
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="246"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="246" t="s">
+      <c r="I9" s="253"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="246"/>
-      <c r="P9" s="248">
+      <c r="O9" s="253"/>
+      <c r="P9" s="254">
         <v>43185</v>
       </c>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
+      <c r="Q9" s="253"/>
+      <c r="R9" s="253"/>
+      <c r="S9" s="253"/>
     </row>
     <row r="10" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D10" s="246" t="s">
-        <v>125</v>
+      <c r="D10" s="253" t="s">
+        <v>121</v>
       </c>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246" t="s">
-        <v>124</v>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253" t="s">
+        <v>120</v>
       </c>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246" t="s">
+      <c r="I10" s="253"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="246"/>
-      <c r="P10" s="248">
+      <c r="O10" s="253"/>
+      <c r="P10" s="254">
         <v>43185</v>
       </c>
-      <c r="Q10" s="246"/>
-      <c r="R10" s="246"/>
-      <c r="S10" s="246"/>
+      <c r="Q10" s="253"/>
+      <c r="R10" s="253"/>
+      <c r="S10" s="253"/>
     </row>
     <row r="11" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D11" s="246" t="s">
+      <c r="D11" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246" t="s">
+      <c r="E11" s="253"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="253" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="246"/>
-      <c r="M11" s="246"/>
-      <c r="N11" s="246" t="s">
+      <c r="I11" s="253"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="253"/>
+      <c r="M11" s="253"/>
+      <c r="N11" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="246"/>
-      <c r="P11" s="248">
+      <c r="O11" s="253"/>
+      <c r="P11" s="254">
         <v>43185</v>
       </c>
-      <c r="Q11" s="246"/>
-      <c r="R11" s="246"/>
-      <c r="S11" s="246"/>
+      <c r="Q11" s="253"/>
+      <c r="R11" s="253"/>
+      <c r="S11" s="253"/>
     </row>
     <row r="12" spans="1:23" ht="69.75" customHeight="1"/>
     <row r="13" spans="1:23" ht="69.75" customHeight="1"/>
@@ -44880,18 +44898,6 @@
     <row r="33" ht="69.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="P8:Q8"/>
@@ -44905,6 +44911,18 @@
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44914,7 +44932,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
@@ -45015,7 +45033,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
@@ -45118,7 +45136,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>

--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="930" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="930" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="7" r:id="rId1"/>
@@ -13,11 +13,11 @@
     <sheet name="Change Password" sheetId="16" r:id="rId4"/>
     <sheet name="My Subscriptiopn" sheetId="18" r:id="rId5"/>
     <sheet name="Edit Page" sheetId="5" r:id="rId6"/>
-    <sheet name="Add Product" sheetId="6" r:id="rId7"/>
-    <sheet name="Admin Page" sheetId="9" r:id="rId8"/>
-    <sheet name="Notification" sheetId="15" r:id="rId9"/>
-    <sheet name="Contact Us" sheetId="20" r:id="rId10"/>
-    <sheet name="Seller signup" sheetId="13" r:id="rId11"/>
+    <sheet name="Notification" sheetId="15" r:id="rId7"/>
+    <sheet name="Contact Us" sheetId="20" r:id="rId8"/>
+    <sheet name="Seller signup" sheetId="13" r:id="rId9"/>
+    <sheet name="Add Product" sheetId="6" r:id="rId10"/>
+    <sheet name="Admin Page" sheetId="9" r:id="rId11"/>
     <sheet name="Process" sheetId="2" r:id="rId12"/>
     <sheet name="Process1" sheetId="1" r:id="rId13"/>
     <sheet name="process2" sheetId="10" r:id="rId14"/>
@@ -2648,7 +2648,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2657,28 +2673,25 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="73" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2687,23 +2700,29 @@
     <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2713,6 +2732,39 @@
     </xf>
     <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2765,39 +2817,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2837,25 +2856,6 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="73" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2866,11 +2866,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
       <color rgb="FF33CC33"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FF00C4A7"/>
-      <color rgb="FFFF6600"/>
       <color rgb="FFCCFF66"/>
     </mruColors>
   </colors>
@@ -3025,7 +3025,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -3034,7 +3034,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3291,7 +3291,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3737,220 +3737,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>566324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305299" y="504824"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Of The Day</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>585374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800724" y="523874"/>
-          <a:ext cx="1514476" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Deal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>323849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>575849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458074" y="514349"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Ending Soon</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3976,7 +3762,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4020,7 +3806,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -4029,7 +3815,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13366,7 +13152,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15142,7 +14928,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -15151,7 +14937,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15408,7 +15194,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15854,220 +15640,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>566324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305299" y="504824"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Of The Day</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>585374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800724" y="523874"/>
-          <a:ext cx="1514476" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Deal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>323849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>575849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458074" y="514349"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Ending Soon</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -16093,7 +15665,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16137,7 +15709,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -16146,7 +15718,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16283,7 +15855,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -16292,7 +15864,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16406,7 +15978,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16451,7 +16023,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19066,7 +18638,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -19075,7 +18647,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19120,7 +18692,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19969,220 +19541,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>566324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305299" y="504824"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Of The Day</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>585374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800724" y="523874"/>
-          <a:ext cx="1514476" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Deal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>323849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>575849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458074" y="514349"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Ending Soon</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -20207,7 +19565,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -20216,7 +19574,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20261,7 +19619,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21845,7 +21203,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -21854,7 +21212,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22111,7 +21469,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22582,7 +21940,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22626,7 +21984,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -22635,7 +21993,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22769,2393 +22127,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>105002</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11582401" y="219075"/>
-          <a:ext cx="1324201" cy="150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="828675"/>
-          <a:ext cx="4676775" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Search Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>259425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144000" y="847725"/>
-          <a:ext cx="259425" cy="2250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>148800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>571650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11382375" y="838200"/>
-          <a:ext cx="1568025" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF6600"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Join as Seller</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>256650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9753600" y="828675"/>
-          <a:ext cx="1475850" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Login</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>552599</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3248024" y="819149"/>
-          <a:ext cx="1533526" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Categories  </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>428629</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63827</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>252000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:lum bright="-30000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428629" y="838200"/>
-          <a:ext cx="2683198" cy="4350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4333874" y="838199"/>
-          <a:ext cx="342901" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638174" y="295274"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Choose Platform</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1828799" y="285749"/>
-          <a:ext cx="295276" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2457449" y="295274"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Brand Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>276224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3581399" y="276224"/>
-          <a:ext cx="238126" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>537749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9201149" y="285749"/>
-          <a:ext cx="1962151" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="464B51"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Download App</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>566324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305299" y="314324"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Of The Day</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>585374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800724" y="333374"/>
-          <a:ext cx="1514476" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Deal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>323849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>575849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458074" y="323849"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Ending Soon</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6673</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>528225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:lum bright="-30000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="866775"/>
-          <a:ext cx="2921323" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>364200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>554700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9220200" y="857250"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>105002</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15211426" y="2409825"/>
-          <a:ext cx="1629001" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7915275" y="3019425"/>
-          <a:ext cx="5429250" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Search Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>259425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12906375" y="3038475"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>148800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>571650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15001875" y="3028950"/>
-          <a:ext cx="1882350" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF6600"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Join as Seller</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>256650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13649325" y="3019425"/>
-          <a:ext cx="1199625" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Login</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>552599</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5991224" y="3009899"/>
-          <a:ext cx="1743076" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Categories  </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>428629</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63827</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>252000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:lum bright="-30000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2933704" y="3028950"/>
-          <a:ext cx="2921323" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7286624" y="3028949"/>
-          <a:ext cx="342901" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2962274" y="2486024"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Choose Platform</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4314824" y="2476499"/>
-          <a:ext cx="342901" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095874" y="2486024"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Brand Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>276224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6324599" y="2466974"/>
-          <a:ext cx="342901" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>537749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12992099" y="2476499"/>
-          <a:ext cx="1790701" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="464B51"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Download App</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>566324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7258049" y="2505074"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Of The Day</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>585374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8963024" y="2524124"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Deal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>323849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>575849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10934699" y="2514599"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Ending Soon</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6673</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>528225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:lum bright="-30000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="866775"/>
-          <a:ext cx="2921323" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>364200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>554700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9220200" y="857250"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="476250" y="1752600"/>
-          <a:ext cx="12049125" cy="6096000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361953</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -25179,7 +22150,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27168,6 +24139,2393 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>105002</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582401" y="219075"/>
+          <a:ext cx="1324201" cy="150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>562125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="828675"/>
+          <a:ext cx="4676775" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search Deal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>259425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="847725"/>
+          <a:ext cx="259425" cy="2250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>148800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>571650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11382375" y="838200"/>
+          <a:ext cx="1568025" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Join as Seller</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>562125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="828675"/>
+          <a:ext cx="1475850" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="464B51"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>552599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248024" y="819149"/>
+          <a:ext cx="1533526" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="464B51"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Categories  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428629</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>252000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:lum bright="-30000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428629" y="838200"/>
+          <a:ext cx="2683198" cy="4350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4333874" y="838199"/>
+          <a:ext cx="342901" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>547274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638174" y="295274"/>
+          <a:ext cx="1533526" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Choose Platform</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1828799" y="285749"/>
+          <a:ext cx="295276" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>547274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457449" y="295274"/>
+          <a:ext cx="1533526" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Brand Deal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>276224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3581399" y="276224"/>
+          <a:ext cx="238126" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>537749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201149" y="285749"/>
+          <a:ext cx="1962151" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="464B51"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Download App</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>566324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305299" y="314324"/>
+          <a:ext cx="1533526" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deal Of The Day</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>585374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800724" y="333374"/>
+          <a:ext cx="1514476" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flash</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Deal</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>575849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458074" y="323849"/>
+          <a:ext cx="1533526" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deal Ending Soon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6673</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>528225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:lum bright="-30000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="866775"/>
+          <a:ext cx="2921323" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>364200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>554700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="857250"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>105002</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15211426" y="2409825"/>
+          <a:ext cx="1629001" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>562125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="3019425"/>
+          <a:ext cx="5429250" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search Deal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>259425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12906375" y="3038475"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>148800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>571650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15001875" y="3028950"/>
+          <a:ext cx="1882350" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Join as Seller</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>562125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13649325" y="3019425"/>
+          <a:ext cx="1199625" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="464B51"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>552599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991224" y="3009899"/>
+          <a:ext cx="1743076" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="464B51"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Categories  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428629</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>252000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:lum bright="-30000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933704" y="3028950"/>
+          <a:ext cx="2921323" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7286624" y="3028949"/>
+          <a:ext cx="342901" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>547274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962274" y="2486024"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Choose Platform</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4314824" y="2476499"/>
+          <a:ext cx="342901" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>547274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095874" y="2486024"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Brand Deal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>276224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6324599" y="2466974"/>
+          <a:ext cx="342901" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>537749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12992099" y="2476499"/>
+          <a:ext cx="1790701" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="464B51"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Download App</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>566324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258049" y="2505074"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deal Of The Day</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>585374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963024" y="2524124"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flash</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Deal</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>575849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934699" y="2514599"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deal Ending Soon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6673</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>528225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:lum bright="-30000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="866775"/>
+          <a:ext cx="2921323" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>364200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>554700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="857250"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="342900" y="1752600"/>
+          <a:ext cx="12049125" cy="6096000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -27561,15 +26919,99 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="23" max="23" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="27" customFormat="1">
+      <c r="A1" s="135" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="46.5" customHeight="1">
+      <c r="A2" s="131"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+    </row>
+    <row r="3" spans="1:22" ht="60" customHeight="1">
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="133"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="131"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="134"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -27578,533 +27020,108 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:S31"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="235"/>
+    <col min="23" max="23" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="54" customHeight="1">
-      <c r="A2" s="232"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-    </row>
-    <row r="3" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A3" s="258" t="s">
-        <v>180</v>
+    <row r="1" spans="1:22" s="27" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="135" t="s">
+        <v>94</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
-      <c r="Q3" s="258"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="258"/>
-    </row>
-    <row r="4" spans="1:19" ht="33.75" customHeight="1">
-      <c r="A4" s="231"/>
-      <c r="E4" s="236"/>
-    </row>
-    <row r="5" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A5" s="234"/>
-      <c r="B5" s="230"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="230"/>
-      <c r="M5" s="230"/>
-      <c r="N5" s="230"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="230"/>
-      <c r="Q5" s="230"/>
-      <c r="R5" s="230"/>
-      <c r="S5" s="230"/>
-    </row>
-    <row r="6" spans="1:19" ht="162" customHeight="1">
-      <c r="A6" s="234"/>
-      <c r="B6" s="230"/>
-      <c r="C6" s="230"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="230"/>
-      <c r="L6" s="230"/>
-      <c r="M6" s="230"/>
-      <c r="N6" s="230"/>
-      <c r="O6" s="230"/>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-    </row>
-    <row r="7" spans="1:19" ht="156.75" customHeight="1">
-      <c r="A7" s="233"/>
-      <c r="B7" s="229"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="229"/>
-      <c r="R7" s="229"/>
-      <c r="S7" s="229"/>
-    </row>
-    <row r="10" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A10" s="259"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="259"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="237"/>
-      <c r="P10" s="237"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="237"/>
-      <c r="S10" s="237"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="232"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="232"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="237"/>
-      <c r="P12" s="237"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="237"/>
-      <c r="S12" s="237"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="232"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="237"/>
-      <c r="M13" s="237"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="237"/>
-      <c r="P13" s="237"/>
-      <c r="Q13" s="237"/>
-      <c r="R13" s="237"/>
-      <c r="S13" s="237"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="232"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="237"/>
-      <c r="N14" s="237"/>
-      <c r="O14" s="237"/>
-      <c r="P14" s="237"/>
-      <c r="Q14" s="237"/>
-      <c r="R14" s="237"/>
-      <c r="S14" s="237"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="232"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="237"/>
-      <c r="N15" s="237"/>
-      <c r="O15" s="237"/>
-      <c r="P15" s="237"/>
-      <c r="Q15" s="237"/>
-      <c r="R15" s="237"/>
-      <c r="S15" s="237"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="232"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237"/>
-      <c r="N16" s="237"/>
-      <c r="O16" s="237"/>
-      <c r="P16" s="237"/>
-      <c r="Q16" s="237"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="237"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="232"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="237"/>
-      <c r="N17" s="237"/>
-      <c r="O17" s="237"/>
-      <c r="P17" s="237"/>
-      <c r="Q17" s="237"/>
-      <c r="R17" s="237"/>
-      <c r="S17" s="237"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="232"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="J18" s="237"/>
-      <c r="K18" s="237"/>
-      <c r="L18" s="237"/>
-      <c r="M18" s="237"/>
-      <c r="N18" s="237"/>
-      <c r="O18" s="237"/>
-      <c r="P18" s="237"/>
-      <c r="Q18" s="237"/>
-      <c r="R18" s="237"/>
-      <c r="S18" s="237"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="232"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="237"/>
-      <c r="N19" s="237"/>
-      <c r="O19" s="237"/>
-      <c r="P19" s="237"/>
-      <c r="Q19" s="237"/>
-      <c r="R19" s="237"/>
-      <c r="S19" s="237"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="232"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="J20" s="237"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="237"/>
-      <c r="M20" s="237"/>
-      <c r="N20" s="237"/>
-      <c r="O20" s="237"/>
-      <c r="P20" s="237"/>
-      <c r="Q20" s="237"/>
-      <c r="R20" s="237"/>
-      <c r="S20" s="237"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="232"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="J21" s="237"/>
-      <c r="K21" s="237"/>
-      <c r="L21" s="237"/>
-      <c r="M21" s="237"/>
-      <c r="N21" s="237"/>
-      <c r="O21" s="237"/>
-      <c r="P21" s="237"/>
-      <c r="Q21" s="237"/>
-      <c r="R21" s="237"/>
-      <c r="S21" s="237"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="232"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="M22" s="237"/>
-      <c r="N22" s="237"/>
-      <c r="O22" s="237"/>
-      <c r="P22" s="237"/>
-      <c r="Q22" s="237"/>
-      <c r="R22" s="237"/>
-      <c r="S22" s="237"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="232"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="237"/>
-      <c r="N23" s="237"/>
-      <c r="O23" s="237"/>
-      <c r="P23" s="237"/>
-      <c r="Q23" s="237"/>
-      <c r="R23" s="237"/>
-      <c r="S23" s="237"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="232"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="237"/>
-      <c r="M24" s="237"/>
-      <c r="N24" s="237"/>
-      <c r="O24" s="237"/>
-      <c r="P24" s="237"/>
-      <c r="Q24" s="237"/>
-      <c r="R24" s="237"/>
-      <c r="S24" s="237"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="232"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="237"/>
-      <c r="N25" s="237"/>
-      <c r="O25" s="237"/>
-      <c r="P25" s="237"/>
-      <c r="Q25" s="237"/>
-      <c r="R25" s="237"/>
-      <c r="S25" s="237"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="232"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="237"/>
-      <c r="M26" s="237"/>
-      <c r="N26" s="237"/>
-      <c r="O26" s="237"/>
-      <c r="P26" s="237"/>
-      <c r="Q26" s="237"/>
-      <c r="R26" s="237"/>
-      <c r="S26" s="237"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="232"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="232"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="232"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="232"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="232"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+    </row>
+    <row r="2" spans="1:22" ht="46.5" customHeight="1">
+      <c r="A2" s="131"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+    </row>
+    <row r="3" spans="1:22" ht="60" customHeight="1">
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="133"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="131"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="134"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A10:H10"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF6600"/>
+    <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="W1"/>
   <sheetViews>
@@ -28132,7 +27149,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF6600"/>
+    <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:BA379"/>
   <sheetViews>
@@ -28425,7 +27442,7 @@
       <c r="O8" s="57"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="283" t="s">
+      <c r="R8" s="268" t="s">
         <v>43</v>
       </c>
       <c r="W8" s="33" t="s">
@@ -28465,7 +27482,7 @@
       <c r="O9" s="57"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="283"/>
+      <c r="R9" s="268"/>
       <c r="W9" s="31"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="3"/>
@@ -28561,10 +27578,10 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="20"/>
       <c r="X12" s="2"/>
-      <c r="AL12" s="260" t="s">
+      <c r="AL12" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="AM12" s="260"/>
+      <c r="AM12" s="278"/>
     </row>
     <row r="13" spans="1:41" ht="31.5" customHeight="1">
       <c r="B13" s="55"/>
@@ -28614,10 +27631,10 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="8"/>
-      <c r="AH14" s="261" t="s">
+      <c r="AH14" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" s="262"/>
+      <c r="AI14" s="280"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
@@ -28642,8 +27659,8 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="20"/>
       <c r="X15" s="9"/>
-      <c r="AH15" s="261"/>
-      <c r="AI15" s="262"/>
+      <c r="AH15" s="279"/>
+      <c r="AI15" s="280"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
@@ -28705,16 +27722,16 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="20"/>
       <c r="X17" s="9"/>
-      <c r="AH17" s="261" t="s">
+      <c r="AH17" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="AI17" s="262"/>
-      <c r="AJ17" s="263" t="s">
+      <c r="AI17" s="280"/>
+      <c r="AJ17" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="AK17" s="264"/>
-      <c r="AL17" s="264"/>
-      <c r="AM17" s="265"/>
+      <c r="AK17" s="282"/>
+      <c r="AL17" s="282"/>
+      <c r="AM17" s="283"/>
     </row>
     <row r="18" spans="2:41" ht="31.5" customHeight="1">
       <c r="B18" s="55"/>
@@ -28744,12 +27761,12 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="12"/>
-      <c r="AH18" s="261"/>
-      <c r="AI18" s="262"/>
-      <c r="AJ18" s="266"/>
-      <c r="AK18" s="267"/>
-      <c r="AL18" s="267"/>
-      <c r="AM18" s="268"/>
+      <c r="AH18" s="279"/>
+      <c r="AI18" s="280"/>
+      <c r="AJ18" s="284"/>
+      <c r="AK18" s="285"/>
+      <c r="AL18" s="285"/>
+      <c r="AM18" s="286"/>
     </row>
     <row r="19" spans="2:41" ht="31.5" customHeight="1">
       <c r="B19" s="55"/>
@@ -28810,17 +27827,17 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="14"/>
-      <c r="AG20" s="269" t="s">
+      <c r="AG20" s="287" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="269"/>
-      <c r="AI20" s="270"/>
-      <c r="AJ20" s="271" t="s">
+      <c r="AH20" s="287"/>
+      <c r="AI20" s="288"/>
+      <c r="AJ20" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AK20" s="272"/>
-      <c r="AL20" s="272"/>
-      <c r="AM20" s="273"/>
+      <c r="AK20" s="290"/>
+      <c r="AL20" s="290"/>
+      <c r="AM20" s="291"/>
     </row>
     <row r="21" spans="2:41" ht="31.5" customHeight="1">
       <c r="B21" s="55"/>
@@ -28848,13 +27865,13 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="17"/>
-      <c r="AG21" s="269"/>
-      <c r="AH21" s="269"/>
-      <c r="AI21" s="270"/>
-      <c r="AJ21" s="274"/>
-      <c r="AK21" s="275"/>
-      <c r="AL21" s="275"/>
-      <c r="AM21" s="276"/>
+      <c r="AG21" s="287"/>
+      <c r="AH21" s="287"/>
+      <c r="AI21" s="288"/>
+      <c r="AJ21" s="292"/>
+      <c r="AK21" s="293"/>
+      <c r="AL21" s="293"/>
+      <c r="AM21" s="294"/>
     </row>
     <row r="22" spans="2:41" ht="31.5" customHeight="1">
       <c r="B22" s="55"/>
@@ -28932,12 +27949,12 @@
       <c r="AI24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AJ24" s="277">
+      <c r="AJ24" s="274">
         <v>43202</v>
       </c>
-      <c r="AK24" s="278"/>
-      <c r="AL24" s="278"/>
-      <c r="AM24" s="279"/>
+      <c r="AK24" s="275"/>
+      <c r="AL24" s="275"/>
+      <c r="AM24" s="276"/>
     </row>
     <row r="25" spans="2:41" ht="31.5" customHeight="1">
       <c r="B25" s="55"/>
@@ -29006,11 +28023,11 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="24"/>
-      <c r="AK26" s="280" t="s">
+      <c r="AK26" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="AL26" s="280"/>
-      <c r="AM26" s="280"/>
+      <c r="AL26" s="277"/>
+      <c r="AM26" s="277"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
@@ -29435,10 +28452,10 @@
       <c r="J38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="284" t="s">
+      <c r="K38" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="L38" s="285"/>
+      <c r="L38" s="270"/>
       <c r="M38" s="103" t="s">
         <v>67</v>
       </c>
@@ -30202,35 +29219,35 @@
       <c r="B57" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="286" t="s">
+      <c r="I57" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="J57" s="286"/>
-      <c r="K57" s="286"/>
-      <c r="L57" s="286"/>
-      <c r="M57" s="286"/>
-      <c r="N57" s="286"/>
-      <c r="O57" s="286"/>
+      <c r="J57" s="272"/>
+      <c r="K57" s="272"/>
+      <c r="L57" s="272"/>
+      <c r="M57" s="272"/>
+      <c r="N57" s="272"/>
+      <c r="O57" s="272"/>
     </row>
     <row r="58" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1"/>
     <row r="59" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B59" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="281" t="s">
+      <c r="E59" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="281"/>
+      <c r="F59" s="271"/>
       <c r="G59" s="61"/>
       <c r="H59" s="61" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="61"/>
-      <c r="J59" s="281" t="s">
+      <c r="J59" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="281"/>
-      <c r="L59" s="281"/>
+      <c r="K59" s="271"/>
+      <c r="L59" s="271"/>
       <c r="M59" s="62" t="s">
         <v>18</v>
       </c>
@@ -30239,10 +29256,10 @@
         <v>20</v>
       </c>
       <c r="P59" s="62"/>
-      <c r="Q59" s="287" t="s">
+      <c r="Q59" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="R59" s="287"/>
+      <c r="R59" s="273"/>
       <c r="S59" s="110" t="s">
         <v>25</v>
       </c>
@@ -30253,18 +29270,18 @@
         <v>19</v>
       </c>
       <c r="D60" s="111"/>
-      <c r="E60" s="282" t="s">
+      <c r="E60" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="282"/>
+      <c r="F60" s="267"/>
       <c r="G60" s="111"/>
       <c r="H60" s="111"/>
       <c r="I60" s="111"/>
-      <c r="J60" s="282" t="s">
+      <c r="J60" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="282"/>
-      <c r="L60" s="282"/>
+      <c r="K60" s="267"/>
+      <c r="L60" s="267"/>
       <c r="M60" s="63" t="s">
         <v>12</v>
       </c>
@@ -30273,10 +29290,10 @@
         <v>43185</v>
       </c>
       <c r="P60" s="63"/>
-      <c r="Q60" s="282"/>
-      <c r="R60" s="282"/>
-      <c r="S60" s="282"/>
-      <c r="T60" s="282"/>
+      <c r="Q60" s="267"/>
+      <c r="R60" s="267"/>
+      <c r="S60" s="267"/>
+      <c r="T60" s="267"/>
       <c r="AX60" s="20"/>
     </row>
     <row r="61" spans="1:50" s="3" customFormat="1" ht="54" customHeight="1">
@@ -30284,18 +29301,18 @@
         <v>19</v>
       </c>
       <c r="D61" s="111"/>
-      <c r="E61" s="282" t="s">
+      <c r="E61" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="282"/>
+      <c r="F61" s="267"/>
       <c r="G61" s="111"/>
       <c r="H61" s="111"/>
       <c r="I61" s="111"/>
-      <c r="J61" s="282" t="s">
+      <c r="J61" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="282"/>
-      <c r="L61" s="282"/>
+      <c r="K61" s="267"/>
+      <c r="L61" s="267"/>
       <c r="M61" s="63" t="s">
         <v>12</v>
       </c>
@@ -30304,10 +29321,10 @@
         <v>43185</v>
       </c>
       <c r="P61" s="63"/>
-      <c r="Q61" s="282"/>
-      <c r="R61" s="282"/>
-      <c r="S61" s="282"/>
-      <c r="T61" s="282"/>
+      <c r="Q61" s="267"/>
+      <c r="R61" s="267"/>
+      <c r="S61" s="267"/>
+      <c r="T61" s="267"/>
       <c r="AX61" s="20"/>
     </row>
     <row r="62" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
@@ -41265,19 +40282,19 @@
         <v>17</v>
       </c>
       <c r="X368" s="61"/>
-      <c r="Y368" s="281" t="s">
+      <c r="Y368" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="Z368" s="281"/>
-      <c r="AA368" s="281" t="s">
+      <c r="Z368" s="271"/>
+      <c r="AA368" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="AB368" s="281"/>
-      <c r="AC368" s="281" t="s">
+      <c r="AB368" s="271"/>
+      <c r="AC368" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="AD368" s="281"/>
-      <c r="AE368" s="281"/>
+      <c r="AD368" s="271"/>
+      <c r="AE368" s="271"/>
       <c r="AF368" s="62" t="s">
         <v>18</v>
       </c>
@@ -41286,14 +40303,14 @@
         <v>20</v>
       </c>
       <c r="AI368" s="62"/>
-      <c r="AJ368" s="281" t="s">
+      <c r="AJ368" s="271" t="s">
         <v>22</v>
       </c>
-      <c r="AK368" s="281"/>
-      <c r="AL368" s="281" t="s">
+      <c r="AK368" s="271"/>
+      <c r="AL368" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="AM368" s="281"/>
+      <c r="AM368" s="271"/>
     </row>
     <row r="369" spans="2:50" s="3" customFormat="1" ht="61.5" customHeight="1">
       <c r="B369" s="55"/>
@@ -41314,17 +40331,17 @@
       <c r="W369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y369" s="282" t="s">
+      <c r="Y369" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="Z369" s="282"/>
-      <c r="AA369" s="282"/>
-      <c r="AB369" s="282"/>
-      <c r="AC369" s="282" t="s">
+      <c r="Z369" s="267"/>
+      <c r="AA369" s="267"/>
+      <c r="AB369" s="267"/>
+      <c r="AC369" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="AD369" s="282"/>
-      <c r="AE369" s="282"/>
+      <c r="AD369" s="267"/>
+      <c r="AE369" s="267"/>
       <c r="AF369" s="63" t="s">
         <v>12</v>
       </c>
@@ -41333,10 +40350,10 @@
         <v>43185</v>
       </c>
       <c r="AI369" s="63"/>
-      <c r="AJ369" s="282"/>
-      <c r="AK369" s="282"/>
-      <c r="AL369" s="282"/>
-      <c r="AM369" s="282"/>
+      <c r="AJ369" s="267"/>
+      <c r="AK369" s="267"/>
+      <c r="AL369" s="267"/>
+      <c r="AM369" s="267"/>
     </row>
     <row r="370" spans="2:50" s="3" customFormat="1" ht="54" customHeight="1">
       <c r="B370" s="55"/>
@@ -41357,17 +40374,17 @@
       <c r="W370" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y370" s="282" t="s">
+      <c r="Y370" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="Z370" s="282"/>
-      <c r="AA370" s="282"/>
-      <c r="AB370" s="282"/>
-      <c r="AC370" s="282" t="s">
+      <c r="Z370" s="267"/>
+      <c r="AA370" s="267"/>
+      <c r="AB370" s="267"/>
+      <c r="AC370" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="AD370" s="282"/>
-      <c r="AE370" s="282"/>
+      <c r="AD370" s="267"/>
+      <c r="AE370" s="267"/>
       <c r="AF370" s="63" t="s">
         <v>12</v>
       </c>
@@ -41376,10 +40393,10 @@
         <v>43185</v>
       </c>
       <c r="AI370" s="63"/>
-      <c r="AJ370" s="282"/>
-      <c r="AK370" s="282"/>
-      <c r="AL370" s="282"/>
-      <c r="AM370" s="282"/>
+      <c r="AJ370" s="267"/>
+      <c r="AK370" s="267"/>
+      <c r="AL370" s="267"/>
+      <c r="AM370" s="267"/>
     </row>
     <row r="371" spans="2:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B371" s="55"/>
@@ -41541,6 +40558,29 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AH14:AI15"/>
+    <mergeCell ref="AH17:AI18"/>
+    <mergeCell ref="AJ17:AM18"/>
+    <mergeCell ref="AG20:AI21"/>
+    <mergeCell ref="AJ20:AM21"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="Y368:Z368"/>
+    <mergeCell ref="AA368:AB368"/>
+    <mergeCell ref="AC368:AE368"/>
+    <mergeCell ref="AJ368:AK368"/>
+    <mergeCell ref="AL368:AM368"/>
+    <mergeCell ref="Y369:Z369"/>
+    <mergeCell ref="AA369:AB369"/>
+    <mergeCell ref="AC369:AE369"/>
+    <mergeCell ref="AJ369:AK369"/>
+    <mergeCell ref="AL369:AM369"/>
+    <mergeCell ref="Y370:Z370"/>
+    <mergeCell ref="AA370:AB370"/>
+    <mergeCell ref="AC370:AE370"/>
+    <mergeCell ref="AJ370:AK370"/>
+    <mergeCell ref="AL370:AM370"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="J61:L61"/>
     <mergeCell ref="Q61:R61"/>
@@ -41555,29 +40595,6 @@
     <mergeCell ref="J60:L60"/>
     <mergeCell ref="Q60:R60"/>
     <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Y370:Z370"/>
-    <mergeCell ref="AA370:AB370"/>
-    <mergeCell ref="AC370:AE370"/>
-    <mergeCell ref="AJ370:AK370"/>
-    <mergeCell ref="AL370:AM370"/>
-    <mergeCell ref="Y369:Z369"/>
-    <mergeCell ref="AA369:AB369"/>
-    <mergeCell ref="AC369:AE369"/>
-    <mergeCell ref="AJ369:AK369"/>
-    <mergeCell ref="AL369:AM369"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="Y368:Z368"/>
-    <mergeCell ref="AA368:AB368"/>
-    <mergeCell ref="AC368:AE368"/>
-    <mergeCell ref="AJ368:AK368"/>
-    <mergeCell ref="AL368:AM368"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AH14:AI15"/>
-    <mergeCell ref="AH17:AI18"/>
-    <mergeCell ref="AJ17:AM18"/>
-    <mergeCell ref="AG20:AI21"/>
-    <mergeCell ref="AJ20:AM21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41588,7 +40605,7 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF6600"/>
+    <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -41606,7 +40623,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF6600"/>
+    <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="C8:D15"/>
   <sheetViews>
@@ -41648,10 +40665,10 @@
       </c>
     </row>
     <row r="15" spans="3:4" ht="33" customHeight="1">
-      <c r="C15" s="288" t="s">
+      <c r="C15" s="295" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="289"/>
+      <c r="D15" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41669,12 +40686,12 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF3300"/>
+    <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41714,8 +40731,8 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
       <c r="G5" s="47" t="s">
         <v>39</v>
       </c>
@@ -41828,8 +40845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:V70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41859,20 +40876,20 @@
     </row>
     <row r="8" spans="3:20" ht="22.5" customHeight="1">
       <c r="G8" s="140"/>
-      <c r="H8" s="293" t="s">
+      <c r="H8" s="300" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="293"/>
-      <c r="J8" s="293"/>
-      <c r="K8" s="293"/>
-      <c r="L8" s="293"/>
-      <c r="M8" s="293"/>
-      <c r="N8" s="293"/>
-      <c r="O8" s="293"/>
-      <c r="P8" s="293"/>
-      <c r="Q8" s="293"/>
-      <c r="R8" s="293"/>
-      <c r="S8" s="293"/>
+      <c r="I8" s="300"/>
+      <c r="J8" s="300"/>
+      <c r="K8" s="300"/>
+      <c r="L8" s="300"/>
+      <c r="M8" s="300"/>
+      <c r="N8" s="300"/>
+      <c r="O8" s="300"/>
+      <c r="P8" s="300"/>
+      <c r="Q8" s="300"/>
+      <c r="R8" s="300"/>
+      <c r="S8" s="300"/>
       <c r="T8" s="141"/>
     </row>
     <row r="9" spans="3:20">
@@ -41927,20 +40944,20 @@
     </row>
     <row r="12" spans="3:20" ht="21.75" customHeight="1">
       <c r="G12" s="140"/>
-      <c r="H12" s="293" t="s">
+      <c r="H12" s="300" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="293"/>
-      <c r="J12" s="293"/>
-      <c r="K12" s="293"/>
-      <c r="L12" s="293"/>
-      <c r="M12" s="293"/>
-      <c r="N12" s="293"/>
-      <c r="O12" s="293"/>
-      <c r="P12" s="293"/>
-      <c r="Q12" s="293"/>
-      <c r="R12" s="293"/>
-      <c r="S12" s="293"/>
+      <c r="I12" s="300"/>
+      <c r="J12" s="300"/>
+      <c r="K12" s="300"/>
+      <c r="L12" s="300"/>
+      <c r="M12" s="300"/>
+      <c r="N12" s="300"/>
+      <c r="O12" s="300"/>
+      <c r="P12" s="300"/>
+      <c r="Q12" s="300"/>
+      <c r="R12" s="300"/>
+      <c r="S12" s="300"/>
       <c r="T12" s="141"/>
     </row>
     <row r="13" spans="3:20">
@@ -41995,20 +41012,20 @@
     </row>
     <row r="16" spans="3:20">
       <c r="G16" s="140"/>
-      <c r="H16" s="293" t="s">
+      <c r="H16" s="300" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="293"/>
-      <c r="J16" s="293"/>
-      <c r="K16" s="293"/>
-      <c r="L16" s="293"/>
-      <c r="M16" s="293"/>
-      <c r="N16" s="293"/>
-      <c r="O16" s="293"/>
-      <c r="P16" s="293"/>
-      <c r="Q16" s="293"/>
-      <c r="R16" s="293"/>
-      <c r="S16" s="293"/>
+      <c r="I16" s="300"/>
+      <c r="J16" s="300"/>
+      <c r="K16" s="300"/>
+      <c r="L16" s="300"/>
+      <c r="M16" s="300"/>
+      <c r="N16" s="300"/>
+      <c r="O16" s="300"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="300"/>
+      <c r="R16" s="300"/>
+      <c r="S16" s="300"/>
       <c r="T16" s="141"/>
     </row>
     <row r="17" spans="7:20">
@@ -42029,164 +41046,164 @@
     </row>
     <row r="18" spans="7:20">
       <c r="G18" s="140"/>
-      <c r="H18" s="294" t="s">
+      <c r="H18" s="301" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="294"/>
-      <c r="J18" s="294"/>
-      <c r="K18" s="294"/>
-      <c r="L18" s="294"/>
-      <c r="M18" s="294"/>
-      <c r="N18" s="294"/>
-      <c r="O18" s="294"/>
-      <c r="P18" s="294"/>
-      <c r="Q18" s="294"/>
-      <c r="R18" s="294"/>
-      <c r="S18" s="294"/>
+      <c r="I18" s="301"/>
+      <c r="J18" s="301"/>
+      <c r="K18" s="301"/>
+      <c r="L18" s="301"/>
+      <c r="M18" s="301"/>
+      <c r="N18" s="301"/>
+      <c r="O18" s="301"/>
+      <c r="P18" s="301"/>
+      <c r="Q18" s="301"/>
+      <c r="R18" s="301"/>
+      <c r="S18" s="301"/>
       <c r="T18" s="141"/>
     </row>
     <row r="19" spans="7:20">
       <c r="G19" s="140"/>
-      <c r="H19" s="294"/>
-      <c r="I19" s="294"/>
-      <c r="J19" s="294"/>
-      <c r="K19" s="294"/>
-      <c r="L19" s="294"/>
-      <c r="M19" s="294"/>
-      <c r="N19" s="294"/>
-      <c r="O19" s="294"/>
-      <c r="P19" s="294"/>
-      <c r="Q19" s="294"/>
-      <c r="R19" s="294"/>
-      <c r="S19" s="294"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="301"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="301"/>
+      <c r="L19" s="301"/>
+      <c r="M19" s="301"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="301"/>
+      <c r="P19" s="301"/>
+      <c r="Q19" s="301"/>
+      <c r="R19" s="301"/>
+      <c r="S19" s="301"/>
       <c r="T19" s="141"/>
     </row>
     <row r="20" spans="7:20">
       <c r="G20" s="140"/>
-      <c r="H20" s="294"/>
-      <c r="I20" s="294"/>
-      <c r="J20" s="294"/>
-      <c r="K20" s="294"/>
-      <c r="L20" s="294"/>
-      <c r="M20" s="294"/>
-      <c r="N20" s="294"/>
-      <c r="O20" s="294"/>
-      <c r="P20" s="294"/>
-      <c r="Q20" s="294"/>
-      <c r="R20" s="294"/>
-      <c r="S20" s="294"/>
+      <c r="H20" s="301"/>
+      <c r="I20" s="301"/>
+      <c r="J20" s="301"/>
+      <c r="K20" s="301"/>
+      <c r="L20" s="301"/>
+      <c r="M20" s="301"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="301"/>
+      <c r="P20" s="301"/>
+      <c r="Q20" s="301"/>
+      <c r="R20" s="301"/>
+      <c r="S20" s="301"/>
       <c r="T20" s="141"/>
     </row>
     <row r="21" spans="7:20">
       <c r="G21" s="140"/>
-      <c r="H21" s="294"/>
-      <c r="I21" s="294"/>
-      <c r="J21" s="294"/>
-      <c r="K21" s="294"/>
-      <c r="L21" s="294"/>
-      <c r="M21" s="294"/>
-      <c r="N21" s="294"/>
-      <c r="O21" s="294"/>
-      <c r="P21" s="294"/>
-      <c r="Q21" s="294"/>
-      <c r="R21" s="294"/>
-      <c r="S21" s="294"/>
+      <c r="H21" s="301"/>
+      <c r="I21" s="301"/>
+      <c r="J21" s="301"/>
+      <c r="K21" s="301"/>
+      <c r="L21" s="301"/>
+      <c r="M21" s="301"/>
+      <c r="N21" s="301"/>
+      <c r="O21" s="301"/>
+      <c r="P21" s="301"/>
+      <c r="Q21" s="301"/>
+      <c r="R21" s="301"/>
+      <c r="S21" s="301"/>
       <c r="T21" s="141"/>
     </row>
     <row r="22" spans="7:20">
       <c r="G22" s="140"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="294"/>
-      <c r="K22" s="294"/>
-      <c r="L22" s="294"/>
-      <c r="M22" s="294"/>
-      <c r="N22" s="294"/>
-      <c r="O22" s="294"/>
-      <c r="P22" s="294"/>
-      <c r="Q22" s="294"/>
-      <c r="R22" s="294"/>
-      <c r="S22" s="294"/>
+      <c r="H22" s="301"/>
+      <c r="I22" s="301"/>
+      <c r="J22" s="301"/>
+      <c r="K22" s="301"/>
+      <c r="L22" s="301"/>
+      <c r="M22" s="301"/>
+      <c r="N22" s="301"/>
+      <c r="O22" s="301"/>
+      <c r="P22" s="301"/>
+      <c r="Q22" s="301"/>
+      <c r="R22" s="301"/>
+      <c r="S22" s="301"/>
       <c r="T22" s="141"/>
     </row>
     <row r="23" spans="7:20">
       <c r="G23" s="140"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="294"/>
-      <c r="K23" s="294"/>
-      <c r="L23" s="294"/>
-      <c r="M23" s="294"/>
-      <c r="N23" s="294"/>
-      <c r="O23" s="294"/>
-      <c r="P23" s="294"/>
-      <c r="Q23" s="294"/>
-      <c r="R23" s="294"/>
-      <c r="S23" s="294"/>
+      <c r="H23" s="301"/>
+      <c r="I23" s="301"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="301"/>
+      <c r="L23" s="301"/>
+      <c r="M23" s="301"/>
+      <c r="N23" s="301"/>
+      <c r="O23" s="301"/>
+      <c r="P23" s="301"/>
+      <c r="Q23" s="301"/>
+      <c r="R23" s="301"/>
+      <c r="S23" s="301"/>
       <c r="T23" s="141"/>
     </row>
     <row r="24" spans="7:20">
       <c r="G24" s="140"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="294"/>
-      <c r="K24" s="294"/>
-      <c r="L24" s="294"/>
-      <c r="M24" s="294"/>
-      <c r="N24" s="294"/>
-      <c r="O24" s="294"/>
-      <c r="P24" s="294"/>
-      <c r="Q24" s="294"/>
-      <c r="R24" s="294"/>
-      <c r="S24" s="294"/>
+      <c r="H24" s="301"/>
+      <c r="I24" s="301"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="301"/>
+      <c r="L24" s="301"/>
+      <c r="M24" s="301"/>
+      <c r="N24" s="301"/>
+      <c r="O24" s="301"/>
+      <c r="P24" s="301"/>
+      <c r="Q24" s="301"/>
+      <c r="R24" s="301"/>
+      <c r="S24" s="301"/>
       <c r="T24" s="141"/>
     </row>
     <row r="25" spans="7:20">
       <c r="G25" s="140"/>
-      <c r="H25" s="294"/>
-      <c r="I25" s="294"/>
-      <c r="J25" s="294"/>
-      <c r="K25" s="294"/>
-      <c r="L25" s="294"/>
-      <c r="M25" s="294"/>
-      <c r="N25" s="294"/>
-      <c r="O25" s="294"/>
-      <c r="P25" s="294"/>
-      <c r="Q25" s="294"/>
-      <c r="R25" s="294"/>
-      <c r="S25" s="294"/>
+      <c r="H25" s="301"/>
+      <c r="I25" s="301"/>
+      <c r="J25" s="301"/>
+      <c r="K25" s="301"/>
+      <c r="L25" s="301"/>
+      <c r="M25" s="301"/>
+      <c r="N25" s="301"/>
+      <c r="O25" s="301"/>
+      <c r="P25" s="301"/>
+      <c r="Q25" s="301"/>
+      <c r="R25" s="301"/>
+      <c r="S25" s="301"/>
       <c r="T25" s="141"/>
     </row>
     <row r="26" spans="7:20">
       <c r="G26" s="140"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="294"/>
-      <c r="J26" s="294"/>
-      <c r="K26" s="294"/>
-      <c r="L26" s="294"/>
-      <c r="M26" s="294"/>
-      <c r="N26" s="294"/>
-      <c r="O26" s="294"/>
-      <c r="P26" s="294"/>
-      <c r="Q26" s="294"/>
-      <c r="R26" s="294"/>
-      <c r="S26" s="294"/>
+      <c r="H26" s="301"/>
+      <c r="I26" s="301"/>
+      <c r="J26" s="301"/>
+      <c r="K26" s="301"/>
+      <c r="L26" s="301"/>
+      <c r="M26" s="301"/>
+      <c r="N26" s="301"/>
+      <c r="O26" s="301"/>
+      <c r="P26" s="301"/>
+      <c r="Q26" s="301"/>
+      <c r="R26" s="301"/>
+      <c r="S26" s="301"/>
       <c r="T26" s="141"/>
     </row>
     <row r="27" spans="7:20">
       <c r="G27" s="140"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="294"/>
-      <c r="M27" s="294"/>
-      <c r="N27" s="294"/>
-      <c r="O27" s="294"/>
-      <c r="P27" s="294"/>
-      <c r="Q27" s="294"/>
-      <c r="R27" s="294"/>
-      <c r="S27" s="294"/>
+      <c r="H27" s="301"/>
+      <c r="I27" s="301"/>
+      <c r="J27" s="301"/>
+      <c r="K27" s="301"/>
+      <c r="L27" s="301"/>
+      <c r="M27" s="301"/>
+      <c r="N27" s="301"/>
+      <c r="O27" s="301"/>
+      <c r="P27" s="301"/>
+      <c r="Q27" s="301"/>
+      <c r="R27" s="301"/>
+      <c r="S27" s="301"/>
       <c r="T27" s="141"/>
     </row>
     <row r="28" spans="7:20">
@@ -42313,12 +41330,12 @@
     </row>
     <row r="43" spans="1:20" ht="22.5" customHeight="1">
       <c r="G43" s="148"/>
-      <c r="H43" s="291" t="s">
+      <c r="H43" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I43" s="291"/>
-      <c r="J43" s="291"/>
-      <c r="K43" s="291"/>
+      <c r="I43" s="298"/>
+      <c r="J43" s="298"/>
+      <c r="K43" s="298"/>
       <c r="L43" s="149"/>
       <c r="M43" s="70" t="s">
         <v>99</v>
@@ -42381,12 +41398,12 @@
     </row>
     <row r="47" spans="1:20" ht="21.75" customHeight="1">
       <c r="G47" s="148"/>
-      <c r="H47" s="291" t="s">
+      <c r="H47" s="298" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="291"/>
-      <c r="J47" s="291"/>
-      <c r="K47" s="291"/>
+      <c r="I47" s="298"/>
+      <c r="J47" s="298"/>
+      <c r="K47" s="298"/>
       <c r="L47" s="149"/>
       <c r="M47" s="70" t="s">
         <v>101</v>
@@ -42449,22 +41466,22 @@
     </row>
     <row r="51" spans="7:20" ht="22.5" customHeight="1">
       <c r="G51" s="148"/>
-      <c r="H51" s="291" t="s">
+      <c r="H51" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="I51" s="291"/>
-      <c r="J51" s="291"/>
-      <c r="K51" s="291"/>
+      <c r="I51" s="298"/>
+      <c r="J51" s="298"/>
+      <c r="K51" s="298"/>
       <c r="L51" s="149"/>
-      <c r="M51" s="292" t="s">
+      <c r="M51" s="299" t="s">
         <v>103</v>
       </c>
-      <c r="N51" s="292"/>
-      <c r="O51" s="292"/>
-      <c r="P51" s="292"/>
-      <c r="Q51" s="292"/>
-      <c r="R51" s="292"/>
-      <c r="S51" s="292"/>
+      <c r="N51" s="299"/>
+      <c r="O51" s="299"/>
+      <c r="P51" s="299"/>
+      <c r="Q51" s="299"/>
+      <c r="R51" s="299"/>
+      <c r="S51" s="299"/>
       <c r="T51" s="151"/>
     </row>
     <row r="52" spans="7:20">
@@ -42474,13 +41491,13 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="292"/>
-      <c r="N52" s="292"/>
-      <c r="O52" s="292"/>
-      <c r="P52" s="292"/>
-      <c r="Q52" s="292"/>
-      <c r="R52" s="292"/>
-      <c r="S52" s="292"/>
+      <c r="M52" s="299"/>
+      <c r="N52" s="299"/>
+      <c r="O52" s="299"/>
+      <c r="P52" s="299"/>
+      <c r="Q52" s="299"/>
+      <c r="R52" s="299"/>
+      <c r="S52" s="299"/>
       <c r="T52" s="151"/>
     </row>
     <row r="53" spans="7:20" ht="15" customHeight="1">
@@ -42490,13 +41507,13 @@
       <c r="J53" s="152"/>
       <c r="K53" s="152"/>
       <c r="L53" s="152"/>
-      <c r="M53" s="292"/>
-      <c r="N53" s="292"/>
-      <c r="O53" s="292"/>
-      <c r="P53" s="292"/>
-      <c r="Q53" s="292"/>
-      <c r="R53" s="292"/>
-      <c r="S53" s="292"/>
+      <c r="M53" s="299"/>
+      <c r="N53" s="299"/>
+      <c r="O53" s="299"/>
+      <c r="P53" s="299"/>
+      <c r="Q53" s="299"/>
+      <c r="R53" s="299"/>
+      <c r="S53" s="299"/>
       <c r="T53" s="151"/>
     </row>
     <row r="54" spans="7:20">
@@ -42506,13 +41523,13 @@
       <c r="J54" s="152"/>
       <c r="K54" s="152"/>
       <c r="L54" s="152"/>
-      <c r="M54" s="292"/>
-      <c r="N54" s="292"/>
-      <c r="O54" s="292"/>
-      <c r="P54" s="292"/>
-      <c r="Q54" s="292"/>
-      <c r="R54" s="292"/>
-      <c r="S54" s="292"/>
+      <c r="M54" s="299"/>
+      <c r="N54" s="299"/>
+      <c r="O54" s="299"/>
+      <c r="P54" s="299"/>
+      <c r="Q54" s="299"/>
+      <c r="R54" s="299"/>
+      <c r="S54" s="299"/>
       <c r="T54" s="151"/>
     </row>
     <row r="55" spans="7:20">
@@ -42522,13 +41539,13 @@
       <c r="J55" s="152"/>
       <c r="K55" s="152"/>
       <c r="L55" s="152"/>
-      <c r="M55" s="292"/>
-      <c r="N55" s="292"/>
-      <c r="O55" s="292"/>
-      <c r="P55" s="292"/>
-      <c r="Q55" s="292"/>
-      <c r="R55" s="292"/>
-      <c r="S55" s="292"/>
+      <c r="M55" s="299"/>
+      <c r="N55" s="299"/>
+      <c r="O55" s="299"/>
+      <c r="P55" s="299"/>
+      <c r="Q55" s="299"/>
+      <c r="R55" s="299"/>
+      <c r="S55" s="299"/>
       <c r="T55" s="151"/>
     </row>
     <row r="56" spans="7:20">
@@ -42538,13 +41555,13 @@
       <c r="J56" s="152"/>
       <c r="K56" s="152"/>
       <c r="L56" s="152"/>
-      <c r="M56" s="292"/>
-      <c r="N56" s="292"/>
-      <c r="O56" s="292"/>
-      <c r="P56" s="292"/>
-      <c r="Q56" s="292"/>
-      <c r="R56" s="292"/>
-      <c r="S56" s="292"/>
+      <c r="M56" s="299"/>
+      <c r="N56" s="299"/>
+      <c r="O56" s="299"/>
+      <c r="P56" s="299"/>
+      <c r="Q56" s="299"/>
+      <c r="R56" s="299"/>
+      <c r="S56" s="299"/>
       <c r="T56" s="151"/>
     </row>
     <row r="57" spans="7:20">
@@ -42554,13 +41571,13 @@
       <c r="J57" s="152"/>
       <c r="K57" s="152"/>
       <c r="L57" s="152"/>
-      <c r="M57" s="292"/>
-      <c r="N57" s="292"/>
-      <c r="O57" s="292"/>
-      <c r="P57" s="292"/>
-      <c r="Q57" s="292"/>
-      <c r="R57" s="292"/>
-      <c r="S57" s="292"/>
+      <c r="M57" s="299"/>
+      <c r="N57" s="299"/>
+      <c r="O57" s="299"/>
+      <c r="P57" s="299"/>
+      <c r="Q57" s="299"/>
+      <c r="R57" s="299"/>
+      <c r="S57" s="299"/>
       <c r="T57" s="151"/>
     </row>
     <row r="58" spans="7:20">
@@ -42570,13 +41587,13 @@
       <c r="J58" s="152"/>
       <c r="K58" s="152"/>
       <c r="L58" s="152"/>
-      <c r="M58" s="292"/>
-      <c r="N58" s="292"/>
-      <c r="O58" s="292"/>
-      <c r="P58" s="292"/>
-      <c r="Q58" s="292"/>
-      <c r="R58" s="292"/>
-      <c r="S58" s="292"/>
+      <c r="M58" s="299"/>
+      <c r="N58" s="299"/>
+      <c r="O58" s="299"/>
+      <c r="P58" s="299"/>
+      <c r="Q58" s="299"/>
+      <c r="R58" s="299"/>
+      <c r="S58" s="299"/>
       <c r="T58" s="151"/>
     </row>
     <row r="59" spans="7:20">
@@ -42586,13 +41603,13 @@
       <c r="J59" s="152"/>
       <c r="K59" s="152"/>
       <c r="L59" s="152"/>
-      <c r="M59" s="292"/>
-      <c r="N59" s="292"/>
-      <c r="O59" s="292"/>
-      <c r="P59" s="292"/>
-      <c r="Q59" s="292"/>
-      <c r="R59" s="292"/>
-      <c r="S59" s="292"/>
+      <c r="M59" s="299"/>
+      <c r="N59" s="299"/>
+      <c r="O59" s="299"/>
+      <c r="P59" s="299"/>
+      <c r="Q59" s="299"/>
+      <c r="R59" s="299"/>
+      <c r="S59" s="299"/>
       <c r="T59" s="151"/>
     </row>
     <row r="60" spans="7:20">
@@ -42602,13 +41619,13 @@
       <c r="J60" s="152"/>
       <c r="K60" s="152"/>
       <c r="L60" s="152"/>
-      <c r="M60" s="292"/>
-      <c r="N60" s="292"/>
-      <c r="O60" s="292"/>
-      <c r="P60" s="292"/>
-      <c r="Q60" s="292"/>
-      <c r="R60" s="292"/>
-      <c r="S60" s="292"/>
+      <c r="M60" s="299"/>
+      <c r="N60" s="299"/>
+      <c r="O60" s="299"/>
+      <c r="P60" s="299"/>
+      <c r="Q60" s="299"/>
+      <c r="R60" s="299"/>
+      <c r="S60" s="299"/>
       <c r="T60" s="151"/>
     </row>
     <row r="61" spans="7:20">
@@ -42618,13 +41635,13 @@
       <c r="J61" s="152"/>
       <c r="K61" s="152"/>
       <c r="L61" s="152"/>
-      <c r="M61" s="292"/>
-      <c r="N61" s="292"/>
-      <c r="O61" s="292"/>
-      <c r="P61" s="292"/>
-      <c r="Q61" s="292"/>
-      <c r="R61" s="292"/>
-      <c r="S61" s="292"/>
+      <c r="M61" s="299"/>
+      <c r="N61" s="299"/>
+      <c r="O61" s="299"/>
+      <c r="P61" s="299"/>
+      <c r="Q61" s="299"/>
+      <c r="R61" s="299"/>
+      <c r="S61" s="299"/>
       <c r="T61" s="151"/>
     </row>
     <row r="62" spans="7:20">
@@ -42634,13 +41651,13 @@
       <c r="J62" s="152"/>
       <c r="K62" s="152"/>
       <c r="L62" s="152"/>
-      <c r="M62" s="292"/>
-      <c r="N62" s="292"/>
-      <c r="O62" s="292"/>
-      <c r="P62" s="292"/>
-      <c r="Q62" s="292"/>
-      <c r="R62" s="292"/>
-      <c r="S62" s="292"/>
+      <c r="M62" s="299"/>
+      <c r="N62" s="299"/>
+      <c r="O62" s="299"/>
+      <c r="P62" s="299"/>
+      <c r="Q62" s="299"/>
+      <c r="R62" s="299"/>
+      <c r="S62" s="299"/>
       <c r="T62" s="151"/>
     </row>
     <row r="63" spans="7:20">
@@ -42650,13 +41667,13 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="292"/>
-      <c r="N63" s="292"/>
-      <c r="O63" s="292"/>
-      <c r="P63" s="292"/>
-      <c r="Q63" s="292"/>
-      <c r="R63" s="292"/>
-      <c r="S63" s="292"/>
+      <c r="M63" s="299"/>
+      <c r="N63" s="299"/>
+      <c r="O63" s="299"/>
+      <c r="P63" s="299"/>
+      <c r="Q63" s="299"/>
+      <c r="R63" s="299"/>
+      <c r="S63" s="299"/>
       <c r="T63" s="151"/>
     </row>
     <row r="64" spans="7:20">
@@ -42666,13 +41683,13 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="292"/>
-      <c r="N64" s="292"/>
-      <c r="O64" s="292"/>
-      <c r="P64" s="292"/>
-      <c r="Q64" s="292"/>
-      <c r="R64" s="292"/>
-      <c r="S64" s="292"/>
+      <c r="M64" s="299"/>
+      <c r="N64" s="299"/>
+      <c r="O64" s="299"/>
+      <c r="P64" s="299"/>
+      <c r="Q64" s="299"/>
+      <c r="R64" s="299"/>
+      <c r="S64" s="299"/>
       <c r="T64" s="151"/>
     </row>
     <row r="65" spans="4:22">
@@ -42682,13 +41699,13 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="292"/>
-      <c r="N65" s="292"/>
-      <c r="O65" s="292"/>
-      <c r="P65" s="292"/>
-      <c r="Q65" s="292"/>
-      <c r="R65" s="292"/>
-      <c r="S65" s="292"/>
+      <c r="M65" s="299"/>
+      <c r="N65" s="299"/>
+      <c r="O65" s="299"/>
+      <c r="P65" s="299"/>
+      <c r="Q65" s="299"/>
+      <c r="R65" s="299"/>
+      <c r="S65" s="299"/>
       <c r="T65" s="151"/>
     </row>
     <row r="66" spans="4:22">
@@ -42935,11 +41952,11 @@
       <c r="J9" s="178"/>
       <c r="K9" s="178"/>
       <c r="L9" s="188"/>
-      <c r="M9" s="296" t="s">
+      <c r="M9" s="303" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="296"/>
-      <c r="O9" s="296"/>
+      <c r="N9" s="303"/>
+      <c r="O9" s="303"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="173"/>
@@ -43337,15 +42354,15 @@
       <c r="AH42" s="197"/>
     </row>
     <row r="43" spans="2:34" ht="21.75" customHeight="1" thickBot="1">
-      <c r="Y43" s="297" t="s">
+      <c r="Y43" s="304" t="s">
         <v>157</v>
       </c>
       <c r="Z43" s="198"/>
-      <c r="AA43" s="297" t="s">
+      <c r="AA43" s="304" t="s">
         <v>158</v>
       </c>
       <c r="AB43" s="198"/>
-      <c r="AC43" s="299" t="s">
+      <c r="AC43" s="306" t="s">
         <v>159</v>
       </c>
       <c r="AD43" s="222"/>
@@ -43355,9 +42372,9 @@
       <c r="AH43" s="222"/>
     </row>
     <row r="44" spans="2:34" ht="21.75" thickBot="1">
-      <c r="Y44" s="298"/>
-      <c r="AA44" s="298"/>
-      <c r="AC44" s="300"/>
+      <c r="Y44" s="305"/>
+      <c r="AA44" s="305"/>
+      <c r="AC44" s="307"/>
       <c r="AD44" s="223"/>
       <c r="AE44" s="223"/>
       <c r="AF44" s="223"/>
@@ -43390,10 +42407,10 @@
       <c r="Y53" s="227" t="s">
         <v>178</v>
       </c>
-      <c r="Z53" s="295" t="s">
+      <c r="Z53" s="302" t="s">
         <v>179</v>
       </c>
-      <c r="AA53" s="295"/>
+      <c r="AA53" s="302"/>
     </row>
     <row r="54" spans="25:34">
       <c r="AA54" s="225" t="s">
@@ -43469,7 +42486,7 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -43571,7 +42588,7 @@
   </sheetPr>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -43854,8 +42871,8 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43922,7 +42939,7 @@
       <c r="V3" s="133"/>
     </row>
     <row r="6" spans="1:23" ht="27.75" customHeight="1">
-      <c r="B6" s="305" t="s">
+      <c r="B6" s="238" t="s">
         <v>183</v>
       </c>
       <c r="C6" s="16"/>
@@ -43971,26 +42988,26 @@
       <c r="C8" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="249" t="s">
+      <c r="D8" s="254" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="249"/>
+      <c r="E8" s="254"/>
       <c r="K8" s="165" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="248">
+      <c r="L8" s="252">
         <v>43191</v>
       </c>
-      <c r="M8" s="248"/>
-      <c r="N8" s="307"/>
-      <c r="R8" s="307"/>
+      <c r="M8" s="252"/>
+      <c r="N8" s="239"/>
+      <c r="R8" s="239"/>
       <c r="S8" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="T8" s="247" t="s">
+      <c r="T8" s="251" t="s">
         <v>111</v>
       </c>
-      <c r="U8" s="247"/>
+      <c r="U8" s="251"/>
     </row>
     <row r="9" spans="1:23">
       <c r="B9" s="3"/>
@@ -44012,28 +43029,28 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="23.25" customHeight="1">
-      <c r="B10" s="307"/>
+      <c r="B10" s="239"/>
       <c r="C10" s="165" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="250" t="s">
+      <c r="D10" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="250"/>
+      <c r="E10" s="255"/>
       <c r="K10" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="251">
+      <c r="L10" s="241">
         <v>10</v>
       </c>
-      <c r="M10" s="251"/>
+      <c r="M10" s="241"/>
       <c r="S10" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="T10" s="306">
+      <c r="T10" s="242">
         <v>3</v>
       </c>
-      <c r="U10" s="306"/>
+      <c r="U10" s="242"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="C11" s="215"/>
@@ -44069,34 +43086,34 @@
       <c r="D13" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="252" t="s">
+      <c r="E13" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="252"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="301" t="s">
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="256" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301" t="s">
+      <c r="J13" s="256"/>
+      <c r="K13" s="256" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="301"/>
-      <c r="M13" s="302" t="s">
+      <c r="L13" s="256"/>
+      <c r="M13" s="248" t="s">
         <v>163</v>
       </c>
-      <c r="N13" s="302"/>
-      <c r="O13" s="302" t="s">
+      <c r="N13" s="248"/>
+      <c r="O13" s="248" t="s">
         <v>163</v>
       </c>
-      <c r="P13" s="302"/>
-      <c r="Q13" s="302" t="s">
+      <c r="P13" s="248"/>
+      <c r="Q13" s="248" t="s">
         <v>163</v>
       </c>
-      <c r="R13" s="302"/>
-      <c r="T13" s="304"/>
-      <c r="U13" s="304"/>
+      <c r="R13" s="248"/>
+      <c r="T13" s="240"/>
+      <c r="U13" s="240"/>
       <c r="W13" s="164"/>
     </row>
     <row r="14" spans="1:23" s="168" customFormat="1" ht="15.75" customHeight="1">
@@ -44105,28 +43122,28 @@
       <c r="F14" s="201"/>
       <c r="G14" s="201"/>
       <c r="H14" s="201"/>
-      <c r="I14" s="243" t="s">
+      <c r="I14" s="247" t="s">
         <v>165</v>
       </c>
-      <c r="J14" s="243"/>
-      <c r="K14" s="243" t="s">
+      <c r="J14" s="247"/>
+      <c r="K14" s="247" t="s">
         <v>118</v>
       </c>
-      <c r="L14" s="243"/>
-      <c r="M14" s="243" t="s">
+      <c r="L14" s="247"/>
+      <c r="M14" s="247" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="243"/>
-      <c r="O14" s="243" t="s">
+      <c r="N14" s="247"/>
+      <c r="O14" s="247" t="s">
         <v>166</v>
       </c>
-      <c r="P14" s="243"/>
-      <c r="Q14" s="243" t="s">
+      <c r="P14" s="247"/>
+      <c r="Q14" s="247" t="s">
         <v>170</v>
       </c>
-      <c r="R14" s="243"/>
-      <c r="T14" s="304"/>
-      <c r="U14" s="304"/>
+      <c r="R14" s="247"/>
+      <c r="T14" s="240"/>
+      <c r="U14" s="240"/>
       <c r="W14" s="169"/>
     </row>
     <row r="15" spans="1:23" s="210" customFormat="1" ht="15.75" customHeight="1">
@@ -44135,26 +43152,26 @@
       <c r="F15" s="211"/>
       <c r="G15" s="211"/>
       <c r="H15" s="211"/>
-      <c r="I15" s="242"/>
-      <c r="J15" s="242"/>
-      <c r="K15" s="242" t="s">
+      <c r="I15" s="250"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="250" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="242"/>
-      <c r="M15" s="242" t="s">
+      <c r="L15" s="250"/>
+      <c r="M15" s="250" t="s">
         <v>171</v>
       </c>
-      <c r="N15" s="242"/>
-      <c r="O15" s="242" t="s">
+      <c r="N15" s="250"/>
+      <c r="O15" s="250" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="242"/>
-      <c r="Q15" s="303">
+      <c r="P15" s="250"/>
+      <c r="Q15" s="249">
         <v>44105</v>
       </c>
-      <c r="R15" s="242"/>
-      <c r="T15" s="304"/>
-      <c r="U15" s="304"/>
+      <c r="R15" s="250"/>
+      <c r="T15" s="240"/>
+      <c r="U15" s="240"/>
       <c r="W15" s="212"/>
     </row>
     <row r="16" spans="1:23" ht="21.75" customHeight="1">
@@ -44167,28 +43184,28 @@
       <c r="F16" s="200"/>
       <c r="G16" s="200"/>
       <c r="H16" s="200"/>
-      <c r="I16" s="239" t="s">
+      <c r="I16" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="240"/>
-      <c r="K16" s="241" t="s">
+      <c r="J16" s="246"/>
+      <c r="K16" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="241"/>
-      <c r="M16" s="241" t="s">
+      <c r="L16" s="244"/>
+      <c r="M16" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="241"/>
-      <c r="O16" s="241" t="s">
+      <c r="N16" s="244"/>
+      <c r="O16" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="241"/>
-      <c r="Q16" s="241" t="s">
+      <c r="P16" s="244"/>
+      <c r="Q16" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R16" s="241"/>
-      <c r="T16" s="304"/>
-      <c r="U16" s="304"/>
+      <c r="R16" s="244"/>
+      <c r="T16" s="240"/>
+      <c r="U16" s="240"/>
     </row>
     <row r="17" spans="2:21" ht="21.75" customHeight="1">
       <c r="D17" s="208">
@@ -44200,28 +43217,28 @@
       <c r="F17" s="200"/>
       <c r="G17" s="200"/>
       <c r="H17" s="200"/>
-      <c r="I17" s="239" t="s">
+      <c r="I17" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="240"/>
-      <c r="K17" s="241" t="s">
+      <c r="J17" s="246"/>
+      <c r="K17" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="241"/>
-      <c r="M17" s="241" t="s">
+      <c r="L17" s="244"/>
+      <c r="M17" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N17" s="241"/>
-      <c r="O17" s="241" t="s">
+      <c r="N17" s="244"/>
+      <c r="O17" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="241"/>
-      <c r="Q17" s="241" t="s">
+      <c r="P17" s="244"/>
+      <c r="Q17" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R17" s="241"/>
-      <c r="T17" s="304"/>
-      <c r="U17" s="304"/>
+      <c r="R17" s="244"/>
+      <c r="T17" s="240"/>
+      <c r="U17" s="240"/>
     </row>
     <row r="18" spans="2:21" ht="21.75" customHeight="1">
       <c r="D18" s="208">
@@ -44233,28 +43250,28 @@
       <c r="F18" s="200"/>
       <c r="G18" s="200"/>
       <c r="H18" s="200"/>
-      <c r="I18" s="239" t="s">
+      <c r="I18" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="240"/>
-      <c r="K18" s="241" t="s">
+      <c r="J18" s="246"/>
+      <c r="K18" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L18" s="241"/>
-      <c r="M18" s="241" t="s">
+      <c r="L18" s="244"/>
+      <c r="M18" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="241"/>
-      <c r="O18" s="241" t="s">
+      <c r="N18" s="244"/>
+      <c r="O18" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="241"/>
-      <c r="Q18" s="241" t="s">
+      <c r="P18" s="244"/>
+      <c r="Q18" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R18" s="241"/>
-      <c r="T18" s="304"/>
-      <c r="U18" s="304"/>
+      <c r="R18" s="244"/>
+      <c r="T18" s="240"/>
+      <c r="U18" s="240"/>
     </row>
     <row r="19" spans="2:21" ht="21.75" customHeight="1">
       <c r="D19" s="208">
@@ -44266,28 +43283,28 @@
       <c r="F19" s="200"/>
       <c r="G19" s="200"/>
       <c r="H19" s="200"/>
-      <c r="I19" s="239" t="s">
+      <c r="I19" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="240"/>
-      <c r="K19" s="241" t="s">
+      <c r="J19" s="246"/>
+      <c r="K19" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="241"/>
-      <c r="M19" s="245" t="s">
+      <c r="L19" s="244"/>
+      <c r="M19" s="253" t="s">
         <v>116</v>
       </c>
-      <c r="N19" s="245"/>
-      <c r="O19" s="241" t="s">
+      <c r="N19" s="253"/>
+      <c r="O19" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="241"/>
-      <c r="Q19" s="241" t="s">
+      <c r="P19" s="244"/>
+      <c r="Q19" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R19" s="241"/>
-      <c r="T19" s="304"/>
-      <c r="U19" s="304"/>
+      <c r="R19" s="244"/>
+      <c r="T19" s="240"/>
+      <c r="U19" s="240"/>
     </row>
     <row r="20" spans="2:21" ht="21.75" customHeight="1">
       <c r="D20" s="208">
@@ -44299,28 +43316,28 @@
       <c r="F20" s="200"/>
       <c r="G20" s="200"/>
       <c r="H20" s="200"/>
-      <c r="I20" s="239" t="s">
+      <c r="I20" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="240"/>
-      <c r="K20" s="241" t="s">
+      <c r="J20" s="246"/>
+      <c r="K20" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="241"/>
-      <c r="M20" s="241" t="s">
+      <c r="L20" s="244"/>
+      <c r="M20" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="241"/>
-      <c r="O20" s="241" t="s">
+      <c r="N20" s="244"/>
+      <c r="O20" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="241"/>
-      <c r="Q20" s="241" t="s">
+      <c r="P20" s="244"/>
+      <c r="Q20" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R20" s="241"/>
-      <c r="T20" s="304"/>
-      <c r="U20" s="304"/>
+      <c r="R20" s="244"/>
+      <c r="T20" s="240"/>
+      <c r="U20" s="240"/>
     </row>
     <row r="21" spans="2:21" ht="21.75" customHeight="1">
       <c r="D21" s="208">
@@ -44332,26 +43349,26 @@
       <c r="F21" s="200"/>
       <c r="G21" s="200"/>
       <c r="H21" s="200"/>
-      <c r="I21" s="239" t="s">
+      <c r="I21" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="240"/>
-      <c r="K21" s="241" t="s">
+      <c r="J21" s="246"/>
+      <c r="K21" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L21" s="241"/>
-      <c r="M21" s="245" t="s">
+      <c r="L21" s="244"/>
+      <c r="M21" s="253" t="s">
         <v>116</v>
       </c>
-      <c r="N21" s="246"/>
-      <c r="O21" s="241" t="s">
+      <c r="N21" s="259"/>
+      <c r="O21" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="241" t="s">
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R21" s="241"/>
+      <c r="R21" s="244"/>
     </row>
     <row r="22" spans="2:21" ht="21.75" customHeight="1">
       <c r="D22" s="208">
@@ -44363,26 +43380,26 @@
       <c r="F22" s="200"/>
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
-      <c r="I22" s="239" t="s">
+      <c r="I22" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="240"/>
-      <c r="K22" s="241" t="s">
+      <c r="J22" s="246"/>
+      <c r="K22" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="241"/>
-      <c r="M22" s="245" t="s">
+      <c r="L22" s="244"/>
+      <c r="M22" s="253" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="245"/>
-      <c r="O22" s="241" t="s">
+      <c r="N22" s="253"/>
+      <c r="O22" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="241" t="s">
+      <c r="P22" s="244"/>
+      <c r="Q22" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R22" s="241"/>
+      <c r="R22" s="244"/>
     </row>
     <row r="23" spans="2:21" ht="21.75" customHeight="1">
       <c r="D23" s="208">
@@ -44394,26 +43411,26 @@
       <c r="F23" s="200"/>
       <c r="G23" s="200"/>
       <c r="H23" s="200"/>
-      <c r="I23" s="239" t="s">
+      <c r="I23" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="240"/>
-      <c r="K23" s="241" t="s">
+      <c r="J23" s="246"/>
+      <c r="K23" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="241"/>
-      <c r="M23" s="241" t="s">
+      <c r="L23" s="244"/>
+      <c r="M23" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="241"/>
-      <c r="O23" s="241" t="s">
+      <c r="N23" s="244"/>
+      <c r="O23" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241" t="s">
+      <c r="P23" s="244"/>
+      <c r="Q23" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="241"/>
+      <c r="R23" s="244"/>
     </row>
     <row r="24" spans="2:21" ht="21.75" customHeight="1">
       <c r="D24" s="208">
@@ -44425,26 +43442,26 @@
       <c r="F24" s="200"/>
       <c r="G24" s="200"/>
       <c r="H24" s="200"/>
-      <c r="I24" s="239" t="s">
+      <c r="I24" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="240"/>
-      <c r="K24" s="241" t="s">
+      <c r="J24" s="246"/>
+      <c r="K24" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="241"/>
-      <c r="M24" s="241" t="s">
+      <c r="L24" s="244"/>
+      <c r="M24" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="241"/>
-      <c r="O24" s="241" t="s">
+      <c r="N24" s="244"/>
+      <c r="O24" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="241"/>
-      <c r="Q24" s="241" t="s">
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R24" s="241"/>
+      <c r="R24" s="244"/>
     </row>
     <row r="25" spans="2:21" ht="21.75" customHeight="1">
       <c r="D25" s="208">
@@ -44456,34 +43473,34 @@
       <c r="F25" s="200"/>
       <c r="G25" s="200"/>
       <c r="H25" s="200"/>
-      <c r="I25" s="239" t="s">
+      <c r="I25" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="240"/>
-      <c r="K25" s="241" t="s">
+      <c r="J25" s="246"/>
+      <c r="K25" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="241"/>
-      <c r="M25" s="241" t="s">
+      <c r="L25" s="244"/>
+      <c r="M25" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="241"/>
-      <c r="O25" s="241" t="s">
+      <c r="N25" s="244"/>
+      <c r="O25" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241" t="s">
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R25" s="241"/>
+      <c r="R25" s="244"/>
     </row>
     <row r="26" spans="2:21" ht="21.75" customHeight="1">
       <c r="F26" s="202"/>
       <c r="G26" s="202"/>
       <c r="H26" s="202"/>
       <c r="I26" s="202"/>
-      <c r="J26" s="244"/>
-      <c r="K26" s="244"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="257"/>
       <c r="L26" s="204"/>
       <c r="M26" s="203"/>
       <c r="N26" s="204"/>
@@ -44538,9 +43555,9 @@
       <c r="R29" s="20"/>
     </row>
     <row r="30" spans="2:21" ht="21.75" customHeight="1">
-      <c r="B30" s="238"/>
-      <c r="C30" s="238"/>
-      <c r="D30" s="238"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="258"/>
       <c r="E30" s="214"/>
     </row>
     <row r="31" spans="2:21" ht="21.75" customHeight="1">
@@ -44571,65 +43588,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="T13:U20"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="O18:P18"/>
@@ -44646,6 +43604,65 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="T13:U20"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44656,12 +43673,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFF6600"/>
   </sheetPr>
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44720,18 +43737,18 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="255"/>
-      <c r="B4" s="255"/>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="255"/>
-      <c r="L4" s="255"/>
+      <c r="A4" s="263"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -44767,112 +43784,112 @@
       <c r="S6" s="170"/>
     </row>
     <row r="8" spans="1:23" ht="43.5" customHeight="1">
-      <c r="D8" s="256" t="s">
+      <c r="D8" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256" t="s">
+      <c r="E8" s="261"/>
+      <c r="F8" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="256"/>
-      <c r="H8" s="257" t="s">
+      <c r="G8" s="261"/>
+      <c r="H8" s="264" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="257"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="257"/>
-      <c r="N8" s="257" t="s">
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
+      <c r="K8" s="264"/>
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="257"/>
-      <c r="P8" s="256" t="s">
+      <c r="O8" s="264"/>
+      <c r="P8" s="261" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="256" t="s">
+      <c r="Q8" s="261"/>
+      <c r="R8" s="261" t="s">
         <v>119</v>
       </c>
-      <c r="S8" s="256"/>
+      <c r="S8" s="261"/>
     </row>
     <row r="9" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D9" s="253" t="s">
+      <c r="D9" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="253" t="s">
+      <c r="E9" s="260"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="253"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="253" t="s">
+      <c r="I9" s="260"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="260"/>
+      <c r="L9" s="260"/>
+      <c r="M9" s="260"/>
+      <c r="N9" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="253"/>
-      <c r="P9" s="254">
+      <c r="O9" s="260"/>
+      <c r="P9" s="262">
         <v>43185</v>
       </c>
-      <c r="Q9" s="253"/>
-      <c r="R9" s="253"/>
-      <c r="S9" s="253"/>
+      <c r="Q9" s="260"/>
+      <c r="R9" s="260"/>
+      <c r="S9" s="260"/>
     </row>
     <row r="10" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D10" s="253" t="s">
+      <c r="D10" s="260" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="253"/>
-      <c r="F10" s="253"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="253" t="s">
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="260" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="253"/>
-      <c r="J10" s="253"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="253"/>
-      <c r="N10" s="253" t="s">
+      <c r="I10" s="260"/>
+      <c r="J10" s="260"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="260"/>
+      <c r="M10" s="260"/>
+      <c r="N10" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="253"/>
-      <c r="P10" s="254">
+      <c r="O10" s="260"/>
+      <c r="P10" s="262">
         <v>43185</v>
       </c>
-      <c r="Q10" s="253"/>
-      <c r="R10" s="253"/>
-      <c r="S10" s="253"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="260"/>
     </row>
     <row r="11" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D11" s="253" t="s">
+      <c r="D11" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253" t="s">
+      <c r="E11" s="260"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="253"/>
-      <c r="N11" s="253" t="s">
+      <c r="I11" s="260"/>
+      <c r="J11" s="260"/>
+      <c r="K11" s="260"/>
+      <c r="L11" s="260"/>
+      <c r="M11" s="260"/>
+      <c r="N11" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="253"/>
-      <c r="P11" s="254">
+      <c r="O11" s="260"/>
+      <c r="P11" s="262">
         <v>43185</v>
       </c>
-      <c r="Q11" s="253"/>
-      <c r="R11" s="253"/>
-      <c r="S11" s="253"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="260"/>
     </row>
     <row r="12" spans="1:23" ht="69.75" customHeight="1"/>
     <row r="13" spans="1:23" ht="69.75" customHeight="1"/>
@@ -44898,6 +43915,18 @@
     <row r="33" ht="69.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="P8:Q8"/>
@@ -44911,18 +43940,6 @@
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44932,211 +43949,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:W4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="23" max="23" width="9.140625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="27" customFormat="1">
-      <c r="A1" s="135" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="46.5" customHeight="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-    </row>
-    <row r="3" spans="1:22" ht="60" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="133"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="131"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="134"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:W4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="23" max="23" width="9.140625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="27" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="135" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="46.5" customHeight="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-    </row>
-    <row r="3" spans="1:22" ht="60" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="133"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="131"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="134"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFF6600"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -45148,4 +43961,549 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF6600"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF6600"/>
+  </sheetPr>
+  <dimension ref="A2:S31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="235"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" ht="54" customHeight="1">
+      <c r="A2" s="232"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+    </row>
+    <row r="3" spans="1:19" ht="70.5" customHeight="1">
+      <c r="A3" s="265" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
+      <c r="N3" s="265"/>
+      <c r="O3" s="265"/>
+      <c r="P3" s="265"/>
+      <c r="Q3" s="265"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="265"/>
+    </row>
+    <row r="4" spans="1:19" ht="33.75" customHeight="1">
+      <c r="A4" s="231"/>
+      <c r="E4" s="236"/>
+    </row>
+    <row r="5" spans="1:19" ht="26.25" customHeight="1">
+      <c r="A5" s="234"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="230"/>
+      <c r="Q5" s="230"/>
+      <c r="R5" s="230"/>
+      <c r="S5" s="230"/>
+    </row>
+    <row r="6" spans="1:19" ht="162" customHeight="1">
+      <c r="A6" s="234"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="230"/>
+      <c r="L6" s="230"/>
+      <c r="M6" s="230"/>
+      <c r="N6" s="230"/>
+      <c r="O6" s="230"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+    </row>
+    <row r="7" spans="1:19" ht="156.75" customHeight="1">
+      <c r="A7" s="233"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
+    </row>
+    <row r="10" spans="1:19" ht="43.5" customHeight="1">
+      <c r="A10" s="266"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="237"/>
+      <c r="N10" s="237"/>
+      <c r="O10" s="237"/>
+      <c r="P10" s="237"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="237"/>
+      <c r="S10" s="237"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="232"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="237"/>
+      <c r="S11" s="237"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="232"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="237"/>
+      <c r="P12" s="237"/>
+      <c r="Q12" s="237"/>
+      <c r="R12" s="237"/>
+      <c r="S12" s="237"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="232"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="237"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="237"/>
+      <c r="S13" s="237"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="232"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="237"/>
+      <c r="N14" s="237"/>
+      <c r="O14" s="237"/>
+      <c r="P14" s="237"/>
+      <c r="Q14" s="237"/>
+      <c r="R14" s="237"/>
+      <c r="S14" s="237"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="232"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="237"/>
+      <c r="N15" s="237"/>
+      <c r="O15" s="237"/>
+      <c r="P15" s="237"/>
+      <c r="Q15" s="237"/>
+      <c r="R15" s="237"/>
+      <c r="S15" s="237"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="232"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="237"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="237"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="237"/>
+      <c r="S16" s="237"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="232"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="237"/>
+      <c r="N17" s="237"/>
+      <c r="O17" s="237"/>
+      <c r="P17" s="237"/>
+      <c r="Q17" s="237"/>
+      <c r="R17" s="237"/>
+      <c r="S17" s="237"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="232"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="237"/>
+      <c r="L18" s="237"/>
+      <c r="M18" s="237"/>
+      <c r="N18" s="237"/>
+      <c r="O18" s="237"/>
+      <c r="P18" s="237"/>
+      <c r="Q18" s="237"/>
+      <c r="R18" s="237"/>
+      <c r="S18" s="237"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="232"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="237"/>
+      <c r="N19" s="237"/>
+      <c r="O19" s="237"/>
+      <c r="P19" s="237"/>
+      <c r="Q19" s="237"/>
+      <c r="R19" s="237"/>
+      <c r="S19" s="237"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="232"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="237"/>
+      <c r="M20" s="237"/>
+      <c r="N20" s="237"/>
+      <c r="O20" s="237"/>
+      <c r="P20" s="237"/>
+      <c r="Q20" s="237"/>
+      <c r="R20" s="237"/>
+      <c r="S20" s="237"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="232"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="237"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="237"/>
+      <c r="O21" s="237"/>
+      <c r="P21" s="237"/>
+      <c r="Q21" s="237"/>
+      <c r="R21" s="237"/>
+      <c r="S21" s="237"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="232"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="237"/>
+      <c r="M22" s="237"/>
+      <c r="N22" s="237"/>
+      <c r="O22" s="237"/>
+      <c r="P22" s="237"/>
+      <c r="Q22" s="237"/>
+      <c r="R22" s="237"/>
+      <c r="S22" s="237"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="232"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="237"/>
+      <c r="N23" s="237"/>
+      <c r="O23" s="237"/>
+      <c r="P23" s="237"/>
+      <c r="Q23" s="237"/>
+      <c r="R23" s="237"/>
+      <c r="S23" s="237"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="232"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="237"/>
+      <c r="L24" s="237"/>
+      <c r="M24" s="237"/>
+      <c r="N24" s="237"/>
+      <c r="O24" s="237"/>
+      <c r="P24" s="237"/>
+      <c r="Q24" s="237"/>
+      <c r="R24" s="237"/>
+      <c r="S24" s="237"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="232"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="237"/>
+      <c r="N25" s="237"/>
+      <c r="O25" s="237"/>
+      <c r="P25" s="237"/>
+      <c r="Q25" s="237"/>
+      <c r="R25" s="237"/>
+      <c r="S25" s="237"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="232"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="237"/>
+      <c r="M26" s="237"/>
+      <c r="N26" s="237"/>
+      <c r="O26" s="237"/>
+      <c r="P26" s="237"/>
+      <c r="Q26" s="237"/>
+      <c r="R26" s="237"/>
+      <c r="S26" s="237"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="232"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="232"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="232"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="232"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="232"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A10:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="930" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="7" r:id="rId1"/>
@@ -2652,6 +2652,51 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2664,65 +2709,20 @@
     <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="73" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2732,39 +2732,6 @@
     </xf>
     <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2816,6 +2783,39 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3025,7 +3025,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -3034,7 +3034,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3291,7 +3291,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3762,7 +3762,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3806,7 +3806,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -3815,7 +3815,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13152,7 +13152,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14928,7 +14928,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -14937,7 +14937,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15194,7 +15194,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15665,7 +15665,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15709,7 +15709,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -15718,7 +15718,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15855,7 +15855,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -15864,7 +15864,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15978,7 +15978,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16023,7 +16023,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18638,7 +18638,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -18647,7 +18647,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18692,7 +18692,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19565,7 +19565,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -19574,7 +19574,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19619,7 +19619,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21203,7 +21203,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -21212,7 +21212,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21469,7 +21469,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21940,7 +21940,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21984,7 +21984,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -21993,7 +21993,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22150,7 +22150,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24287,7 +24287,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -24296,7 +24296,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24553,7 +24553,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25238,7 +25238,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25282,7 +25282,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -25291,7 +25291,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25457,7 +25457,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -25466,7 +25466,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25723,7 +25723,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -26408,7 +26408,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -26452,7 +26452,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -26461,7 +26461,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27022,7 +27022,7 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -27442,7 +27442,7 @@
       <c r="O8" s="57"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="268" t="s">
+      <c r="R8" s="290" t="s">
         <v>43</v>
       </c>
       <c r="W8" s="33" t="s">
@@ -27482,7 +27482,7 @@
       <c r="O9" s="57"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="268"/>
+      <c r="R9" s="290"/>
       <c r="W9" s="31"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="3"/>
@@ -27578,10 +27578,10 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="20"/>
       <c r="X12" s="2"/>
-      <c r="AL12" s="278" t="s">
+      <c r="AL12" s="267" t="s">
         <v>5</v>
       </c>
-      <c r="AM12" s="278"/>
+      <c r="AM12" s="267"/>
     </row>
     <row r="13" spans="1:41" ht="31.5" customHeight="1">
       <c r="B13" s="55"/>
@@ -27631,10 +27631,10 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="8"/>
-      <c r="AH14" s="279" t="s">
+      <c r="AH14" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" s="280"/>
+      <c r="AI14" s="269"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
@@ -27659,8 +27659,8 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="20"/>
       <c r="X15" s="9"/>
-      <c r="AH15" s="279"/>
-      <c r="AI15" s="280"/>
+      <c r="AH15" s="268"/>
+      <c r="AI15" s="269"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
@@ -27722,16 +27722,16 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="20"/>
       <c r="X17" s="9"/>
-      <c r="AH17" s="279" t="s">
+      <c r="AH17" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="AI17" s="280"/>
-      <c r="AJ17" s="281" t="s">
+      <c r="AI17" s="269"/>
+      <c r="AJ17" s="270" t="s">
         <v>23</v>
       </c>
-      <c r="AK17" s="282"/>
-      <c r="AL17" s="282"/>
-      <c r="AM17" s="283"/>
+      <c r="AK17" s="271"/>
+      <c r="AL17" s="271"/>
+      <c r="AM17" s="272"/>
     </row>
     <row r="18" spans="2:41" ht="31.5" customHeight="1">
       <c r="B18" s="55"/>
@@ -27761,12 +27761,12 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="12"/>
-      <c r="AH18" s="279"/>
-      <c r="AI18" s="280"/>
-      <c r="AJ18" s="284"/>
-      <c r="AK18" s="285"/>
-      <c r="AL18" s="285"/>
-      <c r="AM18" s="286"/>
+      <c r="AH18" s="268"/>
+      <c r="AI18" s="269"/>
+      <c r="AJ18" s="273"/>
+      <c r="AK18" s="274"/>
+      <c r="AL18" s="274"/>
+      <c r="AM18" s="275"/>
     </row>
     <row r="19" spans="2:41" ht="31.5" customHeight="1">
       <c r="B19" s="55"/>
@@ -27827,17 +27827,17 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="14"/>
-      <c r="AG20" s="287" t="s">
+      <c r="AG20" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="287"/>
-      <c r="AI20" s="288"/>
-      <c r="AJ20" s="289" t="s">
+      <c r="AH20" s="276"/>
+      <c r="AI20" s="277"/>
+      <c r="AJ20" s="278" t="s">
         <v>24</v>
       </c>
-      <c r="AK20" s="290"/>
-      <c r="AL20" s="290"/>
-      <c r="AM20" s="291"/>
+      <c r="AK20" s="279"/>
+      <c r="AL20" s="279"/>
+      <c r="AM20" s="280"/>
     </row>
     <row r="21" spans="2:41" ht="31.5" customHeight="1">
       <c r="B21" s="55"/>
@@ -27865,13 +27865,13 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="17"/>
-      <c r="AG21" s="287"/>
-      <c r="AH21" s="287"/>
-      <c r="AI21" s="288"/>
-      <c r="AJ21" s="292"/>
-      <c r="AK21" s="293"/>
-      <c r="AL21" s="293"/>
-      <c r="AM21" s="294"/>
+      <c r="AG21" s="276"/>
+      <c r="AH21" s="276"/>
+      <c r="AI21" s="277"/>
+      <c r="AJ21" s="281"/>
+      <c r="AK21" s="282"/>
+      <c r="AL21" s="282"/>
+      <c r="AM21" s="283"/>
     </row>
     <row r="22" spans="2:41" ht="31.5" customHeight="1">
       <c r="B22" s="55"/>
@@ -27949,12 +27949,12 @@
       <c r="AI24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AJ24" s="274">
+      <c r="AJ24" s="284">
         <v>43202</v>
       </c>
-      <c r="AK24" s="275"/>
-      <c r="AL24" s="275"/>
-      <c r="AM24" s="276"/>
+      <c r="AK24" s="285"/>
+      <c r="AL24" s="285"/>
+      <c r="AM24" s="286"/>
     </row>
     <row r="25" spans="2:41" ht="31.5" customHeight="1">
       <c r="B25" s="55"/>
@@ -28023,11 +28023,11 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="24"/>
-      <c r="AK26" s="277" t="s">
+      <c r="AK26" s="287" t="s">
         <v>14</v>
       </c>
-      <c r="AL26" s="277"/>
-      <c r="AM26" s="277"/>
+      <c r="AL26" s="287"/>
+      <c r="AM26" s="287"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
@@ -28452,10 +28452,10 @@
       <c r="J38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="269" t="s">
+      <c r="K38" s="291" t="s">
         <v>68</v>
       </c>
-      <c r="L38" s="270"/>
+      <c r="L38" s="292"/>
       <c r="M38" s="103" t="s">
         <v>67</v>
       </c>
@@ -29219,35 +29219,35 @@
       <c r="B57" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="272" t="s">
+      <c r="I57" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="J57" s="272"/>
-      <c r="K57" s="272"/>
-      <c r="L57" s="272"/>
-      <c r="M57" s="272"/>
-      <c r="N57" s="272"/>
-      <c r="O57" s="272"/>
+      <c r="J57" s="293"/>
+      <c r="K57" s="293"/>
+      <c r="L57" s="293"/>
+      <c r="M57" s="293"/>
+      <c r="N57" s="293"/>
+      <c r="O57" s="293"/>
     </row>
     <row r="58" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1"/>
     <row r="59" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B59" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="271" t="s">
+      <c r="E59" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="271"/>
+      <c r="F59" s="288"/>
       <c r="G59" s="61"/>
       <c r="H59" s="61" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="61"/>
-      <c r="J59" s="271" t="s">
+      <c r="J59" s="288" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="271"/>
-      <c r="L59" s="271"/>
+      <c r="K59" s="288"/>
+      <c r="L59" s="288"/>
       <c r="M59" s="62" t="s">
         <v>18</v>
       </c>
@@ -29256,10 +29256,10 @@
         <v>20</v>
       </c>
       <c r="P59" s="62"/>
-      <c r="Q59" s="273" t="s">
+      <c r="Q59" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="R59" s="273"/>
+      <c r="R59" s="294"/>
       <c r="S59" s="110" t="s">
         <v>25</v>
       </c>
@@ -29270,18 +29270,18 @@
         <v>19</v>
       </c>
       <c r="D60" s="111"/>
-      <c r="E60" s="267" t="s">
+      <c r="E60" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="267"/>
+      <c r="F60" s="289"/>
       <c r="G60" s="111"/>
       <c r="H60" s="111"/>
       <c r="I60" s="111"/>
-      <c r="J60" s="267" t="s">
+      <c r="J60" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="267"/>
-      <c r="L60" s="267"/>
+      <c r="K60" s="289"/>
+      <c r="L60" s="289"/>
       <c r="M60" s="63" t="s">
         <v>12</v>
       </c>
@@ -29290,10 +29290,10 @@
         <v>43185</v>
       </c>
       <c r="P60" s="63"/>
-      <c r="Q60" s="267"/>
-      <c r="R60" s="267"/>
-      <c r="S60" s="267"/>
-      <c r="T60" s="267"/>
+      <c r="Q60" s="289"/>
+      <c r="R60" s="289"/>
+      <c r="S60" s="289"/>
+      <c r="T60" s="289"/>
       <c r="AX60" s="20"/>
     </row>
     <row r="61" spans="1:50" s="3" customFormat="1" ht="54" customHeight="1">
@@ -29301,18 +29301,18 @@
         <v>19</v>
       </c>
       <c r="D61" s="111"/>
-      <c r="E61" s="267" t="s">
+      <c r="E61" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="267"/>
+      <c r="F61" s="289"/>
       <c r="G61" s="111"/>
       <c r="H61" s="111"/>
       <c r="I61" s="111"/>
-      <c r="J61" s="267" t="s">
+      <c r="J61" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="267"/>
-      <c r="L61" s="267"/>
+      <c r="K61" s="289"/>
+      <c r="L61" s="289"/>
       <c r="M61" s="63" t="s">
         <v>12</v>
       </c>
@@ -29321,10 +29321,10 @@
         <v>43185</v>
       </c>
       <c r="P61" s="63"/>
-      <c r="Q61" s="267"/>
-      <c r="R61" s="267"/>
-      <c r="S61" s="267"/>
-      <c r="T61" s="267"/>
+      <c r="Q61" s="289"/>
+      <c r="R61" s="289"/>
+      <c r="S61" s="289"/>
+      <c r="T61" s="289"/>
       <c r="AX61" s="20"/>
     </row>
     <row r="62" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
@@ -40282,19 +40282,19 @@
         <v>17</v>
       </c>
       <c r="X368" s="61"/>
-      <c r="Y368" s="271" t="s">
+      <c r="Y368" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="Z368" s="271"/>
-      <c r="AA368" s="271" t="s">
+      <c r="Z368" s="288"/>
+      <c r="AA368" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="AB368" s="271"/>
-      <c r="AC368" s="271" t="s">
+      <c r="AB368" s="288"/>
+      <c r="AC368" s="288" t="s">
         <v>16</v>
       </c>
-      <c r="AD368" s="271"/>
-      <c r="AE368" s="271"/>
+      <c r="AD368" s="288"/>
+      <c r="AE368" s="288"/>
       <c r="AF368" s="62" t="s">
         <v>18</v>
       </c>
@@ -40303,14 +40303,14 @@
         <v>20</v>
       </c>
       <c r="AI368" s="62"/>
-      <c r="AJ368" s="271" t="s">
+      <c r="AJ368" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="AK368" s="271"/>
-      <c r="AL368" s="271" t="s">
+      <c r="AK368" s="288"/>
+      <c r="AL368" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="AM368" s="271"/>
+      <c r="AM368" s="288"/>
     </row>
     <row r="369" spans="2:50" s="3" customFormat="1" ht="61.5" customHeight="1">
       <c r="B369" s="55"/>
@@ -40331,17 +40331,17 @@
       <c r="W369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y369" s="267" t="s">
+      <c r="Y369" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="Z369" s="267"/>
-      <c r="AA369" s="267"/>
-      <c r="AB369" s="267"/>
-      <c r="AC369" s="267" t="s">
+      <c r="Z369" s="289"/>
+      <c r="AA369" s="289"/>
+      <c r="AB369" s="289"/>
+      <c r="AC369" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="AD369" s="267"/>
-      <c r="AE369" s="267"/>
+      <c r="AD369" s="289"/>
+      <c r="AE369" s="289"/>
       <c r="AF369" s="63" t="s">
         <v>12</v>
       </c>
@@ -40350,10 +40350,10 @@
         <v>43185</v>
       </c>
       <c r="AI369" s="63"/>
-      <c r="AJ369" s="267"/>
-      <c r="AK369" s="267"/>
-      <c r="AL369" s="267"/>
-      <c r="AM369" s="267"/>
+      <c r="AJ369" s="289"/>
+      <c r="AK369" s="289"/>
+      <c r="AL369" s="289"/>
+      <c r="AM369" s="289"/>
     </row>
     <row r="370" spans="2:50" s="3" customFormat="1" ht="54" customHeight="1">
       <c r="B370" s="55"/>
@@ -40374,17 +40374,17 @@
       <c r="W370" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y370" s="267" t="s">
+      <c r="Y370" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="Z370" s="267"/>
-      <c r="AA370" s="267"/>
-      <c r="AB370" s="267"/>
-      <c r="AC370" s="267" t="s">
+      <c r="Z370" s="289"/>
+      <c r="AA370" s="289"/>
+      <c r="AB370" s="289"/>
+      <c r="AC370" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="AD370" s="267"/>
-      <c r="AE370" s="267"/>
+      <c r="AD370" s="289"/>
+      <c r="AE370" s="289"/>
       <c r="AF370" s="63" t="s">
         <v>12</v>
       </c>
@@ -40393,10 +40393,10 @@
         <v>43185</v>
       </c>
       <c r="AI370" s="63"/>
-      <c r="AJ370" s="267"/>
-      <c r="AK370" s="267"/>
-      <c r="AL370" s="267"/>
-      <c r="AM370" s="267"/>
+      <c r="AJ370" s="289"/>
+      <c r="AK370" s="289"/>
+      <c r="AL370" s="289"/>
+      <c r="AM370" s="289"/>
     </row>
     <row r="371" spans="2:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B371" s="55"/>
@@ -40558,29 +40558,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AH14:AI15"/>
-    <mergeCell ref="AH17:AI18"/>
-    <mergeCell ref="AJ17:AM18"/>
-    <mergeCell ref="AG20:AI21"/>
-    <mergeCell ref="AJ20:AM21"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="Y368:Z368"/>
-    <mergeCell ref="AA368:AB368"/>
-    <mergeCell ref="AC368:AE368"/>
-    <mergeCell ref="AJ368:AK368"/>
-    <mergeCell ref="AL368:AM368"/>
-    <mergeCell ref="Y369:Z369"/>
-    <mergeCell ref="AA369:AB369"/>
-    <mergeCell ref="AC369:AE369"/>
-    <mergeCell ref="AJ369:AK369"/>
-    <mergeCell ref="AL369:AM369"/>
-    <mergeCell ref="Y370:Z370"/>
-    <mergeCell ref="AA370:AB370"/>
-    <mergeCell ref="AC370:AE370"/>
-    <mergeCell ref="AJ370:AK370"/>
-    <mergeCell ref="AL370:AM370"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="J61:L61"/>
     <mergeCell ref="Q61:R61"/>
@@ -40595,6 +40572,29 @@
     <mergeCell ref="J60:L60"/>
     <mergeCell ref="Q60:R60"/>
     <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Y370:Z370"/>
+    <mergeCell ref="AA370:AB370"/>
+    <mergeCell ref="AC370:AE370"/>
+    <mergeCell ref="AJ370:AK370"/>
+    <mergeCell ref="AL370:AM370"/>
+    <mergeCell ref="Y369:Z369"/>
+    <mergeCell ref="AA369:AB369"/>
+    <mergeCell ref="AC369:AE369"/>
+    <mergeCell ref="AJ369:AK369"/>
+    <mergeCell ref="AL369:AM369"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="Y368:Z368"/>
+    <mergeCell ref="AA368:AB368"/>
+    <mergeCell ref="AC368:AE368"/>
+    <mergeCell ref="AJ368:AK368"/>
+    <mergeCell ref="AL368:AM368"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AH14:AI15"/>
+    <mergeCell ref="AH17:AI18"/>
+    <mergeCell ref="AJ17:AM18"/>
+    <mergeCell ref="AG20:AI21"/>
+    <mergeCell ref="AJ20:AM21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42988,26 +42988,26 @@
       <c r="C8" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="254" t="s">
+      <c r="D8" s="249" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="254"/>
+      <c r="E8" s="249"/>
       <c r="K8" s="165" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="252">
+      <c r="L8" s="254">
         <v>43191</v>
       </c>
-      <c r="M8" s="252"/>
+      <c r="M8" s="254"/>
       <c r="N8" s="239"/>
       <c r="R8" s="239"/>
       <c r="S8" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="T8" s="251" t="s">
+      <c r="T8" s="253" t="s">
         <v>111</v>
       </c>
-      <c r="U8" s="251"/>
+      <c r="U8" s="253"/>
     </row>
     <row r="9" spans="1:23">
       <c r="B9" s="3"/>
@@ -43033,24 +43033,24 @@
       <c r="C10" s="165" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="255" t="s">
+      <c r="D10" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="255"/>
+      <c r="E10" s="250"/>
       <c r="K10" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="241">
+      <c r="L10" s="256">
         <v>10</v>
       </c>
-      <c r="M10" s="241"/>
+      <c r="M10" s="256"/>
       <c r="S10" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="T10" s="242">
+      <c r="T10" s="257">
         <v>3</v>
       </c>
-      <c r="U10" s="242"/>
+      <c r="U10" s="257"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="C11" s="215"/>
@@ -43086,34 +43086,34 @@
       <c r="D13" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="243" t="s">
+      <c r="E13" s="258" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="243"/>
-      <c r="G13" s="243"/>
-      <c r="H13" s="243"/>
-      <c r="I13" s="256" t="s">
+      <c r="F13" s="258"/>
+      <c r="G13" s="258"/>
+      <c r="H13" s="258"/>
+      <c r="I13" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256" t="s">
+      <c r="J13" s="252"/>
+      <c r="K13" s="252" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="256"/>
-      <c r="M13" s="248" t="s">
+      <c r="L13" s="252"/>
+      <c r="M13" s="251" t="s">
         <v>163</v>
       </c>
-      <c r="N13" s="248"/>
-      <c r="O13" s="248" t="s">
+      <c r="N13" s="251"/>
+      <c r="O13" s="251" t="s">
         <v>163</v>
       </c>
-      <c r="P13" s="248"/>
-      <c r="Q13" s="248" t="s">
+      <c r="P13" s="251"/>
+      <c r="Q13" s="251" t="s">
         <v>163</v>
       </c>
-      <c r="R13" s="248"/>
-      <c r="T13" s="240"/>
-      <c r="U13" s="240"/>
+      <c r="R13" s="251"/>
+      <c r="T13" s="255"/>
+      <c r="U13" s="255"/>
       <c r="W13" s="164"/>
     </row>
     <row r="14" spans="1:23" s="168" customFormat="1" ht="15.75" customHeight="1">
@@ -43142,8 +43142,8 @@
         <v>170</v>
       </c>
       <c r="R14" s="247"/>
-      <c r="T14" s="240"/>
-      <c r="U14" s="240"/>
+      <c r="T14" s="255"/>
+      <c r="U14" s="255"/>
       <c r="W14" s="169"/>
     </row>
     <row r="15" spans="1:23" s="210" customFormat="1" ht="15.75" customHeight="1">
@@ -43152,26 +43152,26 @@
       <c r="F15" s="211"/>
       <c r="G15" s="211"/>
       <c r="H15" s="211"/>
-      <c r="I15" s="250"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="250" t="s">
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="244" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="250"/>
-      <c r="M15" s="250" t="s">
+      <c r="L15" s="244"/>
+      <c r="M15" s="244" t="s">
         <v>171</v>
       </c>
-      <c r="N15" s="250"/>
-      <c r="O15" s="250" t="s">
+      <c r="N15" s="244"/>
+      <c r="O15" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="250"/>
-      <c r="Q15" s="249">
+      <c r="P15" s="244"/>
+      <c r="Q15" s="259">
         <v>44105</v>
       </c>
-      <c r="R15" s="250"/>
-      <c r="T15" s="240"/>
-      <c r="U15" s="240"/>
+      <c r="R15" s="244"/>
+      <c r="T15" s="255"/>
+      <c r="U15" s="255"/>
       <c r="W15" s="212"/>
     </row>
     <row r="16" spans="1:23" ht="21.75" customHeight="1">
@@ -43184,28 +43184,28 @@
       <c r="F16" s="200"/>
       <c r="G16" s="200"/>
       <c r="H16" s="200"/>
-      <c r="I16" s="245" t="s">
+      <c r="I16" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="246"/>
-      <c r="K16" s="244" t="s">
+      <c r="J16" s="242"/>
+      <c r="K16" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="244"/>
-      <c r="M16" s="244" t="s">
+      <c r="L16" s="243"/>
+      <c r="M16" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="244"/>
-      <c r="O16" s="244" t="s">
+      <c r="N16" s="243"/>
+      <c r="O16" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="244"/>
-      <c r="Q16" s="244" t="s">
+      <c r="P16" s="243"/>
+      <c r="Q16" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R16" s="244"/>
-      <c r="T16" s="240"/>
-      <c r="U16" s="240"/>
+      <c r="R16" s="243"/>
+      <c r="T16" s="255"/>
+      <c r="U16" s="255"/>
     </row>
     <row r="17" spans="2:21" ht="21.75" customHeight="1">
       <c r="D17" s="208">
@@ -43217,28 +43217,28 @@
       <c r="F17" s="200"/>
       <c r="G17" s="200"/>
       <c r="H17" s="200"/>
-      <c r="I17" s="245" t="s">
+      <c r="I17" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="246"/>
-      <c r="K17" s="244" t="s">
+      <c r="J17" s="242"/>
+      <c r="K17" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="244"/>
-      <c r="M17" s="244" t="s">
+      <c r="L17" s="243"/>
+      <c r="M17" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="N17" s="244"/>
-      <c r="O17" s="244" t="s">
+      <c r="N17" s="243"/>
+      <c r="O17" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244" t="s">
+      <c r="P17" s="243"/>
+      <c r="Q17" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R17" s="244"/>
-      <c r="T17" s="240"/>
-      <c r="U17" s="240"/>
+      <c r="R17" s="243"/>
+      <c r="T17" s="255"/>
+      <c r="U17" s="255"/>
     </row>
     <row r="18" spans="2:21" ht="21.75" customHeight="1">
       <c r="D18" s="208">
@@ -43250,28 +43250,28 @@
       <c r="F18" s="200"/>
       <c r="G18" s="200"/>
       <c r="H18" s="200"/>
-      <c r="I18" s="245" t="s">
+      <c r="I18" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="246"/>
-      <c r="K18" s="244" t="s">
+      <c r="J18" s="242"/>
+      <c r="K18" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L18" s="244"/>
-      <c r="M18" s="244" t="s">
+      <c r="L18" s="243"/>
+      <c r="M18" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="244"/>
-      <c r="O18" s="244" t="s">
+      <c r="N18" s="243"/>
+      <c r="O18" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="244"/>
-      <c r="Q18" s="244" t="s">
+      <c r="P18" s="243"/>
+      <c r="Q18" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R18" s="244"/>
-      <c r="T18" s="240"/>
-      <c r="U18" s="240"/>
+      <c r="R18" s="243"/>
+      <c r="T18" s="255"/>
+      <c r="U18" s="255"/>
     </row>
     <row r="19" spans="2:21" ht="21.75" customHeight="1">
       <c r="D19" s="208">
@@ -43283,28 +43283,28 @@
       <c r="F19" s="200"/>
       <c r="G19" s="200"/>
       <c r="H19" s="200"/>
-      <c r="I19" s="245" t="s">
+      <c r="I19" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="246"/>
-      <c r="K19" s="244" t="s">
+      <c r="J19" s="242"/>
+      <c r="K19" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="244"/>
-      <c r="M19" s="253" t="s">
+      <c r="L19" s="243"/>
+      <c r="M19" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="N19" s="253"/>
-      <c r="O19" s="244" t="s">
+      <c r="N19" s="245"/>
+      <c r="O19" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="244"/>
-      <c r="Q19" s="244" t="s">
+      <c r="P19" s="243"/>
+      <c r="Q19" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R19" s="244"/>
-      <c r="T19" s="240"/>
-      <c r="U19" s="240"/>
+      <c r="R19" s="243"/>
+      <c r="T19" s="255"/>
+      <c r="U19" s="255"/>
     </row>
     <row r="20" spans="2:21" ht="21.75" customHeight="1">
       <c r="D20" s="208">
@@ -43316,28 +43316,28 @@
       <c r="F20" s="200"/>
       <c r="G20" s="200"/>
       <c r="H20" s="200"/>
-      <c r="I20" s="245" t="s">
+      <c r="I20" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="246"/>
-      <c r="K20" s="244" t="s">
+      <c r="J20" s="242"/>
+      <c r="K20" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="244"/>
-      <c r="M20" s="244" t="s">
+      <c r="L20" s="243"/>
+      <c r="M20" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="244"/>
-      <c r="O20" s="244" t="s">
+      <c r="N20" s="243"/>
+      <c r="O20" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="244"/>
-      <c r="Q20" s="244" t="s">
+      <c r="P20" s="243"/>
+      <c r="Q20" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R20" s="244"/>
-      <c r="T20" s="240"/>
-      <c r="U20" s="240"/>
+      <c r="R20" s="243"/>
+      <c r="T20" s="255"/>
+      <c r="U20" s="255"/>
     </row>
     <row r="21" spans="2:21" ht="21.75" customHeight="1">
       <c r="D21" s="208">
@@ -43349,26 +43349,26 @@
       <c r="F21" s="200"/>
       <c r="G21" s="200"/>
       <c r="H21" s="200"/>
-      <c r="I21" s="245" t="s">
+      <c r="I21" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="246"/>
-      <c r="K21" s="244" t="s">
+      <c r="J21" s="242"/>
+      <c r="K21" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L21" s="244"/>
-      <c r="M21" s="253" t="s">
+      <c r="L21" s="243"/>
+      <c r="M21" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="N21" s="259"/>
-      <c r="O21" s="244" t="s">
+      <c r="N21" s="246"/>
+      <c r="O21" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244" t="s">
+      <c r="P21" s="243"/>
+      <c r="Q21" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R21" s="244"/>
+      <c r="R21" s="243"/>
     </row>
     <row r="22" spans="2:21" ht="21.75" customHeight="1">
       <c r="D22" s="208">
@@ -43380,26 +43380,26 @@
       <c r="F22" s="200"/>
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
-      <c r="I22" s="245" t="s">
+      <c r="I22" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="246"/>
-      <c r="K22" s="244" t="s">
+      <c r="J22" s="242"/>
+      <c r="K22" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="244"/>
-      <c r="M22" s="253" t="s">
+      <c r="L22" s="243"/>
+      <c r="M22" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="253"/>
-      <c r="O22" s="244" t="s">
+      <c r="N22" s="245"/>
+      <c r="O22" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="244" t="s">
+      <c r="P22" s="243"/>
+      <c r="Q22" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R22" s="244"/>
+      <c r="R22" s="243"/>
     </row>
     <row r="23" spans="2:21" ht="21.75" customHeight="1">
       <c r="D23" s="208">
@@ -43411,26 +43411,26 @@
       <c r="F23" s="200"/>
       <c r="G23" s="200"/>
       <c r="H23" s="200"/>
-      <c r="I23" s="245" t="s">
+      <c r="I23" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="246"/>
-      <c r="K23" s="244" t="s">
+      <c r="J23" s="242"/>
+      <c r="K23" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="244"/>
-      <c r="M23" s="244" t="s">
+      <c r="L23" s="243"/>
+      <c r="M23" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="244"/>
-      <c r="O23" s="244" t="s">
+      <c r="N23" s="243"/>
+      <c r="O23" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="244" t="s">
+      <c r="P23" s="243"/>
+      <c r="Q23" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="244"/>
+      <c r="R23" s="243"/>
     </row>
     <row r="24" spans="2:21" ht="21.75" customHeight="1">
       <c r="D24" s="208">
@@ -43442,26 +43442,26 @@
       <c r="F24" s="200"/>
       <c r="G24" s="200"/>
       <c r="H24" s="200"/>
-      <c r="I24" s="245" t="s">
+      <c r="I24" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="246"/>
-      <c r="K24" s="244" t="s">
+      <c r="J24" s="242"/>
+      <c r="K24" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="244"/>
-      <c r="M24" s="244" t="s">
+      <c r="L24" s="243"/>
+      <c r="M24" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="244"/>
-      <c r="O24" s="244" t="s">
+      <c r="N24" s="243"/>
+      <c r="O24" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="244"/>
-      <c r="Q24" s="244" t="s">
+      <c r="P24" s="243"/>
+      <c r="Q24" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R24" s="244"/>
+      <c r="R24" s="243"/>
     </row>
     <row r="25" spans="2:21" ht="21.75" customHeight="1">
       <c r="D25" s="208">
@@ -43473,34 +43473,34 @@
       <c r="F25" s="200"/>
       <c r="G25" s="200"/>
       <c r="H25" s="200"/>
-      <c r="I25" s="245" t="s">
+      <c r="I25" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="246"/>
-      <c r="K25" s="244" t="s">
+      <c r="J25" s="242"/>
+      <c r="K25" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="244"/>
-      <c r="M25" s="244" t="s">
+      <c r="L25" s="243"/>
+      <c r="M25" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="244"/>
-      <c r="O25" s="244" t="s">
+      <c r="N25" s="243"/>
+      <c r="O25" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244" t="s">
+      <c r="P25" s="243"/>
+      <c r="Q25" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="R25" s="244"/>
+      <c r="R25" s="243"/>
     </row>
     <row r="26" spans="2:21" ht="21.75" customHeight="1">
       <c r="F26" s="202"/>
       <c r="G26" s="202"/>
       <c r="H26" s="202"/>
       <c r="I26" s="202"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="257"/>
+      <c r="J26" s="248"/>
+      <c r="K26" s="248"/>
       <c r="L26" s="204"/>
       <c r="M26" s="203"/>
       <c r="N26" s="204"/>
@@ -43555,9 +43555,9 @@
       <c r="R29" s="20"/>
     </row>
     <row r="30" spans="2:21" ht="21.75" customHeight="1">
-      <c r="B30" s="258"/>
-      <c r="C30" s="258"/>
-      <c r="D30" s="258"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="240"/>
       <c r="E30" s="214"/>
     </row>
     <row r="31" spans="2:21" ht="21.75" customHeight="1">
@@ -43588,6 +43588,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="T13:U20"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="O18:P18"/>
@@ -43604,65 +43663,6 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="T13:U20"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43673,12 +43673,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF6600"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43737,18 +43737,18 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="263"/>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="263"/>
+      <c r="A4" s="262"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -43784,14 +43784,14 @@
       <c r="S6" s="170"/>
     </row>
     <row r="8" spans="1:23" ht="43.5" customHeight="1">
-      <c r="D8" s="261" t="s">
+      <c r="D8" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="261"/>
-      <c r="F8" s="261" t="s">
+      <c r="E8" s="263"/>
+      <c r="F8" s="263" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="261"/>
+      <c r="G8" s="263"/>
       <c r="H8" s="264" t="s">
         <v>16</v>
       </c>
@@ -43804,14 +43804,14 @@
         <v>18</v>
       </c>
       <c r="O8" s="264"/>
-      <c r="P8" s="261" t="s">
+      <c r="P8" s="263" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="261" t="s">
+      <c r="Q8" s="263"/>
+      <c r="R8" s="263" t="s">
         <v>119</v>
       </c>
-      <c r="S8" s="261"/>
+      <c r="S8" s="263"/>
     </row>
     <row r="9" spans="1:23" ht="69.75" customHeight="1">
       <c r="D9" s="260" t="s">
@@ -43832,7 +43832,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="260"/>
-      <c r="P9" s="262">
+      <c r="P9" s="261">
         <v>43185</v>
       </c>
       <c r="Q9" s="260"/>
@@ -43858,7 +43858,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="260"/>
-      <c r="P10" s="262">
+      <c r="P10" s="261">
         <v>43185</v>
       </c>
       <c r="Q10" s="260"/>
@@ -43884,7 +43884,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="260"/>
-      <c r="P11" s="262">
+      <c r="P11" s="261">
         <v>43185</v>
       </c>
       <c r="Q11" s="260"/>
@@ -43915,18 +43915,6 @@
     <row r="33" ht="69.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="P8:Q8"/>
@@ -43940,6 +43928,18 @@
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="930" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="11955" tabRatio="930" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="7" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet name="Edit Page" sheetId="5" r:id="rId6"/>
     <sheet name="Notification" sheetId="15" r:id="rId7"/>
     <sheet name="Contact Us" sheetId="20" r:id="rId8"/>
-    <sheet name="Seller signup" sheetId="13" r:id="rId9"/>
-    <sheet name="Add Product" sheetId="6" r:id="rId10"/>
-    <sheet name="Admin Page" sheetId="9" r:id="rId11"/>
+    <sheet name="Add Product" sheetId="6" r:id="rId9"/>
+    <sheet name="Admin Page" sheetId="9" r:id="rId10"/>
+    <sheet name="Seller signup" sheetId="13" r:id="rId11"/>
     <sheet name="Process" sheetId="2" r:id="rId12"/>
     <sheet name="Process1" sheetId="1" r:id="rId13"/>
     <sheet name="process2" sheetId="10" r:id="rId14"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="193">
   <si>
     <t>Full Name</t>
   </si>
@@ -739,6 +739,111 @@
   <si>
     <t>Upcoming Subscription</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create New Listing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A7A"/>
+        <rFont val="BlinkMacSystemFont"/>
+      </rPr>
+      <t>All fields are mandatory and must be fully completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>For Amazon Product Only</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Characters Limit: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="BlinkMacSystemFont"/>
+      </rPr>
+      <t xml:space="preserve">200 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Product Description </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A7A"/>
+        <rFont val="BlinkMacSystemFont"/>
+      </rPr>
+      <t>All fields are mandatory and must be fully completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Seller Information </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A7A"/>
+        <rFont val="BlinkMacSystemFont"/>
+      </rPr>
+      <t>All fields are mandatory and must be fully completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shipping Information </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A7A"/>
+        <rFont val="BlinkMacSystemFont"/>
+      </rPr>
+      <t>All fields are mandatory and must be fully completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -748,7 +853,7 @@
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="83">
+  <fonts count="88">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,6 +1477,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF363636"/>
+      <name val="BlinkMacSystemFont"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7A7A7A"/>
+      <name val="BlinkMacSystemFont"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="BlinkMacSystemFont"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="BlinkMacSystemFont"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2023,7 +2157,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2652,51 +2786,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2709,20 +2798,65 @@
     <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="17" fontId="73" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="73" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2732,6 +2866,39 @@
     </xf>
     <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2784,39 +2951,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2856,6 +2990,11 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2866,10 +3005,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF33CC33"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFF3300"/>
       <color rgb="FF00C4A7"/>
       <color rgb="FFCCFF66"/>
     </mruColors>
@@ -3025,7 +3164,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -3034,7 +3173,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3291,7 +3430,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3762,7 +3901,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3806,7 +3945,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -3815,7 +3954,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13152,7 +13291,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14928,7 +15067,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -14937,7 +15076,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15194,7 +15333,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15665,7 +15804,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15709,7 +15848,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -15718,7 +15857,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15855,7 +15994,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -15864,7 +16003,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15978,7 +16117,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16023,7 +16162,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18638,7 +18777,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -18647,7 +18786,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18692,7 +18831,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19565,7 +19704,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -19574,7 +19713,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19619,7 +19758,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21203,7 +21342,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -21212,7 +21351,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21469,7 +21608,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21940,7 +22079,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21984,7 +22123,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -21993,7 +22132,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22127,6 +22266,3459 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>105002</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582401" y="219075"/>
+          <a:ext cx="1324201" cy="150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>562125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="828675"/>
+          <a:ext cx="4676775" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search Deal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>259425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="847725"/>
+          <a:ext cx="259425" cy="2250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>148800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>571650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11382375" y="838200"/>
+          <a:ext cx="1568025" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Join as Seller</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>562125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="828675"/>
+          <a:ext cx="1475850" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="464B51"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>552599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248024" y="819149"/>
+          <a:ext cx="1533526" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="464B51"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Categories  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428629</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>252000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:lum bright="-30000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428629" y="838200"/>
+          <a:ext cx="2683198" cy="4350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4333874" y="838199"/>
+          <a:ext cx="342901" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>547274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638174" y="295274"/>
+          <a:ext cx="1533526" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Choose Platform</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1828799" y="285749"/>
+          <a:ext cx="295276" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>547274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457449" y="295274"/>
+          <a:ext cx="1533526" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Brand Deal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>276224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3581399" y="276224"/>
+          <a:ext cx="238126" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>537749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201149" y="285749"/>
+          <a:ext cx="1962151" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="464B51"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Download App</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6673</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>528225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:lum bright="-30000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="866775"/>
+          <a:ext cx="2921323" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>364200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>554700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="857250"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="2705100"/>
+          <a:ext cx="7096125" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Enter Your Product URL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="2705100"/>
+          <a:ext cx="2819400" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF3300"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1"/>
+            <a:t>Extract Product Contents</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1552575" y="4286250"/>
+          <a:ext cx="8877300" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733551" y="6838950"/>
+          <a:ext cx="8439150" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Enter or Update Your Product Title here</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924426" y="4591050"/>
+          <a:ext cx="2190750" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Number of Coupon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1600200" y="5886450"/>
+          <a:ext cx="8582025" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1819275" y="8077200"/>
+          <a:ext cx="8696325" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="12106275"/>
+          <a:ext cx="4124325" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Unit/Variation        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Box of 6 in Blue </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="12706350"/>
+          <a:ext cx="8667750" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Warranty/Instruction                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Additional 12 months warranty</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="13363574"/>
+          <a:ext cx="8667750" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Full Description </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="15163800"/>
+          <a:ext cx="4124325" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Brand or Seller</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="15859125"/>
+          <a:ext cx="4124325" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Contact or Email</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="16497300"/>
+          <a:ext cx="4124325" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Other Information</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="17697450"/>
+          <a:ext cx="4124325" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Shipping Charges</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="18221325"/>
+          <a:ext cx="4124325" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Shipping Time </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="18792825"/>
+          <a:ext cx="4124325" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Return and Refunds</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="857250" y="19488150"/>
+          <a:ext cx="11896725" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>105002</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15211426" y="2409825"/>
+          <a:ext cx="1629001" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>562125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="3019425"/>
+          <a:ext cx="5429250" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search Deal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>259425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12906375" y="3038475"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>148800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>571650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15001875" y="3028950"/>
+          <a:ext cx="1882350" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Join as Seller</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>562125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13649325" y="3019425"/>
+          <a:ext cx="1199625" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="464B51"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>552599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991224" y="3009899"/>
+          <a:ext cx="1743076" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="464B51"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Categories  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428629</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>252000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:lum bright="-30000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933704" y="3028950"/>
+          <a:ext cx="2921323" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7286624" y="3028949"/>
+          <a:ext cx="342901" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>547274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962274" y="2486024"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Choose Platform</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4314824" y="2476499"/>
+          <a:ext cx="342901" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>547274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095874" y="2486024"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Brand Deal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>276224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6324599" y="2466974"/>
+          <a:ext cx="342901" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings 3"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>537749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12992099" y="2476499"/>
+          <a:ext cx="1790701" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="464B51"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Download App</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>566324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258049" y="2505074"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deal Of The Day</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>585374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963024" y="2524124"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flash</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Deal</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>575849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934699" y="2514599"/>
+          <a:ext cx="1743076" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deal Ending Soon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6673</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>528225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:lum bright="-30000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="866775"/>
+          <a:ext cx="2921323" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>364200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>554700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="857250"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="342900" y="1752600"/>
+          <a:ext cx="12049125" cy="6096000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361953</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -22150,7 +25742,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24139,2393 +27731,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>105002</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11582401" y="219075"/>
-          <a:ext cx="1324201" cy="150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="828675"/>
-          <a:ext cx="4676775" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Search Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>259425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144000" y="847725"/>
-          <a:ext cx="259425" cy="2250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>148800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>571650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11382375" y="838200"/>
-          <a:ext cx="1568025" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF6600"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Join as Seller</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>256650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9753600" y="828675"/>
-          <a:ext cx="1475850" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Login</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>552599</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3248024" y="819149"/>
-          <a:ext cx="1533526" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Categories  </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>428629</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63827</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>252000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:lum bright="-30000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428629" y="838200"/>
-          <a:ext cx="2683198" cy="4350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4333874" y="838199"/>
-          <a:ext cx="342901" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638174" y="295274"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Choose Platform</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1828799" y="285749"/>
-          <a:ext cx="295276" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2457449" y="295274"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Brand Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>276224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3581399" y="276224"/>
-          <a:ext cx="238126" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>537749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9201149" y="285749"/>
-          <a:ext cx="1962151" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="464B51"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Download App</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>566324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305299" y="314324"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Of The Day</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>585374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800724" y="333374"/>
-          <a:ext cx="1514476" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Deal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>323849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>575849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458074" y="323849"/>
-          <a:ext cx="1533526" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Ending Soon</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6673</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>528225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:lum bright="-30000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="866775"/>
-          <a:ext cx="2921323" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>364200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>554700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9220200" y="857250"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>105002</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15211426" y="2409825"/>
-          <a:ext cx="1629001" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7915275" y="3019425"/>
-          <a:ext cx="5429250" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Search Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>259425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12906375" y="3038475"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>148800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>571650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15001875" y="3028950"/>
-          <a:ext cx="1882350" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF6600"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Join as Seller</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>256650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>562125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13649325" y="3019425"/>
-          <a:ext cx="1199625" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Login</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>552599</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5991224" y="3009899"/>
-          <a:ext cx="1743076" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="464B51"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Categories  </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>428629</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63827</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>252000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:lum bright="-30000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2933704" y="3028950"/>
-          <a:ext cx="2921323" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7286624" y="3028949"/>
-          <a:ext cx="342901" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2962274" y="2486024"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Choose Platform</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4314824" y="2476499"/>
-          <a:ext cx="342901" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>547274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095874" y="2486024"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Brand Deal</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>276224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6324599" y="2466974"/>
-          <a:ext cx="342901" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-              <a:sym typeface="Wingdings 3"/>
-            </a:rPr>
-            <a:t></a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>537749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12992099" y="2476499"/>
-          <a:ext cx="1790701" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="464B51"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Download App</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>566324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7258049" y="2505074"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Of The Day</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>585374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8963024" y="2524124"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Deal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF6600"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>323849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>575849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10934699" y="2514599"/>
-          <a:ext cx="1743076" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Deal Ending Soon</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6673</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>528225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:lum bright="-30000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="866775"/>
-          <a:ext cx="2921323" cy="252000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>364200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>554700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000" contrast="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9220200" y="857250"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="342900" y="1752600"/>
-          <a:ext cx="12049125" cy="6096000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -26921,16 +28126,18 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="23" max="23" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="27" customFormat="1">
+    <row r="1" spans="1:22" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="135" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="46.5" customHeight="1">
@@ -27020,101 +28227,526 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A2:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="23" max="23" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.140625" style="235"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="27" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="135" t="s">
-        <v>94</v>
+    <row r="2" spans="1:19" ht="54" customHeight="1">
+      <c r="A2" s="232"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+    </row>
+    <row r="3" spans="1:19" ht="70.5" customHeight="1">
+      <c r="A3" s="265" t="s">
+        <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="46.5" customHeight="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-    </row>
-    <row r="3" spans="1:22" ht="60" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="133"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="131"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="134"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
+      <c r="N3" s="265"/>
+      <c r="O3" s="265"/>
+      <c r="P3" s="265"/>
+      <c r="Q3" s="265"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="265"/>
+    </row>
+    <row r="4" spans="1:19" ht="33.75" customHeight="1">
+      <c r="A4" s="231"/>
+      <c r="E4" s="236"/>
+    </row>
+    <row r="5" spans="1:19" ht="26.25" customHeight="1">
+      <c r="A5" s="234"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="230"/>
+      <c r="Q5" s="230"/>
+      <c r="R5" s="230"/>
+      <c r="S5" s="230"/>
+    </row>
+    <row r="6" spans="1:19" ht="162" customHeight="1">
+      <c r="A6" s="234"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="230"/>
+      <c r="L6" s="230"/>
+      <c r="M6" s="230"/>
+      <c r="N6" s="230"/>
+      <c r="O6" s="230"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+    </row>
+    <row r="7" spans="1:19" ht="156.75" customHeight="1">
+      <c r="A7" s="233"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
+    </row>
+    <row r="10" spans="1:19" ht="43.5" customHeight="1">
+      <c r="A10" s="266"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="237"/>
+      <c r="N10" s="237"/>
+      <c r="O10" s="237"/>
+      <c r="P10" s="237"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="237"/>
+      <c r="S10" s="237"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="232"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="237"/>
+      <c r="S11" s="237"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="232"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="237"/>
+      <c r="P12" s="237"/>
+      <c r="Q12" s="237"/>
+      <c r="R12" s="237"/>
+      <c r="S12" s="237"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="232"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="237"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="237"/>
+      <c r="S13" s="237"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="232"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="237"/>
+      <c r="N14" s="237"/>
+      <c r="O14" s="237"/>
+      <c r="P14" s="237"/>
+      <c r="Q14" s="237"/>
+      <c r="R14" s="237"/>
+      <c r="S14" s="237"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="232"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="237"/>
+      <c r="N15" s="237"/>
+      <c r="O15" s="237"/>
+      <c r="P15" s="237"/>
+      <c r="Q15" s="237"/>
+      <c r="R15" s="237"/>
+      <c r="S15" s="237"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="232"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="237"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="237"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="237"/>
+      <c r="S16" s="237"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="232"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="237"/>
+      <c r="N17" s="237"/>
+      <c r="O17" s="237"/>
+      <c r="P17" s="237"/>
+      <c r="Q17" s="237"/>
+      <c r="R17" s="237"/>
+      <c r="S17" s="237"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="232"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="237"/>
+      <c r="L18" s="237"/>
+      <c r="M18" s="237"/>
+      <c r="N18" s="237"/>
+      <c r="O18" s="237"/>
+      <c r="P18" s="237"/>
+      <c r="Q18" s="237"/>
+      <c r="R18" s="237"/>
+      <c r="S18" s="237"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="232"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="237"/>
+      <c r="N19" s="237"/>
+      <c r="O19" s="237"/>
+      <c r="P19" s="237"/>
+      <c r="Q19" s="237"/>
+      <c r="R19" s="237"/>
+      <c r="S19" s="237"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="232"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="237"/>
+      <c r="M20" s="237"/>
+      <c r="N20" s="237"/>
+      <c r="O20" s="237"/>
+      <c r="P20" s="237"/>
+      <c r="Q20" s="237"/>
+      <c r="R20" s="237"/>
+      <c r="S20" s="237"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="232"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="237"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="237"/>
+      <c r="O21" s="237"/>
+      <c r="P21" s="237"/>
+      <c r="Q21" s="237"/>
+      <c r="R21" s="237"/>
+      <c r="S21" s="237"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="232"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="237"/>
+      <c r="M22" s="237"/>
+      <c r="N22" s="237"/>
+      <c r="O22" s="237"/>
+      <c r="P22" s="237"/>
+      <c r="Q22" s="237"/>
+      <c r="R22" s="237"/>
+      <c r="S22" s="237"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="232"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="237"/>
+      <c r="N23" s="237"/>
+      <c r="O23" s="237"/>
+      <c r="P23" s="237"/>
+      <c r="Q23" s="237"/>
+      <c r="R23" s="237"/>
+      <c r="S23" s="237"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="232"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="237"/>
+      <c r="L24" s="237"/>
+      <c r="M24" s="237"/>
+      <c r="N24" s="237"/>
+      <c r="O24" s="237"/>
+      <c r="P24" s="237"/>
+      <c r="Q24" s="237"/>
+      <c r="R24" s="237"/>
+      <c r="S24" s="237"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="232"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="237"/>
+      <c r="N25" s="237"/>
+      <c r="O25" s="237"/>
+      <c r="P25" s="237"/>
+      <c r="Q25" s="237"/>
+      <c r="R25" s="237"/>
+      <c r="S25" s="237"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="232"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="237"/>
+      <c r="M26" s="237"/>
+      <c r="N26" s="237"/>
+      <c r="O26" s="237"/>
+      <c r="P26" s="237"/>
+      <c r="Q26" s="237"/>
+      <c r="R26" s="237"/>
+      <c r="S26" s="237"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="232"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="232"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="232"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="232"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="232"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
+  <mergeCells count="2">
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A10:H10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27442,7 +29074,7 @@
       <c r="O8" s="57"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="290" t="s">
+      <c r="R8" s="268" t="s">
         <v>43</v>
       </c>
       <c r="W8" s="33" t="s">
@@ -27482,7 +29114,7 @@
       <c r="O9" s="57"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="290"/>
+      <c r="R9" s="268"/>
       <c r="W9" s="31"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="3"/>
@@ -27578,10 +29210,10 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="20"/>
       <c r="X12" s="2"/>
-      <c r="AL12" s="267" t="s">
+      <c r="AL12" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="AM12" s="267"/>
+      <c r="AM12" s="278"/>
     </row>
     <row r="13" spans="1:41" ht="31.5" customHeight="1">
       <c r="B13" s="55"/>
@@ -27631,10 +29263,10 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="8"/>
-      <c r="AH14" s="268" t="s">
+      <c r="AH14" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" s="269"/>
+      <c r="AI14" s="280"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
@@ -27659,8 +29291,8 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="20"/>
       <c r="X15" s="9"/>
-      <c r="AH15" s="268"/>
-      <c r="AI15" s="269"/>
+      <c r="AH15" s="279"/>
+      <c r="AI15" s="280"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
@@ -27722,16 +29354,16 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="20"/>
       <c r="X17" s="9"/>
-      <c r="AH17" s="268" t="s">
+      <c r="AH17" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="AI17" s="269"/>
-      <c r="AJ17" s="270" t="s">
+      <c r="AI17" s="280"/>
+      <c r="AJ17" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="AK17" s="271"/>
-      <c r="AL17" s="271"/>
-      <c r="AM17" s="272"/>
+      <c r="AK17" s="282"/>
+      <c r="AL17" s="282"/>
+      <c r="AM17" s="283"/>
     </row>
     <row r="18" spans="2:41" ht="31.5" customHeight="1">
       <c r="B18" s="55"/>
@@ -27761,12 +29393,12 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="12"/>
-      <c r="AH18" s="268"/>
-      <c r="AI18" s="269"/>
-      <c r="AJ18" s="273"/>
-      <c r="AK18" s="274"/>
-      <c r="AL18" s="274"/>
-      <c r="AM18" s="275"/>
+      <c r="AH18" s="279"/>
+      <c r="AI18" s="280"/>
+      <c r="AJ18" s="284"/>
+      <c r="AK18" s="285"/>
+      <c r="AL18" s="285"/>
+      <c r="AM18" s="286"/>
     </row>
     <row r="19" spans="2:41" ht="31.5" customHeight="1">
       <c r="B19" s="55"/>
@@ -27827,17 +29459,17 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="14"/>
-      <c r="AG20" s="276" t="s">
+      <c r="AG20" s="287" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="276"/>
-      <c r="AI20" s="277"/>
-      <c r="AJ20" s="278" t="s">
+      <c r="AH20" s="287"/>
+      <c r="AI20" s="288"/>
+      <c r="AJ20" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AK20" s="279"/>
-      <c r="AL20" s="279"/>
-      <c r="AM20" s="280"/>
+      <c r="AK20" s="290"/>
+      <c r="AL20" s="290"/>
+      <c r="AM20" s="291"/>
     </row>
     <row r="21" spans="2:41" ht="31.5" customHeight="1">
       <c r="B21" s="55"/>
@@ -27865,13 +29497,13 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="17"/>
-      <c r="AG21" s="276"/>
-      <c r="AH21" s="276"/>
-      <c r="AI21" s="277"/>
-      <c r="AJ21" s="281"/>
-      <c r="AK21" s="282"/>
-      <c r="AL21" s="282"/>
-      <c r="AM21" s="283"/>
+      <c r="AG21" s="287"/>
+      <c r="AH21" s="287"/>
+      <c r="AI21" s="288"/>
+      <c r="AJ21" s="292"/>
+      <c r="AK21" s="293"/>
+      <c r="AL21" s="293"/>
+      <c r="AM21" s="294"/>
     </row>
     <row r="22" spans="2:41" ht="31.5" customHeight="1">
       <c r="B22" s="55"/>
@@ -27949,12 +29581,12 @@
       <c r="AI24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AJ24" s="284">
+      <c r="AJ24" s="274">
         <v>43202</v>
       </c>
-      <c r="AK24" s="285"/>
-      <c r="AL24" s="285"/>
-      <c r="AM24" s="286"/>
+      <c r="AK24" s="275"/>
+      <c r="AL24" s="275"/>
+      <c r="AM24" s="276"/>
     </row>
     <row r="25" spans="2:41" ht="31.5" customHeight="1">
       <c r="B25" s="55"/>
@@ -28023,11 +29655,11 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="24"/>
-      <c r="AK26" s="287" t="s">
+      <c r="AK26" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="AL26" s="287"/>
-      <c r="AM26" s="287"/>
+      <c r="AL26" s="277"/>
+      <c r="AM26" s="277"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
@@ -28452,10 +30084,10 @@
       <c r="J38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="291" t="s">
+      <c r="K38" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="L38" s="292"/>
+      <c r="L38" s="270"/>
       <c r="M38" s="103" t="s">
         <v>67</v>
       </c>
@@ -29219,35 +30851,35 @@
       <c r="B57" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="293" t="s">
+      <c r="I57" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="J57" s="293"/>
-      <c r="K57" s="293"/>
-      <c r="L57" s="293"/>
-      <c r="M57" s="293"/>
-      <c r="N57" s="293"/>
-      <c r="O57" s="293"/>
+      <c r="J57" s="272"/>
+      <c r="K57" s="272"/>
+      <c r="L57" s="272"/>
+      <c r="M57" s="272"/>
+      <c r="N57" s="272"/>
+      <c r="O57" s="272"/>
     </row>
     <row r="58" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1"/>
     <row r="59" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B59" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="288" t="s">
+      <c r="E59" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="288"/>
+      <c r="F59" s="271"/>
       <c r="G59" s="61"/>
       <c r="H59" s="61" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="61"/>
-      <c r="J59" s="288" t="s">
+      <c r="J59" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="288"/>
-      <c r="L59" s="288"/>
+      <c r="K59" s="271"/>
+      <c r="L59" s="271"/>
       <c r="M59" s="62" t="s">
         <v>18</v>
       </c>
@@ -29256,10 +30888,10 @@
         <v>20</v>
       </c>
       <c r="P59" s="62"/>
-      <c r="Q59" s="294" t="s">
+      <c r="Q59" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="R59" s="294"/>
+      <c r="R59" s="273"/>
       <c r="S59" s="110" t="s">
         <v>25</v>
       </c>
@@ -29270,18 +30902,18 @@
         <v>19</v>
       </c>
       <c r="D60" s="111"/>
-      <c r="E60" s="289" t="s">
+      <c r="E60" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="289"/>
+      <c r="F60" s="267"/>
       <c r="G60" s="111"/>
       <c r="H60" s="111"/>
       <c r="I60" s="111"/>
-      <c r="J60" s="289" t="s">
+      <c r="J60" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="289"/>
-      <c r="L60" s="289"/>
+      <c r="K60" s="267"/>
+      <c r="L60" s="267"/>
       <c r="M60" s="63" t="s">
         <v>12</v>
       </c>
@@ -29290,10 +30922,10 @@
         <v>43185</v>
       </c>
       <c r="P60" s="63"/>
-      <c r="Q60" s="289"/>
-      <c r="R60" s="289"/>
-      <c r="S60" s="289"/>
-      <c r="T60" s="289"/>
+      <c r="Q60" s="267"/>
+      <c r="R60" s="267"/>
+      <c r="S60" s="267"/>
+      <c r="T60" s="267"/>
       <c r="AX60" s="20"/>
     </row>
     <row r="61" spans="1:50" s="3" customFormat="1" ht="54" customHeight="1">
@@ -29301,18 +30933,18 @@
         <v>19</v>
       </c>
       <c r="D61" s="111"/>
-      <c r="E61" s="289" t="s">
+      <c r="E61" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="289"/>
+      <c r="F61" s="267"/>
       <c r="G61" s="111"/>
       <c r="H61" s="111"/>
       <c r="I61" s="111"/>
-      <c r="J61" s="289" t="s">
+      <c r="J61" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="289"/>
-      <c r="L61" s="289"/>
+      <c r="K61" s="267"/>
+      <c r="L61" s="267"/>
       <c r="M61" s="63" t="s">
         <v>12</v>
       </c>
@@ -29321,10 +30953,10 @@
         <v>43185</v>
       </c>
       <c r="P61" s="63"/>
-      <c r="Q61" s="289"/>
-      <c r="R61" s="289"/>
-      <c r="S61" s="289"/>
-      <c r="T61" s="289"/>
+      <c r="Q61" s="267"/>
+      <c r="R61" s="267"/>
+      <c r="S61" s="267"/>
+      <c r="T61" s="267"/>
       <c r="AX61" s="20"/>
     </row>
     <row r="62" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
@@ -40282,19 +41914,19 @@
         <v>17</v>
       </c>
       <c r="X368" s="61"/>
-      <c r="Y368" s="288" t="s">
+      <c r="Y368" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="Z368" s="288"/>
-      <c r="AA368" s="288" t="s">
+      <c r="Z368" s="271"/>
+      <c r="AA368" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="AB368" s="288"/>
-      <c r="AC368" s="288" t="s">
+      <c r="AB368" s="271"/>
+      <c r="AC368" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="AD368" s="288"/>
-      <c r="AE368" s="288"/>
+      <c r="AD368" s="271"/>
+      <c r="AE368" s="271"/>
       <c r="AF368" s="62" t="s">
         <v>18</v>
       </c>
@@ -40303,14 +41935,14 @@
         <v>20</v>
       </c>
       <c r="AI368" s="62"/>
-      <c r="AJ368" s="288" t="s">
+      <c r="AJ368" s="271" t="s">
         <v>22</v>
       </c>
-      <c r="AK368" s="288"/>
-      <c r="AL368" s="288" t="s">
+      <c r="AK368" s="271"/>
+      <c r="AL368" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="AM368" s="288"/>
+      <c r="AM368" s="271"/>
     </row>
     <row r="369" spans="2:50" s="3" customFormat="1" ht="61.5" customHeight="1">
       <c r="B369" s="55"/>
@@ -40331,17 +41963,17 @@
       <c r="W369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y369" s="289" t="s">
+      <c r="Y369" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="Z369" s="289"/>
-      <c r="AA369" s="289"/>
-      <c r="AB369" s="289"/>
-      <c r="AC369" s="289" t="s">
+      <c r="Z369" s="267"/>
+      <c r="AA369" s="267"/>
+      <c r="AB369" s="267"/>
+      <c r="AC369" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="AD369" s="289"/>
-      <c r="AE369" s="289"/>
+      <c r="AD369" s="267"/>
+      <c r="AE369" s="267"/>
       <c r="AF369" s="63" t="s">
         <v>12</v>
       </c>
@@ -40350,10 +41982,10 @@
         <v>43185</v>
       </c>
       <c r="AI369" s="63"/>
-      <c r="AJ369" s="289"/>
-      <c r="AK369" s="289"/>
-      <c r="AL369" s="289"/>
-      <c r="AM369" s="289"/>
+      <c r="AJ369" s="267"/>
+      <c r="AK369" s="267"/>
+      <c r="AL369" s="267"/>
+      <c r="AM369" s="267"/>
     </row>
     <row r="370" spans="2:50" s="3" customFormat="1" ht="54" customHeight="1">
       <c r="B370" s="55"/>
@@ -40374,17 +42006,17 @@
       <c r="W370" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y370" s="289" t="s">
+      <c r="Y370" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="Z370" s="289"/>
-      <c r="AA370" s="289"/>
-      <c r="AB370" s="289"/>
-      <c r="AC370" s="289" t="s">
+      <c r="Z370" s="267"/>
+      <c r="AA370" s="267"/>
+      <c r="AB370" s="267"/>
+      <c r="AC370" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="AD370" s="289"/>
-      <c r="AE370" s="289"/>
+      <c r="AD370" s="267"/>
+      <c r="AE370" s="267"/>
       <c r="AF370" s="63" t="s">
         <v>12</v>
       </c>
@@ -40393,10 +42025,10 @@
         <v>43185</v>
       </c>
       <c r="AI370" s="63"/>
-      <c r="AJ370" s="289"/>
-      <c r="AK370" s="289"/>
-      <c r="AL370" s="289"/>
-      <c r="AM370" s="289"/>
+      <c r="AJ370" s="267"/>
+      <c r="AK370" s="267"/>
+      <c r="AL370" s="267"/>
+      <c r="AM370" s="267"/>
     </row>
     <row r="371" spans="2:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B371" s="55"/>
@@ -40558,6 +42190,29 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AH14:AI15"/>
+    <mergeCell ref="AH17:AI18"/>
+    <mergeCell ref="AJ17:AM18"/>
+    <mergeCell ref="AG20:AI21"/>
+    <mergeCell ref="AJ20:AM21"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="Y368:Z368"/>
+    <mergeCell ref="AA368:AB368"/>
+    <mergeCell ref="AC368:AE368"/>
+    <mergeCell ref="AJ368:AK368"/>
+    <mergeCell ref="AL368:AM368"/>
+    <mergeCell ref="Y369:Z369"/>
+    <mergeCell ref="AA369:AB369"/>
+    <mergeCell ref="AC369:AE369"/>
+    <mergeCell ref="AJ369:AK369"/>
+    <mergeCell ref="AL369:AM369"/>
+    <mergeCell ref="Y370:Z370"/>
+    <mergeCell ref="AA370:AB370"/>
+    <mergeCell ref="AC370:AE370"/>
+    <mergeCell ref="AJ370:AK370"/>
+    <mergeCell ref="AL370:AM370"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="J61:L61"/>
     <mergeCell ref="Q61:R61"/>
@@ -40572,29 +42227,6 @@
     <mergeCell ref="J60:L60"/>
     <mergeCell ref="Q60:R60"/>
     <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Y370:Z370"/>
-    <mergeCell ref="AA370:AB370"/>
-    <mergeCell ref="AC370:AE370"/>
-    <mergeCell ref="AJ370:AK370"/>
-    <mergeCell ref="AL370:AM370"/>
-    <mergeCell ref="Y369:Z369"/>
-    <mergeCell ref="AA369:AB369"/>
-    <mergeCell ref="AC369:AE369"/>
-    <mergeCell ref="AJ369:AK369"/>
-    <mergeCell ref="AL369:AM369"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="Y368:Z368"/>
-    <mergeCell ref="AA368:AB368"/>
-    <mergeCell ref="AC368:AE368"/>
-    <mergeCell ref="AJ368:AK368"/>
-    <mergeCell ref="AL368:AM368"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AH14:AI15"/>
-    <mergeCell ref="AH17:AI18"/>
-    <mergeCell ref="AJ17:AM18"/>
-    <mergeCell ref="AG20:AI21"/>
-    <mergeCell ref="AJ20:AM21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42988,26 +44620,26 @@
       <c r="C8" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="249" t="s">
+      <c r="D8" s="254" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="249"/>
+      <c r="E8" s="254"/>
       <c r="K8" s="165" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="254">
+      <c r="L8" s="250">
         <v>43191</v>
       </c>
-      <c r="M8" s="254"/>
+      <c r="M8" s="250"/>
       <c r="N8" s="239"/>
       <c r="R8" s="239"/>
       <c r="S8" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="T8" s="253" t="s">
+      <c r="T8" s="249" t="s">
         <v>111</v>
       </c>
-      <c r="U8" s="253"/>
+      <c r="U8" s="249"/>
     </row>
     <row r="9" spans="1:23">
       <c r="B9" s="3"/>
@@ -43033,24 +44665,24 @@
       <c r="C10" s="165" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="250" t="s">
+      <c r="D10" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="250"/>
+      <c r="E10" s="255"/>
       <c r="K10" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="256">
+      <c r="L10" s="241">
         <v>10</v>
       </c>
-      <c r="M10" s="256"/>
+      <c r="M10" s="241"/>
       <c r="S10" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="T10" s="257">
+      <c r="T10" s="242">
         <v>3</v>
       </c>
-      <c r="U10" s="257"/>
+      <c r="U10" s="242"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="C11" s="215"/>
@@ -43086,34 +44718,34 @@
       <c r="D13" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="258" t="s">
+      <c r="E13" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="258"/>
-      <c r="G13" s="258"/>
-      <c r="H13" s="258"/>
-      <c r="I13" s="252" t="s">
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="256" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="252"/>
-      <c r="K13" s="252" t="s">
+      <c r="J13" s="256"/>
+      <c r="K13" s="256" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="252"/>
-      <c r="M13" s="251" t="s">
+      <c r="L13" s="256"/>
+      <c r="M13" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="N13" s="251"/>
-      <c r="O13" s="251" t="s">
+      <c r="N13" s="245"/>
+      <c r="O13" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="P13" s="251"/>
-      <c r="Q13" s="251" t="s">
+      <c r="P13" s="245"/>
+      <c r="Q13" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="R13" s="251"/>
-      <c r="T13" s="255"/>
-      <c r="U13" s="255"/>
+      <c r="R13" s="245"/>
+      <c r="T13" s="240"/>
+      <c r="U13" s="240"/>
       <c r="W13" s="164"/>
     </row>
     <row r="14" spans="1:23" s="168" customFormat="1" ht="15.75" customHeight="1">
@@ -43122,28 +44754,28 @@
       <c r="F14" s="201"/>
       <c r="G14" s="201"/>
       <c r="H14" s="201"/>
-      <c r="I14" s="247" t="s">
+      <c r="I14" s="246" t="s">
         <v>165</v>
       </c>
-      <c r="J14" s="247"/>
-      <c r="K14" s="247" t="s">
+      <c r="J14" s="246"/>
+      <c r="K14" s="246" t="s">
         <v>118</v>
       </c>
-      <c r="L14" s="247"/>
-      <c r="M14" s="247" t="s">
+      <c r="L14" s="246"/>
+      <c r="M14" s="246" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="247"/>
-      <c r="O14" s="247" t="s">
+      <c r="N14" s="246"/>
+      <c r="O14" s="246" t="s">
         <v>166</v>
       </c>
-      <c r="P14" s="247"/>
-      <c r="Q14" s="247" t="s">
+      <c r="P14" s="246"/>
+      <c r="Q14" s="246" t="s">
         <v>170</v>
       </c>
-      <c r="R14" s="247"/>
-      <c r="T14" s="255"/>
-      <c r="U14" s="255"/>
+      <c r="R14" s="246"/>
+      <c r="T14" s="240"/>
+      <c r="U14" s="240"/>
       <c r="W14" s="169"/>
     </row>
     <row r="15" spans="1:23" s="210" customFormat="1" ht="15.75" customHeight="1">
@@ -43152,26 +44784,26 @@
       <c r="F15" s="211"/>
       <c r="G15" s="211"/>
       <c r="H15" s="211"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="244"/>
-      <c r="K15" s="244" t="s">
+      <c r="I15" s="248"/>
+      <c r="J15" s="248"/>
+      <c r="K15" s="248" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="244"/>
-      <c r="M15" s="244" t="s">
+      <c r="L15" s="248"/>
+      <c r="M15" s="248" t="s">
         <v>171</v>
       </c>
-      <c r="N15" s="244"/>
-      <c r="O15" s="244" t="s">
+      <c r="N15" s="248"/>
+      <c r="O15" s="248" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="244"/>
-      <c r="Q15" s="259">
+      <c r="P15" s="248"/>
+      <c r="Q15" s="247">
         <v>44105</v>
       </c>
-      <c r="R15" s="244"/>
-      <c r="T15" s="255"/>
-      <c r="U15" s="255"/>
+      <c r="R15" s="248"/>
+      <c r="T15" s="240"/>
+      <c r="U15" s="240"/>
       <c r="W15" s="212"/>
     </row>
     <row r="16" spans="1:23" ht="21.75" customHeight="1">
@@ -43184,28 +44816,28 @@
       <c r="F16" s="200"/>
       <c r="G16" s="200"/>
       <c r="H16" s="200"/>
-      <c r="I16" s="241" t="s">
+      <c r="I16" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="242"/>
-      <c r="K16" s="243" t="s">
+      <c r="J16" s="252"/>
+      <c r="K16" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="243"/>
-      <c r="M16" s="243" t="s">
+      <c r="L16" s="244"/>
+      <c r="M16" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="243"/>
-      <c r="O16" s="243" t="s">
+      <c r="N16" s="244"/>
+      <c r="O16" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="243"/>
-      <c r="Q16" s="243" t="s">
+      <c r="P16" s="244"/>
+      <c r="Q16" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R16" s="243"/>
-      <c r="T16" s="255"/>
-      <c r="U16" s="255"/>
+      <c r="R16" s="244"/>
+      <c r="T16" s="240"/>
+      <c r="U16" s="240"/>
     </row>
     <row r="17" spans="2:21" ht="21.75" customHeight="1">
       <c r="D17" s="208">
@@ -43217,28 +44849,28 @@
       <c r="F17" s="200"/>
       <c r="G17" s="200"/>
       <c r="H17" s="200"/>
-      <c r="I17" s="241" t="s">
+      <c r="I17" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="242"/>
-      <c r="K17" s="243" t="s">
+      <c r="J17" s="252"/>
+      <c r="K17" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="243"/>
-      <c r="M17" s="243" t="s">
+      <c r="L17" s="244"/>
+      <c r="M17" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N17" s="243"/>
-      <c r="O17" s="243" t="s">
+      <c r="N17" s="244"/>
+      <c r="O17" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="243"/>
-      <c r="Q17" s="243" t="s">
+      <c r="P17" s="244"/>
+      <c r="Q17" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R17" s="243"/>
-      <c r="T17" s="255"/>
-      <c r="U17" s="255"/>
+      <c r="R17" s="244"/>
+      <c r="T17" s="240"/>
+      <c r="U17" s="240"/>
     </row>
     <row r="18" spans="2:21" ht="21.75" customHeight="1">
       <c r="D18" s="208">
@@ -43250,28 +44882,28 @@
       <c r="F18" s="200"/>
       <c r="G18" s="200"/>
       <c r="H18" s="200"/>
-      <c r="I18" s="241" t="s">
+      <c r="I18" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="242"/>
-      <c r="K18" s="243" t="s">
+      <c r="J18" s="252"/>
+      <c r="K18" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L18" s="243"/>
-      <c r="M18" s="243" t="s">
+      <c r="L18" s="244"/>
+      <c r="M18" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="243"/>
-      <c r="O18" s="243" t="s">
+      <c r="N18" s="244"/>
+      <c r="O18" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="243"/>
-      <c r="Q18" s="243" t="s">
+      <c r="P18" s="244"/>
+      <c r="Q18" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R18" s="243"/>
-      <c r="T18" s="255"/>
-      <c r="U18" s="255"/>
+      <c r="R18" s="244"/>
+      <c r="T18" s="240"/>
+      <c r="U18" s="240"/>
     </row>
     <row r="19" spans="2:21" ht="21.75" customHeight="1">
       <c r="D19" s="208">
@@ -43283,28 +44915,28 @@
       <c r="F19" s="200"/>
       <c r="G19" s="200"/>
       <c r="H19" s="200"/>
-      <c r="I19" s="241" t="s">
+      <c r="I19" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="242"/>
-      <c r="K19" s="243" t="s">
+      <c r="J19" s="252"/>
+      <c r="K19" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="243"/>
-      <c r="M19" s="245" t="s">
+      <c r="L19" s="244"/>
+      <c r="M19" s="253" t="s">
         <v>116</v>
       </c>
-      <c r="N19" s="245"/>
-      <c r="O19" s="243" t="s">
+      <c r="N19" s="253"/>
+      <c r="O19" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="243"/>
-      <c r="Q19" s="243" t="s">
+      <c r="P19" s="244"/>
+      <c r="Q19" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R19" s="243"/>
-      <c r="T19" s="255"/>
-      <c r="U19" s="255"/>
+      <c r="R19" s="244"/>
+      <c r="T19" s="240"/>
+      <c r="U19" s="240"/>
     </row>
     <row r="20" spans="2:21" ht="21.75" customHeight="1">
       <c r="D20" s="208">
@@ -43316,28 +44948,28 @@
       <c r="F20" s="200"/>
       <c r="G20" s="200"/>
       <c r="H20" s="200"/>
-      <c r="I20" s="241" t="s">
+      <c r="I20" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="242"/>
-      <c r="K20" s="243" t="s">
+      <c r="J20" s="252"/>
+      <c r="K20" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="243"/>
-      <c r="M20" s="243" t="s">
+      <c r="L20" s="244"/>
+      <c r="M20" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="243"/>
-      <c r="O20" s="243" t="s">
+      <c r="N20" s="244"/>
+      <c r="O20" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="243"/>
-      <c r="Q20" s="243" t="s">
+      <c r="P20" s="244"/>
+      <c r="Q20" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R20" s="243"/>
-      <c r="T20" s="255"/>
-      <c r="U20" s="255"/>
+      <c r="R20" s="244"/>
+      <c r="T20" s="240"/>
+      <c r="U20" s="240"/>
     </row>
     <row r="21" spans="2:21" ht="21.75" customHeight="1">
       <c r="D21" s="208">
@@ -43349,26 +44981,26 @@
       <c r="F21" s="200"/>
       <c r="G21" s="200"/>
       <c r="H21" s="200"/>
-      <c r="I21" s="241" t="s">
+      <c r="I21" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="242"/>
-      <c r="K21" s="243" t="s">
+      <c r="J21" s="252"/>
+      <c r="K21" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L21" s="243"/>
-      <c r="M21" s="245" t="s">
+      <c r="L21" s="244"/>
+      <c r="M21" s="253" t="s">
         <v>116</v>
       </c>
-      <c r="N21" s="246"/>
-      <c r="O21" s="243" t="s">
+      <c r="N21" s="259"/>
+      <c r="O21" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="243"/>
-      <c r="Q21" s="243" t="s">
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R21" s="243"/>
+      <c r="R21" s="244"/>
     </row>
     <row r="22" spans="2:21" ht="21.75" customHeight="1">
       <c r="D22" s="208">
@@ -43380,26 +45012,26 @@
       <c r="F22" s="200"/>
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
-      <c r="I22" s="241" t="s">
+      <c r="I22" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="242"/>
-      <c r="K22" s="243" t="s">
+      <c r="J22" s="252"/>
+      <c r="K22" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="243"/>
-      <c r="M22" s="245" t="s">
+      <c r="L22" s="244"/>
+      <c r="M22" s="253" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="245"/>
-      <c r="O22" s="243" t="s">
+      <c r="N22" s="253"/>
+      <c r="O22" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="243"/>
-      <c r="Q22" s="243" t="s">
+      <c r="P22" s="244"/>
+      <c r="Q22" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R22" s="243"/>
+      <c r="R22" s="244"/>
     </row>
     <row r="23" spans="2:21" ht="21.75" customHeight="1">
       <c r="D23" s="208">
@@ -43411,26 +45043,26 @@
       <c r="F23" s="200"/>
       <c r="G23" s="200"/>
       <c r="H23" s="200"/>
-      <c r="I23" s="241" t="s">
+      <c r="I23" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="242"/>
-      <c r="K23" s="243" t="s">
+      <c r="J23" s="252"/>
+      <c r="K23" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="243"/>
-      <c r="M23" s="243" t="s">
+      <c r="L23" s="244"/>
+      <c r="M23" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="243"/>
-      <c r="O23" s="243" t="s">
+      <c r="N23" s="244"/>
+      <c r="O23" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="243" t="s">
+      <c r="P23" s="244"/>
+      <c r="Q23" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="243"/>
+      <c r="R23" s="244"/>
     </row>
     <row r="24" spans="2:21" ht="21.75" customHeight="1">
       <c r="D24" s="208">
@@ -43442,26 +45074,26 @@
       <c r="F24" s="200"/>
       <c r="G24" s="200"/>
       <c r="H24" s="200"/>
-      <c r="I24" s="241" t="s">
+      <c r="I24" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="242"/>
-      <c r="K24" s="243" t="s">
+      <c r="J24" s="252"/>
+      <c r="K24" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="243"/>
-      <c r="M24" s="243" t="s">
+      <c r="L24" s="244"/>
+      <c r="M24" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="243"/>
-      <c r="O24" s="243" t="s">
+      <c r="N24" s="244"/>
+      <c r="O24" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="243"/>
-      <c r="Q24" s="243" t="s">
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R24" s="243"/>
+      <c r="R24" s="244"/>
     </row>
     <row r="25" spans="2:21" ht="21.75" customHeight="1">
       <c r="D25" s="208">
@@ -43473,34 +45105,34 @@
       <c r="F25" s="200"/>
       <c r="G25" s="200"/>
       <c r="H25" s="200"/>
-      <c r="I25" s="241" t="s">
+      <c r="I25" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="242"/>
-      <c r="K25" s="243" t="s">
+      <c r="J25" s="252"/>
+      <c r="K25" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="243"/>
-      <c r="M25" s="243" t="s">
+      <c r="L25" s="244"/>
+      <c r="M25" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="243"/>
-      <c r="O25" s="243" t="s">
+      <c r="N25" s="244"/>
+      <c r="O25" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="243"/>
-      <c r="Q25" s="243" t="s">
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="R25" s="243"/>
+      <c r="R25" s="244"/>
     </row>
     <row r="26" spans="2:21" ht="21.75" customHeight="1">
       <c r="F26" s="202"/>
       <c r="G26" s="202"/>
       <c r="H26" s="202"/>
       <c r="I26" s="202"/>
-      <c r="J26" s="248"/>
-      <c r="K26" s="248"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="257"/>
       <c r="L26" s="204"/>
       <c r="M26" s="203"/>
       <c r="N26" s="204"/>
@@ -43555,9 +45187,9 @@
       <c r="R29" s="20"/>
     </row>
     <row r="30" spans="2:21" ht="21.75" customHeight="1">
-      <c r="B30" s="240"/>
-      <c r="C30" s="240"/>
-      <c r="D30" s="240"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="258"/>
       <c r="E30" s="214"/>
     </row>
     <row r="31" spans="2:21" ht="21.75" customHeight="1">
@@ -43588,15 +45220,49 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="T13:U20"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="I20:J20"/>
@@ -43613,56 +45279,22 @@
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="T13:U20"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="M25:N25"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43677,7 +45309,7 @@
   </sheetPr>
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -43737,18 +45369,18 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="262"/>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="262"/>
-      <c r="H4" s="262"/>
-      <c r="I4" s="262"/>
-      <c r="J4" s="262"/>
-      <c r="K4" s="262"/>
-      <c r="L4" s="262"/>
+      <c r="A4" s="263"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -43784,14 +45416,14 @@
       <c r="S6" s="170"/>
     </row>
     <row r="8" spans="1:23" ht="43.5" customHeight="1">
-      <c r="D8" s="263" t="s">
+      <c r="D8" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263" t="s">
+      <c r="E8" s="261"/>
+      <c r="F8" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="263"/>
+      <c r="G8" s="261"/>
       <c r="H8" s="264" t="s">
         <v>16</v>
       </c>
@@ -43804,14 +45436,14 @@
         <v>18</v>
       </c>
       <c r="O8" s="264"/>
-      <c r="P8" s="263" t="s">
+      <c r="P8" s="261" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="263" t="s">
+      <c r="Q8" s="261"/>
+      <c r="R8" s="261" t="s">
         <v>119</v>
       </c>
-      <c r="S8" s="263"/>
+      <c r="S8" s="261"/>
     </row>
     <row r="9" spans="1:23" ht="69.75" customHeight="1">
       <c r="D9" s="260" t="s">
@@ -43832,7 +45464,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="260"/>
-      <c r="P9" s="261">
+      <c r="P9" s="262">
         <v>43185</v>
       </c>
       <c r="Q9" s="260"/>
@@ -43858,7 +45490,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="260"/>
-      <c r="P10" s="261">
+      <c r="P10" s="262">
         <v>43185</v>
       </c>
       <c r="Q10" s="260"/>
@@ -43884,7 +45516,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="260"/>
-      <c r="P11" s="261">
+      <c r="P11" s="262">
         <v>43185</v>
       </c>
       <c r="Q11" s="260"/>
@@ -43915,6 +45547,18 @@
     <row r="33" ht="69.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="P8:Q8"/>
@@ -43928,18 +45572,6 @@
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43949,7 +45581,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF6600"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -43966,12 +45598,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF6600"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43983,91 +45615,100 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF6600"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:S31"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="235"/>
+    <col min="23" max="23" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="54" customHeight="1">
-      <c r="A2" s="232"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-    </row>
-    <row r="3" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A3" s="265" t="s">
-        <v>180</v>
+    <row r="1" spans="1:22" s="27" customFormat="1">
+      <c r="A1" s="135" t="s">
+        <v>96</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="265"/>
-      <c r="M3" s="265"/>
-      <c r="N3" s="265"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="265"/>
-      <c r="R3" s="265"/>
-      <c r="S3" s="265"/>
-    </row>
-    <row r="4" spans="1:19" ht="33.75" customHeight="1">
-      <c r="A4" s="231"/>
-      <c r="E4" s="236"/>
-    </row>
-    <row r="5" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A5" s="234"/>
-      <c r="B5" s="230"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="230"/>
-      <c r="M5" s="230"/>
-      <c r="N5" s="230"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="230"/>
-      <c r="Q5" s="230"/>
-      <c r="R5" s="230"/>
-      <c r="S5" s="230"/>
-    </row>
-    <row r="6" spans="1:19" ht="162" customHeight="1">
-      <c r="A6" s="234"/>
-      <c r="B6" s="230"/>
+    </row>
+    <row r="2" spans="1:22" ht="46.5" customHeight="1">
+      <c r="A2" s="131"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+    </row>
+    <row r="3" spans="1:22" ht="60" customHeight="1">
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="133"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="131"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="134"/>
+    </row>
+    <row r="6" spans="1:22" ht="27" customHeight="1">
+      <c r="B6" s="309" t="s">
+        <v>188</v>
+      </c>
       <c r="C6" s="230"/>
       <c r="D6" s="230"/>
       <c r="E6" s="230"/>
@@ -44086,424 +45727,57 @@
       <c r="R6" s="230"/>
       <c r="S6" s="230"/>
     </row>
-    <row r="7" spans="1:19" ht="156.75" customHeight="1">
-      <c r="A7" s="233"/>
-      <c r="B7" s="229"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="229"/>
-      <c r="R7" s="229"/>
-      <c r="S7" s="229"/>
-    </row>
-    <row r="10" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A10" s="266"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
-      <c r="G10" s="266"/>
-      <c r="H10" s="266"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="237"/>
-      <c r="P10" s="237"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="237"/>
-      <c r="S10" s="237"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="232"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="232"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="237"/>
-      <c r="P12" s="237"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="237"/>
-      <c r="S12" s="237"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="232"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="237"/>
-      <c r="M13" s="237"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="237"/>
-      <c r="P13" s="237"/>
-      <c r="Q13" s="237"/>
-      <c r="R13" s="237"/>
-      <c r="S13" s="237"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="232"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="237"/>
-      <c r="N14" s="237"/>
-      <c r="O14" s="237"/>
-      <c r="P14" s="237"/>
-      <c r="Q14" s="237"/>
-      <c r="R14" s="237"/>
-      <c r="S14" s="237"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="232"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="237"/>
-      <c r="N15" s="237"/>
-      <c r="O15" s="237"/>
-      <c r="P15" s="237"/>
-      <c r="Q15" s="237"/>
-      <c r="R15" s="237"/>
-      <c r="S15" s="237"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="232"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237"/>
-      <c r="N16" s="237"/>
-      <c r="O16" s="237"/>
-      <c r="P16" s="237"/>
-      <c r="Q16" s="237"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="237"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="232"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="237"/>
-      <c r="N17" s="237"/>
-      <c r="O17" s="237"/>
-      <c r="P17" s="237"/>
-      <c r="Q17" s="237"/>
-      <c r="R17" s="237"/>
-      <c r="S17" s="237"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="232"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="J18" s="237"/>
-      <c r="K18" s="237"/>
-      <c r="L18" s="237"/>
-      <c r="M18" s="237"/>
-      <c r="N18" s="237"/>
-      <c r="O18" s="237"/>
-      <c r="P18" s="237"/>
-      <c r="Q18" s="237"/>
-      <c r="R18" s="237"/>
-      <c r="S18" s="237"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="232"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="237"/>
-      <c r="N19" s="237"/>
-      <c r="O19" s="237"/>
-      <c r="P19" s="237"/>
-      <c r="Q19" s="237"/>
-      <c r="R19" s="237"/>
-      <c r="S19" s="237"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="232"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="J20" s="237"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="237"/>
-      <c r="M20" s="237"/>
-      <c r="N20" s="237"/>
-      <c r="O20" s="237"/>
-      <c r="P20" s="237"/>
-      <c r="Q20" s="237"/>
-      <c r="R20" s="237"/>
-      <c r="S20" s="237"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="232"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="J21" s="237"/>
-      <c r="K21" s="237"/>
-      <c r="L21" s="237"/>
-      <c r="M21" s="237"/>
-      <c r="N21" s="237"/>
-      <c r="O21" s="237"/>
-      <c r="P21" s="237"/>
-      <c r="Q21" s="237"/>
-      <c r="R21" s="237"/>
-      <c r="S21" s="237"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="232"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="M22" s="237"/>
-      <c r="N22" s="237"/>
-      <c r="O22" s="237"/>
-      <c r="P22" s="237"/>
-      <c r="Q22" s="237"/>
-      <c r="R22" s="237"/>
-      <c r="S22" s="237"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="232"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="237"/>
-      <c r="N23" s="237"/>
-      <c r="O23" s="237"/>
-      <c r="P23" s="237"/>
-      <c r="Q23" s="237"/>
-      <c r="R23" s="237"/>
-      <c r="S23" s="237"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="232"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="237"/>
-      <c r="M24" s="237"/>
-      <c r="N24" s="237"/>
-      <c r="O24" s="237"/>
-      <c r="P24" s="237"/>
-      <c r="Q24" s="237"/>
-      <c r="R24" s="237"/>
-      <c r="S24" s="237"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="232"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="237"/>
-      <c r="N25" s="237"/>
-      <c r="O25" s="237"/>
-      <c r="P25" s="237"/>
-      <c r="Q25" s="237"/>
-      <c r="R25" s="237"/>
-      <c r="S25" s="237"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="232"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="237"/>
-      <c r="M26" s="237"/>
-      <c r="N26" s="237"/>
-      <c r="O26" s="237"/>
-      <c r="P26" s="237"/>
-      <c r="Q26" s="237"/>
-      <c r="R26" s="237"/>
-      <c r="S26" s="237"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="232"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="232"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="232"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="232"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="232"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+    <row r="13" spans="1:22">
+      <c r="B13" s="230"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="230"/>
+      <c r="I13" s="230"/>
+      <c r="J13" s="230"/>
+      <c r="K13" s="230"/>
+      <c r="L13" s="230"/>
+      <c r="M13" s="230"/>
+      <c r="N13" s="230"/>
+      <c r="O13" s="230"/>
+      <c r="P13" s="230"/>
+      <c r="Q13" s="230"/>
+      <c r="R13" s="230"/>
+      <c r="S13" s="230"/>
+    </row>
+    <row r="15" spans="1:22" ht="30.75" customHeight="1">
+      <c r="B15" s="308" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="17:17" ht="15.75">
+      <c r="Q35" s="310" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" ht="19.5">
+      <c r="C54" s="308" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" ht="19.5">
+      <c r="C71" s="308" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" ht="19.5">
+      <c r="C84" s="308" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A10:H10"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -23407,13 +23407,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23479,16 +23479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23497,8 +23497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4924426" y="4591050"/>
-          <a:ext cx="2190750" cy="352425"/>
+          <a:off x="4705350" y="4572000"/>
+          <a:ext cx="2590799" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23554,15 +23554,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -23580,7 +23580,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1600200" y="5886450"/>
+          <a:off x="1647825" y="5238750"/>
           <a:ext cx="8582025" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23602,13 +23602,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -23649,13 +23649,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23665,8 +23665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="12106275"/>
-          <a:ext cx="4124325" cy="390525"/>
+          <a:off x="1390650" y="11725275"/>
+          <a:ext cx="3933825" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23739,13 +23739,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23829,13 +23829,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23930,13 +23930,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24015,16 +24015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24033,7 +24033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="15859125"/>
+          <a:off x="5648325" y="14754225"/>
           <a:ext cx="4124325" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24102,16 +24102,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24120,8 +24120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1171575" y="16497300"/>
-          <a:ext cx="4124325" cy="390525"/>
+          <a:off x="1257300" y="15430500"/>
+          <a:ext cx="8648700" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24191,13 +24191,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24276,16 +24276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24294,7 +24294,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="18221325"/>
+          <a:off x="5638800" y="17278350"/>
           <a:ext cx="4124325" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24364,15 +24364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24381,8 +24381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181100" y="18792825"/>
-          <a:ext cx="4124325" cy="390525"/>
+          <a:off x="1200150" y="17983200"/>
+          <a:ext cx="8591550" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24452,13 +24452,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -45617,10 +45617,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:W84"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="R88" sqref="R88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45752,23 +45752,23 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="17:17" ht="15.75">
-      <c r="Q35" s="310" t="s">
+    <row r="33" spans="17:17" ht="15.75">
+      <c r="Q33" s="310" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="3:3" ht="19.5">
-      <c r="C54" s="308" t="s">
+    <row r="52" spans="3:3" ht="19.5">
+      <c r="C52" s="308" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="3:3" ht="19.5">
-      <c r="C71" s="308" t="s">
+    <row r="69" spans="3:3" ht="19.5">
+      <c r="C69" s="308" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="3:3" ht="19.5">
-      <c r="C84" s="308" t="s">
+    <row r="82" spans="3:3" ht="19.5">
+      <c r="C82" s="308" t="s">
         <v>192</v>
       </c>
     </row>

--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -29352,8 +29352,8 @@
   </sheetPr>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/All Pages design.xlsx
+++ b/All Pages design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="255" windowWidth="27795" windowHeight="11895" tabRatio="930" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="27795" windowHeight="11895" tabRatio="930" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="7" r:id="rId1"/>
@@ -3938,25 +3938,88 @@
     <xf numFmtId="14" fontId="110" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="72" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="15" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3965,47 +4028,26 @@
     <xf numFmtId="15" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="81" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="72" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4022,15 +4064,6 @@
     <xf numFmtId="0" fontId="109" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="87" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4038,12 +4071,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4055,11 +4082,26 @@
     <xf numFmtId="0" fontId="87" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4070,113 +4112,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="110" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="110" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="110" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4186,6 +4128,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4214,6 +4159,118 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="69" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4223,26 +4280,44 @@
     <xf numFmtId="0" fontId="69" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="110" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="110" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="110" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4295,39 +4370,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4366,48 +4408,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4578,7 +4578,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -4587,7 +4587,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4844,7 +4844,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5315,7 +5315,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5359,7 +5359,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -5368,7 +5368,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5465,7 +5465,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5659,7 +5659,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Products on </a:t>
+            <a:t> Products On </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1800" b="0">
@@ -5673,49 +5673,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Coupon N Discount Platform at</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1800" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> a </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DISCOUNTED</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Price</a:t>
+            <a:t>Coupon N Discount Platform For FREE</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100" b="0">
             <a:solidFill>
@@ -16726,7 +16684,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18450,7 +18408,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -18459,7 +18417,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18716,7 +18674,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19187,7 +19145,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19231,7 +19189,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -19240,7 +19198,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19377,7 +19335,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -19386,7 +19344,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19500,7 +19458,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19545,7 +19503,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22160,7 +22118,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -22169,7 +22127,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22214,7 +22172,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23087,7 +23045,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -23096,7 +23054,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23141,7 +23099,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24725,7 +24683,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId5">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -24734,7 +24692,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24991,7 +24949,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25462,7 +25420,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25506,7 +25464,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId5">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -25515,7 +25473,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -25831,7 +25789,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -25840,7 +25798,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -26097,7 +26055,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -26568,7 +26526,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -26612,7 +26570,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -26621,7 +26579,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27266,7 +27224,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -27275,7 +27233,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27532,7 +27490,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28003,7 +27961,7 @@
           <a:lum bright="-30000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28047,7 +28005,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId3">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="-40000"/>
@@ -28056,7 +28014,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28621,21 +28579,21 @@
       <c r="C5" s="242"/>
       <c r="D5" s="242"/>
       <c r="E5" s="242"/>
-      <c r="F5" s="349" t="s">
+      <c r="F5" s="369" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="350"/>
-      <c r="H5" s="350"/>
-      <c r="I5" s="350"/>
-      <c r="J5" s="350"/>
-      <c r="K5" s="350"/>
-      <c r="L5" s="350"/>
-      <c r="M5" s="350"/>
-      <c r="N5" s="350"/>
-      <c r="O5" s="350"/>
-      <c r="P5" s="350"/>
-      <c r="Q5" s="350"/>
-      <c r="R5" s="351"/>
+      <c r="G5" s="370"/>
+      <c r="H5" s="370"/>
+      <c r="I5" s="370"/>
+      <c r="J5" s="370"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="370"/>
+      <c r="M5" s="370"/>
+      <c r="N5" s="370"/>
+      <c r="O5" s="370"/>
+      <c r="P5" s="370"/>
+      <c r="Q5" s="370"/>
+      <c r="R5" s="371"/>
       <c r="S5" s="242"/>
       <c r="T5" s="242"/>
       <c r="U5" s="242"/>
@@ -28849,32 +28807,32 @@
       </c>
     </row>
     <row r="16" spans="1:25" s="250" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B16" s="355" t="s">
+      <c r="B16" s="372" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="355"/>
-      <c r="D16" s="355"/>
-      <c r="E16" s="355"/>
-      <c r="F16" s="355"/>
-      <c r="G16" s="355"/>
+      <c r="C16" s="372"/>
+      <c r="D16" s="372"/>
+      <c r="E16" s="372"/>
+      <c r="F16" s="372"/>
+      <c r="G16" s="372"/>
       <c r="H16" s="253"/>
-      <c r="I16" s="356" t="s">
+      <c r="I16" s="373" t="s">
         <v>194</v>
       </c>
-      <c r="J16" s="356"/>
-      <c r="K16" s="356"/>
-      <c r="L16" s="356"/>
-      <c r="M16" s="356"/>
-      <c r="N16" s="356"/>
+      <c r="J16" s="373"/>
+      <c r="K16" s="373"/>
+      <c r="L16" s="373"/>
+      <c r="M16" s="373"/>
+      <c r="N16" s="373"/>
       <c r="O16" s="253"/>
-      <c r="P16" s="356" t="s">
+      <c r="P16" s="373" t="s">
         <v>195</v>
       </c>
-      <c r="Q16" s="356"/>
-      <c r="R16" s="356"/>
-      <c r="S16" s="356"/>
-      <c r="T16" s="356"/>
-      <c r="U16" s="356"/>
+      <c r="Q16" s="373"/>
+      <c r="R16" s="373"/>
+      <c r="S16" s="373"/>
+      <c r="T16" s="373"/>
+      <c r="U16" s="373"/>
       <c r="V16" s="251"/>
       <c r="W16" s="271" t="s">
         <v>214</v>
@@ -28882,24 +28840,24 @@
       <c r="Y16" s="252"/>
     </row>
     <row r="17" spans="2:25" ht="30.75" customHeight="1">
-      <c r="B17" s="352"/>
-      <c r="C17" s="353"/>
-      <c r="D17" s="353"/>
-      <c r="E17" s="353"/>
-      <c r="F17" s="353"/>
-      <c r="G17" s="354"/>
-      <c r="I17" s="352"/>
-      <c r="J17" s="353"/>
-      <c r="K17" s="353"/>
-      <c r="L17" s="353"/>
-      <c r="M17" s="353"/>
-      <c r="N17" s="354"/>
-      <c r="P17" s="352"/>
-      <c r="Q17" s="353"/>
-      <c r="R17" s="353"/>
-      <c r="S17" s="353"/>
-      <c r="T17" s="353"/>
-      <c r="U17" s="354"/>
+      <c r="B17" s="363"/>
+      <c r="C17" s="364"/>
+      <c r="D17" s="364"/>
+      <c r="E17" s="364"/>
+      <c r="F17" s="364"/>
+      <c r="G17" s="365"/>
+      <c r="I17" s="363"/>
+      <c r="J17" s="364"/>
+      <c r="K17" s="364"/>
+      <c r="L17" s="364"/>
+      <c r="M17" s="364"/>
+      <c r="N17" s="365"/>
+      <c r="P17" s="363"/>
+      <c r="Q17" s="364"/>
+      <c r="R17" s="364"/>
+      <c r="S17" s="364"/>
+      <c r="T17" s="364"/>
+      <c r="U17" s="365"/>
       <c r="W17" s="271" t="s">
         <v>215</v>
       </c>
@@ -28920,24 +28878,24 @@
       <c r="Y18" s="254"/>
     </row>
     <row r="19" spans="2:25" ht="30.75" customHeight="1">
-      <c r="B19" s="352"/>
-      <c r="C19" s="353"/>
-      <c r="D19" s="353"/>
-      <c r="E19" s="353"/>
-      <c r="F19" s="353"/>
-      <c r="G19" s="354"/>
-      <c r="I19" s="352"/>
-      <c r="J19" s="353"/>
-      <c r="K19" s="353"/>
-      <c r="L19" s="353"/>
-      <c r="M19" s="353"/>
-      <c r="N19" s="354"/>
-      <c r="P19" s="352"/>
-      <c r="Q19" s="353"/>
-      <c r="R19" s="353"/>
-      <c r="S19" s="353"/>
-      <c r="T19" s="353"/>
-      <c r="U19" s="354"/>
+      <c r="B19" s="363"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="364"/>
+      <c r="F19" s="364"/>
+      <c r="G19" s="365"/>
+      <c r="I19" s="363"/>
+      <c r="J19" s="364"/>
+      <c r="K19" s="364"/>
+      <c r="L19" s="364"/>
+      <c r="M19" s="364"/>
+      <c r="N19" s="365"/>
+      <c r="P19" s="363"/>
+      <c r="Q19" s="364"/>
+      <c r="R19" s="364"/>
+      <c r="S19" s="364"/>
+      <c r="T19" s="364"/>
+      <c r="U19" s="365"/>
       <c r="W19" s="271" t="s">
         <v>217</v>
       </c>
@@ -28955,25 +28913,25 @@
       <c r="Y20" s="254"/>
     </row>
     <row r="21" spans="2:25" ht="30.75" customHeight="1">
-      <c r="B21" s="352"/>
-      <c r="C21" s="353"/>
-      <c r="D21" s="353"/>
-      <c r="E21" s="353"/>
-      <c r="F21" s="353"/>
-      <c r="G21" s="354"/>
-      <c r="I21" s="357"/>
-      <c r="J21" s="358"/>
-      <c r="K21" s="358"/>
-      <c r="L21" s="358"/>
-      <c r="M21" s="358"/>
-      <c r="N21" s="358"/>
+      <c r="B21" s="363"/>
+      <c r="C21" s="364"/>
+      <c r="D21" s="364"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="364"/>
+      <c r="G21" s="365"/>
+      <c r="I21" s="366"/>
+      <c r="J21" s="367"/>
+      <c r="K21" s="367"/>
+      <c r="L21" s="367"/>
+      <c r="M21" s="367"/>
+      <c r="N21" s="367"/>
       <c r="O21" s="265"/>
-      <c r="P21" s="358"/>
-      <c r="Q21" s="358"/>
-      <c r="R21" s="358"/>
-      <c r="S21" s="358"/>
-      <c r="T21" s="358"/>
-      <c r="U21" s="359"/>
+      <c r="P21" s="367"/>
+      <c r="Q21" s="367"/>
+      <c r="R21" s="367"/>
+      <c r="S21" s="367"/>
+      <c r="T21" s="367"/>
+      <c r="U21" s="368"/>
       <c r="W21" s="271" t="s">
         <v>219</v>
       </c>
@@ -29370,12 +29328,6 @@
     <row r="43" spans="2:23" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="P19:U19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="P21:U21"/>
     <mergeCell ref="F5:R5"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="I17:N17"/>
@@ -29383,6 +29335,12 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="I16:N16"/>
     <mergeCell ref="P16:U16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="P19:U19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="P21:U21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -29538,110 +29496,110 @@
       <c r="Y6" s="257"/>
     </row>
     <row r="7" spans="1:25" s="274" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B7" s="418" t="s">
+      <c r="B7" s="375" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="418"/>
-      <c r="D7" s="418"/>
-      <c r="E7" s="418"/>
-      <c r="G7" s="418" t="s">
+      <c r="C7" s="375"/>
+      <c r="D7" s="375"/>
+      <c r="E7" s="375"/>
+      <c r="G7" s="375" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="418"/>
-      <c r="I7" s="418"/>
-      <c r="J7" s="418"/>
+      <c r="H7" s="375"/>
+      <c r="I7" s="375"/>
+      <c r="J7" s="375"/>
       <c r="K7" s="275"/>
-      <c r="L7" s="418" t="s">
+      <c r="L7" s="375" t="s">
         <v>307</v>
       </c>
-      <c r="M7" s="418"/>
-      <c r="N7" s="418"/>
-      <c r="O7" s="418"/>
+      <c r="M7" s="375"/>
+      <c r="N7" s="375"/>
+      <c r="O7" s="375"/>
       <c r="P7" s="316"/>
-      <c r="Q7" s="418" t="s">
+      <c r="Q7" s="375" t="s">
         <v>308</v>
       </c>
-      <c r="R7" s="418"/>
-      <c r="S7" s="418"/>
-      <c r="T7" s="418"/>
+      <c r="R7" s="375"/>
+      <c r="S7" s="375"/>
+      <c r="T7" s="375"/>
       <c r="W7" s="275"/>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B8" s="422" t="s">
+      <c r="B8" s="374" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="422"/>
-      <c r="D8" s="422"/>
-      <c r="E8" s="422"/>
+      <c r="C8" s="374"/>
+      <c r="D8" s="374"/>
+      <c r="E8" s="374"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="362">
+      <c r="G8" s="376">
         <v>43549</v>
       </c>
-      <c r="H8" s="363"/>
-      <c r="I8" s="363"/>
-      <c r="J8" s="364"/>
+      <c r="H8" s="377"/>
+      <c r="I8" s="377"/>
+      <c r="J8" s="378"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="362">
+      <c r="L8" s="376">
         <v>43549</v>
       </c>
-      <c r="M8" s="363"/>
-      <c r="N8" s="363"/>
-      <c r="O8" s="364"/>
+      <c r="M8" s="377"/>
+      <c r="N8" s="377"/>
+      <c r="O8" s="378"/>
       <c r="P8" s="317"/>
-      <c r="Q8" s="362" t="s">
+      <c r="Q8" s="376" t="s">
         <v>170</v>
       </c>
-      <c r="R8" s="363"/>
-      <c r="S8" s="363"/>
-      <c r="T8" s="364"/>
+      <c r="R8" s="377"/>
+      <c r="S8" s="377"/>
+      <c r="T8" s="378"/>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:25" s="274" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B9" s="418"/>
-      <c r="C9" s="418"/>
-      <c r="D9" s="418"/>
-      <c r="F9" s="418"/>
-      <c r="G9" s="418"/>
-      <c r="H9" s="418"/>
-      <c r="J9" s="418"/>
-      <c r="K9" s="418"/>
-      <c r="L9" s="418"/>
-      <c r="N9" s="418"/>
-      <c r="O9" s="418"/>
-      <c r="P9" s="418"/>
-      <c r="R9" s="418"/>
-      <c r="S9" s="418"/>
-      <c r="T9" s="418"/>
+      <c r="B9" s="375"/>
+      <c r="C9" s="375"/>
+      <c r="D9" s="375"/>
+      <c r="F9" s="375"/>
+      <c r="G9" s="375"/>
+      <c r="H9" s="375"/>
+      <c r="J9" s="375"/>
+      <c r="K9" s="375"/>
+      <c r="L9" s="375"/>
+      <c r="N9" s="375"/>
+      <c r="O9" s="375"/>
+      <c r="P9" s="375"/>
+      <c r="R9" s="375"/>
+      <c r="S9" s="375"/>
+      <c r="T9" s="375"/>
       <c r="W9" s="275"/>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B10" s="419" t="s">
+      <c r="B10" s="379" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="420"/>
-      <c r="D10" s="420"/>
-      <c r="E10" s="421"/>
+      <c r="C10" s="380"/>
+      <c r="D10" s="380"/>
+      <c r="E10" s="381"/>
       <c r="F10" s="319"/>
-      <c r="G10" s="419" t="s">
+      <c r="G10" s="379" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="420"/>
-      <c r="I10" s="420"/>
-      <c r="J10" s="421"/>
+      <c r="H10" s="380"/>
+      <c r="I10" s="380"/>
+      <c r="J10" s="381"/>
       <c r="K10" s="319"/>
-      <c r="L10" s="419" t="s">
+      <c r="L10" s="379" t="s">
         <v>240</v>
       </c>
-      <c r="M10" s="420"/>
-      <c r="N10" s="420"/>
-      <c r="O10" s="421"/>
+      <c r="M10" s="380"/>
+      <c r="N10" s="380"/>
+      <c r="O10" s="381"/>
       <c r="P10" s="320"/>
-      <c r="Q10" s="419" t="s">
+      <c r="Q10" s="379" t="s">
         <v>309</v>
       </c>
-      <c r="R10" s="420"/>
-      <c r="S10" s="420"/>
-      <c r="T10" s="421"/>
+      <c r="R10" s="380"/>
+      <c r="S10" s="380"/>
+      <c r="T10" s="381"/>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="26.25" customHeight="1"/>
@@ -29660,13 +29618,13 @@
       <c r="L12" s="278"/>
       <c r="M12" s="278"/>
       <c r="N12" s="278"/>
-      <c r="P12" s="360" t="s">
+      <c r="P12" s="429" t="s">
         <v>246</v>
       </c>
-      <c r="Q12" s="360"/>
-      <c r="R12" s="360"/>
-      <c r="S12" s="360"/>
-      <c r="T12" s="360"/>
+      <c r="Q12" s="429"/>
+      <c r="R12" s="429"/>
+      <c r="S12" s="429"/>
+      <c r="T12" s="429"/>
       <c r="U12" s="238"/>
       <c r="Y12" s="277"/>
     </row>
@@ -29703,22 +29661,22 @@
       <c r="W15" s="239"/>
     </row>
     <row r="16" spans="1:25" s="276" customFormat="1" ht="33" customHeight="1">
-      <c r="B16" s="415" t="s">
+      <c r="B16" s="434" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="416"/>
-      <c r="D16" s="416"/>
-      <c r="E16" s="416"/>
-      <c r="F16" s="416"/>
-      <c r="G16" s="417"/>
-      <c r="I16" s="366" t="s">
+      <c r="C16" s="435"/>
+      <c r="D16" s="435"/>
+      <c r="E16" s="435"/>
+      <c r="F16" s="435"/>
+      <c r="G16" s="436"/>
+      <c r="I16" s="432" t="s">
         <v>239</v>
       </c>
-      <c r="J16" s="367"/>
-      <c r="K16" s="367"/>
-      <c r="L16" s="367"/>
-      <c r="M16" s="367"/>
-      <c r="N16" s="367"/>
+      <c r="J16" s="433"/>
+      <c r="K16" s="433"/>
+      <c r="L16" s="433"/>
+      <c r="M16" s="433"/>
+      <c r="N16" s="433"/>
       <c r="Y16" s="277"/>
     </row>
     <row r="17" spans="2:25" s="238" customFormat="1" ht="30.75" customHeight="1">
@@ -29754,25 +29712,25 @@
       <c r="W19" s="239"/>
     </row>
     <row r="20" spans="2:25" s="238" customFormat="1" ht="30.75" customHeight="1">
-      <c r="D20" s="406" t="s">
+      <c r="D20" s="387" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="407"/>
-      <c r="F20" s="407"/>
-      <c r="G20" s="407"/>
-      <c r="H20" s="407"/>
-      <c r="I20" s="407"/>
-      <c r="J20" s="407"/>
-      <c r="K20" s="407"/>
-      <c r="L20" s="407"/>
-      <c r="M20" s="407"/>
-      <c r="N20" s="408"/>
-      <c r="P20" s="405" t="s">
+      <c r="E20" s="388"/>
+      <c r="F20" s="388"/>
+      <c r="G20" s="388"/>
+      <c r="H20" s="388"/>
+      <c r="I20" s="388"/>
+      <c r="J20" s="388"/>
+      <c r="K20" s="388"/>
+      <c r="L20" s="388"/>
+      <c r="M20" s="388"/>
+      <c r="N20" s="389"/>
+      <c r="P20" s="386" t="s">
         <v>242</v>
       </c>
-      <c r="Q20" s="405"/>
-      <c r="R20" s="405"/>
-      <c r="S20" s="405"/>
+      <c r="Q20" s="386"/>
+      <c r="R20" s="386"/>
+      <c r="S20" s="386"/>
       <c r="W20" s="239"/>
     </row>
     <row r="21" spans="2:25" s="238" customFormat="1" ht="30.75" customHeight="1">
@@ -29784,56 +29742,56 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="365" t="s">
+      <c r="G22" s="431" t="s">
         <v>237</v>
       </c>
-      <c r="H22" s="365"/>
-      <c r="I22" s="365"/>
-      <c r="J22" s="365"/>
+      <c r="H22" s="431"/>
+      <c r="I22" s="431"/>
+      <c r="J22" s="431"/>
       <c r="K22" s="239"/>
-      <c r="L22" s="365" t="s">
+      <c r="L22" s="431" t="s">
         <v>234</v>
       </c>
-      <c r="M22" s="365"/>
-      <c r="N22" s="365"/>
-      <c r="O22" s="365"/>
+      <c r="M22" s="431"/>
+      <c r="N22" s="431"/>
+      <c r="O22" s="431"/>
       <c r="P22" s="239"/>
-      <c r="Q22" s="365" t="s">
+      <c r="Q22" s="431" t="s">
         <v>235</v>
       </c>
-      <c r="R22" s="365"/>
-      <c r="S22" s="365"/>
-      <c r="T22" s="365"/>
+      <c r="R22" s="431"/>
+      <c r="S22" s="431"/>
+      <c r="T22" s="431"/>
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="2:25" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B23" s="361" t="s">
+      <c r="B23" s="430" t="s">
         <v>236</v>
       </c>
-      <c r="C23" s="361"/>
-      <c r="D23" s="361"/>
-      <c r="E23" s="361"/>
+      <c r="C23" s="430"/>
+      <c r="D23" s="430"/>
+      <c r="E23" s="430"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="362">
+      <c r="G23" s="376">
         <v>43549</v>
       </c>
-      <c r="H23" s="363"/>
-      <c r="I23" s="363"/>
-      <c r="J23" s="364"/>
+      <c r="H23" s="377"/>
+      <c r="I23" s="377"/>
+      <c r="J23" s="378"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="362">
+      <c r="L23" s="376">
         <v>43549</v>
       </c>
-      <c r="M23" s="363"/>
-      <c r="N23" s="363"/>
-      <c r="O23" s="364"/>
+      <c r="M23" s="377"/>
+      <c r="N23" s="377"/>
+      <c r="O23" s="378"/>
       <c r="P23" s="317"/>
-      <c r="Q23" s="362" t="s">
+      <c r="Q23" s="376" t="s">
         <v>170</v>
       </c>
-      <c r="R23" s="363"/>
-      <c r="S23" s="363"/>
-      <c r="T23" s="364"/>
+      <c r="R23" s="377"/>
+      <c r="S23" s="377"/>
+      <c r="T23" s="378"/>
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="2:25" s="1" customFormat="1" ht="30.75" customHeight="1">
@@ -29856,33 +29814,33 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="2:25" s="276" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B25" s="412" t="s">
+      <c r="B25" s="393" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="413"/>
-      <c r="D25" s="413"/>
-      <c r="E25" s="414"/>
+      <c r="C25" s="394"/>
+      <c r="D25" s="394"/>
+      <c r="E25" s="395"/>
       <c r="F25" s="279"/>
-      <c r="G25" s="412" t="s">
+      <c r="G25" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="413"/>
-      <c r="I25" s="413"/>
-      <c r="J25" s="414"/>
+      <c r="H25" s="394"/>
+      <c r="I25" s="394"/>
+      <c r="J25" s="395"/>
       <c r="K25" s="280"/>
-      <c r="L25" s="412" t="s">
+      <c r="L25" s="393" t="s">
         <v>240</v>
       </c>
-      <c r="M25" s="413"/>
-      <c r="N25" s="413"/>
-      <c r="O25" s="414"/>
+      <c r="M25" s="394"/>
+      <c r="N25" s="394"/>
+      <c r="O25" s="395"/>
       <c r="P25" s="280"/>
-      <c r="Q25" s="412" t="s">
+      <c r="Q25" s="393" t="s">
         <v>309</v>
       </c>
-      <c r="R25" s="413"/>
-      <c r="S25" s="413"/>
-      <c r="T25" s="414"/>
+      <c r="R25" s="394"/>
+      <c r="S25" s="394"/>
+      <c r="T25" s="395"/>
       <c r="U25" s="278"/>
       <c r="V25" s="277"/>
       <c r="Y25" s="277"/>
@@ -29937,26 +29895,26 @@
     </row>
     <row r="28" spans="2:25" s="276" customFormat="1" ht="253.5" customHeight="1">
       <c r="B28" s="281"/>
-      <c r="C28" s="409" t="s">
+      <c r="C28" s="390" t="s">
         <v>245</v>
       </c>
-      <c r="D28" s="410"/>
-      <c r="E28" s="410"/>
-      <c r="F28" s="410"/>
-      <c r="G28" s="410"/>
-      <c r="H28" s="410"/>
-      <c r="I28" s="410"/>
-      <c r="J28" s="410"/>
-      <c r="K28" s="410"/>
-      <c r="L28" s="410"/>
-      <c r="M28" s="410"/>
-      <c r="N28" s="410"/>
-      <c r="O28" s="410"/>
-      <c r="P28" s="410"/>
-      <c r="Q28" s="410"/>
-      <c r="R28" s="410"/>
-      <c r="S28" s="410"/>
-      <c r="T28" s="411"/>
+      <c r="D28" s="391"/>
+      <c r="E28" s="391"/>
+      <c r="F28" s="391"/>
+      <c r="G28" s="391"/>
+      <c r="H28" s="391"/>
+      <c r="I28" s="391"/>
+      <c r="J28" s="391"/>
+      <c r="K28" s="391"/>
+      <c r="L28" s="391"/>
+      <c r="M28" s="391"/>
+      <c r="N28" s="391"/>
+      <c r="O28" s="391"/>
+      <c r="P28" s="391"/>
+      <c r="Q28" s="391"/>
+      <c r="R28" s="391"/>
+      <c r="S28" s="391"/>
+      <c r="T28" s="392"/>
       <c r="U28" s="278"/>
       <c r="V28" s="277"/>
       <c r="Y28" s="277"/>
@@ -30010,88 +29968,88 @@
       <c r="Y30" s="277"/>
     </row>
     <row r="88" spans="2:23" ht="40.5" customHeight="1">
-      <c r="B88" s="384" t="s">
+      <c r="B88" s="407" t="s">
         <v>268</v>
       </c>
-      <c r="C88" s="384"/>
-      <c r="D88" s="384"/>
-      <c r="E88" s="384"/>
-      <c r="F88" s="384"/>
-      <c r="G88" s="384"/>
-      <c r="H88" s="384"/>
-      <c r="I88" s="384"/>
-      <c r="J88" s="384"/>
-      <c r="K88" s="384"/>
-      <c r="L88" s="384"/>
-      <c r="M88" s="384"/>
-      <c r="N88" s="384"/>
-      <c r="O88" s="384"/>
-      <c r="P88" s="384"/>
-      <c r="Q88" s="384"/>
-      <c r="R88" s="384"/>
-      <c r="S88" s="384"/>
-      <c r="T88" s="384"/>
+      <c r="C88" s="407"/>
+      <c r="D88" s="407"/>
+      <c r="E88" s="407"/>
+      <c r="F88" s="407"/>
+      <c r="G88" s="407"/>
+      <c r="H88" s="407"/>
+      <c r="I88" s="407"/>
+      <c r="J88" s="407"/>
+      <c r="K88" s="407"/>
+      <c r="L88" s="407"/>
+      <c r="M88" s="407"/>
+      <c r="N88" s="407"/>
+      <c r="O88" s="407"/>
+      <c r="P88" s="407"/>
+      <c r="Q88" s="407"/>
+      <c r="R88" s="407"/>
+      <c r="S88" s="407"/>
+      <c r="T88" s="407"/>
     </row>
     <row r="89" spans="2:23" s="122" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B89" s="394" t="s">
+      <c r="B89" s="402" t="s">
         <v>256</v>
       </c>
-      <c r="C89" s="394"/>
-      <c r="D89" s="394"/>
-      <c r="E89" s="396" t="s">
+      <c r="C89" s="402"/>
+      <c r="D89" s="402"/>
+      <c r="E89" s="403" t="s">
         <v>249</v>
       </c>
-      <c r="F89" s="397"/>
-      <c r="G89" s="397"/>
-      <c r="H89" s="397"/>
-      <c r="I89" s="398" t="s">
+      <c r="F89" s="404"/>
+      <c r="G89" s="404"/>
+      <c r="H89" s="404"/>
+      <c r="I89" s="405" t="s">
         <v>250</v>
       </c>
-      <c r="J89" s="398"/>
-      <c r="K89" s="398"/>
-      <c r="L89" s="398"/>
-      <c r="M89" s="399" t="s">
+      <c r="J89" s="405"/>
+      <c r="K89" s="405"/>
+      <c r="L89" s="405"/>
+      <c r="M89" s="406" t="s">
         <v>251</v>
       </c>
-      <c r="N89" s="399"/>
-      <c r="O89" s="399"/>
-      <c r="P89" s="399"/>
-      <c r="Q89" s="402" t="s">
+      <c r="N89" s="406"/>
+      <c r="O89" s="406"/>
+      <c r="P89" s="406"/>
+      <c r="Q89" s="382" t="s">
         <v>265</v>
       </c>
-      <c r="R89" s="402"/>
-      <c r="S89" s="402"/>
-      <c r="T89" s="403"/>
+      <c r="R89" s="382"/>
+      <c r="S89" s="382"/>
+      <c r="T89" s="383"/>
       <c r="W89" s="288"/>
     </row>
     <row r="90" spans="2:23" s="289" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B90" s="368"/>
-      <c r="C90" s="368"/>
-      <c r="D90" s="368"/>
-      <c r="E90" s="404" t="s">
+      <c r="B90" s="397"/>
+      <c r="C90" s="397"/>
+      <c r="D90" s="397"/>
+      <c r="E90" s="384" t="s">
         <v>252</v>
       </c>
-      <c r="F90" s="400"/>
-      <c r="G90" s="400"/>
-      <c r="H90" s="400"/>
-      <c r="I90" s="400" t="s">
+      <c r="F90" s="385"/>
+      <c r="G90" s="385"/>
+      <c r="H90" s="385"/>
+      <c r="I90" s="385" t="s">
         <v>253</v>
       </c>
-      <c r="J90" s="400"/>
-      <c r="K90" s="400"/>
-      <c r="L90" s="400"/>
-      <c r="M90" s="400" t="s">
+      <c r="J90" s="385"/>
+      <c r="K90" s="385"/>
+      <c r="L90" s="385"/>
+      <c r="M90" s="385" t="s">
         <v>254</v>
       </c>
-      <c r="N90" s="400"/>
-      <c r="O90" s="400"/>
-      <c r="P90" s="400"/>
-      <c r="Q90" s="400" t="s">
+      <c r="N90" s="385"/>
+      <c r="O90" s="385"/>
+      <c r="P90" s="385"/>
+      <c r="Q90" s="385" t="s">
         <v>255</v>
       </c>
-      <c r="R90" s="400"/>
-      <c r="S90" s="400"/>
-      <c r="T90" s="401"/>
+      <c r="R90" s="385"/>
+      <c r="S90" s="385"/>
+      <c r="T90" s="399"/>
       <c r="W90" s="290"/>
     </row>
     <row r="91" spans="2:23" s="289" customFormat="1" ht="37.5" customHeight="1">
@@ -30100,30 +30058,30 @@
       <c r="D91" s="292" t="s">
         <v>257</v>
       </c>
-      <c r="E91" s="393">
+      <c r="E91" s="401">
         <v>10</v>
       </c>
-      <c r="F91" s="387"/>
-      <c r="G91" s="387"/>
-      <c r="H91" s="387"/>
-      <c r="I91" s="387">
+      <c r="F91" s="398"/>
+      <c r="G91" s="398"/>
+      <c r="H91" s="398"/>
+      <c r="I91" s="398">
         <v>15</v>
       </c>
-      <c r="J91" s="387"/>
-      <c r="K91" s="387"/>
-      <c r="L91" s="387"/>
-      <c r="M91" s="387">
+      <c r="J91" s="398"/>
+      <c r="K91" s="398"/>
+      <c r="L91" s="398"/>
+      <c r="M91" s="398">
         <v>20</v>
       </c>
-      <c r="N91" s="387"/>
-      <c r="O91" s="387"/>
-      <c r="P91" s="387"/>
-      <c r="Q91" s="387">
+      <c r="N91" s="398"/>
+      <c r="O91" s="398"/>
+      <c r="P91" s="398"/>
+      <c r="Q91" s="398">
         <v>30</v>
       </c>
-      <c r="R91" s="387"/>
-      <c r="S91" s="387"/>
-      <c r="T91" s="388"/>
+      <c r="R91" s="398"/>
+      <c r="S91" s="398"/>
+      <c r="T91" s="400"/>
       <c r="W91" s="290"/>
     </row>
     <row r="92" spans="2:23" s="289" customFormat="1" ht="37.5" customHeight="1">
@@ -30131,30 +30089,30 @@
       <c r="D92" s="292" t="s">
         <v>258</v>
       </c>
-      <c r="E92" s="393" t="s">
+      <c r="E92" s="401" t="s">
         <v>259</v>
       </c>
-      <c r="F92" s="387"/>
-      <c r="G92" s="387"/>
-      <c r="H92" s="387"/>
-      <c r="I92" s="387" t="s">
+      <c r="F92" s="398"/>
+      <c r="G92" s="398"/>
+      <c r="H92" s="398"/>
+      <c r="I92" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="J92" s="387"/>
-      <c r="K92" s="387"/>
-      <c r="L92" s="387"/>
-      <c r="M92" s="387" t="s">
+      <c r="J92" s="398"/>
+      <c r="K92" s="398"/>
+      <c r="L92" s="398"/>
+      <c r="M92" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="N92" s="387"/>
-      <c r="O92" s="387"/>
-      <c r="P92" s="387"/>
-      <c r="Q92" s="387" t="s">
+      <c r="N92" s="398"/>
+      <c r="O92" s="398"/>
+      <c r="P92" s="398"/>
+      <c r="Q92" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="R92" s="387"/>
-      <c r="S92" s="387"/>
-      <c r="T92" s="388"/>
+      <c r="R92" s="398"/>
+      <c r="S92" s="398"/>
+      <c r="T92" s="400"/>
       <c r="W92" s="290"/>
     </row>
     <row r="93" spans="2:23" s="289" customFormat="1" ht="37.5" customHeight="1">
@@ -30162,30 +30120,30 @@
       <c r="D93" s="292" t="s">
         <v>260</v>
       </c>
-      <c r="E93" s="393">
+      <c r="E93" s="401">
         <v>0</v>
       </c>
-      <c r="F93" s="387"/>
-      <c r="G93" s="387"/>
-      <c r="H93" s="387"/>
-      <c r="I93" s="387">
+      <c r="F93" s="398"/>
+      <c r="G93" s="398"/>
+      <c r="H93" s="398"/>
+      <c r="I93" s="398">
         <v>3</v>
       </c>
-      <c r="J93" s="387"/>
-      <c r="K93" s="387"/>
-      <c r="L93" s="387"/>
-      <c r="M93" s="387">
+      <c r="J93" s="398"/>
+      <c r="K93" s="398"/>
+      <c r="L93" s="398"/>
+      <c r="M93" s="398">
         <v>10</v>
       </c>
-      <c r="N93" s="387"/>
-      <c r="O93" s="387"/>
-      <c r="P93" s="387"/>
-      <c r="Q93" s="387">
+      <c r="N93" s="398"/>
+      <c r="O93" s="398"/>
+      <c r="P93" s="398"/>
+      <c r="Q93" s="398">
         <v>20</v>
       </c>
-      <c r="R93" s="387"/>
-      <c r="S93" s="387"/>
-      <c r="T93" s="388"/>
+      <c r="R93" s="398"/>
+      <c r="S93" s="398"/>
+      <c r="T93" s="400"/>
       <c r="W93" s="290"/>
     </row>
     <row r="94" spans="2:23" s="289" customFormat="1" ht="37.5" customHeight="1">
@@ -30193,30 +30151,30 @@
       <c r="D94" s="292" t="s">
         <v>261</v>
       </c>
-      <c r="E94" s="393" t="s">
+      <c r="E94" s="401" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="387"/>
-      <c r="G94" s="387"/>
-      <c r="H94" s="387"/>
-      <c r="I94" s="387" t="s">
+      <c r="F94" s="398"/>
+      <c r="G94" s="398"/>
+      <c r="H94" s="398"/>
+      <c r="I94" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="J94" s="387"/>
-      <c r="K94" s="387"/>
-      <c r="L94" s="387"/>
-      <c r="M94" s="387" t="s">
+      <c r="J94" s="398"/>
+      <c r="K94" s="398"/>
+      <c r="L94" s="398"/>
+      <c r="M94" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="N94" s="387"/>
-      <c r="O94" s="387"/>
-      <c r="P94" s="387"/>
-      <c r="Q94" s="387" t="s">
+      <c r="N94" s="398"/>
+      <c r="O94" s="398"/>
+      <c r="P94" s="398"/>
+      <c r="Q94" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="R94" s="387"/>
-      <c r="S94" s="387"/>
-      <c r="T94" s="388"/>
+      <c r="R94" s="398"/>
+      <c r="S94" s="398"/>
+      <c r="T94" s="400"/>
       <c r="W94" s="290"/>
     </row>
     <row r="95" spans="2:23" s="289" customFormat="1" ht="37.5" customHeight="1">
@@ -30224,30 +30182,30 @@
       <c r="D95" s="292" t="s">
         <v>262</v>
       </c>
-      <c r="E95" s="393" t="s">
+      <c r="E95" s="401" t="s">
         <v>70</v>
       </c>
-      <c r="F95" s="387"/>
-      <c r="G95" s="387"/>
-      <c r="H95" s="387"/>
-      <c r="I95" s="387" t="s">
+      <c r="F95" s="398"/>
+      <c r="G95" s="398"/>
+      <c r="H95" s="398"/>
+      <c r="I95" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="J95" s="387"/>
-      <c r="K95" s="387"/>
-      <c r="L95" s="387"/>
-      <c r="M95" s="387" t="s">
+      <c r="J95" s="398"/>
+      <c r="K95" s="398"/>
+      <c r="L95" s="398"/>
+      <c r="M95" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="N95" s="387"/>
-      <c r="O95" s="387"/>
-      <c r="P95" s="387"/>
-      <c r="Q95" s="387" t="s">
+      <c r="N95" s="398"/>
+      <c r="O95" s="398"/>
+      <c r="P95" s="398"/>
+      <c r="Q95" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="R95" s="387"/>
-      <c r="S95" s="387"/>
-      <c r="T95" s="388"/>
+      <c r="R95" s="398"/>
+      <c r="S95" s="398"/>
+      <c r="T95" s="400"/>
       <c r="W95" s="290"/>
     </row>
     <row r="96" spans="2:23" s="289" customFormat="1" ht="37.5" customHeight="1">
@@ -30255,1523 +30213,1824 @@
       <c r="D96" s="292" t="s">
         <v>263</v>
       </c>
-      <c r="E96" s="393" t="s">
+      <c r="E96" s="401" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="387"/>
-      <c r="G96" s="387"/>
-      <c r="H96" s="387"/>
-      <c r="I96" s="387" t="s">
+      <c r="F96" s="398"/>
+      <c r="G96" s="398"/>
+      <c r="H96" s="398"/>
+      <c r="I96" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="J96" s="387"/>
-      <c r="K96" s="387"/>
-      <c r="L96" s="387"/>
-      <c r="M96" s="387" t="s">
+      <c r="J96" s="398"/>
+      <c r="K96" s="398"/>
+      <c r="L96" s="398"/>
+      <c r="M96" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="N96" s="387"/>
-      <c r="O96" s="387"/>
-      <c r="P96" s="387"/>
-      <c r="Q96" s="387" t="s">
+      <c r="N96" s="398"/>
+      <c r="O96" s="398"/>
+      <c r="P96" s="398"/>
+      <c r="Q96" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="R96" s="387"/>
-      <c r="S96" s="387"/>
-      <c r="T96" s="388"/>
+      <c r="R96" s="398"/>
+      <c r="S96" s="398"/>
+      <c r="T96" s="400"/>
       <c r="W96" s="290"/>
     </row>
     <row r="97" spans="1:23" s="289" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B97" s="395" t="s">
+      <c r="B97" s="396" t="s">
         <v>266</v>
       </c>
-      <c r="C97" s="395"/>
-      <c r="D97" s="395"/>
-      <c r="E97" s="393" t="s">
+      <c r="C97" s="396"/>
+      <c r="D97" s="396"/>
+      <c r="E97" s="401" t="s">
         <v>70</v>
       </c>
-      <c r="F97" s="387"/>
-      <c r="G97" s="387"/>
-      <c r="H97" s="387"/>
-      <c r="I97" s="387" t="s">
+      <c r="F97" s="398"/>
+      <c r="G97" s="398"/>
+      <c r="H97" s="398"/>
+      <c r="I97" s="398" t="s">
         <v>70</v>
       </c>
-      <c r="J97" s="387"/>
-      <c r="K97" s="387"/>
-      <c r="L97" s="387"/>
-      <c r="M97" s="387" t="s">
+      <c r="J97" s="398"/>
+      <c r="K97" s="398"/>
+      <c r="L97" s="398"/>
+      <c r="M97" s="398" t="s">
         <v>70</v>
       </c>
-      <c r="N97" s="387"/>
-      <c r="O97" s="387"/>
-      <c r="P97" s="387"/>
-      <c r="Q97" s="385" t="s">
+      <c r="N97" s="398"/>
+      <c r="O97" s="398"/>
+      <c r="P97" s="398"/>
+      <c r="Q97" s="408" t="s">
         <v>264</v>
       </c>
-      <c r="R97" s="386"/>
-      <c r="S97" s="386"/>
-      <c r="T97" s="386"/>
+      <c r="R97" s="409"/>
+      <c r="S97" s="409"/>
+      <c r="T97" s="409"/>
       <c r="W97" s="290"/>
     </row>
     <row r="98" spans="1:23" s="289" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B98" s="395"/>
-      <c r="C98" s="395"/>
-      <c r="D98" s="395"/>
-      <c r="E98" s="389" t="s">
+      <c r="B98" s="396"/>
+      <c r="C98" s="396"/>
+      <c r="D98" s="396"/>
+      <c r="E98" s="410" t="s">
         <v>267</v>
       </c>
-      <c r="F98" s="390"/>
-      <c r="G98" s="390"/>
-      <c r="H98" s="390"/>
-      <c r="I98" s="391" t="s">
+      <c r="F98" s="411"/>
+      <c r="G98" s="411"/>
+      <c r="H98" s="411"/>
+      <c r="I98" s="412" t="s">
         <v>267</v>
       </c>
-      <c r="J98" s="391"/>
-      <c r="K98" s="391"/>
-      <c r="L98" s="391"/>
-      <c r="M98" s="390" t="s">
+      <c r="J98" s="412"/>
+      <c r="K98" s="412"/>
+      <c r="L98" s="412"/>
+      <c r="M98" s="411" t="s">
         <v>267</v>
       </c>
-      <c r="N98" s="390"/>
-      <c r="O98" s="390"/>
-      <c r="P98" s="390"/>
-      <c r="Q98" s="391" t="s">
+      <c r="N98" s="411"/>
+      <c r="O98" s="411"/>
+      <c r="P98" s="411"/>
+      <c r="Q98" s="412" t="s">
         <v>267</v>
       </c>
-      <c r="R98" s="391"/>
-      <c r="S98" s="391"/>
-      <c r="T98" s="392"/>
+      <c r="R98" s="412"/>
+      <c r="S98" s="412"/>
+      <c r="T98" s="413"/>
       <c r="W98" s="290"/>
     </row>
     <row r="99" spans="1:23" s="289" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B99" s="395"/>
-      <c r="C99" s="395"/>
-      <c r="D99" s="395"/>
+      <c r="B99" s="396"/>
+      <c r="C99" s="396"/>
+      <c r="D99" s="396"/>
       <c r="W99" s="290"/>
     </row>
     <row r="100" spans="1:23" s="289" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A100" s="368"/>
-      <c r="B100" s="368"/>
-      <c r="C100" s="368"/>
-      <c r="D100" s="368"/>
-      <c r="E100" s="368"/>
-      <c r="F100" s="368"/>
-      <c r="G100" s="368"/>
-      <c r="H100" s="368"/>
-      <c r="I100" s="368"/>
-      <c r="J100" s="368"/>
-      <c r="K100" s="368"/>
-      <c r="L100" s="368"/>
-      <c r="M100" s="368"/>
-      <c r="N100" s="368"/>
-      <c r="O100" s="368"/>
-      <c r="P100" s="368"/>
-      <c r="Q100" s="368"/>
-      <c r="R100" s="368"/>
-      <c r="S100" s="368"/>
-      <c r="T100" s="368"/>
+      <c r="A100" s="397"/>
+      <c r="B100" s="397"/>
+      <c r="C100" s="397"/>
+      <c r="D100" s="397"/>
+      <c r="E100" s="397"/>
+      <c r="F100" s="397"/>
+      <c r="G100" s="397"/>
+      <c r="H100" s="397"/>
+      <c r="I100" s="397"/>
+      <c r="J100" s="397"/>
+      <c r="K100" s="397"/>
+      <c r="L100" s="397"/>
+      <c r="M100" s="397"/>
+      <c r="N100" s="397"/>
+      <c r="O100" s="397"/>
+      <c r="P100" s="397"/>
+      <c r="Q100" s="397"/>
+      <c r="R100" s="397"/>
+      <c r="S100" s="397"/>
+      <c r="T100" s="397"/>
       <c r="W100" s="290"/>
     </row>
     <row r="101" spans="1:23" s="289" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A101" s="368"/>
-      <c r="B101" s="368"/>
-      <c r="C101" s="368"/>
-      <c r="D101" s="368"/>
-      <c r="E101" s="368"/>
-      <c r="F101" s="368"/>
-      <c r="G101" s="368"/>
-      <c r="H101" s="368"/>
-      <c r="I101" s="368"/>
-      <c r="J101" s="368"/>
-      <c r="K101" s="368"/>
-      <c r="L101" s="368"/>
-      <c r="M101" s="368"/>
-      <c r="N101" s="368"/>
-      <c r="O101" s="368"/>
-      <c r="P101" s="368"/>
-      <c r="Q101" s="368"/>
-      <c r="R101" s="368"/>
-      <c r="S101" s="368"/>
-      <c r="T101" s="368"/>
+      <c r="A101" s="397"/>
+      <c r="B101" s="397"/>
+      <c r="C101" s="397"/>
+      <c r="D101" s="397"/>
+      <c r="E101" s="397"/>
+      <c r="F101" s="397"/>
+      <c r="G101" s="397"/>
+      <c r="H101" s="397"/>
+      <c r="I101" s="397"/>
+      <c r="J101" s="397"/>
+      <c r="K101" s="397"/>
+      <c r="L101" s="397"/>
+      <c r="M101" s="397"/>
+      <c r="N101" s="397"/>
+      <c r="O101" s="397"/>
+      <c r="P101" s="397"/>
+      <c r="Q101" s="397"/>
+      <c r="R101" s="397"/>
+      <c r="S101" s="397"/>
+      <c r="T101" s="397"/>
       <c r="W101" s="290"/>
     </row>
     <row r="102" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A102" s="368"/>
-      <c r="B102" s="368"/>
-      <c r="C102" s="368"/>
-      <c r="D102" s="368"/>
-      <c r="E102" s="368"/>
-      <c r="F102" s="368"/>
-      <c r="G102" s="368"/>
-      <c r="H102" s="368"/>
-      <c r="I102" s="368"/>
-      <c r="J102" s="368"/>
-      <c r="K102" s="368"/>
-      <c r="L102" s="368"/>
-      <c r="M102" s="368"/>
-      <c r="N102" s="368"/>
-      <c r="O102" s="368"/>
-      <c r="P102" s="368"/>
-      <c r="Q102" s="368"/>
-      <c r="R102" s="368"/>
-      <c r="S102" s="368"/>
-      <c r="T102" s="368"/>
+      <c r="A102" s="397"/>
+      <c r="B102" s="397"/>
+      <c r="C102" s="397"/>
+      <c r="D102" s="397"/>
+      <c r="E102" s="397"/>
+      <c r="F102" s="397"/>
+      <c r="G102" s="397"/>
+      <c r="H102" s="397"/>
+      <c r="I102" s="397"/>
+      <c r="J102" s="397"/>
+      <c r="K102" s="397"/>
+      <c r="L102" s="397"/>
+      <c r="M102" s="397"/>
+      <c r="N102" s="397"/>
+      <c r="O102" s="397"/>
+      <c r="P102" s="397"/>
+      <c r="Q102" s="397"/>
+      <c r="R102" s="397"/>
+      <c r="S102" s="397"/>
+      <c r="T102" s="397"/>
     </row>
     <row r="103" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A103" s="368" t="s">
+      <c r="A103" s="397" t="s">
         <v>269</v>
       </c>
-      <c r="B103" s="368"/>
-      <c r="C103" s="368"/>
-      <c r="D103" s="368"/>
-      <c r="E103" s="368"/>
-      <c r="F103" s="368"/>
-      <c r="G103" s="368"/>
-      <c r="H103" s="368"/>
-      <c r="I103" s="368"/>
-      <c r="J103" s="368"/>
-      <c r="K103" s="368"/>
-      <c r="L103" s="368"/>
-      <c r="M103" s="368"/>
-      <c r="N103" s="368"/>
-      <c r="O103" s="368"/>
-      <c r="P103" s="368"/>
-      <c r="Q103" s="368"/>
-      <c r="R103" s="368"/>
-      <c r="S103" s="368"/>
-      <c r="T103" s="368"/>
+      <c r="B103" s="397"/>
+      <c r="C103" s="397"/>
+      <c r="D103" s="397"/>
+      <c r="E103" s="397"/>
+      <c r="F103" s="397"/>
+      <c r="G103" s="397"/>
+      <c r="H103" s="397"/>
+      <c r="I103" s="397"/>
+      <c r="J103" s="397"/>
+      <c r="K103" s="397"/>
+      <c r="L103" s="397"/>
+      <c r="M103" s="397"/>
+      <c r="N103" s="397"/>
+      <c r="O103" s="397"/>
+      <c r="P103" s="397"/>
+      <c r="Q103" s="397"/>
+      <c r="R103" s="397"/>
+      <c r="S103" s="397"/>
+      <c r="T103" s="397"/>
     </row>
     <row r="104" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A104" s="368"/>
-      <c r="B104" s="368"/>
-      <c r="C104" s="368"/>
-      <c r="D104" s="368"/>
-      <c r="E104" s="368"/>
-      <c r="F104" s="368"/>
-      <c r="G104" s="368"/>
-      <c r="H104" s="368"/>
-      <c r="I104" s="368"/>
-      <c r="J104" s="368"/>
-      <c r="K104" s="368"/>
-      <c r="L104" s="368"/>
-      <c r="M104" s="368"/>
-      <c r="N104" s="368"/>
-      <c r="O104" s="368"/>
-      <c r="P104" s="368"/>
-      <c r="Q104" s="368"/>
-      <c r="R104" s="368"/>
-      <c r="S104" s="368"/>
-      <c r="T104" s="368"/>
+      <c r="A104" s="397"/>
+      <c r="B104" s="397"/>
+      <c r="C104" s="397"/>
+      <c r="D104" s="397"/>
+      <c r="E104" s="397"/>
+      <c r="F104" s="397"/>
+      <c r="G104" s="397"/>
+      <c r="H104" s="397"/>
+      <c r="I104" s="397"/>
+      <c r="J104" s="397"/>
+      <c r="K104" s="397"/>
+      <c r="L104" s="397"/>
+      <c r="M104" s="397"/>
+      <c r="N104" s="397"/>
+      <c r="O104" s="397"/>
+      <c r="P104" s="397"/>
+      <c r="Q104" s="397"/>
+      <c r="R104" s="397"/>
+      <c r="S104" s="397"/>
+      <c r="T104" s="397"/>
     </row>
     <row r="105" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A105" s="368"/>
-      <c r="B105" s="368"/>
-      <c r="C105" s="368"/>
-      <c r="D105" s="368"/>
-      <c r="E105" s="381" t="s">
+      <c r="A105" s="397"/>
+      <c r="B105" s="397"/>
+      <c r="C105" s="397"/>
+      <c r="D105" s="397"/>
+      <c r="E105" s="414" t="s">
         <v>269</v>
       </c>
-      <c r="F105" s="381"/>
-      <c r="G105" s="381"/>
-      <c r="H105" s="381"/>
-      <c r="I105" s="382" t="s">
+      <c r="F105" s="414"/>
+      <c r="G105" s="414"/>
+      <c r="H105" s="414"/>
+      <c r="I105" s="415" t="s">
         <v>271</v>
       </c>
-      <c r="J105" s="382"/>
-      <c r="K105" s="382"/>
-      <c r="L105" s="382"/>
-      <c r="M105" s="383" t="s">
+      <c r="J105" s="415"/>
+      <c r="K105" s="415"/>
+      <c r="L105" s="415"/>
+      <c r="M105" s="416" t="s">
         <v>275</v>
       </c>
-      <c r="N105" s="383"/>
-      <c r="O105" s="383"/>
-      <c r="P105" s="383"/>
-      <c r="Q105" s="368"/>
-      <c r="R105" s="368"/>
-      <c r="S105" s="368"/>
-      <c r="T105" s="368"/>
+      <c r="N105" s="416"/>
+      <c r="O105" s="416"/>
+      <c r="P105" s="416"/>
+      <c r="Q105" s="397"/>
+      <c r="R105" s="397"/>
+      <c r="S105" s="397"/>
+      <c r="T105" s="397"/>
     </row>
     <row r="106" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A106" s="368"/>
-      <c r="B106" s="368"/>
-      <c r="C106" s="368"/>
-      <c r="D106" s="368"/>
-      <c r="E106" s="378" t="s">
+      <c r="A106" s="397"/>
+      <c r="B106" s="397"/>
+      <c r="C106" s="397"/>
+      <c r="D106" s="397"/>
+      <c r="E106" s="420" t="s">
         <v>270</v>
       </c>
-      <c r="F106" s="378"/>
-      <c r="G106" s="378"/>
-      <c r="H106" s="378"/>
-      <c r="I106" s="379" t="s">
+      <c r="F106" s="420"/>
+      <c r="G106" s="420"/>
+      <c r="H106" s="420"/>
+      <c r="I106" s="421" t="s">
         <v>272</v>
       </c>
-      <c r="J106" s="379"/>
-      <c r="K106" s="379"/>
-      <c r="L106" s="379"/>
-      <c r="M106" s="380" t="s">
+      <c r="J106" s="421"/>
+      <c r="K106" s="421"/>
+      <c r="L106" s="421"/>
+      <c r="M106" s="422" t="s">
         <v>276</v>
       </c>
-      <c r="N106" s="380"/>
-      <c r="O106" s="380"/>
-      <c r="P106" s="380"/>
-      <c r="Q106" s="368"/>
-      <c r="R106" s="368"/>
-      <c r="S106" s="368"/>
-      <c r="T106" s="368"/>
+      <c r="N106" s="422"/>
+      <c r="O106" s="422"/>
+      <c r="P106" s="422"/>
+      <c r="Q106" s="397"/>
+      <c r="R106" s="397"/>
+      <c r="S106" s="397"/>
+      <c r="T106" s="397"/>
     </row>
     <row r="107" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A107" s="368"/>
-      <c r="B107" s="368"/>
-      <c r="C107" s="368"/>
-      <c r="D107" s="368"/>
-      <c r="E107" s="375" t="s">
+      <c r="A107" s="397"/>
+      <c r="B107" s="397"/>
+      <c r="C107" s="397"/>
+      <c r="D107" s="397"/>
+      <c r="E107" s="417" t="s">
         <v>273</v>
       </c>
-      <c r="F107" s="375"/>
-      <c r="G107" s="375"/>
-      <c r="H107" s="375"/>
-      <c r="I107" s="376" t="s">
+      <c r="F107" s="417"/>
+      <c r="G107" s="417"/>
+      <c r="H107" s="417"/>
+      <c r="I107" s="418" t="s">
         <v>274</v>
       </c>
-      <c r="J107" s="376"/>
-      <c r="K107" s="376"/>
-      <c r="L107" s="376"/>
-      <c r="M107" s="377" t="s">
+      <c r="J107" s="418"/>
+      <c r="K107" s="418"/>
+      <c r="L107" s="418"/>
+      <c r="M107" s="419" t="s">
         <v>274</v>
       </c>
-      <c r="N107" s="377"/>
-      <c r="O107" s="377"/>
-      <c r="P107" s="377"/>
-      <c r="Q107" s="368"/>
-      <c r="R107" s="368"/>
-      <c r="S107" s="368"/>
-      <c r="T107" s="368"/>
+      <c r="N107" s="419"/>
+      <c r="O107" s="419"/>
+      <c r="P107" s="419"/>
+      <c r="Q107" s="397"/>
+      <c r="R107" s="397"/>
+      <c r="S107" s="397"/>
+      <c r="T107" s="397"/>
     </row>
     <row r="108" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A108" s="371" t="s">
+      <c r="A108" s="425" t="s">
         <v>277</v>
       </c>
-      <c r="B108" s="371"/>
-      <c r="C108" s="371"/>
-      <c r="D108" s="371"/>
-      <c r="E108" s="372" t="s">
+      <c r="B108" s="425"/>
+      <c r="C108" s="425"/>
+      <c r="D108" s="425"/>
+      <c r="E108" s="426" t="s">
         <v>278</v>
       </c>
-      <c r="F108" s="372"/>
-      <c r="G108" s="372"/>
-      <c r="H108" s="372"/>
-      <c r="I108" s="373" t="s">
+      <c r="F108" s="426"/>
+      <c r="G108" s="426"/>
+      <c r="H108" s="426"/>
+      <c r="I108" s="427" t="s">
         <v>279</v>
       </c>
-      <c r="J108" s="373"/>
-      <c r="K108" s="373"/>
-      <c r="L108" s="373"/>
-      <c r="M108" s="374" t="s">
+      <c r="J108" s="427"/>
+      <c r="K108" s="427"/>
+      <c r="L108" s="427"/>
+      <c r="M108" s="428" t="s">
         <v>280</v>
       </c>
-      <c r="N108" s="374"/>
-      <c r="O108" s="374"/>
-      <c r="P108" s="374"/>
-      <c r="Q108" s="368"/>
-      <c r="R108" s="368"/>
-      <c r="S108" s="368"/>
-      <c r="T108" s="368"/>
+      <c r="N108" s="428"/>
+      <c r="O108" s="428"/>
+      <c r="P108" s="428"/>
+      <c r="Q108" s="397"/>
+      <c r="R108" s="397"/>
+      <c r="S108" s="397"/>
+      <c r="T108" s="397"/>
     </row>
     <row r="109" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A109" s="368"/>
-      <c r="B109" s="368"/>
-      <c r="C109" s="368"/>
-      <c r="D109" s="368"/>
-      <c r="E109" s="369"/>
-      <c r="F109" s="369"/>
-      <c r="G109" s="369"/>
-      <c r="H109" s="369"/>
-      <c r="K109" s="370" t="s">
+      <c r="A109" s="397"/>
+      <c r="B109" s="397"/>
+      <c r="C109" s="397"/>
+      <c r="D109" s="397"/>
+      <c r="E109" s="423"/>
+      <c r="F109" s="423"/>
+      <c r="G109" s="423"/>
+      <c r="H109" s="423"/>
+      <c r="K109" s="424" t="s">
         <v>281</v>
       </c>
-      <c r="L109" s="370"/>
-      <c r="M109" s="370"/>
-      <c r="N109" s="370"/>
-      <c r="O109" s="370"/>
-      <c r="P109" s="370"/>
-      <c r="Q109" s="368"/>
-      <c r="R109" s="368"/>
-      <c r="S109" s="368"/>
-      <c r="T109" s="368"/>
+      <c r="L109" s="424"/>
+      <c r="M109" s="424"/>
+      <c r="N109" s="424"/>
+      <c r="O109" s="424"/>
+      <c r="P109" s="424"/>
+      <c r="Q109" s="397"/>
+      <c r="R109" s="397"/>
+      <c r="S109" s="397"/>
+      <c r="T109" s="397"/>
     </row>
     <row r="110" spans="1:23" ht="37.5" customHeight="1">
-      <c r="A110" s="368"/>
-      <c r="B110" s="368"/>
-      <c r="C110" s="368"/>
-      <c r="D110" s="368"/>
-      <c r="E110" s="368"/>
-      <c r="F110" s="368"/>
-      <c r="G110" s="368"/>
-      <c r="H110" s="368"/>
-      <c r="I110" s="368"/>
-      <c r="J110" s="368"/>
-      <c r="K110" s="368"/>
-      <c r="L110" s="368"/>
-      <c r="M110" s="368"/>
-      <c r="N110" s="368"/>
-      <c r="O110" s="368"/>
-      <c r="P110" s="368"/>
-      <c r="Q110" s="368"/>
-      <c r="R110" s="368"/>
-      <c r="S110" s="368"/>
-      <c r="T110" s="368"/>
+      <c r="A110" s="397"/>
+      <c r="B110" s="397"/>
+      <c r="C110" s="397"/>
+      <c r="D110" s="397"/>
+      <c r="E110" s="397"/>
+      <c r="F110" s="397"/>
+      <c r="G110" s="397"/>
+      <c r="H110" s="397"/>
+      <c r="I110" s="397"/>
+      <c r="J110" s="397"/>
+      <c r="K110" s="397"/>
+      <c r="L110" s="397"/>
+      <c r="M110" s="397"/>
+      <c r="N110" s="397"/>
+      <c r="O110" s="397"/>
+      <c r="P110" s="397"/>
+      <c r="Q110" s="397"/>
+      <c r="R110" s="397"/>
+      <c r="S110" s="397"/>
+      <c r="T110" s="397"/>
     </row>
     <row r="111" spans="1:23" ht="21">
-      <c r="A111" s="368"/>
-      <c r="B111" s="368"/>
-      <c r="C111" s="368"/>
-      <c r="D111" s="368"/>
-      <c r="E111" s="368"/>
-      <c r="F111" s="368"/>
-      <c r="G111" s="368"/>
-      <c r="H111" s="368"/>
-      <c r="I111" s="368"/>
-      <c r="J111" s="368"/>
-      <c r="K111" s="368"/>
-      <c r="L111" s="368"/>
-      <c r="M111" s="368"/>
-      <c r="N111" s="368"/>
-      <c r="O111" s="368"/>
-      <c r="P111" s="368"/>
-      <c r="Q111" s="368"/>
-      <c r="R111" s="368"/>
-      <c r="S111" s="368"/>
-      <c r="T111" s="368"/>
+      <c r="A111" s="397"/>
+      <c r="B111" s="397"/>
+      <c r="C111" s="397"/>
+      <c r="D111" s="397"/>
+      <c r="E111" s="397"/>
+      <c r="F111" s="397"/>
+      <c r="G111" s="397"/>
+      <c r="H111" s="397"/>
+      <c r="I111" s="397"/>
+      <c r="J111" s="397"/>
+      <c r="K111" s="397"/>
+      <c r="L111" s="397"/>
+      <c r="M111" s="397"/>
+      <c r="N111" s="397"/>
+      <c r="O111" s="397"/>
+      <c r="P111" s="397"/>
+      <c r="Q111" s="397"/>
+      <c r="R111" s="397"/>
+      <c r="S111" s="397"/>
+      <c r="T111" s="397"/>
     </row>
     <row r="112" spans="1:23" ht="21">
-      <c r="A112" s="368"/>
-      <c r="B112" s="368"/>
-      <c r="C112" s="368"/>
-      <c r="D112" s="368"/>
-      <c r="E112" s="368"/>
-      <c r="F112" s="368"/>
-      <c r="G112" s="368"/>
-      <c r="H112" s="368"/>
-      <c r="I112" s="368"/>
-      <c r="J112" s="368"/>
-      <c r="K112" s="368"/>
-      <c r="L112" s="368"/>
-      <c r="M112" s="368"/>
-      <c r="N112" s="368"/>
-      <c r="O112" s="368"/>
-      <c r="P112" s="368"/>
-      <c r="Q112" s="368"/>
-      <c r="R112" s="368"/>
-      <c r="S112" s="368"/>
-      <c r="T112" s="368"/>
+      <c r="A112" s="397"/>
+      <c r="B112" s="397"/>
+      <c r="C112" s="397"/>
+      <c r="D112" s="397"/>
+      <c r="E112" s="397"/>
+      <c r="F112" s="397"/>
+      <c r="G112" s="397"/>
+      <c r="H112" s="397"/>
+      <c r="I112" s="397"/>
+      <c r="J112" s="397"/>
+      <c r="K112" s="397"/>
+      <c r="L112" s="397"/>
+      <c r="M112" s="397"/>
+      <c r="N112" s="397"/>
+      <c r="O112" s="397"/>
+      <c r="P112" s="397"/>
+      <c r="Q112" s="397"/>
+      <c r="R112" s="397"/>
+      <c r="S112" s="397"/>
+      <c r="T112" s="397"/>
     </row>
     <row r="113" spans="1:20" ht="21">
-      <c r="A113" s="368"/>
-      <c r="B113" s="368"/>
-      <c r="C113" s="368"/>
-      <c r="D113" s="368"/>
-      <c r="E113" s="368"/>
-      <c r="F113" s="368"/>
-      <c r="G113" s="368"/>
-      <c r="H113" s="368"/>
-      <c r="I113" s="368"/>
-      <c r="J113" s="368"/>
-      <c r="K113" s="368"/>
-      <c r="L113" s="368"/>
-      <c r="M113" s="368"/>
-      <c r="N113" s="368"/>
-      <c r="O113" s="368"/>
-      <c r="P113" s="368"/>
-      <c r="Q113" s="368"/>
-      <c r="R113" s="368"/>
-      <c r="S113" s="368"/>
-      <c r="T113" s="368"/>
+      <c r="A113" s="397"/>
+      <c r="B113" s="397"/>
+      <c r="C113" s="397"/>
+      <c r="D113" s="397"/>
+      <c r="E113" s="397"/>
+      <c r="F113" s="397"/>
+      <c r="G113" s="397"/>
+      <c r="H113" s="397"/>
+      <c r="I113" s="397"/>
+      <c r="J113" s="397"/>
+      <c r="K113" s="397"/>
+      <c r="L113" s="397"/>
+      <c r="M113" s="397"/>
+      <c r="N113" s="397"/>
+      <c r="O113" s="397"/>
+      <c r="P113" s="397"/>
+      <c r="Q113" s="397"/>
+      <c r="R113" s="397"/>
+      <c r="S113" s="397"/>
+      <c r="T113" s="397"/>
     </row>
     <row r="114" spans="1:20" ht="21">
-      <c r="A114" s="368"/>
-      <c r="B114" s="368"/>
-      <c r="C114" s="368"/>
-      <c r="D114" s="368"/>
-      <c r="E114" s="368"/>
-      <c r="F114" s="368"/>
-      <c r="G114" s="368"/>
-      <c r="H114" s="368"/>
-      <c r="I114" s="368"/>
-      <c r="J114" s="368"/>
-      <c r="K114" s="368"/>
-      <c r="L114" s="368"/>
-      <c r="M114" s="368"/>
-      <c r="N114" s="368"/>
-      <c r="O114" s="368"/>
-      <c r="P114" s="368"/>
-      <c r="Q114" s="368"/>
-      <c r="R114" s="368"/>
-      <c r="S114" s="368"/>
-      <c r="T114" s="368"/>
+      <c r="A114" s="397"/>
+      <c r="B114" s="397"/>
+      <c r="C114" s="397"/>
+      <c r="D114" s="397"/>
+      <c r="E114" s="397"/>
+      <c r="F114" s="397"/>
+      <c r="G114" s="397"/>
+      <c r="H114" s="397"/>
+      <c r="I114" s="397"/>
+      <c r="J114" s="397"/>
+      <c r="K114" s="397"/>
+      <c r="L114" s="397"/>
+      <c r="M114" s="397"/>
+      <c r="N114" s="397"/>
+      <c r="O114" s="397"/>
+      <c r="P114" s="397"/>
+      <c r="Q114" s="397"/>
+      <c r="R114" s="397"/>
+      <c r="S114" s="397"/>
+      <c r="T114" s="397"/>
     </row>
     <row r="115" spans="1:20" ht="21">
-      <c r="A115" s="368"/>
-      <c r="B115" s="368"/>
-      <c r="C115" s="368"/>
-      <c r="D115" s="368"/>
-      <c r="E115" s="368"/>
-      <c r="F115" s="368"/>
-      <c r="G115" s="368"/>
-      <c r="H115" s="368"/>
-      <c r="I115" s="368"/>
-      <c r="J115" s="368"/>
-      <c r="K115" s="368"/>
-      <c r="L115" s="368"/>
-      <c r="M115" s="368"/>
-      <c r="N115" s="368"/>
-      <c r="O115" s="368"/>
-      <c r="P115" s="368"/>
-      <c r="Q115" s="368"/>
-      <c r="R115" s="368"/>
-      <c r="S115" s="368"/>
-      <c r="T115" s="368"/>
+      <c r="A115" s="397"/>
+      <c r="B115" s="397"/>
+      <c r="C115" s="397"/>
+      <c r="D115" s="397"/>
+      <c r="E115" s="397"/>
+      <c r="F115" s="397"/>
+      <c r="G115" s="397"/>
+      <c r="H115" s="397"/>
+      <c r="I115" s="397"/>
+      <c r="J115" s="397"/>
+      <c r="K115" s="397"/>
+      <c r="L115" s="397"/>
+      <c r="M115" s="397"/>
+      <c r="N115" s="397"/>
+      <c r="O115" s="397"/>
+      <c r="P115" s="397"/>
+      <c r="Q115" s="397"/>
+      <c r="R115" s="397"/>
+      <c r="S115" s="397"/>
+      <c r="T115" s="397"/>
     </row>
     <row r="116" spans="1:20" ht="21">
-      <c r="A116" s="368"/>
-      <c r="B116" s="368"/>
-      <c r="C116" s="368"/>
-      <c r="D116" s="368"/>
-      <c r="E116" s="368"/>
-      <c r="F116" s="368"/>
-      <c r="G116" s="368"/>
-      <c r="H116" s="368"/>
-      <c r="I116" s="368"/>
-      <c r="J116" s="368"/>
-      <c r="K116" s="368"/>
-      <c r="L116" s="368"/>
-      <c r="M116" s="368"/>
-      <c r="N116" s="368"/>
-      <c r="O116" s="368"/>
-      <c r="P116" s="368"/>
-      <c r="Q116" s="368"/>
-      <c r="R116" s="368"/>
-      <c r="S116" s="368"/>
-      <c r="T116" s="368"/>
+      <c r="A116" s="397"/>
+      <c r="B116" s="397"/>
+      <c r="C116" s="397"/>
+      <c r="D116" s="397"/>
+      <c r="E116" s="397"/>
+      <c r="F116" s="397"/>
+      <c r="G116" s="397"/>
+      <c r="H116" s="397"/>
+      <c r="I116" s="397"/>
+      <c r="J116" s="397"/>
+      <c r="K116" s="397"/>
+      <c r="L116" s="397"/>
+      <c r="M116" s="397"/>
+      <c r="N116" s="397"/>
+      <c r="O116" s="397"/>
+      <c r="P116" s="397"/>
+      <c r="Q116" s="397"/>
+      <c r="R116" s="397"/>
+      <c r="S116" s="397"/>
+      <c r="T116" s="397"/>
     </row>
     <row r="117" spans="1:20" ht="21">
-      <c r="A117" s="368"/>
-      <c r="B117" s="368"/>
-      <c r="C117" s="368"/>
-      <c r="D117" s="368"/>
-      <c r="E117" s="368"/>
-      <c r="F117" s="368"/>
-      <c r="G117" s="368"/>
-      <c r="H117" s="368"/>
-      <c r="I117" s="368"/>
-      <c r="J117" s="368"/>
-      <c r="K117" s="368"/>
-      <c r="L117" s="368"/>
-      <c r="M117" s="368"/>
-      <c r="N117" s="368"/>
-      <c r="O117" s="368"/>
-      <c r="P117" s="368"/>
-      <c r="Q117" s="368"/>
-      <c r="R117" s="368"/>
-      <c r="S117" s="368"/>
-      <c r="T117" s="368"/>
+      <c r="A117" s="397"/>
+      <c r="B117" s="397"/>
+      <c r="C117" s="397"/>
+      <c r="D117" s="397"/>
+      <c r="E117" s="397"/>
+      <c r="F117" s="397"/>
+      <c r="G117" s="397"/>
+      <c r="H117" s="397"/>
+      <c r="I117" s="397"/>
+      <c r="J117" s="397"/>
+      <c r="K117" s="397"/>
+      <c r="L117" s="397"/>
+      <c r="M117" s="397"/>
+      <c r="N117" s="397"/>
+      <c r="O117" s="397"/>
+      <c r="P117" s="397"/>
+      <c r="Q117" s="397"/>
+      <c r="R117" s="397"/>
+      <c r="S117" s="397"/>
+      <c r="T117" s="397"/>
     </row>
     <row r="118" spans="1:20" ht="21">
-      <c r="A118" s="368"/>
-      <c r="B118" s="368"/>
-      <c r="C118" s="368"/>
-      <c r="D118" s="368"/>
-      <c r="E118" s="368"/>
-      <c r="F118" s="368"/>
-      <c r="G118" s="368"/>
-      <c r="H118" s="368"/>
-      <c r="I118" s="368"/>
-      <c r="J118" s="368"/>
-      <c r="K118" s="368"/>
-      <c r="L118" s="368"/>
-      <c r="M118" s="368"/>
-      <c r="N118" s="368"/>
-      <c r="O118" s="368"/>
-      <c r="P118" s="368"/>
-      <c r="Q118" s="368"/>
-      <c r="R118" s="368"/>
-      <c r="S118" s="368"/>
-      <c r="T118" s="368"/>
+      <c r="A118" s="397"/>
+      <c r="B118" s="397"/>
+      <c r="C118" s="397"/>
+      <c r="D118" s="397"/>
+      <c r="E118" s="397"/>
+      <c r="F118" s="397"/>
+      <c r="G118" s="397"/>
+      <c r="H118" s="397"/>
+      <c r="I118" s="397"/>
+      <c r="J118" s="397"/>
+      <c r="K118" s="397"/>
+      <c r="L118" s="397"/>
+      <c r="M118" s="397"/>
+      <c r="N118" s="397"/>
+      <c r="O118" s="397"/>
+      <c r="P118" s="397"/>
+      <c r="Q118" s="397"/>
+      <c r="R118" s="397"/>
+      <c r="S118" s="397"/>
+      <c r="T118" s="397"/>
     </row>
     <row r="119" spans="1:20" ht="21">
-      <c r="A119" s="368"/>
-      <c r="B119" s="368"/>
-      <c r="C119" s="368"/>
-      <c r="D119" s="368"/>
-      <c r="E119" s="368"/>
-      <c r="F119" s="368"/>
-      <c r="G119" s="368"/>
-      <c r="H119" s="368"/>
-      <c r="I119" s="368"/>
-      <c r="J119" s="368"/>
-      <c r="K119" s="368"/>
-      <c r="L119" s="368"/>
-      <c r="M119" s="368"/>
-      <c r="N119" s="368"/>
-      <c r="O119" s="368"/>
-      <c r="P119" s="368"/>
-      <c r="Q119" s="368"/>
-      <c r="R119" s="368"/>
-      <c r="S119" s="368"/>
-      <c r="T119" s="368"/>
+      <c r="A119" s="397"/>
+      <c r="B119" s="397"/>
+      <c r="C119" s="397"/>
+      <c r="D119" s="397"/>
+      <c r="E119" s="397"/>
+      <c r="F119" s="397"/>
+      <c r="G119" s="397"/>
+      <c r="H119" s="397"/>
+      <c r="I119" s="397"/>
+      <c r="J119" s="397"/>
+      <c r="K119" s="397"/>
+      <c r="L119" s="397"/>
+      <c r="M119" s="397"/>
+      <c r="N119" s="397"/>
+      <c r="O119" s="397"/>
+      <c r="P119" s="397"/>
+      <c r="Q119" s="397"/>
+      <c r="R119" s="397"/>
+      <c r="S119" s="397"/>
+      <c r="T119" s="397"/>
     </row>
     <row r="120" spans="1:20" ht="21">
-      <c r="A120" s="368"/>
-      <c r="B120" s="368"/>
-      <c r="C120" s="368"/>
-      <c r="D120" s="368"/>
-      <c r="E120" s="368"/>
-      <c r="F120" s="368"/>
-      <c r="G120" s="368"/>
-      <c r="H120" s="368"/>
-      <c r="I120" s="368"/>
-      <c r="J120" s="368"/>
-      <c r="K120" s="368"/>
-      <c r="L120" s="368"/>
-      <c r="M120" s="368"/>
-      <c r="N120" s="368"/>
-      <c r="O120" s="368"/>
-      <c r="P120" s="368"/>
-      <c r="Q120" s="368"/>
-      <c r="R120" s="368"/>
-      <c r="S120" s="368"/>
-      <c r="T120" s="368"/>
+      <c r="A120" s="397"/>
+      <c r="B120" s="397"/>
+      <c r="C120" s="397"/>
+      <c r="D120" s="397"/>
+      <c r="E120" s="397"/>
+      <c r="F120" s="397"/>
+      <c r="G120" s="397"/>
+      <c r="H120" s="397"/>
+      <c r="I120" s="397"/>
+      <c r="J120" s="397"/>
+      <c r="K120" s="397"/>
+      <c r="L120" s="397"/>
+      <c r="M120" s="397"/>
+      <c r="N120" s="397"/>
+      <c r="O120" s="397"/>
+      <c r="P120" s="397"/>
+      <c r="Q120" s="397"/>
+      <c r="R120" s="397"/>
+      <c r="S120" s="397"/>
+      <c r="T120" s="397"/>
     </row>
     <row r="121" spans="1:20" ht="21">
-      <c r="A121" s="368"/>
-      <c r="B121" s="368"/>
-      <c r="C121" s="368"/>
-      <c r="D121" s="368"/>
-      <c r="E121" s="368"/>
-      <c r="F121" s="368"/>
-      <c r="G121" s="368"/>
-      <c r="H121" s="368"/>
-      <c r="I121" s="368"/>
-      <c r="J121" s="368"/>
-      <c r="K121" s="368"/>
-      <c r="L121" s="368"/>
-      <c r="M121" s="368"/>
-      <c r="N121" s="368"/>
-      <c r="O121" s="368"/>
-      <c r="P121" s="368"/>
-      <c r="Q121" s="368"/>
-      <c r="R121" s="368"/>
-      <c r="S121" s="368"/>
-      <c r="T121" s="368"/>
+      <c r="A121" s="397"/>
+      <c r="B121" s="397"/>
+      <c r="C121" s="397"/>
+      <c r="D121" s="397"/>
+      <c r="E121" s="397"/>
+      <c r="F121" s="397"/>
+      <c r="G121" s="397"/>
+      <c r="H121" s="397"/>
+      <c r="I121" s="397"/>
+      <c r="J121" s="397"/>
+      <c r="K121" s="397"/>
+      <c r="L121" s="397"/>
+      <c r="M121" s="397"/>
+      <c r="N121" s="397"/>
+      <c r="O121" s="397"/>
+      <c r="P121" s="397"/>
+      <c r="Q121" s="397"/>
+      <c r="R121" s="397"/>
+      <c r="S121" s="397"/>
+      <c r="T121" s="397"/>
     </row>
     <row r="122" spans="1:20" ht="21">
-      <c r="A122" s="368"/>
-      <c r="B122" s="368"/>
-      <c r="C122" s="368"/>
-      <c r="D122" s="368"/>
-      <c r="E122" s="368"/>
-      <c r="F122" s="368"/>
-      <c r="G122" s="368"/>
-      <c r="H122" s="368"/>
-      <c r="I122" s="368"/>
-      <c r="J122" s="368"/>
-      <c r="K122" s="368"/>
-      <c r="L122" s="368"/>
-      <c r="M122" s="368"/>
-      <c r="N122" s="368"/>
-      <c r="O122" s="368"/>
-      <c r="P122" s="368"/>
-      <c r="Q122" s="368"/>
-      <c r="R122" s="368"/>
-      <c r="S122" s="368"/>
-      <c r="T122" s="368"/>
+      <c r="A122" s="397"/>
+      <c r="B122" s="397"/>
+      <c r="C122" s="397"/>
+      <c r="D122" s="397"/>
+      <c r="E122" s="397"/>
+      <c r="F122" s="397"/>
+      <c r="G122" s="397"/>
+      <c r="H122" s="397"/>
+      <c r="I122" s="397"/>
+      <c r="J122" s="397"/>
+      <c r="K122" s="397"/>
+      <c r="L122" s="397"/>
+      <c r="M122" s="397"/>
+      <c r="N122" s="397"/>
+      <c r="O122" s="397"/>
+      <c r="P122" s="397"/>
+      <c r="Q122" s="397"/>
+      <c r="R122" s="397"/>
+      <c r="S122" s="397"/>
+      <c r="T122" s="397"/>
     </row>
     <row r="123" spans="1:20" ht="21">
-      <c r="A123" s="368"/>
-      <c r="B123" s="368"/>
-      <c r="C123" s="368"/>
-      <c r="D123" s="368"/>
-      <c r="E123" s="368"/>
-      <c r="F123" s="368"/>
-      <c r="G123" s="368"/>
-      <c r="H123" s="368"/>
-      <c r="I123" s="368"/>
-      <c r="J123" s="368"/>
-      <c r="K123" s="368"/>
-      <c r="L123" s="368"/>
-      <c r="M123" s="368"/>
-      <c r="N123" s="368"/>
-      <c r="O123" s="368"/>
-      <c r="P123" s="368"/>
-      <c r="Q123" s="368"/>
-      <c r="R123" s="368"/>
-      <c r="S123" s="368"/>
-      <c r="T123" s="368"/>
+      <c r="A123" s="397"/>
+      <c r="B123" s="397"/>
+      <c r="C123" s="397"/>
+      <c r="D123" s="397"/>
+      <c r="E123" s="397"/>
+      <c r="F123" s="397"/>
+      <c r="G123" s="397"/>
+      <c r="H123" s="397"/>
+      <c r="I123" s="397"/>
+      <c r="J123" s="397"/>
+      <c r="K123" s="397"/>
+      <c r="L123" s="397"/>
+      <c r="M123" s="397"/>
+      <c r="N123" s="397"/>
+      <c r="O123" s="397"/>
+      <c r="P123" s="397"/>
+      <c r="Q123" s="397"/>
+      <c r="R123" s="397"/>
+      <c r="S123" s="397"/>
+      <c r="T123" s="397"/>
     </row>
     <row r="124" spans="1:20" ht="21">
-      <c r="A124" s="368"/>
-      <c r="B124" s="368"/>
-      <c r="C124" s="368"/>
-      <c r="D124" s="368"/>
-      <c r="E124" s="368"/>
-      <c r="F124" s="368"/>
-      <c r="G124" s="368"/>
-      <c r="H124" s="368"/>
-      <c r="I124" s="368"/>
-      <c r="J124" s="368"/>
-      <c r="K124" s="368"/>
-      <c r="L124" s="368"/>
-      <c r="M124" s="368"/>
-      <c r="N124" s="368"/>
-      <c r="O124" s="368"/>
-      <c r="P124" s="368"/>
-      <c r="Q124" s="368"/>
-      <c r="R124" s="368"/>
-      <c r="S124" s="368"/>
-      <c r="T124" s="368"/>
+      <c r="A124" s="397"/>
+      <c r="B124" s="397"/>
+      <c r="C124" s="397"/>
+      <c r="D124" s="397"/>
+      <c r="E124" s="397"/>
+      <c r="F124" s="397"/>
+      <c r="G124" s="397"/>
+      <c r="H124" s="397"/>
+      <c r="I124" s="397"/>
+      <c r="J124" s="397"/>
+      <c r="K124" s="397"/>
+      <c r="L124" s="397"/>
+      <c r="M124" s="397"/>
+      <c r="N124" s="397"/>
+      <c r="O124" s="397"/>
+      <c r="P124" s="397"/>
+      <c r="Q124" s="397"/>
+      <c r="R124" s="397"/>
+      <c r="S124" s="397"/>
+      <c r="T124" s="397"/>
     </row>
     <row r="125" spans="1:20" ht="21">
-      <c r="A125" s="368"/>
-      <c r="B125" s="368"/>
-      <c r="C125" s="368"/>
-      <c r="D125" s="368"/>
-      <c r="E125" s="368"/>
-      <c r="F125" s="368"/>
-      <c r="G125" s="368"/>
-      <c r="H125" s="368"/>
-      <c r="I125" s="368"/>
-      <c r="J125" s="368"/>
-      <c r="K125" s="368"/>
-      <c r="L125" s="368"/>
-      <c r="M125" s="368"/>
-      <c r="N125" s="368"/>
-      <c r="O125" s="368"/>
-      <c r="P125" s="368"/>
-      <c r="Q125" s="368"/>
-      <c r="R125" s="368"/>
-      <c r="S125" s="368"/>
-      <c r="T125" s="368"/>
+      <c r="A125" s="397"/>
+      <c r="B125" s="397"/>
+      <c r="C125" s="397"/>
+      <c r="D125" s="397"/>
+      <c r="E125" s="397"/>
+      <c r="F125" s="397"/>
+      <c r="G125" s="397"/>
+      <c r="H125" s="397"/>
+      <c r="I125" s="397"/>
+      <c r="J125" s="397"/>
+      <c r="K125" s="397"/>
+      <c r="L125" s="397"/>
+      <c r="M125" s="397"/>
+      <c r="N125" s="397"/>
+      <c r="O125" s="397"/>
+      <c r="P125" s="397"/>
+      <c r="Q125" s="397"/>
+      <c r="R125" s="397"/>
+      <c r="S125" s="397"/>
+      <c r="T125" s="397"/>
     </row>
     <row r="126" spans="1:20" ht="21">
-      <c r="A126" s="368"/>
-      <c r="B126" s="368"/>
-      <c r="C126" s="368"/>
-      <c r="D126" s="368"/>
-      <c r="E126" s="368"/>
-      <c r="F126" s="368"/>
-      <c r="G126" s="368"/>
-      <c r="H126" s="368"/>
-      <c r="I126" s="368"/>
-      <c r="J126" s="368"/>
-      <c r="K126" s="368"/>
-      <c r="L126" s="368"/>
-      <c r="M126" s="368"/>
-      <c r="N126" s="368"/>
-      <c r="O126" s="368"/>
-      <c r="P126" s="368"/>
-      <c r="Q126" s="368"/>
-      <c r="R126" s="368"/>
-      <c r="S126" s="368"/>
-      <c r="T126" s="368"/>
+      <c r="A126" s="397"/>
+      <c r="B126" s="397"/>
+      <c r="C126" s="397"/>
+      <c r="D126" s="397"/>
+      <c r="E126" s="397"/>
+      <c r="F126" s="397"/>
+      <c r="G126" s="397"/>
+      <c r="H126" s="397"/>
+      <c r="I126" s="397"/>
+      <c r="J126" s="397"/>
+      <c r="K126" s="397"/>
+      <c r="L126" s="397"/>
+      <c r="M126" s="397"/>
+      <c r="N126" s="397"/>
+      <c r="O126" s="397"/>
+      <c r="P126" s="397"/>
+      <c r="Q126" s="397"/>
+      <c r="R126" s="397"/>
+      <c r="S126" s="397"/>
+      <c r="T126" s="397"/>
     </row>
     <row r="127" spans="1:20" ht="21">
-      <c r="A127" s="368"/>
-      <c r="B127" s="368"/>
-      <c r="C127" s="368"/>
-      <c r="D127" s="368"/>
-      <c r="E127" s="368"/>
-      <c r="F127" s="368"/>
-      <c r="G127" s="368"/>
-      <c r="H127" s="368"/>
-      <c r="I127" s="368"/>
-      <c r="J127" s="368"/>
-      <c r="K127" s="368"/>
-      <c r="L127" s="368"/>
-      <c r="M127" s="368"/>
-      <c r="N127" s="368"/>
-      <c r="O127" s="368"/>
-      <c r="P127" s="368"/>
-      <c r="Q127" s="368"/>
-      <c r="R127" s="368"/>
-      <c r="S127" s="368"/>
-      <c r="T127" s="368"/>
+      <c r="A127" s="397"/>
+      <c r="B127" s="397"/>
+      <c r="C127" s="397"/>
+      <c r="D127" s="397"/>
+      <c r="E127" s="397"/>
+      <c r="F127" s="397"/>
+      <c r="G127" s="397"/>
+      <c r="H127" s="397"/>
+      <c r="I127" s="397"/>
+      <c r="J127" s="397"/>
+      <c r="K127" s="397"/>
+      <c r="L127" s="397"/>
+      <c r="M127" s="397"/>
+      <c r="N127" s="397"/>
+      <c r="O127" s="397"/>
+      <c r="P127" s="397"/>
+      <c r="Q127" s="397"/>
+      <c r="R127" s="397"/>
+      <c r="S127" s="397"/>
+      <c r="T127" s="397"/>
     </row>
     <row r="128" spans="1:20" ht="21">
-      <c r="A128" s="368"/>
-      <c r="B128" s="368"/>
-      <c r="C128" s="368"/>
-      <c r="D128" s="368"/>
-      <c r="E128" s="368"/>
-      <c r="F128" s="368"/>
-      <c r="G128" s="368"/>
-      <c r="H128" s="368"/>
-      <c r="I128" s="368"/>
-      <c r="J128" s="368"/>
-      <c r="K128" s="368"/>
-      <c r="L128" s="368"/>
-      <c r="M128" s="368"/>
-      <c r="N128" s="368"/>
-      <c r="O128" s="368"/>
-      <c r="P128" s="368"/>
-      <c r="Q128" s="368"/>
-      <c r="R128" s="368"/>
-      <c r="S128" s="368"/>
-      <c r="T128" s="368"/>
+      <c r="A128" s="397"/>
+      <c r="B128" s="397"/>
+      <c r="C128" s="397"/>
+      <c r="D128" s="397"/>
+      <c r="E128" s="397"/>
+      <c r="F128" s="397"/>
+      <c r="G128" s="397"/>
+      <c r="H128" s="397"/>
+      <c r="I128" s="397"/>
+      <c r="J128" s="397"/>
+      <c r="K128" s="397"/>
+      <c r="L128" s="397"/>
+      <c r="M128" s="397"/>
+      <c r="N128" s="397"/>
+      <c r="O128" s="397"/>
+      <c r="P128" s="397"/>
+      <c r="Q128" s="397"/>
+      <c r="R128" s="397"/>
+      <c r="S128" s="397"/>
+      <c r="T128" s="397"/>
     </row>
     <row r="129" spans="1:20" ht="21">
-      <c r="A129" s="368"/>
-      <c r="B129" s="368"/>
-      <c r="C129" s="368"/>
-      <c r="D129" s="368"/>
-      <c r="E129" s="368"/>
-      <c r="F129" s="368"/>
-      <c r="G129" s="368"/>
-      <c r="H129" s="368"/>
-      <c r="I129" s="368"/>
-      <c r="J129" s="368"/>
-      <c r="K129" s="368"/>
-      <c r="L129" s="368"/>
-      <c r="M129" s="368"/>
-      <c r="N129" s="368"/>
-      <c r="O129" s="368"/>
-      <c r="P129" s="368"/>
-      <c r="Q129" s="368"/>
-      <c r="R129" s="368"/>
-      <c r="S129" s="368"/>
-      <c r="T129" s="368"/>
+      <c r="A129" s="397"/>
+      <c r="B129" s="397"/>
+      <c r="C129" s="397"/>
+      <c r="D129" s="397"/>
+      <c r="E129" s="397"/>
+      <c r="F129" s="397"/>
+      <c r="G129" s="397"/>
+      <c r="H129" s="397"/>
+      <c r="I129" s="397"/>
+      <c r="J129" s="397"/>
+      <c r="K129" s="397"/>
+      <c r="L129" s="397"/>
+      <c r="M129" s="397"/>
+      <c r="N129" s="397"/>
+      <c r="O129" s="397"/>
+      <c r="P129" s="397"/>
+      <c r="Q129" s="397"/>
+      <c r="R129" s="397"/>
+      <c r="S129" s="397"/>
+      <c r="T129" s="397"/>
     </row>
     <row r="130" spans="1:20" ht="21">
-      <c r="A130" s="368"/>
-      <c r="B130" s="368"/>
-      <c r="C130" s="368"/>
-      <c r="D130" s="368"/>
-      <c r="E130" s="368"/>
-      <c r="F130" s="368"/>
-      <c r="G130" s="368"/>
-      <c r="H130" s="368"/>
-      <c r="I130" s="368"/>
-      <c r="J130" s="368"/>
-      <c r="K130" s="368"/>
-      <c r="L130" s="368"/>
-      <c r="M130" s="368"/>
-      <c r="N130" s="368"/>
-      <c r="O130" s="368"/>
-      <c r="P130" s="368"/>
-      <c r="Q130" s="368"/>
-      <c r="R130" s="368"/>
-      <c r="S130" s="368"/>
-      <c r="T130" s="368"/>
+      <c r="A130" s="397"/>
+      <c r="B130" s="397"/>
+      <c r="C130" s="397"/>
+      <c r="D130" s="397"/>
+      <c r="E130" s="397"/>
+      <c r="F130" s="397"/>
+      <c r="G130" s="397"/>
+      <c r="H130" s="397"/>
+      <c r="I130" s="397"/>
+      <c r="J130" s="397"/>
+      <c r="K130" s="397"/>
+      <c r="L130" s="397"/>
+      <c r="M130" s="397"/>
+      <c r="N130" s="397"/>
+      <c r="O130" s="397"/>
+      <c r="P130" s="397"/>
+      <c r="Q130" s="397"/>
+      <c r="R130" s="397"/>
+      <c r="S130" s="397"/>
+      <c r="T130" s="397"/>
     </row>
     <row r="131" spans="1:20" ht="21">
-      <c r="A131" s="368"/>
-      <c r="B131" s="368"/>
-      <c r="C131" s="368"/>
-      <c r="D131" s="368"/>
-      <c r="E131" s="368"/>
-      <c r="F131" s="368"/>
-      <c r="G131" s="368"/>
-      <c r="H131" s="368"/>
-      <c r="I131" s="368"/>
-      <c r="J131" s="368"/>
-      <c r="K131" s="368"/>
-      <c r="L131" s="368"/>
-      <c r="M131" s="368"/>
-      <c r="N131" s="368"/>
-      <c r="O131" s="368"/>
-      <c r="P131" s="368"/>
-      <c r="Q131" s="368"/>
-      <c r="R131" s="368"/>
-      <c r="S131" s="368"/>
-      <c r="T131" s="368"/>
+      <c r="A131" s="397"/>
+      <c r="B131" s="397"/>
+      <c r="C131" s="397"/>
+      <c r="D131" s="397"/>
+      <c r="E131" s="397"/>
+      <c r="F131" s="397"/>
+      <c r="G131" s="397"/>
+      <c r="H131" s="397"/>
+      <c r="I131" s="397"/>
+      <c r="J131" s="397"/>
+      <c r="K131" s="397"/>
+      <c r="L131" s="397"/>
+      <c r="M131" s="397"/>
+      <c r="N131" s="397"/>
+      <c r="O131" s="397"/>
+      <c r="P131" s="397"/>
+      <c r="Q131" s="397"/>
+      <c r="R131" s="397"/>
+      <c r="S131" s="397"/>
+      <c r="T131" s="397"/>
     </row>
     <row r="132" spans="1:20" ht="21">
-      <c r="A132" s="368"/>
-      <c r="B132" s="368"/>
-      <c r="C132" s="368"/>
-      <c r="D132" s="368"/>
-      <c r="E132" s="368"/>
-      <c r="F132" s="368"/>
-      <c r="G132" s="368"/>
-      <c r="H132" s="368"/>
-      <c r="I132" s="368"/>
-      <c r="J132" s="368"/>
-      <c r="K132" s="368"/>
-      <c r="L132" s="368"/>
-      <c r="M132" s="368"/>
-      <c r="N132" s="368"/>
-      <c r="O132" s="368"/>
-      <c r="P132" s="368"/>
-      <c r="Q132" s="368"/>
-      <c r="R132" s="368"/>
-      <c r="S132" s="368"/>
-      <c r="T132" s="368"/>
+      <c r="A132" s="397"/>
+      <c r="B132" s="397"/>
+      <c r="C132" s="397"/>
+      <c r="D132" s="397"/>
+      <c r="E132" s="397"/>
+      <c r="F132" s="397"/>
+      <c r="G132" s="397"/>
+      <c r="H132" s="397"/>
+      <c r="I132" s="397"/>
+      <c r="J132" s="397"/>
+      <c r="K132" s="397"/>
+      <c r="L132" s="397"/>
+      <c r="M132" s="397"/>
+      <c r="N132" s="397"/>
+      <c r="O132" s="397"/>
+      <c r="P132" s="397"/>
+      <c r="Q132" s="397"/>
+      <c r="R132" s="397"/>
+      <c r="S132" s="397"/>
+      <c r="T132" s="397"/>
     </row>
     <row r="133" spans="1:20" ht="21">
-      <c r="A133" s="368"/>
-      <c r="B133" s="368"/>
-      <c r="C133" s="368"/>
-      <c r="D133" s="368"/>
-      <c r="E133" s="368"/>
-      <c r="F133" s="368"/>
-      <c r="G133" s="368"/>
-      <c r="H133" s="368"/>
-      <c r="I133" s="368"/>
-      <c r="J133" s="368"/>
-      <c r="K133" s="368"/>
-      <c r="L133" s="368"/>
-      <c r="M133" s="368"/>
-      <c r="N133" s="368"/>
-      <c r="O133" s="368"/>
-      <c r="P133" s="368"/>
-      <c r="Q133" s="368"/>
-      <c r="R133" s="368"/>
-      <c r="S133" s="368"/>
-      <c r="T133" s="368"/>
+      <c r="A133" s="397"/>
+      <c r="B133" s="397"/>
+      <c r="C133" s="397"/>
+      <c r="D133" s="397"/>
+      <c r="E133" s="397"/>
+      <c r="F133" s="397"/>
+      <c r="G133" s="397"/>
+      <c r="H133" s="397"/>
+      <c r="I133" s="397"/>
+      <c r="J133" s="397"/>
+      <c r="K133" s="397"/>
+      <c r="L133" s="397"/>
+      <c r="M133" s="397"/>
+      <c r="N133" s="397"/>
+      <c r="O133" s="397"/>
+      <c r="P133" s="397"/>
+      <c r="Q133" s="397"/>
+      <c r="R133" s="397"/>
+      <c r="S133" s="397"/>
+      <c r="T133" s="397"/>
     </row>
     <row r="134" spans="1:20" ht="21">
-      <c r="A134" s="368"/>
-      <c r="B134" s="368"/>
-      <c r="C134" s="368"/>
-      <c r="D134" s="368"/>
-      <c r="E134" s="368"/>
-      <c r="F134" s="368"/>
-      <c r="G134" s="368"/>
-      <c r="H134" s="368"/>
-      <c r="I134" s="368"/>
-      <c r="J134" s="368"/>
-      <c r="K134" s="368"/>
-      <c r="L134" s="368"/>
-      <c r="M134" s="368"/>
-      <c r="N134" s="368"/>
-      <c r="O134" s="368"/>
-      <c r="P134" s="368"/>
-      <c r="Q134" s="368"/>
-      <c r="R134" s="368"/>
-      <c r="S134" s="368"/>
-      <c r="T134" s="368"/>
+      <c r="A134" s="397"/>
+      <c r="B134" s="397"/>
+      <c r="C134" s="397"/>
+      <c r="D134" s="397"/>
+      <c r="E134" s="397"/>
+      <c r="F134" s="397"/>
+      <c r="G134" s="397"/>
+      <c r="H134" s="397"/>
+      <c r="I134" s="397"/>
+      <c r="J134" s="397"/>
+      <c r="K134" s="397"/>
+      <c r="L134" s="397"/>
+      <c r="M134" s="397"/>
+      <c r="N134" s="397"/>
+      <c r="O134" s="397"/>
+      <c r="P134" s="397"/>
+      <c r="Q134" s="397"/>
+      <c r="R134" s="397"/>
+      <c r="S134" s="397"/>
+      <c r="T134" s="397"/>
     </row>
     <row r="135" spans="1:20" ht="21">
-      <c r="A135" s="368"/>
-      <c r="B135" s="368"/>
-      <c r="C135" s="368"/>
-      <c r="D135" s="368"/>
-      <c r="E135" s="368"/>
-      <c r="F135" s="368"/>
-      <c r="G135" s="368"/>
-      <c r="H135" s="368"/>
-      <c r="I135" s="368"/>
-      <c r="J135" s="368"/>
-      <c r="K135" s="368"/>
-      <c r="L135" s="368"/>
-      <c r="M135" s="368"/>
-      <c r="N135" s="368"/>
-      <c r="O135" s="368"/>
-      <c r="P135" s="368"/>
-      <c r="Q135" s="368"/>
-      <c r="R135" s="368"/>
-      <c r="S135" s="368"/>
-      <c r="T135" s="368"/>
+      <c r="A135" s="397"/>
+      <c r="B135" s="397"/>
+      <c r="C135" s="397"/>
+      <c r="D135" s="397"/>
+      <c r="E135" s="397"/>
+      <c r="F135" s="397"/>
+      <c r="G135" s="397"/>
+      <c r="H135" s="397"/>
+      <c r="I135" s="397"/>
+      <c r="J135" s="397"/>
+      <c r="K135" s="397"/>
+      <c r="L135" s="397"/>
+      <c r="M135" s="397"/>
+      <c r="N135" s="397"/>
+      <c r="O135" s="397"/>
+      <c r="P135" s="397"/>
+      <c r="Q135" s="397"/>
+      <c r="R135" s="397"/>
+      <c r="S135" s="397"/>
+      <c r="T135" s="397"/>
     </row>
     <row r="136" spans="1:20" ht="21">
-      <c r="A136" s="368"/>
-      <c r="B136" s="368"/>
-      <c r="C136" s="368"/>
-      <c r="D136" s="368"/>
-      <c r="E136" s="368"/>
-      <c r="F136" s="368"/>
-      <c r="G136" s="368"/>
-      <c r="H136" s="368"/>
-      <c r="I136" s="368"/>
-      <c r="J136" s="368"/>
-      <c r="K136" s="368"/>
-      <c r="L136" s="368"/>
-      <c r="M136" s="368"/>
-      <c r="N136" s="368"/>
-      <c r="O136" s="368"/>
-      <c r="P136" s="368"/>
-      <c r="Q136" s="368"/>
-      <c r="R136" s="368"/>
-      <c r="S136" s="368"/>
-      <c r="T136" s="368"/>
+      <c r="A136" s="397"/>
+      <c r="B136" s="397"/>
+      <c r="C136" s="397"/>
+      <c r="D136" s="397"/>
+      <c r="E136" s="397"/>
+      <c r="F136" s="397"/>
+      <c r="G136" s="397"/>
+      <c r="H136" s="397"/>
+      <c r="I136" s="397"/>
+      <c r="J136" s="397"/>
+      <c r="K136" s="397"/>
+      <c r="L136" s="397"/>
+      <c r="M136" s="397"/>
+      <c r="N136" s="397"/>
+      <c r="O136" s="397"/>
+      <c r="P136" s="397"/>
+      <c r="Q136" s="397"/>
+      <c r="R136" s="397"/>
+      <c r="S136" s="397"/>
+      <c r="T136" s="397"/>
     </row>
     <row r="137" spans="1:20" ht="21">
-      <c r="A137" s="368"/>
-      <c r="B137" s="368"/>
-      <c r="C137" s="368"/>
-      <c r="D137" s="368"/>
-      <c r="E137" s="368"/>
-      <c r="F137" s="368"/>
-      <c r="G137" s="368"/>
-      <c r="H137" s="368"/>
-      <c r="I137" s="368"/>
-      <c r="J137" s="368"/>
-      <c r="K137" s="368"/>
-      <c r="L137" s="368"/>
-      <c r="M137" s="368"/>
-      <c r="N137" s="368"/>
-      <c r="O137" s="368"/>
-      <c r="P137" s="368"/>
-      <c r="Q137" s="368"/>
-      <c r="R137" s="368"/>
-      <c r="S137" s="368"/>
-      <c r="T137" s="368"/>
+      <c r="A137" s="397"/>
+      <c r="B137" s="397"/>
+      <c r="C137" s="397"/>
+      <c r="D137" s="397"/>
+      <c r="E137" s="397"/>
+      <c r="F137" s="397"/>
+      <c r="G137" s="397"/>
+      <c r="H137" s="397"/>
+      <c r="I137" s="397"/>
+      <c r="J137" s="397"/>
+      <c r="K137" s="397"/>
+      <c r="L137" s="397"/>
+      <c r="M137" s="397"/>
+      <c r="N137" s="397"/>
+      <c r="O137" s="397"/>
+      <c r="P137" s="397"/>
+      <c r="Q137" s="397"/>
+      <c r="R137" s="397"/>
+      <c r="S137" s="397"/>
+      <c r="T137" s="397"/>
     </row>
     <row r="138" spans="1:20" ht="21">
-      <c r="A138" s="368"/>
-      <c r="B138" s="368"/>
-      <c r="C138" s="368"/>
-      <c r="D138" s="368"/>
-      <c r="E138" s="368"/>
-      <c r="F138" s="368"/>
-      <c r="G138" s="368"/>
-      <c r="H138" s="368"/>
-      <c r="I138" s="368"/>
-      <c r="J138" s="368"/>
-      <c r="K138" s="368"/>
-      <c r="L138" s="368"/>
-      <c r="M138" s="368"/>
-      <c r="N138" s="368"/>
-      <c r="O138" s="368"/>
-      <c r="P138" s="368"/>
-      <c r="Q138" s="368"/>
-      <c r="R138" s="368"/>
-      <c r="S138" s="368"/>
-      <c r="T138" s="368"/>
+      <c r="A138" s="397"/>
+      <c r="B138" s="397"/>
+      <c r="C138" s="397"/>
+      <c r="D138" s="397"/>
+      <c r="E138" s="397"/>
+      <c r="F138" s="397"/>
+      <c r="G138" s="397"/>
+      <c r="H138" s="397"/>
+      <c r="I138" s="397"/>
+      <c r="J138" s="397"/>
+      <c r="K138" s="397"/>
+      <c r="L138" s="397"/>
+      <c r="M138" s="397"/>
+      <c r="N138" s="397"/>
+      <c r="O138" s="397"/>
+      <c r="P138" s="397"/>
+      <c r="Q138" s="397"/>
+      <c r="R138" s="397"/>
+      <c r="S138" s="397"/>
+      <c r="T138" s="397"/>
     </row>
     <row r="139" spans="1:20" ht="21">
-      <c r="A139" s="368"/>
-      <c r="B139" s="368"/>
-      <c r="C139" s="368"/>
-      <c r="D139" s="368"/>
-      <c r="E139" s="368"/>
-      <c r="F139" s="368"/>
-      <c r="G139" s="368"/>
-      <c r="H139" s="368"/>
-      <c r="I139" s="368"/>
-      <c r="J139" s="368"/>
-      <c r="K139" s="368"/>
-      <c r="L139" s="368"/>
-      <c r="M139" s="368"/>
-      <c r="N139" s="368"/>
-      <c r="O139" s="368"/>
-      <c r="P139" s="368"/>
-      <c r="Q139" s="368"/>
-      <c r="R139" s="368"/>
-      <c r="S139" s="368"/>
-      <c r="T139" s="368"/>
+      <c r="A139" s="397"/>
+      <c r="B139" s="397"/>
+      <c r="C139" s="397"/>
+      <c r="D139" s="397"/>
+      <c r="E139" s="397"/>
+      <c r="F139" s="397"/>
+      <c r="G139" s="397"/>
+      <c r="H139" s="397"/>
+      <c r="I139" s="397"/>
+      <c r="J139" s="397"/>
+      <c r="K139" s="397"/>
+      <c r="L139" s="397"/>
+      <c r="M139" s="397"/>
+      <c r="N139" s="397"/>
+      <c r="O139" s="397"/>
+      <c r="P139" s="397"/>
+      <c r="Q139" s="397"/>
+      <c r="R139" s="397"/>
+      <c r="S139" s="397"/>
+      <c r="T139" s="397"/>
     </row>
     <row r="140" spans="1:20" ht="21">
-      <c r="A140" s="368"/>
-      <c r="B140" s="368"/>
-      <c r="C140" s="368"/>
-      <c r="D140" s="368"/>
-      <c r="E140" s="368"/>
-      <c r="F140" s="368"/>
-      <c r="G140" s="368"/>
-      <c r="H140" s="368"/>
-      <c r="I140" s="368"/>
-      <c r="J140" s="368"/>
-      <c r="K140" s="368"/>
-      <c r="L140" s="368"/>
-      <c r="M140" s="368"/>
-      <c r="N140" s="368"/>
-      <c r="O140" s="368"/>
-      <c r="P140" s="368"/>
-      <c r="Q140" s="368"/>
-      <c r="R140" s="368"/>
-      <c r="S140" s="368"/>
-      <c r="T140" s="368"/>
+      <c r="A140" s="397"/>
+      <c r="B140" s="397"/>
+      <c r="C140" s="397"/>
+      <c r="D140" s="397"/>
+      <c r="E140" s="397"/>
+      <c r="F140" s="397"/>
+      <c r="G140" s="397"/>
+      <c r="H140" s="397"/>
+      <c r="I140" s="397"/>
+      <c r="J140" s="397"/>
+      <c r="K140" s="397"/>
+      <c r="L140" s="397"/>
+      <c r="M140" s="397"/>
+      <c r="N140" s="397"/>
+      <c r="O140" s="397"/>
+      <c r="P140" s="397"/>
+      <c r="Q140" s="397"/>
+      <c r="R140" s="397"/>
+      <c r="S140" s="397"/>
+      <c r="T140" s="397"/>
     </row>
     <row r="141" spans="1:20" ht="21">
-      <c r="A141" s="368"/>
-      <c r="B141" s="368"/>
-      <c r="C141" s="368"/>
-      <c r="D141" s="368"/>
-      <c r="E141" s="368"/>
-      <c r="F141" s="368"/>
-      <c r="G141" s="368"/>
-      <c r="H141" s="368"/>
-      <c r="I141" s="368"/>
-      <c r="J141" s="368"/>
-      <c r="K141" s="368"/>
-      <c r="L141" s="368"/>
-      <c r="M141" s="368"/>
-      <c r="N141" s="368"/>
-      <c r="O141" s="368"/>
-      <c r="P141" s="368"/>
-      <c r="Q141" s="368"/>
-      <c r="R141" s="368"/>
-      <c r="S141" s="368"/>
-      <c r="T141" s="368"/>
+      <c r="A141" s="397"/>
+      <c r="B141" s="397"/>
+      <c r="C141" s="397"/>
+      <c r="D141" s="397"/>
+      <c r="E141" s="397"/>
+      <c r="F141" s="397"/>
+      <c r="G141" s="397"/>
+      <c r="H141" s="397"/>
+      <c r="I141" s="397"/>
+      <c r="J141" s="397"/>
+      <c r="K141" s="397"/>
+      <c r="L141" s="397"/>
+      <c r="M141" s="397"/>
+      <c r="N141" s="397"/>
+      <c r="O141" s="397"/>
+      <c r="P141" s="397"/>
+      <c r="Q141" s="397"/>
+      <c r="R141" s="397"/>
+      <c r="S141" s="397"/>
+      <c r="T141" s="397"/>
     </row>
     <row r="142" spans="1:20" ht="21">
-      <c r="A142" s="368"/>
-      <c r="B142" s="368"/>
-      <c r="C142" s="368"/>
-      <c r="D142" s="368"/>
-      <c r="E142" s="368"/>
-      <c r="F142" s="368"/>
-      <c r="G142" s="368"/>
-      <c r="H142" s="368"/>
-      <c r="I142" s="368"/>
-      <c r="J142" s="368"/>
-      <c r="K142" s="368"/>
-      <c r="L142" s="368"/>
-      <c r="M142" s="368"/>
-      <c r="N142" s="368"/>
-      <c r="O142" s="368"/>
-      <c r="P142" s="368"/>
-      <c r="Q142" s="368"/>
-      <c r="R142" s="368"/>
-      <c r="S142" s="368"/>
-      <c r="T142" s="368"/>
+      <c r="A142" s="397"/>
+      <c r="B142" s="397"/>
+      <c r="C142" s="397"/>
+      <c r="D142" s="397"/>
+      <c r="E142" s="397"/>
+      <c r="F142" s="397"/>
+      <c r="G142" s="397"/>
+      <c r="H142" s="397"/>
+      <c r="I142" s="397"/>
+      <c r="J142" s="397"/>
+      <c r="K142" s="397"/>
+      <c r="L142" s="397"/>
+      <c r="M142" s="397"/>
+      <c r="N142" s="397"/>
+      <c r="O142" s="397"/>
+      <c r="P142" s="397"/>
+      <c r="Q142" s="397"/>
+      <c r="R142" s="397"/>
+      <c r="S142" s="397"/>
+      <c r="T142" s="397"/>
     </row>
     <row r="143" spans="1:20" ht="21">
-      <c r="A143" s="368"/>
-      <c r="B143" s="368"/>
-      <c r="C143" s="368"/>
-      <c r="D143" s="368"/>
-      <c r="E143" s="368"/>
-      <c r="F143" s="368"/>
-      <c r="G143" s="368"/>
-      <c r="H143" s="368"/>
-      <c r="I143" s="368"/>
-      <c r="J143" s="368"/>
-      <c r="K143" s="368"/>
-      <c r="L143" s="368"/>
-      <c r="M143" s="368"/>
-      <c r="N143" s="368"/>
-      <c r="O143" s="368"/>
-      <c r="P143" s="368"/>
-      <c r="Q143" s="368"/>
-      <c r="R143" s="368"/>
-      <c r="S143" s="368"/>
-      <c r="T143" s="368"/>
+      <c r="A143" s="397"/>
+      <c r="B143" s="397"/>
+      <c r="C143" s="397"/>
+      <c r="D143" s="397"/>
+      <c r="E143" s="397"/>
+      <c r="F143" s="397"/>
+      <c r="G143" s="397"/>
+      <c r="H143" s="397"/>
+      <c r="I143" s="397"/>
+      <c r="J143" s="397"/>
+      <c r="K143" s="397"/>
+      <c r="L143" s="397"/>
+      <c r="M143" s="397"/>
+      <c r="N143" s="397"/>
+      <c r="O143" s="397"/>
+      <c r="P143" s="397"/>
+      <c r="Q143" s="397"/>
+      <c r="R143" s="397"/>
+      <c r="S143" s="397"/>
+      <c r="T143" s="397"/>
     </row>
     <row r="144" spans="1:20" ht="21">
-      <c r="A144" s="368"/>
-      <c r="B144" s="368"/>
-      <c r="C144" s="368"/>
-      <c r="D144" s="368"/>
-      <c r="E144" s="368"/>
-      <c r="F144" s="368"/>
-      <c r="G144" s="368"/>
-      <c r="H144" s="368"/>
-      <c r="I144" s="368"/>
-      <c r="J144" s="368"/>
-      <c r="K144" s="368"/>
-      <c r="L144" s="368"/>
-      <c r="M144" s="368"/>
-      <c r="N144" s="368"/>
-      <c r="O144" s="368"/>
-      <c r="P144" s="368"/>
-      <c r="Q144" s="368"/>
-      <c r="R144" s="368"/>
-      <c r="S144" s="368"/>
-      <c r="T144" s="368"/>
+      <c r="A144" s="397"/>
+      <c r="B144" s="397"/>
+      <c r="C144" s="397"/>
+      <c r="D144" s="397"/>
+      <c r="E144" s="397"/>
+      <c r="F144" s="397"/>
+      <c r="G144" s="397"/>
+      <c r="H144" s="397"/>
+      <c r="I144" s="397"/>
+      <c r="J144" s="397"/>
+      <c r="K144" s="397"/>
+      <c r="L144" s="397"/>
+      <c r="M144" s="397"/>
+      <c r="N144" s="397"/>
+      <c r="O144" s="397"/>
+      <c r="P144" s="397"/>
+      <c r="Q144" s="397"/>
+      <c r="R144" s="397"/>
+      <c r="S144" s="397"/>
+      <c r="T144" s="397"/>
     </row>
     <row r="145" spans="1:20" ht="21">
-      <c r="A145" s="368"/>
-      <c r="B145" s="368"/>
-      <c r="C145" s="368"/>
-      <c r="D145" s="368"/>
-      <c r="E145" s="368"/>
-      <c r="F145" s="368"/>
-      <c r="G145" s="368"/>
-      <c r="H145" s="368"/>
-      <c r="I145" s="368"/>
-      <c r="J145" s="368"/>
-      <c r="K145" s="368"/>
-      <c r="L145" s="368"/>
-      <c r="M145" s="368"/>
-      <c r="N145" s="368"/>
-      <c r="O145" s="368"/>
-      <c r="P145" s="368"/>
-      <c r="Q145" s="368"/>
-      <c r="R145" s="368"/>
-      <c r="S145" s="368"/>
-      <c r="T145" s="368"/>
+      <c r="A145" s="397"/>
+      <c r="B145" s="397"/>
+      <c r="C145" s="397"/>
+      <c r="D145" s="397"/>
+      <c r="E145" s="397"/>
+      <c r="F145" s="397"/>
+      <c r="G145" s="397"/>
+      <c r="H145" s="397"/>
+      <c r="I145" s="397"/>
+      <c r="J145" s="397"/>
+      <c r="K145" s="397"/>
+      <c r="L145" s="397"/>
+      <c r="M145" s="397"/>
+      <c r="N145" s="397"/>
+      <c r="O145" s="397"/>
+      <c r="P145" s="397"/>
+      <c r="Q145" s="397"/>
+      <c r="R145" s="397"/>
+      <c r="S145" s="397"/>
+      <c r="T145" s="397"/>
     </row>
     <row r="146" spans="1:20" ht="21">
-      <c r="A146" s="368"/>
-      <c r="B146" s="368"/>
-      <c r="C146" s="368"/>
-      <c r="D146" s="368"/>
-      <c r="E146" s="368"/>
-      <c r="F146" s="368"/>
-      <c r="G146" s="368"/>
-      <c r="H146" s="368"/>
-      <c r="I146" s="368"/>
-      <c r="J146" s="368"/>
-      <c r="K146" s="368"/>
-      <c r="L146" s="368"/>
-      <c r="M146" s="368"/>
-      <c r="N146" s="368"/>
-      <c r="O146" s="368"/>
-      <c r="P146" s="368"/>
-      <c r="Q146" s="368"/>
-      <c r="R146" s="368"/>
-      <c r="S146" s="368"/>
-      <c r="T146" s="368"/>
+      <c r="A146" s="397"/>
+      <c r="B146" s="397"/>
+      <c r="C146" s="397"/>
+      <c r="D146" s="397"/>
+      <c r="E146" s="397"/>
+      <c r="F146" s="397"/>
+      <c r="G146" s="397"/>
+      <c r="H146" s="397"/>
+      <c r="I146" s="397"/>
+      <c r="J146" s="397"/>
+      <c r="K146" s="397"/>
+      <c r="L146" s="397"/>
+      <c r="M146" s="397"/>
+      <c r="N146" s="397"/>
+      <c r="O146" s="397"/>
+      <c r="P146" s="397"/>
+      <c r="Q146" s="397"/>
+      <c r="R146" s="397"/>
+      <c r="S146" s="397"/>
+      <c r="T146" s="397"/>
     </row>
     <row r="147" spans="1:20" ht="21">
-      <c r="A147" s="368"/>
-      <c r="B147" s="368"/>
-      <c r="C147" s="368"/>
-      <c r="D147" s="368"/>
-      <c r="E147" s="368"/>
-      <c r="F147" s="368"/>
-      <c r="G147" s="368"/>
-      <c r="H147" s="368"/>
-      <c r="I147" s="368"/>
-      <c r="J147" s="368"/>
-      <c r="K147" s="368"/>
-      <c r="L147" s="368"/>
-      <c r="M147" s="368"/>
-      <c r="N147" s="368"/>
-      <c r="O147" s="368"/>
-      <c r="P147" s="368"/>
-      <c r="Q147" s="368"/>
-      <c r="R147" s="368"/>
-      <c r="S147" s="368"/>
-      <c r="T147" s="368"/>
+      <c r="A147" s="397"/>
+      <c r="B147" s="397"/>
+      <c r="C147" s="397"/>
+      <c r="D147" s="397"/>
+      <c r="E147" s="397"/>
+      <c r="F147" s="397"/>
+      <c r="G147" s="397"/>
+      <c r="H147" s="397"/>
+      <c r="I147" s="397"/>
+      <c r="J147" s="397"/>
+      <c r="K147" s="397"/>
+      <c r="L147" s="397"/>
+      <c r="M147" s="397"/>
+      <c r="N147" s="397"/>
+      <c r="O147" s="397"/>
+      <c r="P147" s="397"/>
+      <c r="Q147" s="397"/>
+      <c r="R147" s="397"/>
+      <c r="S147" s="397"/>
+      <c r="T147" s="397"/>
     </row>
     <row r="148" spans="1:20" ht="21">
-      <c r="A148" s="368"/>
-      <c r="B148" s="368"/>
-      <c r="C148" s="368"/>
-      <c r="D148" s="368"/>
-      <c r="E148" s="368"/>
-      <c r="F148" s="368"/>
-      <c r="G148" s="368"/>
-      <c r="H148" s="368"/>
-      <c r="I148" s="368"/>
-      <c r="J148" s="368"/>
-      <c r="K148" s="368"/>
-      <c r="L148" s="368"/>
-      <c r="M148" s="368"/>
-      <c r="N148" s="368"/>
-      <c r="O148" s="368"/>
-      <c r="P148" s="368"/>
-      <c r="Q148" s="368"/>
-      <c r="R148" s="368"/>
-      <c r="S148" s="368"/>
-      <c r="T148" s="368"/>
+      <c r="A148" s="397"/>
+      <c r="B148" s="397"/>
+      <c r="C148" s="397"/>
+      <c r="D148" s="397"/>
+      <c r="E148" s="397"/>
+      <c r="F148" s="397"/>
+      <c r="G148" s="397"/>
+      <c r="H148" s="397"/>
+      <c r="I148" s="397"/>
+      <c r="J148" s="397"/>
+      <c r="K148" s="397"/>
+      <c r="L148" s="397"/>
+      <c r="M148" s="397"/>
+      <c r="N148" s="397"/>
+      <c r="O148" s="397"/>
+      <c r="P148" s="397"/>
+      <c r="Q148" s="397"/>
+      <c r="R148" s="397"/>
+      <c r="S148" s="397"/>
+      <c r="T148" s="397"/>
     </row>
     <row r="149" spans="1:20" ht="21">
-      <c r="A149" s="368"/>
-      <c r="B149" s="368"/>
-      <c r="C149" s="368"/>
-      <c r="D149" s="368"/>
-      <c r="E149" s="368"/>
-      <c r="F149" s="368"/>
-      <c r="G149" s="368"/>
-      <c r="H149" s="368"/>
-      <c r="I149" s="368"/>
-      <c r="J149" s="368"/>
-      <c r="K149" s="368"/>
-      <c r="L149" s="368"/>
-      <c r="M149" s="368"/>
-      <c r="N149" s="368"/>
-      <c r="O149" s="368"/>
-      <c r="P149" s="368"/>
-      <c r="Q149" s="368"/>
-      <c r="R149" s="368"/>
-      <c r="S149" s="368"/>
-      <c r="T149" s="368"/>
+      <c r="A149" s="397"/>
+      <c r="B149" s="397"/>
+      <c r="C149" s="397"/>
+      <c r="D149" s="397"/>
+      <c r="E149" s="397"/>
+      <c r="F149" s="397"/>
+      <c r="G149" s="397"/>
+      <c r="H149" s="397"/>
+      <c r="I149" s="397"/>
+      <c r="J149" s="397"/>
+      <c r="K149" s="397"/>
+      <c r="L149" s="397"/>
+      <c r="M149" s="397"/>
+      <c r="N149" s="397"/>
+      <c r="O149" s="397"/>
+      <c r="P149" s="397"/>
+      <c r="Q149" s="397"/>
+      <c r="R149" s="397"/>
+      <c r="S149" s="397"/>
+      <c r="T149" s="397"/>
     </row>
     <row r="150" spans="1:20" ht="21">
-      <c r="A150" s="368"/>
-      <c r="B150" s="368"/>
-      <c r="C150" s="368"/>
-      <c r="D150" s="368"/>
-      <c r="E150" s="368"/>
-      <c r="F150" s="368"/>
-      <c r="G150" s="368"/>
-      <c r="H150" s="368"/>
-      <c r="I150" s="368"/>
-      <c r="J150" s="368"/>
-      <c r="K150" s="368"/>
-      <c r="L150" s="368"/>
-      <c r="M150" s="368"/>
-      <c r="N150" s="368"/>
-      <c r="O150" s="368"/>
-      <c r="P150" s="368"/>
-      <c r="Q150" s="368"/>
-      <c r="R150" s="368"/>
-      <c r="S150" s="368"/>
-      <c r="T150" s="368"/>
+      <c r="A150" s="397"/>
+      <c r="B150" s="397"/>
+      <c r="C150" s="397"/>
+      <c r="D150" s="397"/>
+      <c r="E150" s="397"/>
+      <c r="F150" s="397"/>
+      <c r="G150" s="397"/>
+      <c r="H150" s="397"/>
+      <c r="I150" s="397"/>
+      <c r="J150" s="397"/>
+      <c r="K150" s="397"/>
+      <c r="L150" s="397"/>
+      <c r="M150" s="397"/>
+      <c r="N150" s="397"/>
+      <c r="O150" s="397"/>
+      <c r="P150" s="397"/>
+      <c r="Q150" s="397"/>
+      <c r="R150" s="397"/>
+      <c r="S150" s="397"/>
+      <c r="T150" s="397"/>
     </row>
     <row r="151" spans="1:20" ht="21">
-      <c r="A151" s="368"/>
-      <c r="B151" s="368"/>
-      <c r="C151" s="368"/>
-      <c r="D151" s="368"/>
-      <c r="E151" s="368"/>
-      <c r="F151" s="368"/>
-      <c r="G151" s="368"/>
-      <c r="H151" s="368"/>
-      <c r="I151" s="368"/>
-      <c r="J151" s="368"/>
-      <c r="K151" s="368"/>
-      <c r="L151" s="368"/>
-      <c r="M151" s="368"/>
-      <c r="N151" s="368"/>
-      <c r="O151" s="368"/>
-      <c r="P151" s="368"/>
-      <c r="Q151" s="368"/>
-      <c r="R151" s="368"/>
-      <c r="S151" s="368"/>
-      <c r="T151" s="368"/>
+      <c r="A151" s="397"/>
+      <c r="B151" s="397"/>
+      <c r="C151" s="397"/>
+      <c r="D151" s="397"/>
+      <c r="E151" s="397"/>
+      <c r="F151" s="397"/>
+      <c r="G151" s="397"/>
+      <c r="H151" s="397"/>
+      <c r="I151" s="397"/>
+      <c r="J151" s="397"/>
+      <c r="K151" s="397"/>
+      <c r="L151" s="397"/>
+      <c r="M151" s="397"/>
+      <c r="N151" s="397"/>
+      <c r="O151" s="397"/>
+      <c r="P151" s="397"/>
+      <c r="Q151" s="397"/>
+      <c r="R151" s="397"/>
+      <c r="S151" s="397"/>
+      <c r="T151" s="397"/>
     </row>
     <row r="152" spans="1:20" ht="21">
-      <c r="A152" s="368"/>
-      <c r="B152" s="368"/>
-      <c r="C152" s="368"/>
-      <c r="D152" s="368"/>
-      <c r="E152" s="368"/>
-      <c r="F152" s="368"/>
-      <c r="G152" s="368"/>
-      <c r="H152" s="368"/>
-      <c r="I152" s="368"/>
-      <c r="J152" s="368"/>
-      <c r="K152" s="368"/>
-      <c r="L152" s="368"/>
-      <c r="M152" s="368"/>
-      <c r="N152" s="368"/>
-      <c r="O152" s="368"/>
-      <c r="P152" s="368"/>
-      <c r="Q152" s="368"/>
-      <c r="R152" s="368"/>
-      <c r="S152" s="368"/>
-      <c r="T152" s="368"/>
+      <c r="A152" s="397"/>
+      <c r="B152" s="397"/>
+      <c r="C152" s="397"/>
+      <c r="D152" s="397"/>
+      <c r="E152" s="397"/>
+      <c r="F152" s="397"/>
+      <c r="G152" s="397"/>
+      <c r="H152" s="397"/>
+      <c r="I152" s="397"/>
+      <c r="J152" s="397"/>
+      <c r="K152" s="397"/>
+      <c r="L152" s="397"/>
+      <c r="M152" s="397"/>
+      <c r="N152" s="397"/>
+      <c r="O152" s="397"/>
+      <c r="P152" s="397"/>
+      <c r="Q152" s="397"/>
+      <c r="R152" s="397"/>
+      <c r="S152" s="397"/>
+      <c r="T152" s="397"/>
     </row>
     <row r="153" spans="1:20" ht="21">
-      <c r="A153" s="368"/>
-      <c r="B153" s="368"/>
-      <c r="C153" s="368"/>
-      <c r="D153" s="368"/>
-      <c r="E153" s="368"/>
-      <c r="F153" s="368"/>
-      <c r="G153" s="368"/>
-      <c r="H153" s="368"/>
-      <c r="I153" s="368"/>
-      <c r="J153" s="368"/>
-      <c r="K153" s="368"/>
-      <c r="L153" s="368"/>
-      <c r="M153" s="368"/>
-      <c r="N153" s="368"/>
-      <c r="O153" s="368"/>
-      <c r="P153" s="368"/>
-      <c r="Q153" s="368"/>
-      <c r="R153" s="368"/>
-      <c r="S153" s="368"/>
-      <c r="T153" s="368"/>
+      <c r="A153" s="397"/>
+      <c r="B153" s="397"/>
+      <c r="C153" s="397"/>
+      <c r="D153" s="397"/>
+      <c r="E153" s="397"/>
+      <c r="F153" s="397"/>
+      <c r="G153" s="397"/>
+      <c r="H153" s="397"/>
+      <c r="I153" s="397"/>
+      <c r="J153" s="397"/>
+      <c r="K153" s="397"/>
+      <c r="L153" s="397"/>
+      <c r="M153" s="397"/>
+      <c r="N153" s="397"/>
+      <c r="O153" s="397"/>
+      <c r="P153" s="397"/>
+      <c r="Q153" s="397"/>
+      <c r="R153" s="397"/>
+      <c r="S153" s="397"/>
+      <c r="T153" s="397"/>
     </row>
     <row r="154" spans="1:20" ht="21">
-      <c r="A154" s="368"/>
-      <c r="B154" s="368"/>
-      <c r="C154" s="368"/>
-      <c r="D154" s="368"/>
-      <c r="E154" s="368"/>
-      <c r="F154" s="368"/>
-      <c r="G154" s="368"/>
-      <c r="H154" s="368"/>
-      <c r="I154" s="368"/>
-      <c r="J154" s="368"/>
-      <c r="K154" s="368"/>
-      <c r="L154" s="368"/>
-      <c r="M154" s="368"/>
-      <c r="N154" s="368"/>
-      <c r="O154" s="368"/>
-      <c r="P154" s="368"/>
-      <c r="Q154" s="368"/>
-      <c r="R154" s="368"/>
-      <c r="S154" s="368"/>
-      <c r="T154" s="368"/>
+      <c r="A154" s="397"/>
+      <c r="B154" s="397"/>
+      <c r="C154" s="397"/>
+      <c r="D154" s="397"/>
+      <c r="E154" s="397"/>
+      <c r="F154" s="397"/>
+      <c r="G154" s="397"/>
+      <c r="H154" s="397"/>
+      <c r="I154" s="397"/>
+      <c r="J154" s="397"/>
+      <c r="K154" s="397"/>
+      <c r="L154" s="397"/>
+      <c r="M154" s="397"/>
+      <c r="N154" s="397"/>
+      <c r="O154" s="397"/>
+      <c r="P154" s="397"/>
+      <c r="Q154" s="397"/>
+      <c r="R154" s="397"/>
+      <c r="S154" s="397"/>
+      <c r="T154" s="397"/>
     </row>
     <row r="155" spans="1:20" ht="21">
-      <c r="A155" s="368"/>
-      <c r="B155" s="368"/>
-      <c r="C155" s="368"/>
-      <c r="D155" s="368"/>
-      <c r="E155" s="368"/>
-      <c r="F155" s="368"/>
-      <c r="G155" s="368"/>
-      <c r="H155" s="368"/>
-      <c r="I155" s="368"/>
-      <c r="J155" s="368"/>
-      <c r="K155" s="368"/>
-      <c r="L155" s="368"/>
-      <c r="M155" s="368"/>
-      <c r="N155" s="368"/>
-      <c r="O155" s="368"/>
-      <c r="P155" s="368"/>
-      <c r="Q155" s="368"/>
-      <c r="R155" s="368"/>
-      <c r="S155" s="368"/>
-      <c r="T155" s="368"/>
+      <c r="A155" s="397"/>
+      <c r="B155" s="397"/>
+      <c r="C155" s="397"/>
+      <c r="D155" s="397"/>
+      <c r="E155" s="397"/>
+      <c r="F155" s="397"/>
+      <c r="G155" s="397"/>
+      <c r="H155" s="397"/>
+      <c r="I155" s="397"/>
+      <c r="J155" s="397"/>
+      <c r="K155" s="397"/>
+      <c r="L155" s="397"/>
+      <c r="M155" s="397"/>
+      <c r="N155" s="397"/>
+      <c r="O155" s="397"/>
+      <c r="P155" s="397"/>
+      <c r="Q155" s="397"/>
+      <c r="R155" s="397"/>
+      <c r="S155" s="397"/>
+      <c r="T155" s="397"/>
     </row>
     <row r="156" spans="1:20" ht="21">
-      <c r="A156" s="368"/>
-      <c r="B156" s="368"/>
-      <c r="C156" s="368"/>
-      <c r="D156" s="368"/>
-      <c r="E156" s="368"/>
-      <c r="F156" s="368"/>
-      <c r="G156" s="368"/>
-      <c r="H156" s="368"/>
-      <c r="I156" s="368"/>
-      <c r="J156" s="368"/>
-      <c r="K156" s="368"/>
-      <c r="L156" s="368"/>
-      <c r="M156" s="368"/>
-      <c r="N156" s="368"/>
-      <c r="O156" s="368"/>
-      <c r="P156" s="368"/>
-      <c r="Q156" s="368"/>
-      <c r="R156" s="368"/>
-      <c r="S156" s="368"/>
-      <c r="T156" s="368"/>
+      <c r="A156" s="397"/>
+      <c r="B156" s="397"/>
+      <c r="C156" s="397"/>
+      <c r="D156" s="397"/>
+      <c r="E156" s="397"/>
+      <c r="F156" s="397"/>
+      <c r="G156" s="397"/>
+      <c r="H156" s="397"/>
+      <c r="I156" s="397"/>
+      <c r="J156" s="397"/>
+      <c r="K156" s="397"/>
+      <c r="L156" s="397"/>
+      <c r="M156" s="397"/>
+      <c r="N156" s="397"/>
+      <c r="O156" s="397"/>
+      <c r="P156" s="397"/>
+      <c r="Q156" s="397"/>
+      <c r="R156" s="397"/>
+      <c r="S156" s="397"/>
+      <c r="T156" s="397"/>
     </row>
     <row r="157" spans="1:20" ht="21">
-      <c r="A157" s="368"/>
-      <c r="B157" s="368"/>
-      <c r="C157" s="368"/>
-      <c r="D157" s="368"/>
-      <c r="E157" s="368"/>
-      <c r="F157" s="368"/>
-      <c r="G157" s="368"/>
-      <c r="H157" s="368"/>
-      <c r="I157" s="368"/>
-      <c r="J157" s="368"/>
-      <c r="K157" s="368"/>
-      <c r="L157" s="368"/>
-      <c r="M157" s="368"/>
-      <c r="N157" s="368"/>
-      <c r="O157" s="368"/>
-      <c r="P157" s="368"/>
-      <c r="Q157" s="368"/>
-      <c r="R157" s="368"/>
-      <c r="S157" s="368"/>
-      <c r="T157" s="368"/>
+      <c r="A157" s="397"/>
+      <c r="B157" s="397"/>
+      <c r="C157" s="397"/>
+      <c r="D157" s="397"/>
+      <c r="E157" s="397"/>
+      <c r="F157" s="397"/>
+      <c r="G157" s="397"/>
+      <c r="H157" s="397"/>
+      <c r="I157" s="397"/>
+      <c r="J157" s="397"/>
+      <c r="K157" s="397"/>
+      <c r="L157" s="397"/>
+      <c r="M157" s="397"/>
+      <c r="N157" s="397"/>
+      <c r="O157" s="397"/>
+      <c r="P157" s="397"/>
+      <c r="Q157" s="397"/>
+      <c r="R157" s="397"/>
+      <c r="S157" s="397"/>
+      <c r="T157" s="397"/>
     </row>
     <row r="158" spans="1:20" ht="21">
-      <c r="A158" s="368"/>
-      <c r="B158" s="368"/>
-      <c r="C158" s="368"/>
-      <c r="D158" s="368"/>
-      <c r="E158" s="368"/>
-      <c r="F158" s="368"/>
-      <c r="G158" s="368"/>
-      <c r="H158" s="368"/>
-      <c r="I158" s="368"/>
-      <c r="J158" s="368"/>
-      <c r="K158" s="368"/>
-      <c r="L158" s="368"/>
-      <c r="M158" s="368"/>
-      <c r="N158" s="368"/>
-      <c r="O158" s="368"/>
-      <c r="P158" s="368"/>
-      <c r="Q158" s="368"/>
-      <c r="R158" s="368"/>
-      <c r="S158" s="368"/>
-      <c r="T158" s="368"/>
+      <c r="A158" s="397"/>
+      <c r="B158" s="397"/>
+      <c r="C158" s="397"/>
+      <c r="D158" s="397"/>
+      <c r="E158" s="397"/>
+      <c r="F158" s="397"/>
+      <c r="G158" s="397"/>
+      <c r="H158" s="397"/>
+      <c r="I158" s="397"/>
+      <c r="J158" s="397"/>
+      <c r="K158" s="397"/>
+      <c r="L158" s="397"/>
+      <c r="M158" s="397"/>
+      <c r="N158" s="397"/>
+      <c r="O158" s="397"/>
+      <c r="P158" s="397"/>
+      <c r="Q158" s="397"/>
+      <c r="R158" s="397"/>
+      <c r="S158" s="397"/>
+      <c r="T158" s="397"/>
     </row>
     <row r="159" spans="1:20" ht="21">
-      <c r="A159" s="368"/>
-      <c r="B159" s="368"/>
-      <c r="C159" s="368"/>
-      <c r="D159" s="368"/>
-      <c r="E159" s="368"/>
-      <c r="F159" s="368"/>
-      <c r="G159" s="368"/>
-      <c r="H159" s="368"/>
-      <c r="I159" s="368"/>
-      <c r="J159" s="368"/>
-      <c r="K159" s="368"/>
-      <c r="L159" s="368"/>
-      <c r="M159" s="368"/>
-      <c r="N159" s="368"/>
-      <c r="O159" s="368"/>
-      <c r="P159" s="368"/>
-      <c r="Q159" s="368"/>
-      <c r="R159" s="368"/>
-      <c r="S159" s="368"/>
-      <c r="T159" s="368"/>
+      <c r="A159" s="397"/>
+      <c r="B159" s="397"/>
+      <c r="C159" s="397"/>
+      <c r="D159" s="397"/>
+      <c r="E159" s="397"/>
+      <c r="F159" s="397"/>
+      <c r="G159" s="397"/>
+      <c r="H159" s="397"/>
+      <c r="I159" s="397"/>
+      <c r="J159" s="397"/>
+      <c r="K159" s="397"/>
+      <c r="L159" s="397"/>
+      <c r="M159" s="397"/>
+      <c r="N159" s="397"/>
+      <c r="O159" s="397"/>
+      <c r="P159" s="397"/>
+      <c r="Q159" s="397"/>
+      <c r="R159" s="397"/>
+      <c r="S159" s="397"/>
+      <c r="T159" s="397"/>
     </row>
     <row r="160" spans="1:20" ht="21">
-      <c r="A160" s="368"/>
-      <c r="B160" s="368"/>
-      <c r="C160" s="368"/>
-      <c r="D160" s="368"/>
-      <c r="E160" s="368"/>
-      <c r="F160" s="368"/>
-      <c r="G160" s="368"/>
-      <c r="H160" s="368"/>
-      <c r="I160" s="368"/>
-      <c r="J160" s="368"/>
-      <c r="K160" s="368"/>
-      <c r="L160" s="368"/>
-      <c r="M160" s="368"/>
-      <c r="N160" s="368"/>
-      <c r="O160" s="368"/>
-      <c r="P160" s="368"/>
-      <c r="Q160" s="368"/>
-      <c r="R160" s="368"/>
-      <c r="S160" s="368"/>
-      <c r="T160" s="368"/>
+      <c r="A160" s="397"/>
+      <c r="B160" s="397"/>
+      <c r="C160" s="397"/>
+      <c r="D160" s="397"/>
+      <c r="E160" s="397"/>
+      <c r="F160" s="397"/>
+      <c r="G160" s="397"/>
+      <c r="H160" s="397"/>
+      <c r="I160" s="397"/>
+      <c r="J160" s="397"/>
+      <c r="K160" s="397"/>
+      <c r="L160" s="397"/>
+      <c r="M160" s="397"/>
+      <c r="N160" s="397"/>
+      <c r="O160" s="397"/>
+      <c r="P160" s="397"/>
+      <c r="Q160" s="397"/>
+      <c r="R160" s="397"/>
+      <c r="S160" s="397"/>
+      <c r="T160" s="397"/>
     </row>
     <row r="161" spans="1:20" ht="21">
-      <c r="A161" s="368"/>
-      <c r="B161" s="368"/>
-      <c r="C161" s="368"/>
-      <c r="D161" s="368"/>
-      <c r="E161" s="368"/>
-      <c r="F161" s="368"/>
-      <c r="G161" s="368"/>
-      <c r="H161" s="368"/>
-      <c r="I161" s="368"/>
-      <c r="J161" s="368"/>
-      <c r="K161" s="368"/>
-      <c r="L161" s="368"/>
-      <c r="M161" s="368"/>
-      <c r="N161" s="368"/>
-      <c r="O161" s="368"/>
-      <c r="P161" s="368"/>
-      <c r="Q161" s="368"/>
-      <c r="R161" s="368"/>
-      <c r="S161" s="368"/>
-      <c r="T161" s="368"/>
+      <c r="A161" s="397"/>
+      <c r="B161" s="397"/>
+      <c r="C161" s="397"/>
+      <c r="D161" s="397"/>
+      <c r="E161" s="397"/>
+      <c r="F161" s="397"/>
+      <c r="G161" s="397"/>
+      <c r="H161" s="397"/>
+      <c r="I161" s="397"/>
+      <c r="J161" s="397"/>
+      <c r="K161" s="397"/>
+      <c r="L161" s="397"/>
+      <c r="M161" s="397"/>
+      <c r="N161" s="397"/>
+      <c r="O161" s="397"/>
+      <c r="P161" s="397"/>
+      <c r="Q161" s="397"/>
+      <c r="R161" s="397"/>
+      <c r="S161" s="397"/>
+      <c r="T161" s="397"/>
     </row>
   </sheetData>
   <mergeCells count="389">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q89:T89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="M90:P90"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="C28:T28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="M161:P161"/>
+    <mergeCell ref="Q161:T161"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="E160:H160"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="M160:P160"/>
+    <mergeCell ref="Q160:T160"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="E159:H159"/>
+    <mergeCell ref="I159:L159"/>
+    <mergeCell ref="M159:P159"/>
+    <mergeCell ref="Q159:T159"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="E158:H158"/>
+    <mergeCell ref="I158:L158"/>
+    <mergeCell ref="M158:P158"/>
+    <mergeCell ref="Q158:T158"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="E157:H157"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="M157:P157"/>
+    <mergeCell ref="Q157:T157"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="E156:H156"/>
+    <mergeCell ref="I156:L156"/>
+    <mergeCell ref="M156:P156"/>
+    <mergeCell ref="Q156:T156"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="E155:H155"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="M155:P155"/>
+    <mergeCell ref="Q155:T155"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="E154:H154"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="M154:P154"/>
+    <mergeCell ref="Q154:T154"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="E153:H153"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="M153:P153"/>
+    <mergeCell ref="Q153:T153"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="E152:H152"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="M152:P152"/>
+    <mergeCell ref="Q152:T152"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="E151:H151"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="M151:P151"/>
+    <mergeCell ref="Q151:T151"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="E150:H150"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="M150:P150"/>
+    <mergeCell ref="Q150:T150"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="E149:H149"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="M149:P149"/>
+    <mergeCell ref="Q149:T149"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="E148:H148"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="M148:P148"/>
+    <mergeCell ref="Q148:T148"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="E147:H147"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="M147:P147"/>
+    <mergeCell ref="Q147:T147"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="E146:H146"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="M146:P146"/>
+    <mergeCell ref="Q146:T146"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="E145:H145"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="M145:P145"/>
+    <mergeCell ref="Q145:T145"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="E144:H144"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="M144:P144"/>
+    <mergeCell ref="Q144:T144"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="E143:H143"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="M143:P143"/>
+    <mergeCell ref="Q143:T143"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="E142:H142"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="M142:P142"/>
+    <mergeCell ref="Q142:T142"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="M141:P141"/>
+    <mergeCell ref="Q141:T141"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="E140:H140"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="M140:P140"/>
+    <mergeCell ref="Q140:T140"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="E139:H139"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="M139:P139"/>
+    <mergeCell ref="Q139:T139"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="E138:H138"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="M138:P138"/>
+    <mergeCell ref="Q138:T138"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="E137:H137"/>
+    <mergeCell ref="I137:L137"/>
+    <mergeCell ref="M137:P137"/>
+    <mergeCell ref="Q137:T137"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="E136:H136"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="M136:P136"/>
+    <mergeCell ref="Q136:T136"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="E135:H135"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="Q135:T135"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="E134:H134"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="M134:P134"/>
+    <mergeCell ref="Q134:T134"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="E133:H133"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="M133:P133"/>
+    <mergeCell ref="Q133:T133"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="E132:H132"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="M132:P132"/>
+    <mergeCell ref="Q132:T132"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="E131:H131"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="M131:P131"/>
+    <mergeCell ref="Q131:T131"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="E130:H130"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="M130:P130"/>
+    <mergeCell ref="Q130:T130"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="M129:P129"/>
+    <mergeCell ref="Q129:T129"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="E128:H128"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="M128:P128"/>
+    <mergeCell ref="Q128:T128"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="M127:P127"/>
+    <mergeCell ref="Q127:T127"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="E126:H126"/>
+    <mergeCell ref="I126:L126"/>
+    <mergeCell ref="M126:P126"/>
+    <mergeCell ref="Q126:T126"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="E125:H125"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="Q125:T125"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="E124:H124"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="M124:P124"/>
+    <mergeCell ref="Q124:T124"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="E123:H123"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="Q123:T123"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="E122:H122"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="M122:P122"/>
+    <mergeCell ref="Q122:T122"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="M121:P121"/>
+    <mergeCell ref="Q121:T121"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="E120:H120"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="M120:P120"/>
+    <mergeCell ref="Q120:T120"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="E119:H119"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="M119:P119"/>
+    <mergeCell ref="Q119:T119"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="E118:H118"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="M118:P118"/>
+    <mergeCell ref="Q118:T118"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="E117:H117"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="M117:P117"/>
+    <mergeCell ref="Q117:T117"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="E116:H116"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="M116:P116"/>
+    <mergeCell ref="Q116:T116"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="M115:P115"/>
+    <mergeCell ref="Q115:T115"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E114:H114"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="M114:P114"/>
+    <mergeCell ref="Q114:T114"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="Q113:T113"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="E112:H112"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:P112"/>
+    <mergeCell ref="Q112:T112"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="Q111:T111"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E110:H110"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="Q110:T110"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="Q109:T109"/>
+    <mergeCell ref="K109:P109"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="E108:H108"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="Q108:T108"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="M107:P107"/>
+    <mergeCell ref="Q107:T107"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="E106:H106"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="M106:P106"/>
+    <mergeCell ref="Q106:T106"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="M105:P105"/>
+    <mergeCell ref="Q105:T105"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="M104:P104"/>
+    <mergeCell ref="Q104:T104"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="M95:P95"/>
+    <mergeCell ref="Q95:T95"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="E103:H103"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="M103:P103"/>
+    <mergeCell ref="Q103:T103"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="E102:H102"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="M102:P102"/>
+    <mergeCell ref="Q102:T102"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="M89:P89"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="M101:P101"/>
+    <mergeCell ref="Q101:T101"/>
+    <mergeCell ref="Q97:T97"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="E100:H100"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="M100:P100"/>
+    <mergeCell ref="Q100:T100"/>
+    <mergeCell ref="Q96:T96"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="M97:P97"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="M98:P98"/>
+    <mergeCell ref="Q98:T98"/>
+    <mergeCell ref="Q94:T94"/>
+    <mergeCell ref="E95:H95"/>
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="M92:P92"/>
@@ -31789,7 +32048,6 @@
     <mergeCell ref="I92:L92"/>
     <mergeCell ref="I91:L91"/>
     <mergeCell ref="I93:L93"/>
-    <mergeCell ref="B89:D89"/>
     <mergeCell ref="E94:H94"/>
     <mergeCell ref="I94:L94"/>
     <mergeCell ref="M94:P94"/>
@@ -31797,333 +32055,22 @@
     <mergeCell ref="I96:L96"/>
     <mergeCell ref="M96:P96"/>
     <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="M89:P89"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="M101:P101"/>
-    <mergeCell ref="Q101:T101"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q89:T89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="M90:P90"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="C28:T28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="B89:D89"/>
     <mergeCell ref="B88:T88"/>
-    <mergeCell ref="Q97:T97"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="E100:H100"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="M100:P100"/>
-    <mergeCell ref="Q100:T100"/>
-    <mergeCell ref="Q96:T96"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="M97:P97"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="M98:P98"/>
-    <mergeCell ref="Q98:T98"/>
-    <mergeCell ref="Q94:T94"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="M95:P95"/>
-    <mergeCell ref="Q95:T95"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="M103:P103"/>
-    <mergeCell ref="Q103:T103"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="E102:H102"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="M102:P102"/>
-    <mergeCell ref="Q102:T102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="I105:L105"/>
-    <mergeCell ref="M105:P105"/>
-    <mergeCell ref="Q105:T105"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="M104:P104"/>
-    <mergeCell ref="Q104:T104"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="M107:P107"/>
-    <mergeCell ref="Q107:T107"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="E106:H106"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="M106:P106"/>
-    <mergeCell ref="Q106:T106"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="Q109:T109"/>
-    <mergeCell ref="K109:P109"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="E108:H108"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="Q108:T108"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="E111:H111"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="Q111:T111"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E110:H110"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="Q110:T110"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="E113:H113"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="M113:P113"/>
-    <mergeCell ref="Q113:T113"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E112:H112"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:P112"/>
-    <mergeCell ref="Q112:T112"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="E115:H115"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="M115:P115"/>
-    <mergeCell ref="Q115:T115"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="E114:H114"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="M114:P114"/>
-    <mergeCell ref="Q114:T114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="E117:H117"/>
-    <mergeCell ref="I117:L117"/>
-    <mergeCell ref="M117:P117"/>
-    <mergeCell ref="Q117:T117"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="E116:H116"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="M116:P116"/>
-    <mergeCell ref="Q116:T116"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="E119:H119"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="M119:P119"/>
-    <mergeCell ref="Q119:T119"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="E118:H118"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="M118:P118"/>
-    <mergeCell ref="Q118:T118"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="M121:P121"/>
-    <mergeCell ref="Q121:T121"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="E120:H120"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="M120:P120"/>
-    <mergeCell ref="Q120:T120"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="E123:H123"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="Q123:T123"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="E122:H122"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="M122:P122"/>
-    <mergeCell ref="Q122:T122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="E125:H125"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="Q125:T125"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="E124:H124"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="M124:P124"/>
-    <mergeCell ref="Q124:T124"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="M127:P127"/>
-    <mergeCell ref="Q127:T127"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="E126:H126"/>
-    <mergeCell ref="I126:L126"/>
-    <mergeCell ref="M126:P126"/>
-    <mergeCell ref="Q126:T126"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="E129:H129"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="M129:P129"/>
-    <mergeCell ref="Q129:T129"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="E128:H128"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="M128:P128"/>
-    <mergeCell ref="Q128:T128"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="E131:H131"/>
-    <mergeCell ref="I131:L131"/>
-    <mergeCell ref="M131:P131"/>
-    <mergeCell ref="Q131:T131"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="E130:H130"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="M130:P130"/>
-    <mergeCell ref="Q130:T130"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="E133:H133"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="M133:P133"/>
-    <mergeCell ref="Q133:T133"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="E132:H132"/>
-    <mergeCell ref="I132:L132"/>
-    <mergeCell ref="M132:P132"/>
-    <mergeCell ref="Q132:T132"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="E135:H135"/>
-    <mergeCell ref="I135:L135"/>
-    <mergeCell ref="M135:P135"/>
-    <mergeCell ref="Q135:T135"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="E134:H134"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="M134:P134"/>
-    <mergeCell ref="Q134:T134"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="E137:H137"/>
-    <mergeCell ref="I137:L137"/>
-    <mergeCell ref="M137:P137"/>
-    <mergeCell ref="Q137:T137"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="E136:H136"/>
-    <mergeCell ref="I136:L136"/>
-    <mergeCell ref="M136:P136"/>
-    <mergeCell ref="Q136:T136"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="E139:H139"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="M139:P139"/>
-    <mergeCell ref="Q139:T139"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="E138:H138"/>
-    <mergeCell ref="I138:L138"/>
-    <mergeCell ref="M138:P138"/>
-    <mergeCell ref="Q138:T138"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="M141:P141"/>
-    <mergeCell ref="Q141:T141"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="E140:H140"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="M140:P140"/>
-    <mergeCell ref="Q140:T140"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="E143:H143"/>
-    <mergeCell ref="I143:L143"/>
-    <mergeCell ref="M143:P143"/>
-    <mergeCell ref="Q143:T143"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="E142:H142"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="M142:P142"/>
-    <mergeCell ref="Q142:T142"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="E145:H145"/>
-    <mergeCell ref="I145:L145"/>
-    <mergeCell ref="M145:P145"/>
-    <mergeCell ref="Q145:T145"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="E144:H144"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="M144:P144"/>
-    <mergeCell ref="Q144:T144"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="E147:H147"/>
-    <mergeCell ref="I147:L147"/>
-    <mergeCell ref="M147:P147"/>
-    <mergeCell ref="Q147:T147"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="E146:H146"/>
-    <mergeCell ref="I146:L146"/>
-    <mergeCell ref="M146:P146"/>
-    <mergeCell ref="Q146:T146"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="E149:H149"/>
-    <mergeCell ref="I149:L149"/>
-    <mergeCell ref="M149:P149"/>
-    <mergeCell ref="Q149:T149"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="E148:H148"/>
-    <mergeCell ref="I148:L148"/>
-    <mergeCell ref="M148:P148"/>
-    <mergeCell ref="Q148:T148"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="E151:H151"/>
-    <mergeCell ref="I151:L151"/>
-    <mergeCell ref="M151:P151"/>
-    <mergeCell ref="Q151:T151"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="E150:H150"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="M150:P150"/>
-    <mergeCell ref="Q150:T150"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="E153:H153"/>
-    <mergeCell ref="I153:L153"/>
-    <mergeCell ref="M153:P153"/>
-    <mergeCell ref="Q153:T153"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="E152:H152"/>
-    <mergeCell ref="I152:L152"/>
-    <mergeCell ref="M152:P152"/>
-    <mergeCell ref="Q152:T152"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="E155:H155"/>
-    <mergeCell ref="I155:L155"/>
-    <mergeCell ref="M155:P155"/>
-    <mergeCell ref="Q155:T155"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="E154:H154"/>
-    <mergeCell ref="I154:L154"/>
-    <mergeCell ref="M154:P154"/>
-    <mergeCell ref="Q154:T154"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="E157:H157"/>
-    <mergeCell ref="I157:L157"/>
-    <mergeCell ref="M157:P157"/>
-    <mergeCell ref="Q157:T157"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="E156:H156"/>
-    <mergeCell ref="I156:L156"/>
-    <mergeCell ref="M156:P156"/>
-    <mergeCell ref="Q156:T156"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="E159:H159"/>
-    <mergeCell ref="I159:L159"/>
-    <mergeCell ref="M159:P159"/>
-    <mergeCell ref="Q159:T159"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="E158:H158"/>
-    <mergeCell ref="I158:L158"/>
-    <mergeCell ref="M158:P158"/>
-    <mergeCell ref="Q158:T158"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="I161:L161"/>
-    <mergeCell ref="M161:P161"/>
-    <mergeCell ref="Q161:T161"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="E160:H160"/>
-    <mergeCell ref="I160:L160"/>
-    <mergeCell ref="M160:P160"/>
-    <mergeCell ref="Q160:T160"/>
     <mergeCell ref="P12:T12"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G23:J23"/>
@@ -32132,8 +32079,19 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:T9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -32151,8 +32109,8 @@
   </sheetPr>
   <dimension ref="A2:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32182,27 +32140,27 @@
       <c r="S2" s="41"/>
     </row>
     <row r="3" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A3" s="423" t="s">
+      <c r="A3" s="437" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="423"/>
-      <c r="C3" s="423"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="423"/>
-      <c r="F3" s="423"/>
-      <c r="G3" s="423"/>
-      <c r="H3" s="423"/>
-      <c r="I3" s="423"/>
-      <c r="J3" s="423"/>
-      <c r="K3" s="423"/>
-      <c r="L3" s="423"/>
-      <c r="M3" s="423"/>
-      <c r="N3" s="423"/>
-      <c r="O3" s="423"/>
-      <c r="P3" s="423"/>
-      <c r="Q3" s="423"/>
-      <c r="R3" s="423"/>
-      <c r="S3" s="423"/>
+      <c r="B3" s="437"/>
+      <c r="C3" s="437"/>
+      <c r="D3" s="437"/>
+      <c r="E3" s="437"/>
+      <c r="F3" s="437"/>
+      <c r="G3" s="437"/>
+      <c r="H3" s="437"/>
+      <c r="I3" s="437"/>
+      <c r="J3" s="437"/>
+      <c r="K3" s="437"/>
+      <c r="L3" s="437"/>
+      <c r="M3" s="437"/>
+      <c r="N3" s="437"/>
+      <c r="O3" s="437"/>
+      <c r="P3" s="437"/>
+      <c r="Q3" s="437"/>
+      <c r="R3" s="437"/>
+      <c r="S3" s="437"/>
     </row>
     <row r="4" spans="1:19" ht="33.75" customHeight="1">
       <c r="A4" s="229"/>
@@ -32272,14 +32230,14 @@
       <c r="S7" s="227"/>
     </row>
     <row r="10" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A10" s="424"/>
-      <c r="B10" s="424"/>
-      <c r="C10" s="424"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="424"/>
-      <c r="F10" s="424"/>
-      <c r="G10" s="424"/>
-      <c r="H10" s="424"/>
+      <c r="A10" s="438"/>
+      <c r="B10" s="438"/>
+      <c r="C10" s="438"/>
+      <c r="D10" s="438"/>
+      <c r="E10" s="438"/>
+      <c r="F10" s="438"/>
+      <c r="G10" s="438"/>
+      <c r="H10" s="438"/>
       <c r="J10" s="235"/>
       <c r="K10" s="235"/>
       <c r="L10" s="235"/>
@@ -32996,7 +32954,7 @@
       <c r="O8" s="57"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="448" t="s">
+      <c r="R8" s="440" t="s">
         <v>43</v>
       </c>
       <c r="W8" s="33" t="s">
@@ -33036,7 +32994,7 @@
       <c r="O9" s="57"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="448"/>
+      <c r="R9" s="440"/>
       <c r="W9" s="31"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="3"/>
@@ -33132,10 +33090,10 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="20"/>
       <c r="X12" s="2"/>
-      <c r="AL12" s="425" t="s">
+      <c r="AL12" s="450" t="s">
         <v>5</v>
       </c>
-      <c r="AM12" s="425"/>
+      <c r="AM12" s="450"/>
     </row>
     <row r="13" spans="1:41" ht="31.5" customHeight="1">
       <c r="B13" s="55"/>
@@ -33185,10 +33143,10 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="8"/>
-      <c r="AH14" s="426" t="s">
+      <c r="AH14" s="451" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" s="427"/>
+      <c r="AI14" s="452"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
@@ -33213,8 +33171,8 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="20"/>
       <c r="X15" s="9"/>
-      <c r="AH15" s="426"/>
-      <c r="AI15" s="427"/>
+      <c r="AH15" s="451"/>
+      <c r="AI15" s="452"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
@@ -33276,16 +33234,16 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="20"/>
       <c r="X17" s="9"/>
-      <c r="AH17" s="426" t="s">
+      <c r="AH17" s="451" t="s">
         <v>13</v>
       </c>
-      <c r="AI17" s="427"/>
-      <c r="AJ17" s="428" t="s">
+      <c r="AI17" s="452"/>
+      <c r="AJ17" s="453" t="s">
         <v>23</v>
       </c>
-      <c r="AK17" s="429"/>
-      <c r="AL17" s="429"/>
-      <c r="AM17" s="430"/>
+      <c r="AK17" s="454"/>
+      <c r="AL17" s="454"/>
+      <c r="AM17" s="455"/>
     </row>
     <row r="18" spans="2:41" ht="31.5" customHeight="1">
       <c r="B18" s="55"/>
@@ -33315,12 +33273,12 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="12"/>
-      <c r="AH18" s="426"/>
-      <c r="AI18" s="427"/>
-      <c r="AJ18" s="431"/>
-      <c r="AK18" s="432"/>
-      <c r="AL18" s="432"/>
-      <c r="AM18" s="433"/>
+      <c r="AH18" s="451"/>
+      <c r="AI18" s="452"/>
+      <c r="AJ18" s="456"/>
+      <c r="AK18" s="457"/>
+      <c r="AL18" s="457"/>
+      <c r="AM18" s="458"/>
     </row>
     <row r="19" spans="2:41" ht="31.5" customHeight="1">
       <c r="B19" s="55"/>
@@ -33381,17 +33339,17 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="14"/>
-      <c r="AG20" s="434" t="s">
+      <c r="AG20" s="459" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="434"/>
-      <c r="AI20" s="435"/>
-      <c r="AJ20" s="436" t="s">
+      <c r="AH20" s="459"/>
+      <c r="AI20" s="460"/>
+      <c r="AJ20" s="461" t="s">
         <v>24</v>
       </c>
-      <c r="AK20" s="437"/>
-      <c r="AL20" s="437"/>
-      <c r="AM20" s="438"/>
+      <c r="AK20" s="462"/>
+      <c r="AL20" s="462"/>
+      <c r="AM20" s="463"/>
     </row>
     <row r="21" spans="2:41" ht="31.5" customHeight="1">
       <c r="B21" s="55"/>
@@ -33419,13 +33377,13 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="17"/>
-      <c r="AG21" s="434"/>
-      <c r="AH21" s="434"/>
-      <c r="AI21" s="435"/>
-      <c r="AJ21" s="439"/>
-      <c r="AK21" s="440"/>
-      <c r="AL21" s="440"/>
-      <c r="AM21" s="441"/>
+      <c r="AG21" s="459"/>
+      <c r="AH21" s="459"/>
+      <c r="AI21" s="460"/>
+      <c r="AJ21" s="464"/>
+      <c r="AK21" s="465"/>
+      <c r="AL21" s="465"/>
+      <c r="AM21" s="466"/>
     </row>
     <row r="22" spans="2:41" ht="31.5" customHeight="1">
       <c r="B22" s="55"/>
@@ -33503,12 +33461,12 @@
       <c r="AI24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AJ24" s="442">
+      <c r="AJ24" s="446">
         <v>43202</v>
       </c>
-      <c r="AK24" s="443"/>
-      <c r="AL24" s="443"/>
-      <c r="AM24" s="444"/>
+      <c r="AK24" s="447"/>
+      <c r="AL24" s="447"/>
+      <c r="AM24" s="448"/>
     </row>
     <row r="25" spans="2:41" ht="31.5" customHeight="1">
       <c r="B25" s="55"/>
@@ -33577,11 +33535,11 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="24"/>
-      <c r="AK26" s="445" t="s">
+      <c r="AK26" s="449" t="s">
         <v>14</v>
       </c>
-      <c r="AL26" s="445"/>
-      <c r="AM26" s="445"/>
+      <c r="AL26" s="449"/>
+      <c r="AM26" s="449"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
@@ -34006,10 +33964,10 @@
       <c r="J38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="449" t="s">
+      <c r="K38" s="441" t="s">
         <v>68</v>
       </c>
-      <c r="L38" s="450"/>
+      <c r="L38" s="442"/>
       <c r="M38" s="103" t="s">
         <v>67</v>
       </c>
@@ -34773,35 +34731,35 @@
       <c r="B57" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="451" t="s">
+      <c r="I57" s="444" t="s">
         <v>75</v>
       </c>
-      <c r="J57" s="451"/>
-      <c r="K57" s="451"/>
-      <c r="L57" s="451"/>
-      <c r="M57" s="451"/>
-      <c r="N57" s="451"/>
-      <c r="O57" s="451"/>
+      <c r="J57" s="444"/>
+      <c r="K57" s="444"/>
+      <c r="L57" s="444"/>
+      <c r="M57" s="444"/>
+      <c r="N57" s="444"/>
+      <c r="O57" s="444"/>
     </row>
     <row r="58" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1"/>
     <row r="59" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B59" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="446" t="s">
+      <c r="E59" s="443" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="446"/>
+      <c r="F59" s="443"/>
       <c r="G59" s="61"/>
       <c r="H59" s="61" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="61"/>
-      <c r="J59" s="446" t="s">
+      <c r="J59" s="443" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="446"/>
-      <c r="L59" s="446"/>
+      <c r="K59" s="443"/>
+      <c r="L59" s="443"/>
       <c r="M59" s="62" t="s">
         <v>18</v>
       </c>
@@ -34810,10 +34768,10 @@
         <v>20</v>
       </c>
       <c r="P59" s="62"/>
-      <c r="Q59" s="452" t="s">
+      <c r="Q59" s="445" t="s">
         <v>22</v>
       </c>
-      <c r="R59" s="452"/>
+      <c r="R59" s="445"/>
       <c r="S59" s="110" t="s">
         <v>25</v>
       </c>
@@ -34824,18 +34782,18 @@
         <v>19</v>
       </c>
       <c r="D60" s="111"/>
-      <c r="E60" s="447" t="s">
+      <c r="E60" s="439" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="447"/>
+      <c r="F60" s="439"/>
       <c r="G60" s="111"/>
       <c r="H60" s="111"/>
       <c r="I60" s="111"/>
-      <c r="J60" s="447" t="s">
+      <c r="J60" s="439" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="447"/>
-      <c r="L60" s="447"/>
+      <c r="K60" s="439"/>
+      <c r="L60" s="439"/>
       <c r="M60" s="63" t="s">
         <v>12</v>
       </c>
@@ -34844,10 +34802,10 @@
         <v>43185</v>
       </c>
       <c r="P60" s="63"/>
-      <c r="Q60" s="447"/>
-      <c r="R60" s="447"/>
-      <c r="S60" s="447"/>
-      <c r="T60" s="447"/>
+      <c r="Q60" s="439"/>
+      <c r="R60" s="439"/>
+      <c r="S60" s="439"/>
+      <c r="T60" s="439"/>
       <c r="AX60" s="20"/>
     </row>
     <row r="61" spans="1:50" s="3" customFormat="1" ht="54" customHeight="1">
@@ -34855,18 +34813,18 @@
         <v>19</v>
       </c>
       <c r="D61" s="111"/>
-      <c r="E61" s="447" t="s">
+      <c r="E61" s="439" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="447"/>
+      <c r="F61" s="439"/>
       <c r="G61" s="111"/>
       <c r="H61" s="111"/>
       <c r="I61" s="111"/>
-      <c r="J61" s="447" t="s">
+      <c r="J61" s="439" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="447"/>
-      <c r="L61" s="447"/>
+      <c r="K61" s="439"/>
+      <c r="L61" s="439"/>
       <c r="M61" s="63" t="s">
         <v>12</v>
       </c>
@@ -34875,10 +34833,10 @@
         <v>43185</v>
       </c>
       <c r="P61" s="63"/>
-      <c r="Q61" s="447"/>
-      <c r="R61" s="447"/>
-      <c r="S61" s="447"/>
-      <c r="T61" s="447"/>
+      <c r="Q61" s="439"/>
+      <c r="R61" s="439"/>
+      <c r="S61" s="439"/>
+      <c r="T61" s="439"/>
       <c r="AX61" s="20"/>
     </row>
     <row r="62" spans="1:50" s="3" customFormat="1" ht="31.5" customHeight="1">
@@ -45836,19 +45794,19 @@
         <v>17</v>
       </c>
       <c r="X368" s="61"/>
-      <c r="Y368" s="446" t="s">
+      <c r="Y368" s="443" t="s">
         <v>10</v>
       </c>
-      <c r="Z368" s="446"/>
-      <c r="AA368" s="446" t="s">
+      <c r="Z368" s="443"/>
+      <c r="AA368" s="443" t="s">
         <v>15</v>
       </c>
-      <c r="AB368" s="446"/>
-      <c r="AC368" s="446" t="s">
+      <c r="AB368" s="443"/>
+      <c r="AC368" s="443" t="s">
         <v>16</v>
       </c>
-      <c r="AD368" s="446"/>
-      <c r="AE368" s="446"/>
+      <c r="AD368" s="443"/>
+      <c r="AE368" s="443"/>
       <c r="AF368" s="62" t="s">
         <v>18</v>
       </c>
@@ -45857,14 +45815,14 @@
         <v>20</v>
       </c>
       <c r="AI368" s="62"/>
-      <c r="AJ368" s="446" t="s">
+      <c r="AJ368" s="443" t="s">
         <v>22</v>
       </c>
-      <c r="AK368" s="446"/>
-      <c r="AL368" s="446" t="s">
+      <c r="AK368" s="443"/>
+      <c r="AL368" s="443" t="s">
         <v>25</v>
       </c>
-      <c r="AM368" s="446"/>
+      <c r="AM368" s="443"/>
     </row>
     <row r="369" spans="2:50" s="3" customFormat="1" ht="61.5" customHeight="1">
       <c r="B369" s="55"/>
@@ -45885,17 +45843,17 @@
       <c r="W369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y369" s="447" t="s">
+      <c r="Y369" s="439" t="s">
         <v>11</v>
       </c>
-      <c r="Z369" s="447"/>
-      <c r="AA369" s="447"/>
-      <c r="AB369" s="447"/>
-      <c r="AC369" s="447" t="s">
+      <c r="Z369" s="439"/>
+      <c r="AA369" s="439"/>
+      <c r="AB369" s="439"/>
+      <c r="AC369" s="439" t="s">
         <v>21</v>
       </c>
-      <c r="AD369" s="447"/>
-      <c r="AE369" s="447"/>
+      <c r="AD369" s="439"/>
+      <c r="AE369" s="439"/>
       <c r="AF369" s="63" t="s">
         <v>12</v>
       </c>
@@ -45904,10 +45862,10 @@
         <v>43185</v>
       </c>
       <c r="AI369" s="63"/>
-      <c r="AJ369" s="447"/>
-      <c r="AK369" s="447"/>
-      <c r="AL369" s="447"/>
-      <c r="AM369" s="447"/>
+      <c r="AJ369" s="439"/>
+      <c r="AK369" s="439"/>
+      <c r="AL369" s="439"/>
+      <c r="AM369" s="439"/>
     </row>
     <row r="370" spans="2:50" s="3" customFormat="1" ht="54" customHeight="1">
       <c r="B370" s="55"/>
@@ -45928,17 +45886,17 @@
       <c r="W370" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y370" s="447" t="s">
+      <c r="Y370" s="439" t="s">
         <v>11</v>
       </c>
-      <c r="Z370" s="447"/>
-      <c r="AA370" s="447"/>
-      <c r="AB370" s="447"/>
-      <c r="AC370" s="447" t="s">
+      <c r="Z370" s="439"/>
+      <c r="AA370" s="439"/>
+      <c r="AB370" s="439"/>
+      <c r="AC370" s="439" t="s">
         <v>21</v>
       </c>
-      <c r="AD370" s="447"/>
-      <c r="AE370" s="447"/>
+      <c r="AD370" s="439"/>
+      <c r="AE370" s="439"/>
       <c r="AF370" s="63" t="s">
         <v>12</v>
       </c>
@@ -45947,10 +45905,10 @@
         <v>43185</v>
       </c>
       <c r="AI370" s="63"/>
-      <c r="AJ370" s="447"/>
-      <c r="AK370" s="447"/>
-      <c r="AL370" s="447"/>
-      <c r="AM370" s="447"/>
+      <c r="AJ370" s="439"/>
+      <c r="AK370" s="439"/>
+      <c r="AL370" s="439"/>
+      <c r="AM370" s="439"/>
     </row>
     <row r="371" spans="2:50" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B371" s="55"/>
@@ -46112,6 +46070,29 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AH14:AI15"/>
+    <mergeCell ref="AH17:AI18"/>
+    <mergeCell ref="AJ17:AM18"/>
+    <mergeCell ref="AG20:AI21"/>
+    <mergeCell ref="AJ20:AM21"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="Y368:Z368"/>
+    <mergeCell ref="AA368:AB368"/>
+    <mergeCell ref="AC368:AE368"/>
+    <mergeCell ref="AJ368:AK368"/>
+    <mergeCell ref="AL368:AM368"/>
+    <mergeCell ref="Y369:Z369"/>
+    <mergeCell ref="AA369:AB369"/>
+    <mergeCell ref="AC369:AE369"/>
+    <mergeCell ref="AJ369:AK369"/>
+    <mergeCell ref="AL369:AM369"/>
+    <mergeCell ref="Y370:Z370"/>
+    <mergeCell ref="AA370:AB370"/>
+    <mergeCell ref="AC370:AE370"/>
+    <mergeCell ref="AJ370:AK370"/>
+    <mergeCell ref="AL370:AM370"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="J61:L61"/>
     <mergeCell ref="Q61:R61"/>
@@ -46126,29 +46107,6 @@
     <mergeCell ref="J60:L60"/>
     <mergeCell ref="Q60:R60"/>
     <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Y370:Z370"/>
-    <mergeCell ref="AA370:AB370"/>
-    <mergeCell ref="AC370:AE370"/>
-    <mergeCell ref="AJ370:AK370"/>
-    <mergeCell ref="AL370:AM370"/>
-    <mergeCell ref="Y369:Z369"/>
-    <mergeCell ref="AA369:AB369"/>
-    <mergeCell ref="AC369:AE369"/>
-    <mergeCell ref="AJ369:AK369"/>
-    <mergeCell ref="AL369:AM369"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="Y368:Z368"/>
-    <mergeCell ref="AA368:AB368"/>
-    <mergeCell ref="AC368:AE368"/>
-    <mergeCell ref="AJ368:AK368"/>
-    <mergeCell ref="AL368:AM368"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AH14:AI15"/>
-    <mergeCell ref="AH17:AI18"/>
-    <mergeCell ref="AJ17:AM18"/>
-    <mergeCell ref="AG20:AI21"/>
-    <mergeCell ref="AJ20:AM21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46219,10 +46177,10 @@
       </c>
     </row>
     <row r="15" spans="3:4" ht="33" customHeight="1">
-      <c r="C15" s="453" t="s">
+      <c r="C15" s="467" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="454"/>
+      <c r="D15" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -46285,8 +46243,8 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="455"/>
-      <c r="F5" s="455"/>
+      <c r="E5" s="469"/>
+      <c r="F5" s="469"/>
       <c r="G5" s="47" t="s">
         <v>39</v>
       </c>
@@ -46430,20 +46388,20 @@
     </row>
     <row r="8" spans="3:20" ht="22.5" customHeight="1">
       <c r="G8" s="140"/>
-      <c r="H8" s="458" t="s">
+      <c r="H8" s="472" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="458"/>
-      <c r="J8" s="458"/>
-      <c r="K8" s="458"/>
-      <c r="L8" s="458"/>
-      <c r="M8" s="458"/>
-      <c r="N8" s="458"/>
-      <c r="O8" s="458"/>
-      <c r="P8" s="458"/>
-      <c r="Q8" s="458"/>
-      <c r="R8" s="458"/>
-      <c r="S8" s="458"/>
+      <c r="I8" s="472"/>
+      <c r="J8" s="472"/>
+      <c r="K8" s="472"/>
+      <c r="L8" s="472"/>
+      <c r="M8" s="472"/>
+      <c r="N8" s="472"/>
+      <c r="O8" s="472"/>
+      <c r="P8" s="472"/>
+      <c r="Q8" s="472"/>
+      <c r="R8" s="472"/>
+      <c r="S8" s="472"/>
       <c r="T8" s="141"/>
     </row>
     <row r="9" spans="3:20">
@@ -46498,20 +46456,20 @@
     </row>
     <row r="12" spans="3:20" ht="21.75" customHeight="1">
       <c r="G12" s="140"/>
-      <c r="H12" s="458" t="s">
+      <c r="H12" s="472" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="458"/>
-      <c r="J12" s="458"/>
-      <c r="K12" s="458"/>
-      <c r="L12" s="458"/>
-      <c r="M12" s="458"/>
-      <c r="N12" s="458"/>
-      <c r="O12" s="458"/>
-      <c r="P12" s="458"/>
-      <c r="Q12" s="458"/>
-      <c r="R12" s="458"/>
-      <c r="S12" s="458"/>
+      <c r="I12" s="472"/>
+      <c r="J12" s="472"/>
+      <c r="K12" s="472"/>
+      <c r="L12" s="472"/>
+      <c r="M12" s="472"/>
+      <c r="N12" s="472"/>
+      <c r="O12" s="472"/>
+      <c r="P12" s="472"/>
+      <c r="Q12" s="472"/>
+      <c r="R12" s="472"/>
+      <c r="S12" s="472"/>
       <c r="T12" s="141"/>
     </row>
     <row r="13" spans="3:20">
@@ -46566,20 +46524,20 @@
     </row>
     <row r="16" spans="3:20">
       <c r="G16" s="140"/>
-      <c r="H16" s="458" t="s">
+      <c r="H16" s="472" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="458"/>
-      <c r="J16" s="458"/>
-      <c r="K16" s="458"/>
-      <c r="L16" s="458"/>
-      <c r="M16" s="458"/>
-      <c r="N16" s="458"/>
-      <c r="O16" s="458"/>
-      <c r="P16" s="458"/>
-      <c r="Q16" s="458"/>
-      <c r="R16" s="458"/>
-      <c r="S16" s="458"/>
+      <c r="I16" s="472"/>
+      <c r="J16" s="472"/>
+      <c r="K16" s="472"/>
+      <c r="L16" s="472"/>
+      <c r="M16" s="472"/>
+      <c r="N16" s="472"/>
+      <c r="O16" s="472"/>
+      <c r="P16" s="472"/>
+      <c r="Q16" s="472"/>
+      <c r="R16" s="472"/>
+      <c r="S16" s="472"/>
       <c r="T16" s="141"/>
     </row>
     <row r="17" spans="7:20">
@@ -46600,164 +46558,164 @@
     </row>
     <row r="18" spans="7:20">
       <c r="G18" s="140"/>
-      <c r="H18" s="459" t="s">
+      <c r="H18" s="473" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="459"/>
-      <c r="J18" s="459"/>
-      <c r="K18" s="459"/>
-      <c r="L18" s="459"/>
-      <c r="M18" s="459"/>
-      <c r="N18" s="459"/>
-      <c r="O18" s="459"/>
-      <c r="P18" s="459"/>
-      <c r="Q18" s="459"/>
-      <c r="R18" s="459"/>
-      <c r="S18" s="459"/>
+      <c r="I18" s="473"/>
+      <c r="J18" s="473"/>
+      <c r="K18" s="473"/>
+      <c r="L18" s="473"/>
+      <c r="M18" s="473"/>
+      <c r="N18" s="473"/>
+      <c r="O18" s="473"/>
+      <c r="P18" s="473"/>
+      <c r="Q18" s="473"/>
+      <c r="R18" s="473"/>
+      <c r="S18" s="473"/>
       <c r="T18" s="141"/>
     </row>
     <row r="19" spans="7:20">
       <c r="G19" s="140"/>
-      <c r="H19" s="459"/>
-      <c r="I19" s="459"/>
-      <c r="J19" s="459"/>
-      <c r="K19" s="459"/>
-      <c r="L19" s="459"/>
-      <c r="M19" s="459"/>
-      <c r="N19" s="459"/>
-      <c r="O19" s="459"/>
-      <c r="P19" s="459"/>
-      <c r="Q19" s="459"/>
-      <c r="R19" s="459"/>
-      <c r="S19" s="459"/>
+      <c r="H19" s="473"/>
+      <c r="I19" s="473"/>
+      <c r="J19" s="473"/>
+      <c r="K19" s="473"/>
+      <c r="L19" s="473"/>
+      <c r="M19" s="473"/>
+      <c r="N19" s="473"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="473"/>
+      <c r="R19" s="473"/>
+      <c r="S19" s="473"/>
       <c r="T19" s="141"/>
     </row>
     <row r="20" spans="7:20">
       <c r="G20" s="140"/>
-      <c r="H20" s="459"/>
-      <c r="I20" s="459"/>
-      <c r="J20" s="459"/>
-      <c r="K20" s="459"/>
-      <c r="L20" s="459"/>
-      <c r="M20" s="459"/>
-      <c r="N20" s="459"/>
-      <c r="O20" s="459"/>
-      <c r="P20" s="459"/>
-      <c r="Q20" s="459"/>
-      <c r="R20" s="459"/>
-      <c r="S20" s="459"/>
+      <c r="H20" s="473"/>
+      <c r="I20" s="473"/>
+      <c r="J20" s="473"/>
+      <c r="K20" s="473"/>
+      <c r="L20" s="473"/>
+      <c r="M20" s="473"/>
+      <c r="N20" s="473"/>
+      <c r="O20" s="473"/>
+      <c r="P20" s="473"/>
+      <c r="Q20" s="473"/>
+      <c r="R20" s="473"/>
+      <c r="S20" s="473"/>
       <c r="T20" s="141"/>
     </row>
     <row r="21" spans="7:20">
       <c r="G21" s="140"/>
-      <c r="H21" s="459"/>
-      <c r="I21" s="459"/>
-      <c r="J21" s="459"/>
-      <c r="K21" s="459"/>
-      <c r="L21" s="459"/>
-      <c r="M21" s="459"/>
-      <c r="N21" s="459"/>
-      <c r="O21" s="459"/>
-      <c r="P21" s="459"/>
-      <c r="Q21" s="459"/>
-      <c r="R21" s="459"/>
-      <c r="S21" s="459"/>
+      <c r="H21" s="473"/>
+      <c r="I21" s="473"/>
+      <c r="J21" s="473"/>
+      <c r="K21" s="473"/>
+      <c r="L21" s="473"/>
+      <c r="M21" s="473"/>
+      <c r="N21" s="473"/>
+      <c r="O21" s="473"/>
+      <c r="P21" s="473"/>
+      <c r="Q21" s="473"/>
+      <c r="R21" s="473"/>
+      <c r="S21" s="473"/>
       <c r="T21" s="141"/>
     </row>
     <row r="22" spans="7:20">
       <c r="G22" s="140"/>
-      <c r="H22" s="459"/>
-      <c r="I22" s="459"/>
-      <c r="J22" s="459"/>
-      <c r="K22" s="459"/>
-      <c r="L22" s="459"/>
-      <c r="M22" s="459"/>
-      <c r="N22" s="459"/>
-      <c r="O22" s="459"/>
-      <c r="P22" s="459"/>
-      <c r="Q22" s="459"/>
-      <c r="R22" s="459"/>
-      <c r="S22" s="459"/>
+      <c r="H22" s="473"/>
+      <c r="I22" s="473"/>
+      <c r="J22" s="473"/>
+      <c r="K22" s="473"/>
+      <c r="L22" s="473"/>
+      <c r="M22" s="473"/>
+      <c r="N22" s="473"/>
+      <c r="O22" s="473"/>
+      <c r="P22" s="473"/>
+      <c r="Q22" s="473"/>
+      <c r="R22" s="473"/>
+      <c r="S22" s="473"/>
       <c r="T22" s="141"/>
     </row>
     <row r="23" spans="7:20">
       <c r="G23" s="140"/>
-      <c r="H23" s="459"/>
-      <c r="I23" s="459"/>
-      <c r="J23" s="459"/>
-      <c r="K23" s="459"/>
-      <c r="L23" s="459"/>
-      <c r="M23" s="459"/>
-      <c r="N23" s="459"/>
-      <c r="O23" s="459"/>
-      <c r="P23" s="459"/>
-      <c r="Q23" s="459"/>
-      <c r="R23" s="459"/>
-      <c r="S23" s="459"/>
+      <c r="H23" s="473"/>
+      <c r="I23" s="473"/>
+      <c r="J23" s="473"/>
+      <c r="K23" s="473"/>
+      <c r="L23" s="473"/>
+      <c r="M23" s="473"/>
+      <c r="N23" s="473"/>
+      <c r="O23" s="473"/>
+      <c r="P23" s="473"/>
+      <c r="Q23" s="473"/>
+      <c r="R23" s="473"/>
+      <c r="S23" s="473"/>
       <c r="T23" s="141"/>
     </row>
     <row r="24" spans="7:20">
       <c r="G24" s="140"/>
-      <c r="H24" s="459"/>
-      <c r="I24" s="459"/>
-      <c r="J24" s="459"/>
-      <c r="K24" s="459"/>
-      <c r="L24" s="459"/>
-      <c r="M24" s="459"/>
-      <c r="N24" s="459"/>
-      <c r="O24" s="459"/>
-      <c r="P24" s="459"/>
-      <c r="Q24" s="459"/>
-      <c r="R24" s="459"/>
-      <c r="S24" s="459"/>
+      <c r="H24" s="473"/>
+      <c r="I24" s="473"/>
+      <c r="J24" s="473"/>
+      <c r="K24" s="473"/>
+      <c r="L24" s="473"/>
+      <c r="M24" s="473"/>
+      <c r="N24" s="473"/>
+      <c r="O24" s="473"/>
+      <c r="P24" s="473"/>
+      <c r="Q24" s="473"/>
+      <c r="R24" s="473"/>
+      <c r="S24" s="473"/>
       <c r="T24" s="141"/>
     </row>
     <row r="25" spans="7:20">
       <c r="G25" s="140"/>
-      <c r="H25" s="459"/>
-      <c r="I25" s="459"/>
-      <c r="J25" s="459"/>
-      <c r="K25" s="459"/>
-      <c r="L25" s="459"/>
-      <c r="M25" s="459"/>
-      <c r="N25" s="459"/>
-      <c r="O25" s="459"/>
-      <c r="P25" s="459"/>
-      <c r="Q25" s="459"/>
-      <c r="R25" s="459"/>
-      <c r="S25" s="459"/>
+      <c r="H25" s="473"/>
+      <c r="I25" s="473"/>
+      <c r="J25" s="473"/>
+      <c r="K25" s="473"/>
+      <c r="L25" s="473"/>
+      <c r="M25" s="473"/>
+      <c r="N25" s="473"/>
+      <c r="O25" s="473"/>
+      <c r="P25" s="473"/>
+      <c r="Q25" s="473"/>
+      <c r="R25" s="473"/>
+      <c r="S25" s="473"/>
       <c r="T25" s="141"/>
     </row>
     <row r="26" spans="7:20">
       <c r="G26" s="140"/>
-      <c r="H26" s="459"/>
-      <c r="I26" s="459"/>
-      <c r="J26" s="459"/>
-      <c r="K26" s="459"/>
-      <c r="L26" s="459"/>
-      <c r="M26" s="459"/>
-      <c r="N26" s="459"/>
-      <c r="O26" s="459"/>
-      <c r="P26" s="459"/>
-      <c r="Q26" s="459"/>
-      <c r="R26" s="459"/>
-      <c r="S26" s="459"/>
+      <c r="H26" s="473"/>
+      <c r="I26" s="473"/>
+      <c r="J26" s="473"/>
+      <c r="K26" s="473"/>
+      <c r="L26" s="473"/>
+      <c r="M26" s="473"/>
+      <c r="N26" s="473"/>
+      <c r="O26" s="473"/>
+      <c r="P26" s="473"/>
+      <c r="Q26" s="473"/>
+      <c r="R26" s="473"/>
+      <c r="S26" s="473"/>
       <c r="T26" s="141"/>
     </row>
     <row r="27" spans="7:20">
       <c r="G27" s="140"/>
-      <c r="H27" s="459"/>
-      <c r="I27" s="459"/>
-      <c r="J27" s="459"/>
-      <c r="K27" s="459"/>
-      <c r="L27" s="459"/>
-      <c r="M27" s="459"/>
-      <c r="N27" s="459"/>
-      <c r="O27" s="459"/>
-      <c r="P27" s="459"/>
-      <c r="Q27" s="459"/>
-      <c r="R27" s="459"/>
-      <c r="S27" s="459"/>
+      <c r="H27" s="473"/>
+      <c r="I27" s="473"/>
+      <c r="J27" s="473"/>
+      <c r="K27" s="473"/>
+      <c r="L27" s="473"/>
+      <c r="M27" s="473"/>
+      <c r="N27" s="473"/>
+      <c r="O27" s="473"/>
+      <c r="P27" s="473"/>
+      <c r="Q27" s="473"/>
+      <c r="R27" s="473"/>
+      <c r="S27" s="473"/>
       <c r="T27" s="141"/>
     </row>
     <row r="28" spans="7:20">
@@ -46884,12 +46842,12 @@
     </row>
     <row r="43" spans="1:20" ht="22.5" customHeight="1">
       <c r="G43" s="148"/>
-      <c r="H43" s="456" t="s">
+      <c r="H43" s="470" t="s">
         <v>98</v>
       </c>
-      <c r="I43" s="456"/>
-      <c r="J43" s="456"/>
-      <c r="K43" s="456"/>
+      <c r="I43" s="470"/>
+      <c r="J43" s="470"/>
+      <c r="K43" s="470"/>
       <c r="L43" s="149"/>
       <c r="M43" s="70" t="s">
         <v>99</v>
@@ -46952,12 +46910,12 @@
     </row>
     <row r="47" spans="1:20" ht="21.75" customHeight="1">
       <c r="G47" s="148"/>
-      <c r="H47" s="456" t="s">
+      <c r="H47" s="470" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="456"/>
-      <c r="J47" s="456"/>
-      <c r="K47" s="456"/>
+      <c r="I47" s="470"/>
+      <c r="J47" s="470"/>
+      <c r="K47" s="470"/>
       <c r="L47" s="149"/>
       <c r="M47" s="70" t="s">
         <v>101</v>
@@ -47020,22 +46978,22 @@
     </row>
     <row r="51" spans="7:20" ht="22.5" customHeight="1">
       <c r="G51" s="148"/>
-      <c r="H51" s="456" t="s">
+      <c r="H51" s="470" t="s">
         <v>102</v>
       </c>
-      <c r="I51" s="456"/>
-      <c r="J51" s="456"/>
-      <c r="K51" s="456"/>
+      <c r="I51" s="470"/>
+      <c r="J51" s="470"/>
+      <c r="K51" s="470"/>
       <c r="L51" s="149"/>
-      <c r="M51" s="457" t="s">
+      <c r="M51" s="471" t="s">
         <v>103</v>
       </c>
-      <c r="N51" s="457"/>
-      <c r="O51" s="457"/>
-      <c r="P51" s="457"/>
-      <c r="Q51" s="457"/>
-      <c r="R51" s="457"/>
-      <c r="S51" s="457"/>
+      <c r="N51" s="471"/>
+      <c r="O51" s="471"/>
+      <c r="P51" s="471"/>
+      <c r="Q51" s="471"/>
+      <c r="R51" s="471"/>
+      <c r="S51" s="471"/>
       <c r="T51" s="151"/>
     </row>
     <row r="52" spans="7:20">
@@ -47045,13 +47003,13 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="457"/>
-      <c r="N52" s="457"/>
-      <c r="O52" s="457"/>
-      <c r="P52" s="457"/>
-      <c r="Q52" s="457"/>
-      <c r="R52" s="457"/>
-      <c r="S52" s="457"/>
+      <c r="M52" s="471"/>
+      <c r="N52" s="471"/>
+      <c r="O52" s="471"/>
+      <c r="P52" s="471"/>
+      <c r="Q52" s="471"/>
+      <c r="R52" s="471"/>
+      <c r="S52" s="471"/>
       <c r="T52" s="151"/>
     </row>
     <row r="53" spans="7:20" ht="15" customHeight="1">
@@ -47061,13 +47019,13 @@
       <c r="J53" s="152"/>
       <c r="K53" s="152"/>
       <c r="L53" s="152"/>
-      <c r="M53" s="457"/>
-      <c r="N53" s="457"/>
-      <c r="O53" s="457"/>
-      <c r="P53" s="457"/>
-      <c r="Q53" s="457"/>
-      <c r="R53" s="457"/>
-      <c r="S53" s="457"/>
+      <c r="M53" s="471"/>
+      <c r="N53" s="471"/>
+      <c r="O53" s="471"/>
+      <c r="P53" s="471"/>
+      <c r="Q53" s="471"/>
+      <c r="R53" s="471"/>
+      <c r="S53" s="471"/>
       <c r="T53" s="151"/>
     </row>
     <row r="54" spans="7:20">
@@ -47077,13 +47035,13 @@
       <c r="J54" s="152"/>
       <c r="K54" s="152"/>
       <c r="L54" s="152"/>
-      <c r="M54" s="457"/>
-      <c r="N54" s="457"/>
-      <c r="O54" s="457"/>
-      <c r="P54" s="457"/>
-      <c r="Q54" s="457"/>
-      <c r="R54" s="457"/>
-      <c r="S54" s="457"/>
+      <c r="M54" s="471"/>
+      <c r="N54" s="471"/>
+      <c r="O54" s="471"/>
+      <c r="P54" s="471"/>
+      <c r="Q54" s="471"/>
+      <c r="R54" s="471"/>
+      <c r="S54" s="471"/>
       <c r="T54" s="151"/>
     </row>
     <row r="55" spans="7:20">
@@ -47093,13 +47051,13 @@
       <c r="J55" s="152"/>
       <c r="K55" s="152"/>
       <c r="L55" s="152"/>
-      <c r="M55" s="457"/>
-      <c r="N55" s="457"/>
-      <c r="O55" s="457"/>
-      <c r="P55" s="457"/>
-      <c r="Q55" s="457"/>
-      <c r="R55" s="457"/>
-      <c r="S55" s="457"/>
+      <c r="M55" s="471"/>
+      <c r="N55" s="471"/>
+      <c r="O55" s="471"/>
+      <c r="P55" s="471"/>
+      <c r="Q55" s="471"/>
+      <c r="R55" s="471"/>
+      <c r="S55" s="471"/>
       <c r="T55" s="151"/>
     </row>
     <row r="56" spans="7:20">
@@ -47109,13 +47067,13 @@
       <c r="J56" s="152"/>
       <c r="K56" s="152"/>
       <c r="L56" s="152"/>
-      <c r="M56" s="457"/>
-      <c r="N56" s="457"/>
-      <c r="O56" s="457"/>
-      <c r="P56" s="457"/>
-      <c r="Q56" s="457"/>
-      <c r="R56" s="457"/>
-      <c r="S56" s="457"/>
+      <c r="M56" s="471"/>
+      <c r="N56" s="471"/>
+      <c r="O56" s="471"/>
+      <c r="P56" s="471"/>
+      <c r="Q56" s="471"/>
+      <c r="R56" s="471"/>
+      <c r="S56" s="471"/>
       <c r="T56" s="151"/>
     </row>
     <row r="57" spans="7:20">
@@ -47125,13 +47083,13 @@
       <c r="J57" s="152"/>
       <c r="K57" s="152"/>
       <c r="L57" s="152"/>
-      <c r="M57" s="457"/>
-      <c r="N57" s="457"/>
-      <c r="O57" s="457"/>
-      <c r="P57" s="457"/>
-      <c r="Q57" s="457"/>
-      <c r="R57" s="457"/>
-      <c r="S57" s="457"/>
+      <c r="M57" s="471"/>
+      <c r="N57" s="471"/>
+      <c r="O57" s="471"/>
+      <c r="P57" s="471"/>
+      <c r="Q57" s="471"/>
+      <c r="R57" s="471"/>
+      <c r="S57" s="471"/>
       <c r="T57" s="151"/>
     </row>
     <row r="58" spans="7:20">
@@ -47141,13 +47099,13 @@
       <c r="J58" s="152"/>
       <c r="K58" s="152"/>
       <c r="L58" s="152"/>
-      <c r="M58" s="457"/>
-      <c r="N58" s="457"/>
-      <c r="O58" s="457"/>
-      <c r="P58" s="457"/>
-      <c r="Q58" s="457"/>
-      <c r="R58" s="457"/>
-      <c r="S58" s="457"/>
+      <c r="M58" s="471"/>
+      <c r="N58" s="471"/>
+      <c r="O58" s="471"/>
+      <c r="P58" s="471"/>
+      <c r="Q58" s="471"/>
+      <c r="R58" s="471"/>
+      <c r="S58" s="471"/>
       <c r="T58" s="151"/>
     </row>
     <row r="59" spans="7:20">
@@ -47157,13 +47115,13 @@
       <c r="J59" s="152"/>
       <c r="K59" s="152"/>
       <c r="L59" s="152"/>
-      <c r="M59" s="457"/>
-      <c r="N59" s="457"/>
-      <c r="O59" s="457"/>
-      <c r="P59" s="457"/>
-      <c r="Q59" s="457"/>
-      <c r="R59" s="457"/>
-      <c r="S59" s="457"/>
+      <c r="M59" s="471"/>
+      <c r="N59" s="471"/>
+      <c r="O59" s="471"/>
+      <c r="P59" s="471"/>
+      <c r="Q59" s="471"/>
+      <c r="R59" s="471"/>
+      <c r="S59" s="471"/>
       <c r="T59" s="151"/>
     </row>
     <row r="60" spans="7:20">
@@ -47173,13 +47131,13 @@
       <c r="J60" s="152"/>
       <c r="K60" s="152"/>
       <c r="L60" s="152"/>
-      <c r="M60" s="457"/>
-      <c r="N60" s="457"/>
-      <c r="O60" s="457"/>
-      <c r="P60" s="457"/>
-      <c r="Q60" s="457"/>
-      <c r="R60" s="457"/>
-      <c r="S60" s="457"/>
+      <c r="M60" s="471"/>
+      <c r="N60" s="471"/>
+      <c r="O60" s="471"/>
+      <c r="P60" s="471"/>
+      <c r="Q60" s="471"/>
+      <c r="R60" s="471"/>
+      <c r="S60" s="471"/>
       <c r="T60" s="151"/>
     </row>
     <row r="61" spans="7:20">
@@ -47189,13 +47147,13 @@
       <c r="J61" s="152"/>
       <c r="K61" s="152"/>
       <c r="L61" s="152"/>
-      <c r="M61" s="457"/>
-      <c r="N61" s="457"/>
-      <c r="O61" s="457"/>
-      <c r="P61" s="457"/>
-      <c r="Q61" s="457"/>
-      <c r="R61" s="457"/>
-      <c r="S61" s="457"/>
+      <c r="M61" s="471"/>
+      <c r="N61" s="471"/>
+      <c r="O61" s="471"/>
+      <c r="P61" s="471"/>
+      <c r="Q61" s="471"/>
+      <c r="R61" s="471"/>
+      <c r="S61" s="471"/>
       <c r="T61" s="151"/>
     </row>
     <row r="62" spans="7:20">
@@ -47205,13 +47163,13 @@
       <c r="J62" s="152"/>
       <c r="K62" s="152"/>
       <c r="L62" s="152"/>
-      <c r="M62" s="457"/>
-      <c r="N62" s="457"/>
-      <c r="O62" s="457"/>
-      <c r="P62" s="457"/>
-      <c r="Q62" s="457"/>
-      <c r="R62" s="457"/>
-      <c r="S62" s="457"/>
+      <c r="M62" s="471"/>
+      <c r="N62" s="471"/>
+      <c r="O62" s="471"/>
+      <c r="P62" s="471"/>
+      <c r="Q62" s="471"/>
+      <c r="R62" s="471"/>
+      <c r="S62" s="471"/>
       <c r="T62" s="151"/>
     </row>
     <row r="63" spans="7:20">
@@ -47221,13 +47179,13 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="457"/>
-      <c r="N63" s="457"/>
-      <c r="O63" s="457"/>
-      <c r="P63" s="457"/>
-      <c r="Q63" s="457"/>
-      <c r="R63" s="457"/>
-      <c r="S63" s="457"/>
+      <c r="M63" s="471"/>
+      <c r="N63" s="471"/>
+      <c r="O63" s="471"/>
+      <c r="P63" s="471"/>
+      <c r="Q63" s="471"/>
+      <c r="R63" s="471"/>
+      <c r="S63" s="471"/>
       <c r="T63" s="151"/>
     </row>
     <row r="64" spans="7:20">
@@ -47237,13 +47195,13 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="457"/>
-      <c r="N64" s="457"/>
-      <c r="O64" s="457"/>
-      <c r="P64" s="457"/>
-      <c r="Q64" s="457"/>
-      <c r="R64" s="457"/>
-      <c r="S64" s="457"/>
+      <c r="M64" s="471"/>
+      <c r="N64" s="471"/>
+      <c r="O64" s="471"/>
+      <c r="P64" s="471"/>
+      <c r="Q64" s="471"/>
+      <c r="R64" s="471"/>
+      <c r="S64" s="471"/>
       <c r="T64" s="151"/>
     </row>
     <row r="65" spans="4:22">
@@ -47253,13 +47211,13 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="457"/>
-      <c r="N65" s="457"/>
-      <c r="O65" s="457"/>
-      <c r="P65" s="457"/>
-      <c r="Q65" s="457"/>
-      <c r="R65" s="457"/>
-      <c r="S65" s="457"/>
+      <c r="M65" s="471"/>
+      <c r="N65" s="471"/>
+      <c r="O65" s="471"/>
+      <c r="P65" s="471"/>
+      <c r="Q65" s="471"/>
+      <c r="R65" s="471"/>
+      <c r="S65" s="471"/>
       <c r="T65" s="151"/>
     </row>
     <row r="66" spans="4:22">
@@ -47506,11 +47464,11 @@
       <c r="J9" s="178"/>
       <c r="K9" s="178"/>
       <c r="L9" s="188"/>
-      <c r="M9" s="461" t="s">
+      <c r="M9" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="461"/>
-      <c r="O9" s="461"/>
+      <c r="N9" s="475"/>
+      <c r="O9" s="475"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="173"/>
@@ -47908,15 +47866,15 @@
       <c r="AH42" s="197"/>
     </row>
     <row r="43" spans="2:34" ht="21.75" customHeight="1" thickBot="1">
-      <c r="Y43" s="462" t="s">
+      <c r="Y43" s="476" t="s">
         <v>157</v>
       </c>
       <c r="Z43" s="198"/>
-      <c r="AA43" s="462" t="s">
+      <c r="AA43" s="476" t="s">
         <v>158</v>
       </c>
       <c r="AB43" s="198"/>
-      <c r="AC43" s="464" t="s">
+      <c r="AC43" s="478" t="s">
         <v>159</v>
       </c>
       <c r="AD43" s="220"/>
@@ -47926,9 +47884,9 @@
       <c r="AH43" s="220"/>
     </row>
     <row r="44" spans="2:34" ht="21.75" thickBot="1">
-      <c r="Y44" s="463"/>
-      <c r="AA44" s="463"/>
-      <c r="AC44" s="465"/>
+      <c r="Y44" s="477"/>
+      <c r="AA44" s="477"/>
+      <c r="AC44" s="479"/>
       <c r="AD44" s="221"/>
       <c r="AE44" s="221"/>
       <c r="AF44" s="221"/>
@@ -47961,10 +47919,10 @@
       <c r="Y53" s="225" t="s">
         <v>178</v>
       </c>
-      <c r="Z53" s="460" t="s">
+      <c r="Z53" s="474" t="s">
         <v>179</v>
       </c>
-      <c r="AA53" s="460"/>
+      <c r="AA53" s="474"/>
     </row>
     <row r="54" spans="25:34">
       <c r="AA54" s="223" t="s">
@@ -48025,7 +47983,7 @@
   </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -48410,7 +48368,7 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
@@ -48529,26 +48487,26 @@
       <c r="C8" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="328" t="s">
+      <c r="D8" s="349" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="328"/>
+      <c r="E8" s="349"/>
       <c r="K8" s="165" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="333">
+      <c r="L8" s="347">
         <v>43191</v>
       </c>
-      <c r="M8" s="333"/>
+      <c r="M8" s="347"/>
       <c r="N8" s="237"/>
       <c r="R8" s="237"/>
       <c r="S8" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="T8" s="332" t="s">
+      <c r="T8" s="346" t="s">
         <v>111</v>
       </c>
-      <c r="U8" s="332"/>
+      <c r="U8" s="346"/>
     </row>
     <row r="9" spans="1:23">
       <c r="B9" s="3"/>
@@ -48574,24 +48532,24 @@
       <c r="C10" s="165" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="329" t="s">
+      <c r="D10" s="350" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="329"/>
+      <c r="E10" s="350"/>
       <c r="K10" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="336">
+      <c r="L10" s="337">
         <v>10</v>
       </c>
-      <c r="M10" s="336"/>
+      <c r="M10" s="337"/>
       <c r="S10" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="T10" s="337">
+      <c r="T10" s="338">
         <v>3</v>
       </c>
-      <c r="U10" s="337"/>
+      <c r="U10" s="338"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="C11" s="213"/>
@@ -48627,34 +48585,34 @@
       <c r="D13" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="338" t="s">
+      <c r="E13" s="335" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="338"/>
-      <c r="G13" s="338"/>
-      <c r="H13" s="338"/>
-      <c r="I13" s="331" t="s">
+      <c r="F13" s="335"/>
+      <c r="G13" s="335"/>
+      <c r="H13" s="335"/>
+      <c r="I13" s="351" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="331"/>
-      <c r="K13" s="331" t="s">
+      <c r="J13" s="351"/>
+      <c r="K13" s="351" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="331"/>
-      <c r="M13" s="330" t="s">
+      <c r="L13" s="351"/>
+      <c r="M13" s="340" t="s">
         <v>163</v>
       </c>
-      <c r="N13" s="330"/>
-      <c r="O13" s="330" t="s">
+      <c r="N13" s="340"/>
+      <c r="O13" s="340" t="s">
         <v>163</v>
       </c>
-      <c r="P13" s="330"/>
-      <c r="Q13" s="330" t="s">
+      <c r="P13" s="340"/>
+      <c r="Q13" s="340" t="s">
         <v>163</v>
       </c>
-      <c r="R13" s="330"/>
-      <c r="T13" s="335"/>
-      <c r="U13" s="335"/>
+      <c r="R13" s="340"/>
+      <c r="T13" s="332"/>
+      <c r="U13" s="332"/>
       <c r="W13" s="164"/>
     </row>
     <row r="14" spans="1:23" s="168" customFormat="1" ht="15.75" customHeight="1">
@@ -48663,28 +48621,28 @@
       <c r="F14" s="201"/>
       <c r="G14" s="201"/>
       <c r="H14" s="201"/>
-      <c r="I14" s="334" t="s">
+      <c r="I14" s="341" t="s">
         <v>165</v>
       </c>
-      <c r="J14" s="334"/>
-      <c r="K14" s="334" t="s">
+      <c r="J14" s="341"/>
+      <c r="K14" s="341" t="s">
         <v>118</v>
       </c>
-      <c r="L14" s="334"/>
-      <c r="M14" s="334" t="s">
+      <c r="L14" s="341"/>
+      <c r="M14" s="341" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="334"/>
-      <c r="O14" s="334" t="s">
+      <c r="N14" s="341"/>
+      <c r="O14" s="341" t="s">
         <v>166</v>
       </c>
-      <c r="P14" s="334"/>
-      <c r="Q14" s="334" t="s">
+      <c r="P14" s="341"/>
+      <c r="Q14" s="341" t="s">
         <v>170</v>
       </c>
-      <c r="R14" s="334"/>
-      <c r="T14" s="335"/>
-      <c r="U14" s="335"/>
+      <c r="R14" s="341"/>
+      <c r="T14" s="332"/>
+      <c r="U14" s="332"/>
       <c r="W14" s="169"/>
     </row>
     <row r="15" spans="1:23" s="210" customFormat="1" ht="15.75" customHeight="1">
@@ -48693,26 +48651,26 @@
       <c r="F15" s="211"/>
       <c r="G15" s="211"/>
       <c r="H15" s="211"/>
-      <c r="I15" s="324"/>
-      <c r="J15" s="324"/>
-      <c r="K15" s="324" t="s">
+      <c r="I15" s="343"/>
+      <c r="J15" s="343"/>
+      <c r="K15" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="324"/>
-      <c r="M15" s="324" t="s">
+      <c r="L15" s="343"/>
+      <c r="M15" s="343" t="s">
         <v>171</v>
       </c>
-      <c r="N15" s="324"/>
-      <c r="O15" s="324" t="s">
+      <c r="N15" s="343"/>
+      <c r="O15" s="343" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="324"/>
-      <c r="Q15" s="339">
+      <c r="P15" s="343"/>
+      <c r="Q15" s="342">
         <v>44105</v>
       </c>
-      <c r="R15" s="324"/>
-      <c r="T15" s="335"/>
-      <c r="U15" s="335"/>
+      <c r="R15" s="343"/>
+      <c r="T15" s="332"/>
+      <c r="U15" s="332"/>
       <c r="W15" s="212"/>
     </row>
     <row r="16" spans="1:23" ht="21.75" customHeight="1">
@@ -48725,28 +48683,28 @@
       <c r="F16" s="200"/>
       <c r="G16" s="200"/>
       <c r="H16" s="200"/>
-      <c r="I16" s="321" t="s">
+      <c r="I16" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="322"/>
-      <c r="K16" s="323" t="s">
+      <c r="J16" s="345"/>
+      <c r="K16" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="323"/>
-      <c r="M16" s="323" t="s">
+      <c r="L16" s="339"/>
+      <c r="M16" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="323"/>
-      <c r="O16" s="323" t="s">
+      <c r="N16" s="339"/>
+      <c r="O16" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="323"/>
-      <c r="Q16" s="323" t="s">
+      <c r="P16" s="339"/>
+      <c r="Q16" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R16" s="323"/>
-      <c r="T16" s="335"/>
-      <c r="U16" s="335"/>
+      <c r="R16" s="339"/>
+      <c r="T16" s="332"/>
+      <c r="U16" s="332"/>
     </row>
     <row r="17" spans="2:23" ht="21.75" customHeight="1">
       <c r="D17" s="208">
@@ -48758,28 +48716,28 @@
       <c r="F17" s="200"/>
       <c r="G17" s="200"/>
       <c r="H17" s="200"/>
-      <c r="I17" s="321" t="s">
+      <c r="I17" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="322"/>
-      <c r="K17" s="323" t="s">
+      <c r="J17" s="345"/>
+      <c r="K17" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="323"/>
-      <c r="M17" s="323" t="s">
+      <c r="L17" s="339"/>
+      <c r="M17" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="N17" s="323"/>
-      <c r="O17" s="323" t="s">
+      <c r="N17" s="339"/>
+      <c r="O17" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="323"/>
-      <c r="Q17" s="323" t="s">
+      <c r="P17" s="339"/>
+      <c r="Q17" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R17" s="323"/>
-      <c r="T17" s="335"/>
-      <c r="U17" s="335"/>
+      <c r="R17" s="339"/>
+      <c r="T17" s="332"/>
+      <c r="U17" s="332"/>
     </row>
     <row r="18" spans="2:23" ht="21.75" customHeight="1">
       <c r="D18" s="208">
@@ -48791,28 +48749,28 @@
       <c r="F18" s="200"/>
       <c r="G18" s="200"/>
       <c r="H18" s="200"/>
-      <c r="I18" s="321" t="s">
+      <c r="I18" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="322"/>
-      <c r="K18" s="323" t="s">
+      <c r="J18" s="345"/>
+      <c r="K18" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L18" s="323"/>
-      <c r="M18" s="323" t="s">
+      <c r="L18" s="339"/>
+      <c r="M18" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="323"/>
-      <c r="O18" s="323" t="s">
+      <c r="N18" s="339"/>
+      <c r="O18" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="323"/>
-      <c r="Q18" s="323" t="s">
+      <c r="P18" s="339"/>
+      <c r="Q18" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R18" s="323"/>
-      <c r="T18" s="335"/>
-      <c r="U18" s="335"/>
+      <c r="R18" s="339"/>
+      <c r="T18" s="332"/>
+      <c r="U18" s="332"/>
     </row>
     <row r="19" spans="2:23" ht="21.75" customHeight="1">
       <c r="D19" s="208">
@@ -48824,28 +48782,28 @@
       <c r="F19" s="200"/>
       <c r="G19" s="200"/>
       <c r="H19" s="200"/>
-      <c r="I19" s="321" t="s">
+      <c r="I19" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="322"/>
-      <c r="K19" s="323" t="s">
+      <c r="J19" s="345"/>
+      <c r="K19" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="323"/>
-      <c r="M19" s="325" t="s">
+      <c r="L19" s="339"/>
+      <c r="M19" s="348" t="s">
         <v>116</v>
       </c>
-      <c r="N19" s="325"/>
-      <c r="O19" s="323" t="s">
+      <c r="N19" s="348"/>
+      <c r="O19" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="323"/>
-      <c r="Q19" s="323" t="s">
+      <c r="P19" s="339"/>
+      <c r="Q19" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R19" s="323"/>
-      <c r="T19" s="335"/>
-      <c r="U19" s="335"/>
+      <c r="R19" s="339"/>
+      <c r="T19" s="332"/>
+      <c r="U19" s="332"/>
     </row>
     <row r="20" spans="2:23" ht="21.75" customHeight="1">
       <c r="D20" s="208">
@@ -48857,28 +48815,28 @@
       <c r="F20" s="200"/>
       <c r="G20" s="200"/>
       <c r="H20" s="200"/>
-      <c r="I20" s="321" t="s">
+      <c r="I20" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="322"/>
-      <c r="K20" s="323" t="s">
+      <c r="J20" s="345"/>
+      <c r="K20" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="323"/>
-      <c r="M20" s="323" t="s">
+      <c r="L20" s="339"/>
+      <c r="M20" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="323"/>
-      <c r="O20" s="323" t="s">
+      <c r="N20" s="339"/>
+      <c r="O20" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="323"/>
-      <c r="Q20" s="323" t="s">
+      <c r="P20" s="339"/>
+      <c r="Q20" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R20" s="323"/>
-      <c r="T20" s="335"/>
-      <c r="U20" s="335"/>
+      <c r="R20" s="339"/>
+      <c r="T20" s="332"/>
+      <c r="U20" s="332"/>
     </row>
     <row r="21" spans="2:23" ht="21.75" customHeight="1">
       <c r="D21" s="208">
@@ -48890,26 +48848,26 @@
       <c r="F21" s="200"/>
       <c r="G21" s="200"/>
       <c r="H21" s="200"/>
-      <c r="I21" s="321" t="s">
+      <c r="I21" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="322"/>
-      <c r="K21" s="323" t="s">
+      <c r="J21" s="345"/>
+      <c r="K21" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L21" s="323"/>
-      <c r="M21" s="325" t="s">
+      <c r="L21" s="339"/>
+      <c r="M21" s="348" t="s">
         <v>116</v>
       </c>
-      <c r="N21" s="326"/>
-      <c r="O21" s="323" t="s">
+      <c r="N21" s="353"/>
+      <c r="O21" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="323"/>
-      <c r="Q21" s="323" t="s">
+      <c r="P21" s="339"/>
+      <c r="Q21" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R21" s="323"/>
+      <c r="R21" s="339"/>
     </row>
     <row r="22" spans="2:23" ht="21.75" customHeight="1">
       <c r="D22" s="208">
@@ -48921,26 +48879,26 @@
       <c r="F22" s="200"/>
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
-      <c r="I22" s="321" t="s">
+      <c r="I22" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="322"/>
-      <c r="K22" s="323" t="s">
+      <c r="J22" s="345"/>
+      <c r="K22" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="323"/>
-      <c r="M22" s="325" t="s">
+      <c r="L22" s="339"/>
+      <c r="M22" s="348" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="325"/>
-      <c r="O22" s="323" t="s">
+      <c r="N22" s="348"/>
+      <c r="O22" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="323"/>
-      <c r="Q22" s="323" t="s">
+      <c r="P22" s="339"/>
+      <c r="Q22" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R22" s="323"/>
+      <c r="R22" s="339"/>
     </row>
     <row r="23" spans="2:23" ht="21.75" customHeight="1">
       <c r="D23" s="208">
@@ -48952,26 +48910,26 @@
       <c r="F23" s="200"/>
       <c r="G23" s="200"/>
       <c r="H23" s="200"/>
-      <c r="I23" s="321" t="s">
+      <c r="I23" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="322"/>
-      <c r="K23" s="323" t="s">
+      <c r="J23" s="345"/>
+      <c r="K23" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="323"/>
-      <c r="M23" s="323" t="s">
+      <c r="L23" s="339"/>
+      <c r="M23" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="323"/>
-      <c r="O23" s="323" t="s">
+      <c r="N23" s="339"/>
+      <c r="O23" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="323"/>
-      <c r="Q23" s="323" t="s">
+      <c r="P23" s="339"/>
+      <c r="Q23" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="323"/>
+      <c r="R23" s="339"/>
     </row>
     <row r="24" spans="2:23" ht="21.75" customHeight="1">
       <c r="D24" s="208">
@@ -48983,26 +48941,26 @@
       <c r="F24" s="200"/>
       <c r="G24" s="200"/>
       <c r="H24" s="200"/>
-      <c r="I24" s="321" t="s">
+      <c r="I24" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="322"/>
-      <c r="K24" s="323" t="s">
+      <c r="J24" s="345"/>
+      <c r="K24" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="323"/>
-      <c r="M24" s="323" t="s">
+      <c r="L24" s="339"/>
+      <c r="M24" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="323"/>
-      <c r="O24" s="323" t="s">
+      <c r="N24" s="339"/>
+      <c r="O24" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="323"/>
-      <c r="Q24" s="323" t="s">
+      <c r="P24" s="339"/>
+      <c r="Q24" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R24" s="323"/>
+      <c r="R24" s="339"/>
     </row>
     <row r="25" spans="2:23" ht="21.75" customHeight="1">
       <c r="D25" s="208">
@@ -49014,34 +48972,34 @@
       <c r="F25" s="200"/>
       <c r="G25" s="200"/>
       <c r="H25" s="200"/>
-      <c r="I25" s="321" t="s">
+      <c r="I25" s="344" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="322"/>
-      <c r="K25" s="323" t="s">
+      <c r="J25" s="345"/>
+      <c r="K25" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="323"/>
-      <c r="M25" s="323" t="s">
+      <c r="L25" s="339"/>
+      <c r="M25" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="323"/>
-      <c r="O25" s="323" t="s">
+      <c r="N25" s="339"/>
+      <c r="O25" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="323"/>
-      <c r="Q25" s="323" t="s">
+      <c r="P25" s="339"/>
+      <c r="Q25" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="R25" s="323"/>
+      <c r="R25" s="339"/>
     </row>
     <row r="26" spans="2:23" ht="21.75" customHeight="1">
       <c r="F26" s="202"/>
       <c r="G26" s="202"/>
       <c r="H26" s="202"/>
       <c r="I26" s="202"/>
-      <c r="J26" s="327"/>
-      <c r="K26" s="327"/>
+      <c r="J26" s="352"/>
+      <c r="K26" s="352"/>
       <c r="L26" s="204"/>
       <c r="M26" s="203"/>
       <c r="N26" s="204"/>
@@ -49077,18 +49035,18 @@
       <c r="G28" s="167"/>
     </row>
     <row r="29" spans="2:23" s="163" customFormat="1" ht="21.75" customHeight="1">
-      <c r="I29" s="466"/>
-      <c r="J29" s="466"/>
-      <c r="K29" s="466"/>
-      <c r="L29" s="466"/>
-      <c r="M29" s="467"/>
-      <c r="N29" s="467"/>
-      <c r="O29" s="467"/>
-      <c r="P29" s="467"/>
-      <c r="Q29" s="467"/>
-      <c r="R29" s="467"/>
-      <c r="T29" s="335"/>
-      <c r="U29" s="335"/>
+      <c r="I29" s="336"/>
+      <c r="J29" s="336"/>
+      <c r="K29" s="336"/>
+      <c r="L29" s="336"/>
+      <c r="M29" s="331"/>
+      <c r="N29" s="331"/>
+      <c r="O29" s="331"/>
+      <c r="P29" s="331"/>
+      <c r="Q29" s="331"/>
+      <c r="R29" s="331"/>
+      <c r="T29" s="332"/>
+      <c r="U29" s="332"/>
       <c r="W29" s="164"/>
     </row>
     <row r="30" spans="2:23" s="168" customFormat="1" ht="15.75" customHeight="1">
@@ -49097,50 +49055,50 @@
       <c r="F30" s="314"/>
       <c r="G30" s="314"/>
       <c r="H30" s="314"/>
-      <c r="I30" s="468"/>
-      <c r="J30" s="468"/>
-      <c r="K30" s="468"/>
-      <c r="L30" s="468"/>
-      <c r="M30" s="468"/>
-      <c r="N30" s="468"/>
-      <c r="O30" s="479"/>
-      <c r="P30" s="479"/>
-      <c r="Q30" s="479"/>
-      <c r="R30" s="479"/>
-      <c r="T30" s="335"/>
-      <c r="U30" s="335"/>
+      <c r="I30" s="333"/>
+      <c r="J30" s="333"/>
+      <c r="K30" s="333"/>
+      <c r="L30" s="333"/>
+      <c r="M30" s="333"/>
+      <c r="N30" s="333"/>
+      <c r="O30" s="328"/>
+      <c r="P30" s="328"/>
+      <c r="Q30" s="328"/>
+      <c r="R30" s="328"/>
+      <c r="T30" s="332"/>
+      <c r="U30" s="332"/>
       <c r="W30" s="169"/>
     </row>
-    <row r="31" spans="2:23" s="471" customFormat="1" ht="26.25" customHeight="1">
+    <row r="31" spans="2:23" s="322" customFormat="1" ht="26.25" customHeight="1">
       <c r="D31" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="338" t="s">
+      <c r="E31" s="335" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="338"/>
-      <c r="G31" s="338"/>
-      <c r="H31" s="338"/>
-      <c r="I31" s="472"/>
-      <c r="J31" s="472"/>
-      <c r="K31" s="477" t="s">
+      <c r="F31" s="335"/>
+      <c r="G31" s="335"/>
+      <c r="H31" s="335"/>
+      <c r="I31" s="334"/>
+      <c r="J31" s="334"/>
+      <c r="K31" s="326" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="477"/>
-      <c r="M31" s="477" t="s">
+      <c r="L31" s="326"/>
+      <c r="M31" s="326" t="s">
         <v>314</v>
       </c>
-      <c r="N31" s="477"/>
+      <c r="N31" s="326"/>
       <c r="O31" s="199"/>
       <c r="P31" s="199"/>
       <c r="Q31" s="199"/>
       <c r="R31" s="199"/>
-      <c r="T31" s="335"/>
-      <c r="U31" s="335"/>
-      <c r="W31" s="473"/>
+      <c r="T31" s="332"/>
+      <c r="U31" s="332"/>
+      <c r="W31" s="323"/>
     </row>
     <row r="32" spans="2:23" ht="21.75" customHeight="1">
-      <c r="D32" s="470">
+      <c r="D32" s="321">
         <v>1</v>
       </c>
       <c r="E32" s="200" t="s">
@@ -49149,13 +49107,13 @@
       <c r="F32" s="200"/>
       <c r="G32" s="200"/>
       <c r="H32" s="200"/>
-      <c r="I32" s="469"/>
-      <c r="J32" s="474"/>
-      <c r="K32" s="475" t="s">
+      <c r="I32" s="329"/>
+      <c r="J32" s="330"/>
+      <c r="K32" s="324" t="s">
         <v>311</v>
       </c>
-      <c r="L32" s="476"/>
-      <c r="M32" s="478">
+      <c r="L32" s="325"/>
+      <c r="M32" s="327">
         <v>43383</v>
       </c>
       <c r="N32" s="200"/>
@@ -49163,11 +49121,11 @@
       <c r="P32" s="202"/>
       <c r="Q32" s="202"/>
       <c r="R32" s="202"/>
-      <c r="T32" s="335"/>
-      <c r="U32" s="335"/>
+      <c r="T32" s="332"/>
+      <c r="U32" s="332"/>
     </row>
     <row r="33" spans="4:21" ht="21.75" customHeight="1">
-      <c r="D33" s="470">
+      <c r="D33" s="321">
         <v>2</v>
       </c>
       <c r="E33" s="200" t="s">
@@ -49176,13 +49134,13 @@
       <c r="F33" s="200"/>
       <c r="G33" s="200"/>
       <c r="H33" s="200"/>
-      <c r="I33" s="469"/>
-      <c r="J33" s="474"/>
-      <c r="K33" s="475" t="s">
+      <c r="I33" s="329"/>
+      <c r="J33" s="330"/>
+      <c r="K33" s="324" t="s">
         <v>312</v>
       </c>
-      <c r="L33" s="476"/>
-      <c r="M33" s="478">
+      <c r="L33" s="325"/>
+      <c r="M33" s="327">
         <v>43384</v>
       </c>
       <c r="N33" s="200"/>
@@ -49190,11 +49148,11 @@
       <c r="P33" s="202"/>
       <c r="Q33" s="202"/>
       <c r="R33" s="202"/>
-      <c r="T33" s="335"/>
-      <c r="U33" s="335"/>
+      <c r="T33" s="332"/>
+      <c r="U33" s="332"/>
     </row>
     <row r="34" spans="4:21" ht="21.75" customHeight="1">
-      <c r="D34" s="470">
+      <c r="D34" s="321">
         <v>3</v>
       </c>
       <c r="E34" s="200" t="s">
@@ -49203,13 +49161,13 @@
       <c r="F34" s="200"/>
       <c r="G34" s="200"/>
       <c r="H34" s="200"/>
-      <c r="I34" s="469"/>
-      <c r="J34" s="474"/>
-      <c r="K34" s="475" t="s">
+      <c r="I34" s="329"/>
+      <c r="J34" s="330"/>
+      <c r="K34" s="324" t="s">
         <v>311</v>
       </c>
-      <c r="L34" s="476"/>
-      <c r="M34" s="478">
+      <c r="L34" s="325"/>
+      <c r="M34" s="327">
         <v>43385</v>
       </c>
       <c r="N34" s="200"/>
@@ -49217,11 +49175,11 @@
       <c r="P34" s="202"/>
       <c r="Q34" s="202"/>
       <c r="R34" s="202"/>
-      <c r="T34" s="335"/>
-      <c r="U34" s="335"/>
+      <c r="T34" s="332"/>
+      <c r="U34" s="332"/>
     </row>
     <row r="35" spans="4:21" ht="21.75" customHeight="1">
-      <c r="D35" s="470">
+      <c r="D35" s="321">
         <v>4</v>
       </c>
       <c r="E35" s="200" t="s">
@@ -49230,13 +49188,13 @@
       <c r="F35" s="200"/>
       <c r="G35" s="200"/>
       <c r="H35" s="200"/>
-      <c r="I35" s="469"/>
-      <c r="J35" s="474"/>
-      <c r="K35" s="475" t="s">
+      <c r="I35" s="329"/>
+      <c r="J35" s="330"/>
+      <c r="K35" s="324" t="s">
         <v>311</v>
       </c>
-      <c r="L35" s="476"/>
-      <c r="M35" s="478">
+      <c r="L35" s="325"/>
+      <c r="M35" s="327">
         <v>43386</v>
       </c>
       <c r="N35" s="200"/>
@@ -49244,11 +49202,11 @@
       <c r="P35" s="202"/>
       <c r="Q35" s="202"/>
       <c r="R35" s="202"/>
-      <c r="T35" s="335"/>
-      <c r="U35" s="335"/>
+      <c r="T35" s="332"/>
+      <c r="U35" s="332"/>
     </row>
     <row r="36" spans="4:21" ht="21.75" customHeight="1">
-      <c r="D36" s="470">
+      <c r="D36" s="321">
         <v>5</v>
       </c>
       <c r="E36" s="200" t="s">
@@ -49257,13 +49215,13 @@
       <c r="F36" s="200"/>
       <c r="G36" s="200"/>
       <c r="H36" s="200"/>
-      <c r="I36" s="469"/>
-      <c r="J36" s="474"/>
-      <c r="K36" s="475" t="s">
+      <c r="I36" s="329"/>
+      <c r="J36" s="330"/>
+      <c r="K36" s="324" t="s">
         <v>313</v>
       </c>
-      <c r="L36" s="476"/>
-      <c r="M36" s="478">
+      <c r="L36" s="325"/>
+      <c r="M36" s="327">
         <v>43387</v>
       </c>
       <c r="N36" s="200"/>
@@ -49271,11 +49229,11 @@
       <c r="P36" s="202"/>
       <c r="Q36" s="202"/>
       <c r="R36" s="202"/>
-      <c r="T36" s="335"/>
-      <c r="U36" s="335"/>
+      <c r="T36" s="332"/>
+      <c r="U36" s="332"/>
     </row>
     <row r="37" spans="4:21" ht="21.75" customHeight="1">
-      <c r="D37" s="470">
+      <c r="D37" s="321">
         <v>6</v>
       </c>
       <c r="E37" s="200" t="s">
@@ -49284,13 +49242,13 @@
       <c r="F37" s="200"/>
       <c r="G37" s="200"/>
       <c r="H37" s="200"/>
-      <c r="I37" s="469"/>
-      <c r="J37" s="474"/>
-      <c r="K37" s="475" t="s">
+      <c r="I37" s="329"/>
+      <c r="J37" s="330"/>
+      <c r="K37" s="324" t="s">
         <v>312</v>
       </c>
-      <c r="L37" s="476"/>
-      <c r="M37" s="478">
+      <c r="L37" s="325"/>
+      <c r="M37" s="327">
         <v>43388</v>
       </c>
       <c r="N37" s="200"/>
@@ -49300,7 +49258,7 @@
       <c r="R37" s="202"/>
     </row>
     <row r="38" spans="4:21" ht="21.75" customHeight="1">
-      <c r="D38" s="470">
+      <c r="D38" s="321">
         <v>7</v>
       </c>
       <c r="E38" s="200" t="s">
@@ -49309,13 +49267,13 @@
       <c r="F38" s="200"/>
       <c r="G38" s="200"/>
       <c r="H38" s="200"/>
-      <c r="I38" s="469"/>
-      <c r="J38" s="474"/>
-      <c r="K38" s="475" t="s">
+      <c r="I38" s="329"/>
+      <c r="J38" s="330"/>
+      <c r="K38" s="324" t="s">
         <v>312</v>
       </c>
-      <c r="L38" s="476"/>
-      <c r="M38" s="478">
+      <c r="L38" s="325"/>
+      <c r="M38" s="327">
         <v>43389</v>
       </c>
       <c r="N38" s="200"/>
@@ -49325,7 +49283,7 @@
       <c r="R38" s="202"/>
     </row>
     <row r="39" spans="4:21" ht="21.75" customHeight="1">
-      <c r="D39" s="470">
+      <c r="D39" s="321">
         <v>8</v>
       </c>
       <c r="E39" s="200" t="s">
@@ -49334,13 +49292,13 @@
       <c r="F39" s="200"/>
       <c r="G39" s="200"/>
       <c r="H39" s="200"/>
-      <c r="I39" s="469"/>
-      <c r="J39" s="474"/>
-      <c r="K39" s="475" t="s">
+      <c r="I39" s="329"/>
+      <c r="J39" s="330"/>
+      <c r="K39" s="324" t="s">
         <v>312</v>
       </c>
-      <c r="L39" s="476"/>
-      <c r="M39" s="478">
+      <c r="L39" s="325"/>
+      <c r="M39" s="327">
         <v>43390</v>
       </c>
       <c r="N39" s="200"/>
@@ -49350,7 +49308,7 @@
       <c r="R39" s="202"/>
     </row>
     <row r="40" spans="4:21" ht="21.75" customHeight="1">
-      <c r="D40" s="470">
+      <c r="D40" s="321">
         <v>9</v>
       </c>
       <c r="E40" s="200" t="s">
@@ -49359,13 +49317,13 @@
       <c r="F40" s="200"/>
       <c r="G40" s="200"/>
       <c r="H40" s="200"/>
-      <c r="I40" s="469"/>
-      <c r="J40" s="474"/>
-      <c r="K40" s="475" t="s">
+      <c r="I40" s="329"/>
+      <c r="J40" s="330"/>
+      <c r="K40" s="324" t="s">
         <v>311</v>
       </c>
-      <c r="L40" s="476"/>
-      <c r="M40" s="478">
+      <c r="L40" s="325"/>
+      <c r="M40" s="327">
         <v>43391</v>
       </c>
       <c r="N40" s="200"/>
@@ -49375,7 +49333,7 @@
       <c r="R40" s="202"/>
     </row>
     <row r="41" spans="4:21" ht="21.75" customHeight="1">
-      <c r="D41" s="470">
+      <c r="D41" s="321">
         <v>10</v>
       </c>
       <c r="E41" s="200" t="s">
@@ -49384,13 +49342,13 @@
       <c r="F41" s="200"/>
       <c r="G41" s="200"/>
       <c r="H41" s="200"/>
-      <c r="I41" s="469"/>
-      <c r="J41" s="474"/>
-      <c r="K41" s="475" t="s">
+      <c r="I41" s="329"/>
+      <c r="J41" s="330"/>
+      <c r="K41" s="324" t="s">
         <v>311</v>
       </c>
-      <c r="L41" s="476"/>
-      <c r="M41" s="478">
+      <c r="L41" s="325"/>
+      <c r="M41" s="327">
         <v>43392</v>
       </c>
       <c r="N41" s="200"/>
@@ -49411,27 +49369,64 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:U36"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="T13:U20"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="T10:U10"/>
@@ -49448,64 +49443,27 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="T29:U36"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I37:J37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49580,18 +49538,18 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="342"/>
-      <c r="B4" s="342"/>
-      <c r="C4" s="342"/>
-      <c r="D4" s="342"/>
-      <c r="E4" s="342"/>
-      <c r="F4" s="342"/>
-      <c r="G4" s="342"/>
-      <c r="H4" s="342"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
-      <c r="K4" s="342"/>
-      <c r="L4" s="342"/>
+      <c r="A4" s="357"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="357"/>
+      <c r="H4" s="357"/>
+      <c r="I4" s="357"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="357"/>
+      <c r="L4" s="357"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -49627,112 +49585,112 @@
       <c r="S6" s="170"/>
     </row>
     <row r="8" spans="1:23" ht="43.5" customHeight="1">
-      <c r="D8" s="343" t="s">
+      <c r="D8" s="355" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="343"/>
-      <c r="F8" s="343" t="s">
+      <c r="E8" s="355"/>
+      <c r="F8" s="355" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="343"/>
-      <c r="H8" s="344" t="s">
+      <c r="G8" s="355"/>
+      <c r="H8" s="358" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="344"/>
-      <c r="N8" s="344" t="s">
+      <c r="I8" s="358"/>
+      <c r="J8" s="358"/>
+      <c r="K8" s="358"/>
+      <c r="L8" s="358"/>
+      <c r="M8" s="358"/>
+      <c r="N8" s="358" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="344"/>
-      <c r="P8" s="343" t="s">
+      <c r="O8" s="358"/>
+      <c r="P8" s="355" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="343"/>
-      <c r="R8" s="343" t="s">
+      <c r="Q8" s="355"/>
+      <c r="R8" s="355" t="s">
         <v>119</v>
       </c>
-      <c r="S8" s="343"/>
+      <c r="S8" s="355"/>
     </row>
     <row r="9" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D9" s="340" t="s">
+      <c r="D9" s="354" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="340"/>
-      <c r="F9" s="340"/>
-      <c r="G9" s="340"/>
-      <c r="H9" s="340" t="s">
+      <c r="E9" s="354"/>
+      <c r="F9" s="354"/>
+      <c r="G9" s="354"/>
+      <c r="H9" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="340"/>
-      <c r="J9" s="340"/>
-      <c r="K9" s="340"/>
-      <c r="L9" s="340"/>
-      <c r="M9" s="340"/>
-      <c r="N9" s="340" t="s">
+      <c r="I9" s="354"/>
+      <c r="J9" s="354"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="354"/>
+      <c r="M9" s="354"/>
+      <c r="N9" s="354" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="340"/>
-      <c r="P9" s="341">
+      <c r="O9" s="354"/>
+      <c r="P9" s="356">
         <v>43185</v>
       </c>
-      <c r="Q9" s="340"/>
-      <c r="R9" s="340"/>
-      <c r="S9" s="340"/>
+      <c r="Q9" s="354"/>
+      <c r="R9" s="354"/>
+      <c r="S9" s="354"/>
     </row>
     <row r="10" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D10" s="340" t="s">
+      <c r="D10" s="354" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="340"/>
-      <c r="F10" s="340"/>
-      <c r="G10" s="340"/>
-      <c r="H10" s="340" t="s">
+      <c r="E10" s="354"/>
+      <c r="F10" s="354"/>
+      <c r="G10" s="354"/>
+      <c r="H10" s="354" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="340"/>
-      <c r="J10" s="340"/>
-      <c r="K10" s="340"/>
-      <c r="L10" s="340"/>
-      <c r="M10" s="340"/>
-      <c r="N10" s="340" t="s">
+      <c r="I10" s="354"/>
+      <c r="J10" s="354"/>
+      <c r="K10" s="354"/>
+      <c r="L10" s="354"/>
+      <c r="M10" s="354"/>
+      <c r="N10" s="354" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="340"/>
-      <c r="P10" s="341">
+      <c r="O10" s="354"/>
+      <c r="P10" s="356">
         <v>43185</v>
       </c>
-      <c r="Q10" s="340"/>
-      <c r="R10" s="340"/>
-      <c r="S10" s="340"/>
+      <c r="Q10" s="354"/>
+      <c r="R10" s="354"/>
+      <c r="S10" s="354"/>
     </row>
     <row r="11" spans="1:23" ht="69.75" customHeight="1">
-      <c r="D11" s="340" t="s">
+      <c r="D11" s="354" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="340"/>
-      <c r="F11" s="340"/>
-      <c r="G11" s="340"/>
-      <c r="H11" s="340" t="s">
+      <c r="E11" s="354"/>
+      <c r="F11" s="354"/>
+      <c r="G11" s="354"/>
+      <c r="H11" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="340"/>
-      <c r="J11" s="340"/>
-      <c r="K11" s="340"/>
-      <c r="L11" s="340"/>
-      <c r="M11" s="340"/>
-      <c r="N11" s="340" t="s">
+      <c r="I11" s="354"/>
+      <c r="J11" s="354"/>
+      <c r="K11" s="354"/>
+      <c r="L11" s="354"/>
+      <c r="M11" s="354"/>
+      <c r="N11" s="354" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="340"/>
-      <c r="P11" s="341">
+      <c r="O11" s="354"/>
+      <c r="P11" s="356">
         <v>43185</v>
       </c>
-      <c r="Q11" s="340"/>
-      <c r="R11" s="340"/>
-      <c r="S11" s="340"/>
+      <c r="Q11" s="354"/>
+      <c r="R11" s="354"/>
+      <c r="S11" s="354"/>
     </row>
     <row r="12" spans="1:23" ht="69.75" customHeight="1"/>
     <row r="13" spans="1:23" ht="69.75" customHeight="1"/>
@@ -49758,6 +49716,18 @@
     <row r="33" ht="69.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="P8:Q8"/>
@@ -49771,18 +49741,6 @@
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50523,12 +50481,12 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:18" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="C19" s="346" t="s">
+      <c r="C19" s="360" t="s">
         <v>306</v>
       </c>
-      <c r="D19" s="347"/>
-      <c r="E19" s="347"/>
-      <c r="F19" s="348"/>
+      <c r="D19" s="361"/>
+      <c r="E19" s="361"/>
+      <c r="F19" s="362"/>
       <c r="G19" s="40"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -50611,8 +50569,8 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:18" s="1" customFormat="1" ht="39" customHeight="1">
-      <c r="B25" s="345"/>
-      <c r="C25" s="345"/>
+      <c r="B25" s="359"/>
+      <c r="C25" s="359"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
